--- a/src/test/resources/com/ugapp/excel/testdata.xlsx
+++ b/src/test/resources/com/ugapp/excel/testdata.xlsx
@@ -3,12 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\UGapp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C880731-C86C-49EB-87F8-747084AE36C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AD02757C-5B94-47D8-B9A0-721E2FC16B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +13,7 @@
     <sheet name="CreateAccountTest" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="HlaChI891gGz17+51dPFo8qf561pCnka8lvLU1BAhSA="/>
@@ -27,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>TCID</t>
   </si>
@@ -74,13 +70,10 @@
     <t>Testug</t>
   </si>
   <si>
-    <t>Testug@asu.edu</t>
-  </si>
-  <si>
-    <t>TEST123123123</t>
-  </si>
-  <si>
-    <t>Test12</t>
+    <t>testug@test.asu.edu</t>
+  </si>
+  <si>
+    <t>testug@asu.edu</t>
   </si>
 </sst>
 </file>
@@ -98,37 +91,34 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,15 +140,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -461,10 +452,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -493,100 +484,80 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{829B1134-51DA-4036-841F-87975DF98B0B}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{D78C28E5-1EC6-4FFC-9475-E245F3982598}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{768486F4-5B12-4B65-8F49-667B2632A759}"/>
-    <hyperlink ref="A6" r:id="rId4" xr:uid="{495326F2-5F66-4FE0-970B-D1157C9DF3C5}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{70F5085C-BE38-4EB3-A3DC-F3494B759FB1}"/>
-    <hyperlink ref="B5" r:id="rId6" xr:uid="{03FD5B89-D1E2-45A5-9AA2-EABA74DFBBEE}"/>
-    <hyperlink ref="B4" r:id="rId7" xr:uid="{D1088D73-B312-4478-B0A4-01AFD275AC59}"/>
-    <hyperlink ref="B6" r:id="rId8" xr:uid="{450D01D8-C195-4412-B4A3-BBF48F5702F0}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{25E016FA-2D03-44C5-B186-5699102F8FAA}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{C3E9831C-B7FE-4F7E-A83C-696EDFC5C780}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{E0711331-B2A1-49E4-90B3-B05126639987}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{D1D995E1-F7FF-4ACB-B614-825B2EA5A2A3}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{608E3CD1-3B3E-407C-89A3-7049494CAEE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/src/test/resources/com/ugapp/excel/testdata.xlsx
+++ b/src/test/resources/com/ugapp/excel/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB62307-165D-44D8-ADB9-91E12AAAA6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E911BC0-11AE-4690-8755-F08EF122E748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="108" windowWidth="17280" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
   <si>
     <t>TCID</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>testug@test.asu.edu</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Testug@1test.asu.edu</t>
   </si>
 </sst>
 </file>
@@ -397,10 +403,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -410,7 +416,7 @@
     <col min="3" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -421,7 +427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -433,14 +439,34 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{762CACF4-C0C3-4181-A5C7-AAB3826ABC7F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -451,7 +477,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/com/ugapp/excel/testdata.xlsx
+++ b/src/test/resources/com/ugapp/excel/testdata.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E911BC0-11AE-4690-8755-F08EF122E748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4ADB81-6C9D-4388-85DF-93B1D78C2D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="108" windowWidth="17280" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="1" r:id="rId1"/>
     <sheet name="LoginTest" sheetId="2" r:id="rId2"/>
-    <sheet name="CreateAccountTest" sheetId="3" r:id="rId3"/>
+    <sheet name="PreAppDashboardTest" sheetId="4" r:id="rId3"/>
+    <sheet name="CreateAccountTest" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
   <si>
     <t>TCID</t>
   </si>
@@ -75,17 +76,60 @@
   </si>
   <si>
     <t>Testug@1test.asu.edu</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test@</t>
+  </si>
+  <si>
+    <t>TestTestTestTestTestTestTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test </t>
+  </si>
+  <si>
+    <t>Test FN</t>
+  </si>
+  <si>
+    <t>Test LN</t>
+  </si>
+  <si>
+    <t>preferredfirstname</t>
+  </si>
+  <si>
+    <t>middlename</t>
+  </si>
+  <si>
+    <t>Automation MN</t>
+  </si>
+  <si>
+    <t>Automation PFN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,6 +160,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -136,15 +186,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -405,7 +457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -473,11 +525,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E192C25B-B575-46AE-8D21-8EB8EB421BC6}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{487C6BFD-5D28-44AE-A3E6-BA8929506A1F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E1" sqref="E1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/com/ugapp/excel/testdata.xlsx
+++ b/src/test/resources/com/ugapp/excel/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4ADB81-6C9D-4388-85DF-93B1D78C2D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F751A11-1196-444C-81F9-B39218A00CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1548" yWindow="936" windowWidth="17280" windowHeight="8976" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
   <si>
     <t>TCID</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Automation PFN</t>
+  </si>
+  <si>
+    <t>TestTestTestTestTestTestTestTest</t>
   </si>
 </sst>
 </file>
@@ -529,7 +532,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>

--- a/src/test/resources/com/ugapp/excel/testdata.xlsx
+++ b/src/test/resources/com/ugapp/excel/testdata.xlsx
@@ -11,19 +11,22 @@
     <sheet state="visible" name="ParentNameTest" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="HomeAddressTest" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="GraduatingSchoolTest" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="AddMaxHighSchoolTest" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="overAllAcademicsTest" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="CollegeUniversitiesTest" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="zvf85Tb9tE6Tzzo3ZupPIWJYwE1AZdUSr5AwhPYusBk="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataChecksum="nTjTPFs4PeJc1XhSrf2ywoIUDAXvkGnwMptKrxrCv0s="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="97">
   <si>
     <t>TCID</t>
   </si>
@@ -52,6 +55,15 @@
     <t>GraduatingSchoolTest</t>
   </si>
   <si>
+    <t>AddMaxHighSchoolTest</t>
+  </si>
+  <si>
+    <t>CollegeUniversitiesTest</t>
+  </si>
+  <si>
+    <t>overAllAcademicsTest</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
@@ -118,6 +130,9 @@
     <t>repassword</t>
   </si>
   <si>
+    <t>embtest@test.asu.edu</t>
+  </si>
+  <si>
     <t>test123123123</t>
   </si>
   <si>
@@ -160,6 +175,12 @@
     <t>I</t>
   </si>
   <si>
+    <t>Test First Name</t>
+  </si>
+  <si>
+    <t>Test Last Name</t>
+  </si>
+  <si>
     <t>TestTestTestTestTestTestTestTestTestTestTestTestTestTestTest</t>
   </si>
   <si>
@@ -214,12 +235,18 @@
     <t>Test City</t>
   </si>
   <si>
-    <t>123456-78910</t>
+    <t>12345-678910</t>
   </si>
   <si>
     <t>Test State</t>
   </si>
   <si>
+    <t>11111111111</t>
+  </si>
+  <si>
+    <t>0000000000</t>
+  </si>
+  <si>
     <t>SAISno</t>
   </si>
   <si>
@@ -229,14 +256,74 @@
     <t>testtesttesttesttesttesttesttest</t>
   </si>
   <si>
+    <t>12345678910</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
     <t>Test School</t>
+  </si>
+  <si>
+    <t>1234567891</t>
+  </si>
+  <si>
+    <t>Test School A</t>
+  </si>
+  <si>
+    <t>Test School B</t>
+  </si>
+  <si>
+    <t>Test School C</t>
+  </si>
+  <si>
+    <t>Test School D</t>
+  </si>
+  <si>
+    <t>Test School E</t>
+  </si>
+  <si>
+    <t>Test School F</t>
+  </si>
+  <si>
+    <t>Test School G</t>
+  </si>
+  <si>
+    <t>Test School H</t>
+  </si>
+  <si>
+    <t>Test School I</t>
+  </si>
+  <si>
+    <t>unweightedGPA</t>
+  </si>
+  <si>
+    <t>classrank</t>
+  </si>
+  <si>
+    <t>classSize</t>
+  </si>
+  <si>
+    <t>Institution_name</t>
+  </si>
+  <si>
+    <t>Degree_Concentration</t>
+  </si>
+  <si>
+    <t>testtesttesttesttesttesttesttesttesttesttesttesttesttesttest</t>
+  </si>
+  <si>
+    <t>Test Institution</t>
+  </si>
+  <si>
+    <t>Test Degree</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -285,6 +372,12 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -306,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -323,10 +416,16 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -338,6 +437,14 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -366,6 +473,10 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -634,16 +745,28 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
@@ -4621,6 +4744,177 @@
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="12">
+        <v>1234567.0</v>
+      </c>
+      <c r="B3" s="12">
+        <v>12345.0</v>
+      </c>
+      <c r="C3" s="11">
+        <v>12345.0</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="12">
+        <v>11.0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="B6" s="12">
+        <v>11.0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>11.0</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="31.0"/>
+    <col customWidth="1" min="2" max="2" width="27.43"/>
+    <col customWidth="1" min="3" max="3" width="51.0"/>
+    <col customWidth="1" min="4" max="4" width="22.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -4642,10 +4936,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4653,10 +4947,10 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -4664,10 +4958,10 @@
     </row>
     <row r="3" ht="15.0" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>3</v>
@@ -4675,10 +4969,10 @@
     </row>
     <row r="4" ht="15.0" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>3</v>
@@ -4714,16 +5008,16 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -4731,16 +5025,16 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -4748,16 +5042,16 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
@@ -4765,16 +5059,16 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
@@ -4782,16 +5076,16 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
@@ -4799,16 +5093,16 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>3</v>
@@ -4843,84 +5137,84 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>14</v>
+      <c r="A3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
+      <c r="A4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
+      <c r="A5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
@@ -4949,11 +5243,11 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>34</v>
+      <c r="A1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4961,10 +5255,10 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -4972,10 +5266,10 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -4983,10 +5277,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -4994,120 +5288,120 @@
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>36</v>
+      <c r="A6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>37</v>
+      <c r="A7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>38</v>
+      <c r="A8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="B9" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>40</v>
+      <c r="A10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>41</v>
+      <c r="A11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>42</v>
+      <c r="A12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>43</v>
+      <c r="A13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>44</v>
+      <c r="A14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>28</v>
+      <c r="A15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
@@ -5136,11 +5430,11 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>34</v>
+      <c r="A1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -5148,10 +5442,10 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -5159,43 +5453,43 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>45</v>
+      <c r="A4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>47</v>
+      <c r="A5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>48</v>
+      <c r="A6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -5228,78 +5522,80 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="B1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="A2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="11">
-        <v>1.1111111111E10</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="10" t="s">
+      <c r="A3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5325,53 +5621,238 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="A1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1.2345678912E10</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="A2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1.234567891E9</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="A3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/test/resources/com/ugapp/excel/testdata.xlsx
+++ b/src/test/resources/com/ugapp/excel/testdata.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A43DFA-F747-4219-869F-01CA6B5C0D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="test_suite" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="LoginTest" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="PreAppDashboardTest" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="CreateAccountTest" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="FormerNameTest" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="ParentNameTest" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="HomeAddressTest" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="GraduatingSchoolTest" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="AddMaxHighSchoolTest" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="overAllAcademicsTest" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="CollegeUniversitiesTest" sheetId="11" r:id="rId14"/>
+    <sheet name="test_suite" sheetId="1" r:id="rId1"/>
+    <sheet name="validData" sheetId="12" r:id="rId2"/>
+    <sheet name="LoginTest" sheetId="2" r:id="rId3"/>
+    <sheet name="PreAppDashboardTest" sheetId="3" r:id="rId4"/>
+    <sheet name="CreateAccountTest" sheetId="4" r:id="rId5"/>
+    <sheet name="FormerNameTest" sheetId="5" r:id="rId6"/>
+    <sheet name="ParentNameTest" sheetId="6" r:id="rId7"/>
+    <sheet name="HomeAddressTest" sheetId="7" r:id="rId8"/>
+    <sheet name="GraduatingSchoolTest" sheetId="8" r:id="rId9"/>
+    <sheet name="AddMaxHighSchoolTest" sheetId="9" r:id="rId10"/>
+    <sheet name="overAllAcademicsTest" sheetId="10" r:id="rId11"/>
+    <sheet name="ReviewPageData" sheetId="13" r:id="rId12"/>
+    <sheet name="CollegeUniversitiesTest" sheetId="11" r:id="rId13"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataChecksum="nTjTPFs4PeJc1XhSrf2ywoIUDAXvkGnwMptKrxrCv0s="/>
@@ -26,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="180">
   <si>
     <t>TCID</t>
   </si>
@@ -317,64 +328,334 @@
   </si>
   <si>
     <t>Test Degree</t>
+  </si>
+  <si>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>8458embtest@test.asu.edu</t>
+  </si>
+  <si>
+    <t>Legal name</t>
+  </si>
+  <si>
+    <t>Test FN Automation MN Test LN</t>
+  </si>
+  <si>
+    <t>Preferred first name</t>
+  </si>
+  <si>
+    <t>Date of birth</t>
+  </si>
+  <si>
+    <t>January 01, 1995</t>
+  </si>
+  <si>
+    <t>First choice</t>
+  </si>
+  <si>
+    <t>Anthropology, BA</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>2024 Spring - (Session A)</t>
+  </si>
+  <si>
+    <t>Starting term</t>
+  </si>
+  <si>
+    <t>ASU Online</t>
+  </si>
+  <si>
+    <t>Second choice</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Pre-law interest</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Pre-med/health interest</t>
+  </si>
+  <si>
+    <t>Pre-veterinary interest</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Teaching certificate interest</t>
+  </si>
+  <si>
+    <t>Self-reported</t>
+  </si>
+  <si>
+    <t>Unweighted GPA/Scale</t>
+  </si>
+  <si>
+    <t>111/</t>
+  </si>
+  <si>
+    <t>Class rank/Class size</t>
+  </si>
+  <si>
+    <t>11/111</t>
+  </si>
+  <si>
+    <t>Grading system</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>No data has been entered</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Social Science</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Fine Arts/CTE</t>
+  </si>
+  <si>
+    <t>Electives</t>
+  </si>
+  <si>
+    <t>2108embtest@test.asu.edu</t>
+  </si>
+  <si>
+    <t>Former name(s)</t>
+  </si>
+  <si>
+    <t>Test A
+Test B
+Test C
+Test E
+FN Edited LN Edited
+Test G
+Test H
+Test I
+Test First Name Test Last Name
+</t>
+  </si>
+  <si>
+    <t>Test A
+FN Edited LN Edited
+Test C
+Test E
+Test F
+Test G
+Test H
+Test I
+Test First Name Test Last Name</t>
+  </si>
+  <si>
+    <t>Legal sex</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Primary language spoken at home</t>
+  </si>
+  <si>
+    <t>Mongolian</t>
+  </si>
+  <si>
+    <t>Home address</t>
+  </si>
+  <si>
+    <t>Test Address line1 Test Address line2
+Test City,Johnston Atoll,US Misc Pacific Islands
+12345-678910</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>111-11111111111</t>
+  </si>
+  <si>
+    <t>Mobile phone</t>
+  </si>
+  <si>
+    <t>U.S. citizenship</t>
+  </si>
+  <si>
+    <t>I am a U.S. citizen</t>
+  </si>
+  <si>
+    <t>Country of citizenship</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Country of birth</t>
+  </si>
+  <si>
+    <t>Social Security Number</t>
+  </si>
+  <si>
+    <t>*********</t>
+  </si>
+  <si>
+    <t>Parent or legal guardian</t>
+  </si>
+  <si>
+    <t>Parent FN Parent LN I</t>
+  </si>
+  <si>
+    <t>Parent or Legal Guardian Relation</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Parent or Legal Guardian Schooling Level</t>
+  </si>
+  <si>
+    <t>Parent or Legal Guardian Attended ASU</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Additional parent or legal guardian</t>
+  </si>
+  <si>
+    <t>Parent FN Parent LN II</t>
+  </si>
+  <si>
+    <t>Sibling</t>
+  </si>
+  <si>
+    <t>Previous ASU affiliation</t>
+  </si>
+  <si>
+    <t>I attended ASU’s Global launch</t>
+  </si>
+  <si>
+    <t>Affiliate ID</t>
+  </si>
+  <si>
+    <t>9735305244</t>
+  </si>
+  <si>
+    <t>Military status</t>
+  </si>
+  <si>
+    <t>I am the spouse/dependent of a U.S. service member or veteran</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>United States Public Health Service Commissioned Corps</t>
+  </si>
+  <si>
+    <t>I have applied or plan to apply for Department of Veterans Affairs educational benefits based on my U.S. services affiliation identified above:</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Do you plan to use an education benefit or scholarship through an employer, corporation, foundation or other ASU education partner?</t>
+  </si>
+  <si>
+    <t>Current employer</t>
+  </si>
+  <si>
+    <t>Infosys apprenticeship program</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="10">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
@@ -384,7 +665,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -394,94 +675,57 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -671,24 +915,24 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B1003"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.57"/>
-    <col customWidth="1" min="2" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="24.5546875" collapsed="true"/>
+    <col min="2" max="26" customWidth="true" width="8.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -704,7 +948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -712,5151 +956,5752 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
     </row>
-    <row r="998">
+    <row r="998" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
     </row>
-    <row r="999">
+    <row r="999" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
     </row>
-    <row r="1001">
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1001" s="1"/>
       <c r="B1001" s="1"/>
     </row>
-    <row r="1002">
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1002" s="1"/>
       <c r="B1002" s="1"/>
     </row>
-    <row r="1003">
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1003" s="1"/>
       <c r="B1003" s="1"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>39</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="12">
-        <v>1234567.0</v>
-      </c>
-      <c r="B3" s="12">
-        <v>12345.0</v>
-      </c>
-      <c r="C3" s="11">
-        <v>12345.0</v>
-      </c>
-      <c r="D3" s="11" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="B4" s="12">
-        <v>11.0</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="11" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="11" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="B6" s="12">
-        <v>11.0</v>
-      </c>
-      <c r="C6" s="11">
-        <v>11.0</v>
-      </c>
-      <c r="D6" s="11" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C3B828-8291-4C4B-BA95-6B85A9F3CFF2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.0"/>
-    <col customWidth="1" min="2" max="2" width="27.43"/>
-    <col customWidth="1" min="3" max="3" width="51.0"/>
-    <col customWidth="1" min="4" max="4" width="22.43"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="51.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87394AB3-8FF6-445A-9D4E-4A05DC1CE162}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="27.29"/>
-    <col customWidth="1" min="2" max="2" width="14.14"/>
-    <col customWidth="1" min="3" max="3" width="8.71"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" t="s" s="13">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="15.0" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" ht="15.0" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>3</v>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="A3"/>
-  </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.43"/>
-    <col customWidth="1" min="2" max="2" width="31.43"/>
-    <col customWidth="1" min="3" max="3" width="28.71"/>
-    <col customWidth="1" min="4" max="4" width="30.57"/>
-    <col customWidth="1" min="5" max="5" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>19</v>
+    <row r="1" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="1" t="s">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A3"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.29"/>
-    <col customWidth="1" min="2" max="2" width="20.14"/>
-    <col customWidth="1" min="3" max="4" width="13.57"/>
-    <col customWidth="1" min="5" max="5" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="29.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="8.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
+    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>34</v>
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>34</v>
+    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>34</v>
+    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.57"/>
-    <col customWidth="1" min="2" max="2" width="39.86"/>
+    <col min="1" max="1" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="8.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>38</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>24</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="A3"/>
-  </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="56.0"/>
-    <col customWidth="1" min="2" max="2" width="57.0"/>
+    <col min="1" max="1" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>51</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>53</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>54</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A3"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="38.29"/>
-    <col customWidth="1" min="3" max="3" width="34.0"/>
-    <col customWidth="1" min="4" max="4" width="22.29"/>
-    <col customWidth="1" min="5" max="5" width="30.0"/>
-    <col customWidth="1" min="6" max="6" width="18.57"/>
-    <col customWidth="1" min="7" max="7" width="30.14"/>
+    <col min="1" max="1" customWidth="true" width="56.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="57.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="11" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="11" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="11" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.14"/>
-    <col customWidth="1" min="2" max="2" width="29.57"/>
-    <col customWidth="1" min="3" max="3" width="41.43"/>
-    <col customWidth="1" min="4" max="4" width="34.43"/>
+    <col min="1" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="11" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="27.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="41.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="34.44140625" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="C3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/com/ugapp/excel/testdata.xlsx
+++ b/src/test/resources/com/ugapp/excel/testdata.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A43DFA-F747-4219-869F-01CA6B5C0D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30EA67B-597E-43BE-9547-267C2F337F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="1" r:id="rId1"/>
     <sheet name="validData" sheetId="12" r:id="rId2"/>
-    <sheet name="LoginTest" sheetId="2" r:id="rId3"/>
-    <sheet name="PreAppDashboardTest" sheetId="3" r:id="rId4"/>
-    <sheet name="CreateAccountTest" sheetId="4" r:id="rId5"/>
-    <sheet name="FormerNameTest" sheetId="5" r:id="rId6"/>
-    <sheet name="ParentNameTest" sheetId="6" r:id="rId7"/>
-    <sheet name="HomeAddressTest" sheetId="7" r:id="rId8"/>
-    <sheet name="GraduatingSchoolTest" sheetId="8" r:id="rId9"/>
-    <sheet name="AddMaxHighSchoolTest" sheetId="9" r:id="rId10"/>
-    <sheet name="overAllAcademicsTest" sheetId="10" r:id="rId11"/>
-    <sheet name="ReviewPageData" sheetId="13" r:id="rId12"/>
-    <sheet name="CollegeUniversitiesTest" sheetId="11" r:id="rId13"/>
+    <sheet name="PreviewPageData" sheetId="14" r:id="rId3"/>
+    <sheet name="LoginTest" sheetId="2" r:id="rId4"/>
+    <sheet name="PreAppDashboardTest" sheetId="3" r:id="rId5"/>
+    <sheet name="CreateAccountTest" sheetId="4" r:id="rId6"/>
+    <sheet name="FormerNameTest" sheetId="5" r:id="rId7"/>
+    <sheet name="ParentNameTest" sheetId="6" r:id="rId8"/>
+    <sheet name="HomeAddressTest" sheetId="7" r:id="rId9"/>
+    <sheet name="GraduatingSchoolTest" sheetId="8" r:id="rId10"/>
+    <sheet name="AddMaxHighSchoolTest" sheetId="9" r:id="rId11"/>
+    <sheet name="overAllAcademicsTest" sheetId="10" r:id="rId12"/>
+    <sheet name="ReviewPageData" sheetId="13" r:id="rId13"/>
+    <sheet name="CollegeUniversitiesTest" sheetId="11" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="414">
   <si>
     <t>TCID</t>
   </si>
@@ -345,10 +346,33 @@
     <t>0</t>
   </si>
   <si>
+    <t>Key1</t>
+  </si>
+  <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Key2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value2
+Value3
+</t>
+  </si>
+  <si>
+    <t>Key3</t>
+  </si>
+  <si>
+    <t>Value4</t>
+  </si>
+  <si>
+    <t>Value3</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>8458embtest@test.asu.edu</t>
+    <t>8677embtest@test.asu.edu</t>
   </si>
   <si>
     <t>Legal name</t>
@@ -366,70 +390,189 @@
     <t>January 01, 1995</t>
   </si>
   <si>
+    <t>Pronouns</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Gender identity</t>
+  </si>
+  <si>
+    <t>Former name(s)</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Legal sex</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Primary language spoken at home</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Home address</t>
+  </si>
+  <si>
+    <t>jk
+kj,Alabama,United States
+90</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>000-0000000</t>
+  </si>
+  <si>
+    <t>Ethnic/racial background</t>
+  </si>
+  <si>
+    <t>U.S. citizenship</t>
+  </si>
+  <si>
+    <t>I am a U.S. citizen</t>
+  </si>
+  <si>
+    <t>Country of citizenship</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Country of birth</t>
+  </si>
+  <si>
+    <t>Social Security Number</t>
+  </si>
+  <si>
+    <t>*********</t>
+  </si>
+  <si>
+    <t>Parent or legal guardian</t>
+  </si>
+  <si>
+    <t>jk ik</t>
+  </si>
+  <si>
+    <t>Parent or Legal Guardian Relation</t>
+  </si>
+  <si>
+    <t>Grandparent</t>
+  </si>
+  <si>
+    <t>Parent or Legal Guardian Schooling Level</t>
+  </si>
+  <si>
+    <t>Middle School/Junior High</t>
+  </si>
+  <si>
+    <t>Parent or Legal Guardian Attended ASU</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Previous ASU affiliation</t>
+  </si>
+  <si>
+    <t>I attended Global Freshman Academy or any transfer pathway program</t>
+  </si>
+  <si>
+    <t>Affiliate ID</t>
+  </si>
+  <si>
+    <t>Military status</t>
+  </si>
+  <si>
+    <t>None of these options apply to me</t>
+  </si>
+  <si>
+    <t>Do you plan to use an education benefit or scholarship through an employer, corporation, foundation or other ASU education partner?</t>
+  </si>
+  <si>
     <t>First choice</t>
   </si>
   <si>
-    <t>Anthropology, BA</t>
+    <t>African and African American Studies, BA</t>
   </si>
   <si>
     <t>Location</t>
   </si>
   <si>
-    <t>2024 Spring - (Session A)</t>
+    <t>ASU Online</t>
   </si>
   <si>
     <t>Starting term</t>
   </si>
   <si>
-    <t>ASU Online</t>
-  </si>
-  <si>
-    <t>Second choice</t>
-  </si>
-  <si>
-    <t/>
+    <t>2024 Fall - (Session B)</t>
   </si>
   <si>
     <t>Pre-law interest</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>Pre-med/health interest</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>Pre-veterinary interest</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>Teaching certificate interest</t>
   </si>
   <si>
+    <t>Graduating school</t>
+  </si>
+  <si>
+    <t>High school name</t>
+  </si>
+  <si>
+    <t>Abbeville Christian Academy</t>
+  </si>
+  <si>
+    <t>Name on transcript</t>
+  </si>
+  <si>
+    <t>Test FN Test LN</t>
+  </si>
+  <si>
+    <t>Abbeville, AL, USA</t>
+  </si>
+  <si>
+    <t>Graduation date</t>
+  </si>
+  <si>
+    <t>February, 2028</t>
+  </si>
+  <si>
+    <t>Transfer credits to ASU</t>
+  </si>
+  <si>
     <t>Self-reported</t>
   </si>
   <si>
     <t>Unweighted GPA/Scale</t>
   </si>
   <si>
-    <t>111/</t>
-  </si>
-  <si>
-    <t>Class rank/Class size</t>
-  </si>
-  <si>
-    <t>11/111</t>
+    <t>1 / 4</t>
   </si>
   <si>
     <t>Grading system</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>No data has been entered</t>
+    <t>A-F</t>
+  </si>
+  <si>
+    <t>English I / Freshman English</t>
   </si>
   <si>
     <t>Math</t>
@@ -450,22 +593,13 @@
     <t>Electives</t>
   </si>
   <si>
-    <t>2108embtest@test.asu.edu</t>
-  </si>
-  <si>
-    <t>Former name(s)</t>
-  </si>
-  <si>
-    <t>Test A
-Test B
-Test C
-Test E
-FN Edited LN Edited
-Test G
-Test H
-Test I
-Test First Name Test Last Name
-</t>
+    <t>Begin by selecting the state you consider to be your permanent home.</t>
+  </si>
+  <si>
+    <t>Outside the U.S. or Not Listed</t>
+  </si>
+  <si>
+    <t>2718embtest@test.asu.edu</t>
   </si>
   <si>
     <t>Test A
@@ -479,19 +613,7 @@
 Test First Name Test Last Name</t>
   </si>
   <si>
-    <t>Legal sex</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Primary language spoken at home</t>
-  </si>
-  <si>
     <t>Mongolian</t>
-  </si>
-  <si>
-    <t>Home address</t>
   </si>
   <si>
     <t>Test Address line1 Test Address line2
@@ -499,57 +621,22 @@
 12345-678910</t>
   </si>
   <si>
-    <t>Phone</t>
-  </si>
-  <si>
     <t>111-11111111111</t>
   </si>
   <si>
     <t>Mobile phone</t>
   </si>
   <si>
-    <t>U.S. citizenship</t>
-  </si>
-  <si>
-    <t>I am a U.S. citizen</t>
-  </si>
-  <si>
-    <t>Country of citizenship</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Country of birth</t>
-  </si>
-  <si>
-    <t>Social Security Number</t>
-  </si>
-  <si>
-    <t>*********</t>
-  </si>
-  <si>
-    <t>Parent or legal guardian</t>
+    <t>White (Reporting Preferred)
+Chicano</t>
   </si>
   <si>
     <t>Parent FN Parent LN I</t>
   </si>
   <si>
-    <t>Parent or Legal Guardian Relation</t>
-  </si>
-  <si>
     <t>Mother</t>
   </si>
   <si>
-    <t>Parent or Legal Guardian Schooling Level</t>
-  </si>
-  <si>
-    <t>Parent or Legal Guardian Attended ASU</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Additional parent or legal guardian</t>
   </si>
   <si>
@@ -559,21 +646,15 @@
     <t>Sibling</t>
   </si>
   <si>
-    <t>Previous ASU affiliation</t>
+    <t>Other/Unknown</t>
   </si>
   <si>
     <t>I attended ASU’s Global launch</t>
   </si>
   <si>
-    <t>Affiliate ID</t>
-  </si>
-  <si>
     <t>9735305244</t>
   </si>
   <si>
-    <t>Military status</t>
-  </si>
-  <si>
     <t>I am the spouse/dependent of a U.S. service member or veteran</t>
   </si>
   <si>
@@ -586,16 +667,636 @@
     <t>I have applied or plan to apply for Department of Veterans Affairs educational benefits based on my U.S. services affiliation identified above:</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Do you plan to use an education benefit or scholarship through an employer, corporation, foundation or other ASU education partner?</t>
-  </si>
-  <si>
     <t>Current employer</t>
   </si>
   <si>
     <t>Infosys apprenticeship program</t>
+  </si>
+  <si>
+    <t>Applied Biological Sciences (Preveterinary Medicine), BS</t>
+  </si>
+  <si>
+    <t>2024 Summer - (Session A)</t>
+  </si>
+  <si>
+    <t>Home School</t>
+  </si>
+  <si>
+    <t>Kayenta, AZ, USA</t>
+  </si>
+  <si>
+    <t>April, 2025</t>
+  </si>
+  <si>
+    <t>Past schools</t>
+  </si>
+  <si>
+    <t>Test City, Test State, Z26</t>
+  </si>
+  <si>
+    <t>Start date</t>
+  </si>
+  <si>
+    <t>March, 1933</t>
+  </si>
+  <si>
+    <t>End date</t>
+  </si>
+  <si>
+    <t>August, 1962</t>
+  </si>
+  <si>
+    <t>Test City, Test State, Z59</t>
+  </si>
+  <si>
+    <t>April, 2021</t>
+  </si>
+  <si>
+    <t>March, 2023</t>
+  </si>
+  <si>
+    <t>Test City, Test State, VIR</t>
+  </si>
+  <si>
+    <t>March, 1961</t>
+  </si>
+  <si>
+    <t>June, 2008</t>
+  </si>
+  <si>
+    <t>Test City, CA, NZL</t>
+  </si>
+  <si>
+    <t>February, 1973</t>
+  </si>
+  <si>
+    <t>July, 2023</t>
+  </si>
+  <si>
+    <t>Test City, TRA, LTU</t>
+  </si>
+  <si>
+    <t>June, 2023</t>
+  </si>
+  <si>
+    <t>September, 2023</t>
+  </si>
+  <si>
+    <t>Test City, Test State, Z41</t>
+  </si>
+  <si>
+    <t>August, 1955</t>
+  </si>
+  <si>
+    <t>Test City, Test State, VAT</t>
+  </si>
+  <si>
+    <t>February, 1937</t>
+  </si>
+  <si>
+    <t>May, 1993</t>
+  </si>
+  <si>
+    <t>Test City, Test State, Z24</t>
+  </si>
+  <si>
+    <t>January, 1993</t>
+  </si>
+  <si>
+    <t>April, 2023</t>
+  </si>
+  <si>
+    <t>Test City, AV, GTM</t>
+  </si>
+  <si>
+    <t>April, 1937</t>
+  </si>
+  <si>
+    <t>September, 1990</t>
+  </si>
+  <si>
+    <t>Past colleges/universities</t>
+  </si>
+  <si>
+    <t>School name</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Master of Arts</t>
+  </si>
+  <si>
+    <t>Degree concentration</t>
+  </si>
+  <si>
+    <t>Date first attended</t>
+  </si>
+  <si>
+    <t>February, 2003</t>
+  </si>
+  <si>
+    <t>Date last attended</t>
+  </si>
+  <si>
+    <t>February, 2023</t>
+  </si>
+  <si>
+    <t>List the most recent college/university for which you are ineligible to return first</t>
+  </si>
+  <si>
+    <t>Test First Ineligible collegeTest First Ineligible collegeTest First Ineligible collegeTest First Ineligible college</t>
+  </si>
+  <si>
+    <t>Academic related</t>
+  </si>
+  <si>
+    <t>Student conduct</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Please explain why you are ineligible to return to the college/university listed</t>
+  </si>
+  <si>
+    <t>Test ineligible to return to the college/university listedTest ineligible to return to the college/university listedTest ineligible to return to the college/university listedTest ineligible to return to the college/university listed</t>
+  </si>
+  <si>
+    <t>Additional college/university for which you are ineligible to return, if applicable:</t>
+  </si>
+  <si>
+    <t>Test Second Ineligible collegeTest Second Ineligible collegeTest Second Ineligible collegeTest Second Ineligible college</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Test Additional ineligible to return to the college/university listedTest Additional ineligible to return to the college/university listedTest Additional ineligible to return to the college/university listed</t>
+  </si>
+  <si>
+    <t>111 / 4</t>
+  </si>
+  <si>
+    <t>Class rank/Class size</t>
+  </si>
+  <si>
+    <t>11 / 111</t>
+  </si>
+  <si>
+    <t>hjj</t>
+  </si>
+  <si>
+    <t>Are you currently enrolled at another college or university?</t>
+  </si>
+  <si>
+    <t>Do you own or operate a car, motorcycle or other motor vehicle?</t>
+  </si>
+  <si>
+    <t>Do you have a current driver’s license or state issued ID?</t>
+  </si>
+  <si>
+    <t>Did you, or will you, file state taxes for 2022?</t>
+  </si>
+  <si>
+    <t>Parent or legal guardian financial support</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Employment financial support</t>
+  </si>
+  <si>
+    <t>Other financial support</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Savings/trust fund financial support</t>
+  </si>
+  <si>
+    <t>Retirement financial support</t>
+  </si>
+  <si>
+    <t>Social Security/Disability financial support</t>
+  </si>
+  <si>
+    <t>Veteran Benefits financial support</t>
+  </si>
+  <si>
+    <t>State or Federal Benefits financial support</t>
+  </si>
+  <si>
+    <t>Unemployment financial support</t>
+  </si>
+  <si>
+    <t>Other/none of the above</t>
+  </si>
+  <si>
+    <t>Are you currently employed?</t>
+  </si>
+  <si>
+    <t>Were you employed in the last 12 months?</t>
+  </si>
+  <si>
+    <t>In which state do your parent(s) or legal guardian(s) currently live?</t>
+  </si>
+  <si>
+    <t>You indicated that you were the spouse or dependent of a U.S. service member or veteran. Which best describes the service member or veteran?</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>Were you enrolled at any Arizona college or university in 2023 or 2022 calendar year?</t>
+  </si>
+  <si>
+    <t>St. John Paul II Catholic High School</t>
+  </si>
+  <si>
+    <t>May, 2027</t>
+  </si>
+  <si>
+    <t>June, 1991</t>
+  </si>
+  <si>
+    <t>May, 1947</t>
+  </si>
+  <si>
+    <t>November, 1971</t>
+  </si>
+  <si>
+    <t>May, 1935</t>
+  </si>
+  <si>
+    <t>November, 1947</t>
+  </si>
+  <si>
+    <t>June, 1979</t>
+  </si>
+  <si>
+    <t>April, 2004</t>
+  </si>
+  <si>
+    <t>June, 2017</t>
+  </si>
+  <si>
+    <t>December, 1925</t>
+  </si>
+  <si>
+    <t>February, 1963</t>
+  </si>
+  <si>
+    <t>January, 1947</t>
+  </si>
+  <si>
+    <t>November, 1975</t>
+  </si>
+  <si>
+    <t>November, 1988</t>
+  </si>
+  <si>
+    <t>October
+Last attended date should not be before first attended date., 1988</t>
+  </si>
+  <si>
+    <t>Not listed</t>
+  </si>
+  <si>
+    <t>Associate Degree</t>
+  </si>
+  <si>
+    <t>Degree Concentration</t>
+  </si>
+  <si>
+    <t>Arizona General Education Curriculum</t>
+  </si>
+  <si>
+    <t>April, 2010</t>
+  </si>
+  <si>
+    <t>November, 2023</t>
+  </si>
+  <si>
+    <t>Test First Ineligible college</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test ineligible to return to the college/university listed </t>
+  </si>
+  <si>
+    <t>Test Second Ineligible college</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Additional ineligible to return to the college/university listed </t>
+  </si>
+  <si>
+    <t>July, 2028</t>
+  </si>
+  <si>
+    <t>My High School is not on the list</t>
+  </si>
+  <si>
+    <t>July, 2027</t>
+  </si>
+  <si>
+    <t>Humanities &amp; Sciences HS &amp; Int'l Commerce HS</t>
+  </si>
+  <si>
+    <t>June, 2026</t>
+  </si>
+  <si>
+    <t>Parker, AZ, USA</t>
+  </si>
+  <si>
+    <t>September, 2025</t>
+  </si>
+  <si>
+    <t>October, 1969</t>
+  </si>
+  <si>
+    <t>May, 1980</t>
+  </si>
+  <si>
+    <t>HiSet</t>
+  </si>
+  <si>
+    <t>Morenci, AZ, USA</t>
+  </si>
+  <si>
+    <t>May, 2028</t>
+  </si>
+  <si>
+    <t>December, 1971</t>
+  </si>
+  <si>
+    <t>January, 1958</t>
+  </si>
+  <si>
+    <t>September, 1966</t>
+  </si>
+  <si>
+    <t>February, 2001</t>
+  </si>
+  <si>
+    <t>May, 2023</t>
+  </si>
+  <si>
+    <t>November, 1998</t>
+  </si>
+  <si>
+    <t>February, 2011</t>
+  </si>
+  <si>
+    <t>August, 2023</t>
+  </si>
+  <si>
+    <t>March, 1975</t>
+  </si>
+  <si>
+    <t>August, 2014</t>
+  </si>
+  <si>
+    <t>May, 2002</t>
+  </si>
+  <si>
+    <t>April, 1962</t>
+  </si>
+  <si>
+    <t>August, 2003</t>
+  </si>
+  <si>
+    <t>October, 2021</t>
+  </si>
+  <si>
+    <t>February, 1936</t>
+  </si>
+  <si>
+    <t>April, 1936</t>
+  </si>
+  <si>
+    <t>Test City, SG, WLF</t>
+  </si>
+  <si>
+    <t>October, 1977</t>
+  </si>
+  <si>
+    <t>March, 1986</t>
+  </si>
+  <si>
+    <t>Test City, SP, LKA</t>
+  </si>
+  <si>
+    <t>August, 1939</t>
+  </si>
+  <si>
+    <t>August, 1992</t>
+  </si>
+  <si>
+    <t>Test City, IN, MOZ</t>
+  </si>
+  <si>
+    <t>April, 2009</t>
+  </si>
+  <si>
+    <t>Test City, VI, BLR</t>
+  </si>
+  <si>
+    <t>April, 2013</t>
+  </si>
+  <si>
+    <t>Test City, Test State, TKL</t>
+  </si>
+  <si>
+    <t>April, 1964</t>
+  </si>
+  <si>
+    <t>January, 2023</t>
+  </si>
+  <si>
+    <t>Test City, Test State, Z19</t>
+  </si>
+  <si>
+    <t>August, 1980</t>
+  </si>
+  <si>
+    <t>April
+Last attended date should not be before first attended date., 1980</t>
+  </si>
+  <si>
+    <t>Test City, Test State, IMN</t>
+  </si>
+  <si>
+    <t>December, 1970</t>
+  </si>
+  <si>
+    <t>October, 2023</t>
+  </si>
+  <si>
+    <t>Test City, AG, NER</t>
+  </si>
+  <si>
+    <t>January, 1988</t>
+  </si>
+  <si>
+    <t>Test City, FO, ARG</t>
+  </si>
+  <si>
+    <t>September, 1995</t>
+  </si>
+  <si>
+    <t>Test City, SRP, BIH</t>
+  </si>
+  <si>
+    <t>May, 2008</t>
+  </si>
+  <si>
+    <t>Test City, Test State, GLP</t>
+  </si>
+  <si>
+    <t>September, 2005</t>
+  </si>
+  <si>
+    <t>Test City, Test State, Z15</t>
+  </si>
+  <si>
+    <t>November, 2018</t>
+  </si>
+  <si>
+    <t>Test City, Test State, Z18</t>
+  </si>
+  <si>
+    <t>April, 1925</t>
+  </si>
+  <si>
+    <t>September, 1958</t>
+  </si>
+  <si>
+    <t>Test City, EE, SSD</t>
+  </si>
+  <si>
+    <t>August, 2013</t>
+  </si>
+  <si>
+    <t>August, 1964</t>
+  </si>
+  <si>
+    <t>August, 2009</t>
+  </si>
+  <si>
+    <t>Test City, TIR, AUT</t>
+  </si>
+  <si>
+    <t>August, 2006</t>
+  </si>
+  <si>
+    <t>Doctor of Science</t>
+  </si>
+  <si>
+    <t>Inter Gen Ed Trans Curriculum (IGETC) in Progress</t>
+  </si>
+  <si>
+    <t>Bachelor of Applied Science</t>
+  </si>
+  <si>
+    <t>Group T - Leuven Univ College</t>
+  </si>
+  <si>
+    <t>Doctor of Arts</t>
+  </si>
+  <si>
+    <t>College of Sciences &amp; Arts Brussels</t>
+  </si>
+  <si>
+    <t>Associate of Applied Science</t>
+  </si>
+  <si>
+    <t>Master of Science</t>
+  </si>
+  <si>
+    <t>California State Univ Gen Ed (CSUGE)</t>
+  </si>
+  <si>
+    <t>Douglas Christian Schools</t>
+  </si>
+  <si>
+    <t>Douglas, AZ, USA</t>
+  </si>
+  <si>
+    <t>January, 2028</t>
+  </si>
+  <si>
+    <t>Test City, VB, BEL</t>
+  </si>
+  <si>
+    <t>April, 1965</t>
+  </si>
+  <si>
+    <t>April, 2020</t>
+  </si>
+  <si>
+    <t>Test City, S, SLE</t>
+  </si>
+  <si>
+    <t>November, 1944</t>
+  </si>
+  <si>
+    <t>December, 2006</t>
+  </si>
+  <si>
+    <t>Test City, Test State, Country code not found for description: Trust Terr of Pacific Islands</t>
+  </si>
+  <si>
+    <t>August, 1963</t>
+  </si>
+  <si>
+    <t>November, 1987</t>
+  </si>
+  <si>
+    <t>Test City, SG, DMA</t>
+  </si>
+  <si>
+    <t>Test City, Test State, Z09</t>
+  </si>
+  <si>
+    <t>October, 1924</t>
+  </si>
+  <si>
+    <t>Test City, JA, LBN</t>
+  </si>
+  <si>
+    <t>December, 1986</t>
+  </si>
+  <si>
+    <t>Test City, Test State, Z30</t>
+  </si>
+  <si>
+    <t>December, 1951</t>
+  </si>
+  <si>
+    <t>Test City, WA, SUR</t>
+  </si>
+  <si>
+    <t>August, 1927</t>
+  </si>
+  <si>
+    <t>October, 2009</t>
+  </si>
+  <si>
+    <t>April, 1930</t>
+  </si>
+  <si>
+    <t>March, 1976</t>
+  </si>
+  <si>
+    <t>Arizona General Education Curriculum in Progress</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts</t>
   </si>
 </sst>
 </file>
@@ -686,7 +1387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="664">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -704,6 +1405,1956 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
@@ -4991,6 +7642,79 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="27.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="41.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="34.44140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5176,7 +7900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5278,390 +8002,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C3B828-8291-4C4B-BA95-6B85A9F3CFF2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>104</v>
       </c>
-      <c r="B2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
         <v>107</v>
-      </c>
-      <c r="B4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>159</v>
-      </c>
-      <c r="B16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>164</v>
-      </c>
-      <c r="B19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>161</v>
-      </c>
-      <c r="B21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>169</v>
-      </c>
-      <c r="B24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>171</v>
-      </c>
-      <c r="B25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>173</v>
-      </c>
-      <c r="B26" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>175</v>
-      </c>
-      <c r="B27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>177</v>
-      </c>
-      <c r="B28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>120</v>
-      </c>
-      <c r="B35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>123</v>
-      </c>
-      <c r="B37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>124</v>
-      </c>
-      <c r="B38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>126</v>
-      </c>
-      <c r="B39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>128</v>
-      </c>
-      <c r="B40" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>133</v>
-      </c>
-      <c r="B44" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>136</v>
-      </c>
-      <c r="B47" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -5669,7 +8041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5744,212 +8116,1619 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87394AB3-8FF6-445A-9D4E-4A05DC1CE162}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" s="605" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="606" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="607" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" s="609" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="610" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" s="611" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>213</v>
+      </c>
+      <c r="B46" s="612" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>215</v>
+      </c>
+      <c r="B47" s="613" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>163</v>
+      </c>
+      <c r="B48" s="614" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="615" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" s="616" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>213</v>
+      </c>
+      <c r="B51" s="617" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>215</v>
+      </c>
+      <c r="B52" s="618" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" s="619" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>165</v>
+      </c>
+      <c r="B54" s="620" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="621" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56" s="622" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>215</v>
+      </c>
+      <c r="B57" s="623" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" s="624" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59" s="625" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" s="626" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>213</v>
+      </c>
+      <c r="B61" s="627" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>215</v>
+      </c>
+      <c r="B62" s="628" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>163</v>
+      </c>
+      <c r="B63" s="629" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>165</v>
+      </c>
+      <c r="B64" s="630" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>153</v>
+      </c>
+      <c r="B65" s="631" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>213</v>
+      </c>
+      <c r="B66" s="632" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>215</v>
+      </c>
+      <c r="B67" s="633" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" s="634" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" s="635" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" s="636" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>213</v>
+      </c>
+      <c r="B71" s="637" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>215</v>
+      </c>
+      <c r="B72" s="638" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73" s="639" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>165</v>
+      </c>
+      <c r="B74" s="640" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" s="641" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>213</v>
+      </c>
+      <c r="B76" s="642" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>215</v>
+      </c>
+      <c r="B77" s="643" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" s="644" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>241</v>
+      </c>
+      <c r="B79" s="660" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" s="661" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>242</v>
+      </c>
+      <c r="B81" s="662" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>305</v>
+      </c>
+      <c r="B82" s="663" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" s="649" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" s="650" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>153</v>
+      </c>
+      <c r="B85" s="651" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>213</v>
+      </c>
+      <c r="B86" s="652" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>215</v>
+      </c>
+      <c r="B87" s="653" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>252</v>
+      </c>
+      <c r="B88" s="396" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>254</v>
+      </c>
+      <c r="B89" s="397" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>255</v>
+      </c>
+      <c r="B90" s="398" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>257</v>
+      </c>
+      <c r="B91" s="399" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>251</v>
+      </c>
+      <c r="B92" s="401" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>252</v>
+      </c>
+      <c r="B93" s="403" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>254</v>
+      </c>
+      <c r="B94" s="404" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>255</v>
+      </c>
+      <c r="B95" s="405" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FCB791-FF59-4EC3-AEB9-B2B56D4C79C8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" t="s">
-        <v>137</v>
+        <v>109</v>
+      </c>
+      <c r="B1" s="206" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
+        <v>111</v>
+      </c>
+      <c r="B2" s="207" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="208" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="B4" s="209" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" t="s">
         <v>116</v>
+      </c>
+      <c r="B5" s="210" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="B6" s="211" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="B7" s="212" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="B8" s="213" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" t="s">
-        <v>116</v>
+        <v>123</v>
+      </c>
+      <c r="B9" s="214" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" t="s">
-        <v>121</v>
+        <v>125</v>
+      </c>
+      <c r="B10" s="215" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" t="s">
-        <v>121</v>
+        <v>127</v>
+      </c>
+      <c r="B11" s="216" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" t="s">
-        <v>121</v>
+        <v>190</v>
+      </c>
+      <c r="B12" s="217" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" t="s">
-        <v>121</v>
+        <v>129</v>
+      </c>
+      <c r="B13" s="218" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" t="s" s="13">
-        <v>139</v>
+        <v>130</v>
+      </c>
+      <c r="B14" s="219" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
+        <v>132</v>
+      </c>
+      <c r="B15" s="220" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" t="s">
-        <v>125</v>
+        <v>134</v>
+      </c>
+      <c r="B16" s="221" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" t="s">
-        <v>127</v>
+        <v>135</v>
+      </c>
+      <c r="B17" s="222" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" t="s">
-        <v>116</v>
+        <v>137</v>
+      </c>
+      <c r="B18" s="223" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" t="s">
-        <v>130</v>
+        <v>139</v>
+      </c>
+      <c r="B19" s="224" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" t="s">
-        <v>130</v>
+        <v>141</v>
+      </c>
+      <c r="B20" s="225" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" t="s">
-        <v>130</v>
+        <v>143</v>
+      </c>
+      <c r="B21" s="226" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" t="s">
-        <v>130</v>
+        <v>194</v>
+      </c>
+      <c r="B22" s="227" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" t="s">
-        <v>130</v>
+        <v>139</v>
+      </c>
+      <c r="B23" s="228" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" t="s">
-        <v>130</v>
+        <v>141</v>
+      </c>
+      <c r="B24" s="229" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" t="s">
-        <v>130</v>
+        <v>143</v>
+      </c>
+      <c r="B25" s="230" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="231" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="232" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="233" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29" s="234" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" s="235" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="236" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32" s="237" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="238" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="239" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" s="240" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" s="241" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" s="242" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="243" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" s="244" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="245" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>163</v>
+      </c>
+      <c r="B41" s="246" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" s="247" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" s="248" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" s="249" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45" s="250" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="251" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" s="252" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="253" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>213</v>
+      </c>
+      <c r="B49" s="254" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>215</v>
+      </c>
+      <c r="B50" s="255" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="256" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52" s="257" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" s="258" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>213</v>
+      </c>
+      <c r="B54" s="259" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>215</v>
+      </c>
+      <c r="B55" s="260" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="261" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="262" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" s="263" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>213</v>
+      </c>
+      <c r="B59" s="264" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>215</v>
+      </c>
+      <c r="B60" s="265" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B61" s="266" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>165</v>
+      </c>
+      <c r="B62" s="267" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>153</v>
+      </c>
+      <c r="B63" s="268" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>213</v>
+      </c>
+      <c r="B64" s="269" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>215</v>
+      </c>
+      <c r="B65" s="270" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" s="271" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" s="272" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" s="273" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>213</v>
+      </c>
+      <c r="B69" s="274" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>215</v>
+      </c>
+      <c r="B70" s="275" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" s="276" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>165</v>
+      </c>
+      <c r="B72" s="277" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73" s="278" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>213</v>
+      </c>
+      <c r="B74" s="279" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>215</v>
+      </c>
+      <c r="B75" s="280" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" s="281" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>165</v>
+      </c>
+      <c r="B77" s="282" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="283" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>213</v>
+      </c>
+      <c r="B79" s="284" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>215</v>
+      </c>
+      <c r="B80" s="285" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" s="286" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" s="287" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>153</v>
+      </c>
+      <c r="B83" s="288" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>213</v>
+      </c>
+      <c r="B84" s="289" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>215</v>
+      </c>
+      <c r="B85" s="290" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" s="291" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" s="292" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>153</v>
+      </c>
+      <c r="B88" s="293" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>213</v>
+      </c>
+      <c r="B89" s="294" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>215</v>
+      </c>
+      <c r="B90" s="295" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>240</v>
+      </c>
+      <c r="B91" s="296" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>241</v>
+      </c>
+      <c r="B92" s="297" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>165</v>
+      </c>
+      <c r="B93" s="298" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>153</v>
+      </c>
+      <c r="B94" s="299" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>242</v>
+      </c>
+      <c r="B95" s="300" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>244</v>
+      </c>
+      <c r="B96" s="301" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>245</v>
+      </c>
+      <c r="B97" s="302" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>247</v>
+      </c>
+      <c r="B98" s="303" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>170</v>
+      </c>
+      <c r="B99" s="304" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>249</v>
+      </c>
+      <c r="B100" s="305" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>251</v>
+      </c>
+      <c r="B101" s="306" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>252</v>
+      </c>
+      <c r="B102" s="307" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>254</v>
+      </c>
+      <c r="B103" s="308" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>255</v>
+      </c>
+      <c r="B104" s="309" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>257</v>
+      </c>
+      <c r="B105" s="310" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>251</v>
+      </c>
+      <c r="B106" s="311" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>252</v>
+      </c>
+      <c r="B107" s="312" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>254</v>
+      </c>
+      <c r="B108" s="313" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>255</v>
+      </c>
+      <c r="B109" s="314" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>171</v>
+      </c>
+      <c r="B110" s="315" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>172</v>
+      </c>
+      <c r="B111" s="316" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>262</v>
+      </c>
+      <c r="B112" s="317" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>174</v>
+      </c>
+      <c r="B113" s="318" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>124</v>
+      </c>
+      <c r="B114" s="319" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>177</v>
+      </c>
+      <c r="B115" s="320" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>178</v>
+      </c>
+      <c r="B116" s="321" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>179</v>
+      </c>
+      <c r="B117" s="322" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>180</v>
+      </c>
+      <c r="B118" s="323" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>181</v>
+      </c>
+      <c r="B119" s="324" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>182</v>
+      </c>
+      <c r="B120" s="325" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>183</v>
+      </c>
+      <c r="B121" s="326" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>265</v>
+      </c>
+      <c r="B122" s="327" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>266</v>
+      </c>
+      <c r="B123" s="328" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>267</v>
+      </c>
+      <c r="B124" s="329" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>268</v>
+      </c>
+      <c r="B125" s="330" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>269</v>
+      </c>
+      <c r="B126" s="331" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>271</v>
+      </c>
+      <c r="B127" s="332" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>272</v>
+      </c>
+      <c r="B128" s="333" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>274</v>
+      </c>
+      <c r="B129" s="334" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>275</v>
+      </c>
+      <c r="B130" s="335" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>276</v>
+      </c>
+      <c r="B131" s="336" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>277</v>
+      </c>
+      <c r="B132" s="337" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>278</v>
+      </c>
+      <c r="B133" s="338" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>279</v>
+      </c>
+      <c r="B134" s="339" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>280</v>
+      </c>
+      <c r="B135" s="340" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>281</v>
+      </c>
+      <c r="B136" s="341" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>282</v>
+      </c>
+      <c r="B137" s="342" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>283</v>
+      </c>
+      <c r="B138" s="343" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>284</v>
+      </c>
+      <c r="B139" s="344" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>286</v>
+      </c>
+      <c r="B140" s="345" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5957,7 +9736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -6016,14 +9795,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId651" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -6142,14 +9921,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId651" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -6254,7 +10033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6436,13 +10215,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId651" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6525,13 +10304,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId651" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6631,77 +10410,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="27.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="41.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="34.44140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/com/ugapp/excel/testdata.xlsx
+++ b/src/test/resources/com/ugapp/excel/testdata.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="385">
   <si>
     <t>TCID</t>
   </si>
@@ -61,6 +61,18 @@
     <t>overAllAcademicsTest</t>
   </si>
   <si>
+    <t xml:space="preserve"> Past colleges/universities </t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Transfer credits to ASU</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
@@ -313,9 +325,6 @@
     <t>11</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Institution_name</t>
   </si>
   <si>
@@ -334,7 +343,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t>1241embtest@test.asu.edu</t>
+    <t>7561embtest@test.asu.edu</t>
   </si>
   <si>
     <t>Legal name</t>
@@ -355,10 +364,10 @@
     <t>Former name(s)</t>
   </si>
   <si>
-    <t>Test A
+    <t>FN Edited LN Edited
+Test B
 Test C
-FN Edited LN Edited
-Test E
+Test D
 Test F
 Test G
 Test H
@@ -369,20 +378,20 @@
     <t>Legal sex</t>
   </si>
   <si>
-    <t>Male</t>
+    <t>Female</t>
   </si>
   <si>
     <t>Primary language spoken at home</t>
   </si>
   <si>
-    <t>Dutch</t>
+    <t>Sunda</t>
   </si>
   <si>
     <t>Home address</t>
   </si>
   <si>
     <t>Test Address line1 Test Address line2
-TestTestTestTestTestTestTestTest,Test State,Bonaire, Sint Eustatius &amp; Saba
+TestTestTestTestTestTestTestTest,Test State,Midway Islands
 12345-678910</t>
   </si>
   <si>
@@ -393,14 +402,17 @@
   </si>
   <si>
     <t>Test Address line1 Test Address line2
-Test City,Test State,Bonaire, Sint Eustatius &amp; Saba
+Test City,Test State,Midway Islands
 12345-678910</t>
   </si>
   <si>
     <t xml:space="preserve"> Ethnic/racial background </t>
   </si>
   <si>
-    <t/>
+    <t>South American</t>
+  </si>
+  <si>
+    <t>Laotian</t>
   </si>
   <si>
     <t>U.S. citizenship</t>
@@ -418,7 +430,7 @@
     <t>Country of birth</t>
   </si>
   <si>
-    <t>Sweden</t>
+    <t>Iran</t>
   </si>
   <si>
     <t>Social Security Number</t>
@@ -427,6 +439,12 @@
     <t>*********</t>
   </si>
   <si>
+    <t>Parent or Legal Guardian Attended ASU</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Parent or legal guardian</t>
   </si>
   <si>
@@ -436,7 +454,7 @@
     <t>Parent or Legal Guardian Relation</t>
   </si>
   <si>
-    <t>Sibling</t>
+    <t>Grandparent</t>
   </si>
   <si>
     <t>Parent or Legal Guardian Schooling Level</t>
@@ -445,34 +463,31 @@
     <t>High School</t>
   </si>
   <si>
-    <t>Parent or Legal Guardian Attended ASU</t>
+    <t>Additional parent or legal guardian</t>
+  </si>
+  <si>
+    <t>Parent FN Parent LN II</t>
+  </si>
+  <si>
+    <t>Aunt</t>
+  </si>
+  <si>
+    <t>Other/Unknown</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Additional parent or legal guardian</t>
-  </si>
-  <si>
-    <t>Parent FN Parent LN II</t>
-  </si>
-  <si>
-    <t>Uncle</t>
-  </si>
-  <si>
-    <t>Middle School/Junior High</t>
-  </si>
-  <si>
     <t>Previous ASU affiliation</t>
   </si>
   <si>
-    <t>I am currently or previously was an ASU employee</t>
+    <t>I previously attended ASU as an undergraduate degree-seeking student</t>
   </si>
   <si>
     <t>Affiliate ID</t>
   </si>
   <si>
-    <t>5298567590</t>
+    <t>3102966385</t>
   </si>
   <si>
     <t>Military status</t>
@@ -484,7 +499,7 @@
     <t>Branch</t>
   </si>
   <si>
-    <t>United States Public Health Service Commissioned Corps</t>
+    <t>United States Coast Guard</t>
   </si>
   <si>
     <t>I have applied or plan to apply for Department of Veterans Affairs educational benefits based on my U.S. services affiliation identified above:</t>
@@ -493,7 +508,10 @@
     <t>Do you plan to use an education benefit or scholarship through an employer, corporation, foundation or other ASU education partner?</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Current employer</t>
+  </si>
+  <si>
+    <t>Town of marana</t>
   </si>
   <si>
     <t>Pre-law interest</t>
@@ -511,7 +529,7 @@
     <t>First choice</t>
   </si>
   <si>
-    <t>Applied Biological Sciences (Pre-Dental), BS</t>
+    <t>Applied Science (Applied Leadership), BAS</t>
   </si>
   <si>
     <t>Location</t>
@@ -523,7 +541,13 @@
     <t>Starting term</t>
   </si>
   <si>
-    <t>2024 Fall - (Session B)</t>
+    <t>2024 Spring - (Session A)</t>
+  </si>
+  <si>
+    <t>Second choice</t>
+  </si>
+  <si>
+    <t>Astronomical and Planetary Sciences, BS</t>
   </si>
   <si>
     <t xml:space="preserve"> Graduating school </t>
@@ -541,109 +565,103 @@
     <t>Test FN Test LN</t>
   </si>
   <si>
-    <t>Safford, AZ, USA</t>
+    <t>San Manuel, AZ, USA</t>
   </si>
   <si>
     <t>Graduation date</t>
   </si>
   <si>
-    <t>August, 2028</t>
+    <t>April, 2026</t>
   </si>
   <si>
     <t xml:space="preserve"> Past schools </t>
   </si>
   <si>
-    <t>Test City, BI, LBN</t>
+    <t>Test City, Test State, Z29</t>
   </si>
   <si>
     <t>Start date</t>
   </si>
   <si>
-    <t>May, 1973</t>
+    <t>February, 1984</t>
   </si>
   <si>
     <t>End date</t>
   </si>
   <si>
-    <t>January, 2010</t>
-  </si>
-  <si>
-    <t>Test City, ST, KOR</t>
-  </si>
-  <si>
-    <t>August, 1940</t>
-  </si>
-  <si>
-    <t>April, 1985</t>
-  </si>
-  <si>
-    <t>Test City, Test State, Z62</t>
-  </si>
-  <si>
-    <t>March, 1931</t>
-  </si>
-  <si>
-    <t>June, 1938</t>
-  </si>
-  <si>
-    <t>Test City, Test State, Z50</t>
-  </si>
-  <si>
-    <t>October, 1988</t>
+    <t>March, 2023</t>
+  </si>
+  <si>
+    <t>Test City, SRP, BIH</t>
+  </si>
+  <si>
+    <t>November, 1996</t>
   </si>
   <si>
     <t>July, 2023</t>
   </si>
   <si>
-    <t>Test City, SG, VCT</t>
-  </si>
-  <si>
-    <t>July, 1998</t>
-  </si>
-  <si>
-    <t>September, 2007</t>
-  </si>
-  <si>
-    <t>Test City, LA, MHL</t>
-  </si>
-  <si>
-    <t>June, 1979</t>
-  </si>
-  <si>
-    <t>March, 2023</t>
-  </si>
-  <si>
-    <t>Test City, SL, MYS</t>
-  </si>
-  <si>
-    <t>June, 1924</t>
-  </si>
-  <si>
-    <t>October, 1931</t>
-  </si>
-  <si>
-    <t>Test City, LA, PER</t>
-  </si>
-  <si>
-    <t>February, 1967</t>
-  </si>
-  <si>
-    <t>October, 2023</t>
-  </si>
-  <si>
-    <t>Test City, VA, LKA</t>
-  </si>
-  <si>
-    <t>October, 2007</t>
+    <t>Test City, Test State, FLK</t>
+  </si>
+  <si>
+    <t>September, 1945</t>
+  </si>
+  <si>
+    <t>July, 1977</t>
+  </si>
+  <si>
+    <t>Test City, SG, WLF</t>
+  </si>
+  <si>
+    <t>December, 1967</t>
+  </si>
+  <si>
+    <t>April, 2023</t>
+  </si>
+  <si>
+    <t>Test City, ZAR, LTU</t>
+  </si>
+  <si>
+    <t>January, 1938</t>
+  </si>
+  <si>
+    <t>August, 2023</t>
+  </si>
+  <si>
+    <t>Test City, KUK, ALB</t>
+  </si>
+  <si>
+    <t>November, 1990</t>
   </si>
   <si>
     <t>June, 2023</t>
   </si>
   <si>
-    <t xml:space="preserve"> Past colleges/universities </t>
-  </si>
-  <si>
-    <t>testtesttesttesttesttesttesttest, testtesttesttesttesttesttesttest, Z48</t>
+    <t>Test City, ES, GAB</t>
+  </si>
+  <si>
+    <t>January, 1955</t>
+  </si>
+  <si>
+    <t>July, 2020</t>
+  </si>
+  <si>
+    <t>Test City, Test State, Z23</t>
+  </si>
+  <si>
+    <t>October, 2006</t>
+  </si>
+  <si>
+    <t>January, 2008</t>
+  </si>
+  <si>
+    <t>Test City, AZ, JOR</t>
+  </si>
+  <si>
+    <t>May, 2001</t>
+  </si>
+  <si>
+    <t>testtesttesttesttesttesttesttest, BY, SOM</t>
   </si>
   <si>
     <t>School name</t>
@@ -655,33 +673,27 @@
     <t>Degree</t>
   </si>
   <si>
-    <t>California State Univ Gen Ed (CSUGE)</t>
+    <t>Arizona General Education Curriculum in Progress</t>
   </si>
   <si>
     <t>Degree concentration</t>
   </si>
   <si>
-    <t>Test City, H, HKG</t>
-  </si>
-  <si>
-    <t>Hong Kong Polytechnic University</t>
-  </si>
-  <si>
-    <t>Inter Gen Ed Trans Curriculum (IGETC) in Progress</t>
+    <t>Test City, NO, RWA</t>
+  </si>
+  <si>
+    <t>Master of Arts</t>
   </si>
   <si>
     <t>Date first attended</t>
   </si>
   <si>
-    <t>June, 2014</t>
+    <t>August, 2007</t>
   </si>
   <si>
     <t>Date last attended</t>
   </si>
   <si>
-    <t>Transfer credits to ASU</t>
-  </si>
-  <si>
     <t>List the most recent college/university for which you are ineligible to return first</t>
   </si>
   <si>
@@ -718,6 +730,169 @@
     <t xml:space="preserve">Test Additional ineligible to return to the college/university listed </t>
   </si>
   <si>
+    <t>9557embtest@test.asu.edu</t>
+  </si>
+  <si>
+    <t>Test A
+Test B
+Test C
+Test D
+FN Edited LN Edited
+Test G
+Test H
+Test I
+Test First Name Test Last Name</t>
+  </si>
+  <si>
+    <t>Mewati</t>
+  </si>
+  <si>
+    <t>Test Address line1 Test Address line2
+TestTestTestTestTestTestTestTest,Test State,Federal Republic of Germany
+12345-678910</t>
+  </si>
+  <si>
+    <t>Test Address line1 Test Address line2
+Test City,Test State,Federal Republic of Germany
+12345-678910</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Tahitian</t>
+  </si>
+  <si>
+    <t>Spanish(Reporting Preferred)
+Native Hawaiian/Pac Islander</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>College or Beyond</t>
+  </si>
+  <si>
+    <t>I attended ASU’s Global launch</t>
+  </si>
+  <si>
+    <t>8146837631</t>
+  </si>
+  <si>
+    <t>United States Army</t>
+  </si>
+  <si>
+    <t>Banfield pet hospital</t>
+  </si>
+  <si>
+    <t>African and African American Studies, BA</t>
+  </si>
+  <si>
+    <t>2024 Summer - (Session B)</t>
+  </si>
+  <si>
+    <t>Many Farms HS</t>
+  </si>
+  <si>
+    <t>Many Farms, AZ, USA</t>
+  </si>
+  <si>
+    <t>April, 2028</t>
+  </si>
+  <si>
+    <t>Test City, ORA, DZA</t>
+  </si>
+  <si>
+    <t>August, 1929</t>
+  </si>
+  <si>
+    <t>February, 1968</t>
+  </si>
+  <si>
+    <t>Test City, AB, SWE</t>
+  </si>
+  <si>
+    <t>October, 1987</t>
+  </si>
+  <si>
+    <t>Test City, Test State, KOS</t>
+  </si>
+  <si>
+    <t>April, 1933</t>
+  </si>
+  <si>
+    <t>March, 1995</t>
+  </si>
+  <si>
+    <t>February, 1955</t>
+  </si>
+  <si>
+    <t>January, 2023</t>
+  </si>
+  <si>
+    <t>Test City, GH, EGY</t>
+  </si>
+  <si>
+    <t>April, 1986</t>
+  </si>
+  <si>
+    <t>May, 1996</t>
+  </si>
+  <si>
+    <t>Test City, ES, CMR</t>
+  </si>
+  <si>
+    <t>September, 1935</t>
+  </si>
+  <si>
+    <t>November, 1991</t>
+  </si>
+  <si>
+    <t>Test City, NB, CAN</t>
+  </si>
+  <si>
+    <t>September, 2001</t>
+  </si>
+  <si>
+    <t>February, 2004</t>
+  </si>
+  <si>
+    <t>Test City, Test State, Z26</t>
+  </si>
+  <si>
+    <t>November, 2002</t>
+  </si>
+  <si>
+    <t>Test City, MO, COM</t>
+  </si>
+  <si>
+    <t>January, 2009</t>
+  </si>
+  <si>
+    <t>November, 2023</t>
+  </si>
+  <si>
+    <t>testtesttesttesttesttesttesttest, SKI, DZA</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts</t>
+  </si>
+  <si>
+    <t>Test City, SK, GEO</t>
+  </si>
+  <si>
+    <t>California State Univ Gen Ed (CSUGE) in Progress</t>
+  </si>
+  <si>
+    <t>August, 1999</t>
+  </si>
+  <si>
+    <t>September, 2023</t>
+  </si>
+  <si>
     <t>Self-reported</t>
   </si>
   <si>
@@ -748,6 +923,9 @@
     <t>Math</t>
   </si>
   <si>
+    <t>Other (specify)</t>
+  </si>
+  <si>
     <t>Science</t>
   </si>
   <si>
@@ -781,7 +959,7 @@
     <t>In which state is that school located?</t>
   </si>
   <si>
-    <t>New Jersey</t>
+    <t>District of Columbia</t>
   </si>
   <si>
     <t>Were you enrolled at any Arizona college or university in 2023 or 2022 calendar year?</t>
@@ -799,7 +977,7 @@
     <t>When was your license issued?</t>
   </si>
   <si>
-    <t>1987-08</t>
+    <t>1986-10</t>
   </si>
   <si>
     <t>Do you own or operate a car, motorcycle or other motor vehicle?</t>
@@ -811,7 +989,7 @@
     <t>When was your vehicle registered?</t>
   </si>
   <si>
-    <t>2016-09</t>
+    <t>1923-05</t>
   </si>
   <si>
     <t xml:space="preserve"> Did you, or will you, file state taxes for 2022? </t>
@@ -820,19 +998,19 @@
     <t xml:space="preserve"> Where did or where will you file your state taxes for 2022? </t>
   </si>
   <si>
-    <t>Connecticut</t>
+    <t>Pennsylvania</t>
   </si>
   <si>
     <t>Parent or legal guardian financial support</t>
   </si>
   <si>
-    <t>41</t>
+    <t>86</t>
   </si>
   <si>
     <t>Employment financial support</t>
   </si>
   <si>
-    <t>54</t>
+    <t>9</t>
   </si>
   <si>
     <t>Financial aid financial support</t>
@@ -856,7 +1034,7 @@
     <t>When did your employment at this location begin?</t>
   </si>
   <si>
-    <t>1947-06</t>
+    <t>1928-11</t>
   </si>
   <si>
     <t xml:space="preserve"> You indicated that you were the spouse or dependent of a U.S. service member or veteran. Which best describes the service member or veteran? </t>
@@ -871,7 +1049,7 @@
     <t xml:space="preserve"> Which parent or legal guardian lives in Arizona? </t>
   </si>
   <si>
-    <t>Both</t>
+    <t>Father</t>
   </si>
   <si>
     <t xml:space="preserve"> Did or will your parent(s) or legal guardian(s) file a state income tax return for the 2022 tax year? </t>
@@ -880,6 +1058,9 @@
     <t xml:space="preserve"> In which state did, or will, your parent(s) or legal guardian(s) file state income taxes? </t>
   </si>
   <si>
+    <t>Kansas</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Does either parent or legal guardian have a current Arizona driver license? </t>
   </si>
   <si>
@@ -892,7 +1073,7 @@
     <t>When did your spouse begin living in Arizona?</t>
   </si>
   <si>
-    <t>April-null</t>
+    <t>2013-08</t>
   </si>
   <si>
     <t xml:space="preserve"> Does your spouse have a valid drivers license or state-issued ID? </t>
@@ -904,7 +1085,7 @@
     <t>When did your spouse obtain this drivers license or state ID?</t>
   </si>
   <si>
-    <t>September-null</t>
+    <t>2003-11</t>
   </si>
   <si>
     <t xml:space="preserve"> Did or will your spouse file a state income tax return for the 2022 tax year? </t>
@@ -913,7 +1094,7 @@
     <t>In which state did, or will, your spouse file state income taxes?</t>
   </si>
   <si>
-    <t>Hawaii</t>
+    <t>South Dakota</t>
   </si>
   <si>
     <t xml:space="preserve"> Is your spouse employed? </t>
@@ -925,13 +1106,104 @@
     <t>When did your spouses employment at this location begin?</t>
   </si>
   <si>
-    <t>February-null</t>
+    <t>2011-09</t>
   </si>
   <si>
     <t>Is your spouse currently enrolled at ASU or any other college or university?</t>
   </si>
   <si>
     <t>Is your spouse dependent on someone other than you for financial support, e.g. parents, guardians, family or financial aid?</t>
+  </si>
+  <si>
+    <t>Pronouns</t>
+  </si>
+  <si>
+    <t>She/Her</t>
+  </si>
+  <si>
+    <t>Gender identity</t>
+  </si>
+  <si>
+    <t>Ethnic/racial background</t>
+  </si>
+  <si>
+    <t>Spanish (Reporting Preferred)
+Tahitian</t>
+  </si>
+  <si>
+    <t>Graduating school</t>
+  </si>
+  <si>
+    <t>Past schools</t>
+  </si>
+  <si>
+    <t>Past colleges/universities</t>
+  </si>
+  <si>
+    <t>Test ineligible to return to the college/university listed</t>
+  </si>
+  <si>
+    <t>Test Additional ineligible to return to the college/university listed</t>
+  </si>
+  <si>
+    <t>OTHER TEST</t>
+  </si>
+  <si>
+    <t>Is this vehicle registered in the state of Arizona?</t>
+  </si>
+  <si>
+    <t>In which state was your license issued?</t>
+  </si>
+  <si>
+    <t>Did you, or will you, file state taxes for 2022?</t>
+  </si>
+  <si>
+    <t>Where did or where will you file your state taxes for 2022?</t>
+  </si>
+  <si>
+    <t>Are you currently employed?</t>
+  </si>
+  <si>
+    <t>Where is your primary work location?</t>
+  </si>
+  <si>
+    <t>In which state do your parent(s) or legal guardian(s) currently live?</t>
+  </si>
+  <si>
+    <t>Which parent or legal guardian lives in Arizona?</t>
+  </si>
+  <si>
+    <t>Did or will your parent(s) or legal guardian(s) file a state income tax return for the 2022 tax year?</t>
+  </si>
+  <si>
+    <t>In which state did, or will, your parent(s) or legal guardian(s) file state income taxes?</t>
+  </si>
+  <si>
+    <t>Does either parent or legal guardian have a current Arizona driver license?</t>
+  </si>
+  <si>
+    <t>Is either parent or legal guardian employed in Arizona?</t>
+  </si>
+  <si>
+    <t>In which state does your spouse currently live?</t>
+  </si>
+  <si>
+    <t>Does your spouse have a valid drivers license or state-issued ID?</t>
+  </si>
+  <si>
+    <t>What state issued this drivers license or state ID?</t>
+  </si>
+  <si>
+    <t>Is your spouse employed?</t>
+  </si>
+  <si>
+    <t>In which state is your spouse employed?</t>
+  </si>
+  <si>
+    <t>Did or will your spouse file a state income tax return for the 2022 tax year?</t>
+  </si>
+  <si>
+    <t>You indicated that you were the spouse or dependent of a U.S. service member or veteran. Which best describes the service member or veteran?</t>
   </si>
 </sst>
 </file>
@@ -939,7 +1211,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -955,6 +1227,11 @@
       <sz val="11.0"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -1015,7 +1292,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="472">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1030,6 +1307,7 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1037,6 +1315,873 @@
       <alignment horizontal="left"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
@@ -3544,16 +4689,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -3561,16 +4706,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -3578,16 +4723,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
@@ -3617,16 +4762,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -3634,16 +4779,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -3651,16 +4796,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
@@ -3668,16 +4813,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
@@ -3685,16 +4830,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
@@ -3702,16 +4847,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>3</v>
@@ -3719,16 +4864,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>3</v>
@@ -3736,16 +4881,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>3</v>
@@ -3753,16 +4898,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>3</v>
@@ -3770,16 +4915,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>3</v>
@@ -3809,83 +4954,83 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>39</v>
+      <c r="A2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>93</v>
+      <c r="A3" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>94</v>
+      <c r="A4" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>94</v>
+      <c r="A5" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>95</v>
+      <c r="A6" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -3913,240 +5058,1277 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="B1" s="3"/>
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="313" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="B2" s="3"/>
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="314" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="3"/>
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="315" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="3"/>
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="316" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="3"/>
+      <c r="A5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B5" s="317" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="3"/>
+      <c r="A6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B6" s="318" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="3"/>
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="319" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="3"/>
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="320" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="3"/>
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="321" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="3"/>
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="322" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="3"/>
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="323" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="3"/>
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="324" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="3"/>
+      <c r="A13" t="s">
+        <v>358</v>
+      </c>
+      <c r="B13" s="325" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="3"/>
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="326" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="3"/>
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="327" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="B16" s="3"/>
+      <c r="A16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="328" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="B17" s="3"/>
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="329" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="3"/>
+      <c r="A18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="330" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="3"/>
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="331" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="3"/>
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="332" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="3"/>
+      <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="333" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="B22" s="3"/>
+      <c r="A22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="334" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="B23" s="3"/>
+      <c r="A23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="335" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="B24" s="3"/>
+      <c r="A24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="336" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="B25" s="3"/>
+      <c r="A25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="337" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="B26" s="3"/>
+      <c r="A26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="338" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="B27" s="3"/>
+      <c r="A27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="339" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="B28" s="3"/>
+      <c r="A28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="340" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="B29" s="3"/>
+      <c r="A29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="341" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="B30" s="3"/>
+      <c r="A30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="342" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="B31" s="3"/>
+      <c r="A31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="343" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="B32" s="3"/>
+      <c r="A32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="344" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="B33" s="3"/>
+      <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="345" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="B34" s="3"/>
+      <c r="A34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" s="346" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="B35" s="3"/>
+      <c r="A35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" s="347" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="B36" s="3"/>
+      <c r="A36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="348" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="B37" s="3"/>
+      <c r="A37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" s="349" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
+      <c r="A38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" s="350" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="351" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="A40" t="s">
+        <v>360</v>
+      </c>
+      <c r="B40" s="352" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="A41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" s="353" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="A42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="354" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="A43" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" s="355" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="A44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" s="356" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" t="s">
+        <v>361</v>
+      </c>
+      <c r="B45" s="357" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="A46" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" s="358" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" customHeight="1">
+      <c r="A47" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="359" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" customHeight="1">
+      <c r="A48" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" s="360" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" customHeight="1">
+      <c r="A49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" s="361" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" customHeight="1">
+      <c r="A50" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" s="362" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" customHeight="1">
+      <c r="A51" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" s="363" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" customHeight="1">
+      <c r="A52" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" s="364" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" customHeight="1">
+      <c r="A53" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53" s="365" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" customHeight="1">
+      <c r="A54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" s="366" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" customHeight="1">
+      <c r="A55" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" s="367" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25" customHeight="1">
+      <c r="A56" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" s="368" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" customHeight="1">
+      <c r="A57" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57" s="369" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" customHeight="1">
+      <c r="A58" t="s">
+        <v>165</v>
+      </c>
+      <c r="B58" s="370" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" customHeight="1">
+      <c r="A59" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" s="371" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" customHeight="1">
+      <c r="A60" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" s="372" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25" customHeight="1">
+      <c r="A61" t="s">
+        <v>172</v>
+      </c>
+      <c r="B61" s="373" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" customHeight="1">
+      <c r="A62" t="s">
+        <v>174</v>
+      </c>
+      <c r="B62" s="374" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" customHeight="1">
+      <c r="A63" t="s">
+        <v>165</v>
+      </c>
+      <c r="B63" s="375" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" customHeight="1">
+      <c r="A64" t="s">
+        <v>181</v>
+      </c>
+      <c r="B64" s="376" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25" customHeight="1">
+      <c r="A65" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" s="377" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25" customHeight="1">
+      <c r="A66" t="s">
+        <v>172</v>
+      </c>
+      <c r="B66" s="378" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25" customHeight="1">
+      <c r="A67" t="s">
+        <v>174</v>
+      </c>
+      <c r="B67" s="379" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25" customHeight="1">
+      <c r="A68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" s="380" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25" customHeight="1">
+      <c r="A69" t="s">
+        <v>181</v>
+      </c>
+      <c r="B69" s="381" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25" customHeight="1">
+      <c r="A70" t="s">
+        <v>183</v>
+      </c>
+      <c r="B70" s="382" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25" customHeight="1">
+      <c r="A71" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="383" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="A72" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" s="384" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25" customHeight="1">
+      <c r="A73" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" s="385" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25" customHeight="1">
+      <c r="A74" t="s">
+        <v>181</v>
+      </c>
+      <c r="B74" s="386" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25" customHeight="1">
+      <c r="A75" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" s="387" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25" customHeight="1">
+      <c r="A76" t="s">
+        <v>172</v>
+      </c>
+      <c r="B76" s="388" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25" customHeight="1">
+      <c r="A77" t="s">
+        <v>174</v>
+      </c>
+      <c r="B77" s="389" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25" customHeight="1">
+      <c r="A78" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="390" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25" customHeight="1">
+      <c r="A79" t="s">
+        <v>181</v>
+      </c>
+      <c r="B79" s="391" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25" customHeight="1">
+      <c r="A80" t="s">
+        <v>183</v>
+      </c>
+      <c r="B80" s="392" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25" customHeight="1">
+      <c r="A81" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81" s="393" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25" customHeight="1">
+      <c r="A82" t="s">
+        <v>174</v>
+      </c>
+      <c r="B82" s="394" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25" customHeight="1">
+      <c r="A83" t="s">
+        <v>165</v>
+      </c>
+      <c r="B83" s="395" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25" customHeight="1">
+      <c r="A84" t="s">
+        <v>181</v>
+      </c>
+      <c r="B84" s="396" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25" customHeight="1">
+      <c r="A85" t="s">
+        <v>183</v>
+      </c>
+      <c r="B85" s="397" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25" customHeight="1">
+      <c r="A86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" s="398" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25" customHeight="1">
+      <c r="A87" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" s="399" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" customHeight="1">
+      <c r="A88" t="s">
+        <v>165</v>
+      </c>
+      <c r="B88" s="400" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25" customHeight="1">
+      <c r="A89" t="s">
+        <v>181</v>
+      </c>
+      <c r="B89" s="401" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25" customHeight="1">
+      <c r="A90" t="s">
+        <v>183</v>
+      </c>
+      <c r="B90" s="402" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25" customHeight="1">
+      <c r="A91" t="s">
+        <v>362</v>
+      </c>
+      <c r="B91" s="403" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25" customHeight="1">
+      <c r="A92" t="s">
+        <v>209</v>
+      </c>
+      <c r="B92" s="404" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25" customHeight="1">
+      <c r="A93" t="s">
+        <v>174</v>
+      </c>
+      <c r="B93" s="405" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25" customHeight="1">
+      <c r="A94" t="s">
+        <v>165</v>
+      </c>
+      <c r="B94" s="406" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25" customHeight="1">
+      <c r="A95" t="s">
+        <v>211</v>
+      </c>
+      <c r="B95" s="407" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25" customHeight="1">
+      <c r="A96" t="s">
+        <v>213</v>
+      </c>
+      <c r="B96" s="408" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25" customHeight="1">
+      <c r="A97" t="s">
+        <v>216</v>
+      </c>
+      <c r="B97" s="409" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25" customHeight="1">
+      <c r="A98" t="s">
+        <v>218</v>
+      </c>
+      <c r="B98" s="410" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25" customHeight="1">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" s="411" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25" customHeight="1">
+      <c r="A100" t="s">
+        <v>219</v>
+      </c>
+      <c r="B100" s="412" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25" customHeight="1">
+      <c r="A101" t="s">
+        <v>221</v>
+      </c>
+      <c r="B101" s="413" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25" customHeight="1">
+      <c r="A102" t="s">
+        <v>223</v>
+      </c>
+      <c r="B102" s="414" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25" customHeight="1">
+      <c r="A103" t="s">
+        <v>225</v>
+      </c>
+      <c r="B103" s="415" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25" customHeight="1">
+      <c r="A104" t="s">
+        <v>226</v>
+      </c>
+      <c r="B104" s="416" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25" customHeight="1">
+      <c r="A105" t="s">
+        <v>228</v>
+      </c>
+      <c r="B105" s="417" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25" customHeight="1">
+      <c r="A106" t="s">
+        <v>221</v>
+      </c>
+      <c r="B106" s="418" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25" customHeight="1">
+      <c r="A107" t="s">
+        <v>223</v>
+      </c>
+      <c r="B107" s="419" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25" customHeight="1">
+      <c r="A108" t="s">
+        <v>225</v>
+      </c>
+      <c r="B108" s="420" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" ht="14.25" customHeight="1">
+      <c r="A109" t="s">
+        <v>226</v>
+      </c>
+      <c r="B109" s="421" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25" customHeight="1">
+      <c r="A110" t="s">
+        <v>281</v>
+      </c>
+      <c r="B110" s="422" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" ht="14.25" customHeight="1">
+      <c r="A111" t="s">
+        <v>282</v>
+      </c>
+      <c r="B111" s="423" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25" customHeight="1">
+      <c r="A112" t="s">
+        <v>284</v>
+      </c>
+      <c r="B112" s="424" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25" customHeight="1">
+      <c r="A113" t="s">
+        <v>286</v>
+      </c>
+      <c r="B113" s="425" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="114" ht="14.25" customHeight="1">
+      <c r="A114" t="s">
+        <v>288</v>
+      </c>
+      <c r="B114" s="426" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25" customHeight="1">
+      <c r="A115" t="s">
+        <v>290</v>
+      </c>
+      <c r="B115" s="427" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25" customHeight="1">
+      <c r="A116" t="s">
+        <v>292</v>
+      </c>
+      <c r="B116" s="428" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25" customHeight="1">
+      <c r="A117" t="s">
+        <v>293</v>
+      </c>
+      <c r="B117" s="429" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="118" ht="14.25" customHeight="1">
+      <c r="A118" t="s">
+        <v>294</v>
+      </c>
+      <c r="B118" s="430" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="119" ht="14.25" customHeight="1">
+      <c r="A119" t="s">
+        <v>295</v>
+      </c>
+      <c r="B119" s="431" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="120" ht="14.25" customHeight="1">
+      <c r="A120" t="s">
+        <v>296</v>
+      </c>
+      <c r="B120" s="432" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25" customHeight="1">
+      <c r="A121" t="s">
+        <v>297</v>
+      </c>
+      <c r="B121" s="433" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="122" ht="14.25" customHeight="1">
+      <c r="A122" t="s">
+        <v>299</v>
+      </c>
+      <c r="B122" s="434" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25" customHeight="1">
+      <c r="A123" t="s">
+        <v>300</v>
+      </c>
+      <c r="B123" s="435" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="124" ht="14.25" customHeight="1">
+      <c r="A124" t="s">
+        <v>302</v>
+      </c>
+      <c r="B124" s="436" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="125" ht="14.25" customHeight="1">
+      <c r="A125" t="s">
+        <v>310</v>
+      </c>
+      <c r="B125" s="437" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="126" ht="14.25" customHeight="1">
+      <c r="A126" t="s">
+        <v>366</v>
+      </c>
+      <c r="B126" s="438" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="127" ht="14.25" customHeight="1">
+      <c r="A127" t="s">
+        <v>312</v>
+      </c>
+      <c r="B127" s="439" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="128" ht="14.25" customHeight="1">
+      <c r="A128" t="s">
+        <v>305</v>
+      </c>
+      <c r="B128" s="440" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="129" ht="14.25" customHeight="1">
+      <c r="A129" t="s">
+        <v>367</v>
+      </c>
+      <c r="B129" s="441" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="130" ht="14.25" customHeight="1">
+      <c r="A130" t="s">
+        <v>308</v>
+      </c>
+      <c r="B130" s="442" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="131" ht="14.25" customHeight="1">
+      <c r="A131" t="s">
+        <v>368</v>
+      </c>
+      <c r="B131" s="443" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="132" ht="14.25" customHeight="1">
+      <c r="A132" t="s">
+        <v>369</v>
+      </c>
+      <c r="B132" s="444" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="133" ht="14.25" customHeight="1">
+      <c r="A133" t="s">
+        <v>317</v>
+      </c>
+      <c r="B133" s="445" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="134" ht="14.25" customHeight="1">
+      <c r="A134" t="s">
+        <v>319</v>
+      </c>
+      <c r="B134" s="446" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="135" ht="14.25" customHeight="1">
+      <c r="A135" t="s">
+        <v>321</v>
+      </c>
+      <c r="B135" s="447" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="136" ht="14.25" customHeight="1">
+      <c r="A136" t="s">
+        <v>323</v>
+      </c>
+      <c r="B136" s="448" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="137" ht="14.25" customHeight="1">
+      <c r="A137" t="s">
+        <v>370</v>
+      </c>
+      <c r="B137" s="449" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25" customHeight="1">
+      <c r="A138" t="s">
+        <v>371</v>
+      </c>
+      <c r="B138" s="450" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="139" ht="14.25" customHeight="1">
+      <c r="A139" t="s">
+        <v>327</v>
+      </c>
+      <c r="B139" s="451" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="140" ht="14.25" customHeight="1">
+      <c r="A140" t="s">
+        <v>372</v>
+      </c>
+      <c r="B140" s="452" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="141" ht="14.25" customHeight="1">
+      <c r="A141" t="s">
+        <v>373</v>
+      </c>
+      <c r="B141" s="453" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="142" ht="14.25" customHeight="1">
+      <c r="A142" t="s">
+        <v>374</v>
+      </c>
+      <c r="B142" s="454" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="143" ht="14.25" customHeight="1">
+      <c r="A143" t="s">
+        <v>375</v>
+      </c>
+      <c r="B143" s="455" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="144" ht="14.25" customHeight="1">
+      <c r="A144" t="s">
+        <v>376</v>
+      </c>
+      <c r="B144" s="456" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="145" ht="14.25" customHeight="1">
+      <c r="A145" t="s">
+        <v>377</v>
+      </c>
+      <c r="B145" s="457" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146" ht="14.25" customHeight="1">
+      <c r="A146" t="s">
+        <v>378</v>
+      </c>
+      <c r="B146" s="458" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="147" ht="14.25" customHeight="1">
+      <c r="A147" t="s">
+        <v>340</v>
+      </c>
+      <c r="B147" s="459" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="148" ht="14.25" customHeight="1">
+      <c r="A148" t="s">
+        <v>379</v>
+      </c>
+      <c r="B148" s="460" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" ht="14.25" customHeight="1">
+      <c r="A149" t="s">
+        <v>380</v>
+      </c>
+      <c r="B149" s="461" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="150" ht="14.25" customHeight="1">
+      <c r="A150" t="s">
+        <v>344</v>
+      </c>
+      <c r="B150" s="462" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="151" ht="14.25" customHeight="1">
+      <c r="A151" t="s">
+        <v>381</v>
+      </c>
+      <c r="B151" s="463" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="152" ht="14.25" customHeight="1">
+      <c r="A152" t="s">
+        <v>382</v>
+      </c>
+      <c r="B152" s="464" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="153" ht="14.25" customHeight="1">
+      <c r="A153" t="s">
+        <v>351</v>
+      </c>
+      <c r="B153" s="465" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="154" ht="14.25" customHeight="1">
+      <c r="A154" t="s">
+        <v>353</v>
+      </c>
+      <c r="B154" s="466" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="155" ht="14.25" customHeight="1">
+      <c r="A155" t="s">
+        <v>383</v>
+      </c>
+      <c r="B155" s="467" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="156" ht="14.25" customHeight="1">
+      <c r="A156" t="s">
+        <v>347</v>
+      </c>
+      <c r="B156" s="468" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="157" ht="14.25" customHeight="1">
+      <c r="A157" t="s">
+        <v>354</v>
+      </c>
+      <c r="B157" s="469" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="158" ht="14.25" customHeight="1">
+      <c r="A158" t="s">
+        <v>384</v>
+      </c>
+      <c r="B158" s="470" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="159" ht="14.25" customHeight="1">
+      <c r="A159" t="s">
+        <v>304</v>
+      </c>
+      <c r="B159" s="471" t="s">
+        <v>135</v>
+      </c>
+    </row>
     <row r="160" ht="14.25" customHeight="1"/>
     <row r="161" ht="14.25" customHeight="1"/>
     <row r="162" ht="14.25" customHeight="1"/>
@@ -5016,16 +7198,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -5033,16 +7215,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -5050,16 +7232,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
@@ -5090,1074 +7272,1100 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="B1" s="140" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="B2" s="141" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>29</v>
+        <v>109</v>
+      </c>
+      <c r="B3" s="142" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="B4" s="143" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1"/>
     <row r="6" ht="14.25" customHeight="1"/>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="B7" s="144" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="B8" s="145" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="B9" s="146" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="B10" s="150" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>71</v>
+        <v>120</v>
+      </c>
+      <c r="B11" s="151" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>72</v>
+        <v>121</v>
+      </c>
+      <c r="B12" s="152" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="B13" s="155" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="B14" s="156" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>125</v>
+        <v>128</v>
+      </c>
+      <c r="B15" s="157" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>127</v>
+        <v>130</v>
+      </c>
+      <c r="B16" s="158" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>129</v>
+        <v>132</v>
+      </c>
+      <c r="B17" s="159" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>131</v>
+        <v>136</v>
+      </c>
+      <c r="B18" s="160" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>133</v>
+        <v>138</v>
+      </c>
+      <c r="B19" s="161" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>135</v>
+        <v>140</v>
+      </c>
+      <c r="B20" s="162" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>137</v>
+        <v>134</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>139</v>
+        <v>142</v>
+      </c>
+      <c r="B22" s="163" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>140</v>
+        <v>138</v>
+      </c>
+      <c r="B23" s="164" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="165" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>137</v>
+        <v>134</v>
+      </c>
+      <c r="B25" s="166" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>143</v>
+        <v>147</v>
+      </c>
+      <c r="B26" s="167" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" t="s">
-        <v>144</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>145</v>
+        <v>149</v>
+      </c>
+      <c r="B27" s="168" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>146</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>147</v>
+        <v>151</v>
+      </c>
+      <c r="B28" s="169" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>149</v>
+        <v>153</v>
+      </c>
+      <c r="B29" s="170" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="B30" s="171" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>151</v>
-      </c>
-      <c r="B31" s="44" t="s">
-        <v>152</v>
+        <v>156</v>
+      </c>
+      <c r="B31" s="174" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="B32" s="3"/>
+      <c r="A32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="173" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>157</v>
-      </c>
-      <c r="B33" s="49" t="s">
-        <v>158</v>
+        <v>163</v>
+      </c>
+      <c r="B33" s="179" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>159</v>
-      </c>
-      <c r="B34" s="50" t="s">
-        <v>160</v>
+        <v>165</v>
+      </c>
+      <c r="B34" s="180" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>161</v>
-      </c>
-      <c r="B35" s="51" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
+        <v>167</v>
+      </c>
+      <c r="B35" s="181" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="A37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" s="57" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" s="58" t="s">
+        <v>166</v>
+      </c>
+    </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>153</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>137</v>
+        <v>159</v>
+      </c>
+      <c r="B39" s="175" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>154</v>
-      </c>
-      <c r="B40" s="46" t="s">
-        <v>152</v>
+        <v>160</v>
+      </c>
+      <c r="B40" s="176" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>155</v>
-      </c>
-      <c r="B41" s="47" t="s">
-        <v>152</v>
+        <v>161</v>
+      </c>
+      <c r="B41" s="177" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>156</v>
-      </c>
-      <c r="B42" s="48" t="s">
-        <v>137</v>
+        <v>162</v>
+      </c>
+      <c r="B42" s="178" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>163</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>121</v>
+        <v>171</v>
+      </c>
+      <c r="B43" s="182" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>164</v>
-      </c>
-      <c r="B44" s="53" t="s">
-        <v>165</v>
+        <v>172</v>
+      </c>
+      <c r="B44" s="183" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>166</v>
-      </c>
-      <c r="B45" s="54" t="s">
-        <v>167</v>
+        <v>174</v>
+      </c>
+      <c r="B45" s="184" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>159</v>
-      </c>
-      <c r="B46" s="55" t="s">
-        <v>168</v>
+        <v>165</v>
+      </c>
+      <c r="B46" s="185" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>169</v>
-      </c>
-      <c r="B47" s="56" t="s">
-        <v>170</v>
+        <v>177</v>
+      </c>
+      <c r="B47" s="186" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B48" s="57" t="s">
-        <v>121</v>
+        <v>179</v>
+      </c>
+      <c r="B48" s="187" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" t="s">
-        <v>164</v>
-      </c>
-      <c r="B49" s="58" t="s">
-        <v>80</v>
+        <v>172</v>
+      </c>
+      <c r="B49" s="188" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" t="s">
-        <v>166</v>
-      </c>
-      <c r="B50" s="59" t="s">
-        <v>167</v>
+        <v>174</v>
+      </c>
+      <c r="B50" s="189" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" t="s">
-        <v>159</v>
-      </c>
-      <c r="B51" s="60" t="s">
-        <v>172</v>
+        <v>165</v>
+      </c>
+      <c r="B51" s="190" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>173</v>
-      </c>
-      <c r="B52" s="61" t="s">
-        <v>174</v>
+        <v>181</v>
+      </c>
+      <c r="B52" s="191" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>175</v>
-      </c>
-      <c r="B53" s="62" t="s">
-        <v>176</v>
+        <v>183</v>
+      </c>
+      <c r="B53" s="192" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" t="s">
-        <v>164</v>
-      </c>
-      <c r="B54" s="63" t="s">
-        <v>81</v>
+        <v>172</v>
+      </c>
+      <c r="B54" s="193" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" t="s">
-        <v>166</v>
-      </c>
-      <c r="B55" s="64" t="s">
-        <v>167</v>
+        <v>174</v>
+      </c>
+      <c r="B55" s="194" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" t="s">
-        <v>159</v>
-      </c>
-      <c r="B56" s="65" t="s">
-        <v>177</v>
+        <v>165</v>
+      </c>
+      <c r="B56" s="195" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" t="s">
-        <v>173</v>
-      </c>
-      <c r="B57" s="66" t="s">
-        <v>178</v>
+        <v>181</v>
+      </c>
+      <c r="B57" s="196" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" t="s">
-        <v>175</v>
-      </c>
-      <c r="B58" s="67" t="s">
-        <v>179</v>
+        <v>183</v>
+      </c>
+      <c r="B58" s="197" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" t="s">
-        <v>164</v>
-      </c>
-      <c r="B59" s="68" t="s">
-        <v>82</v>
+        <v>172</v>
+      </c>
+      <c r="B59" s="198" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" t="s">
-        <v>166</v>
-      </c>
-      <c r="B60" s="69" t="s">
-        <v>167</v>
+        <v>174</v>
+      </c>
+      <c r="B60" s="199" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" t="s">
-        <v>159</v>
-      </c>
-      <c r="B61" s="70" t="s">
-        <v>180</v>
+        <v>165</v>
+      </c>
+      <c r="B61" s="200" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" t="s">
-        <v>173</v>
-      </c>
-      <c r="B62" s="71" t="s">
         <v>181</v>
+      </c>
+      <c r="B62" s="201" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" t="s">
-        <v>175</v>
-      </c>
-      <c r="B63" s="72" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="B63" s="202" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" t="s">
-        <v>164</v>
-      </c>
-      <c r="B64" s="73" t="s">
-        <v>83</v>
+        <v>172</v>
+      </c>
+      <c r="B64" s="203" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" t="s">
-        <v>166</v>
-      </c>
-      <c r="B65" s="74" t="s">
-        <v>167</v>
+        <v>174</v>
+      </c>
+      <c r="B65" s="204" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" t="s">
-        <v>159</v>
-      </c>
-      <c r="B66" s="75" t="s">
-        <v>183</v>
+        <v>165</v>
+      </c>
+      <c r="B66" s="205" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" t="s">
-        <v>173</v>
-      </c>
-      <c r="B67" s="76" t="s">
-        <v>184</v>
+        <v>181</v>
+      </c>
+      <c r="B67" s="206" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" t="s">
-        <v>175</v>
-      </c>
-      <c r="B68" s="77" t="s">
-        <v>185</v>
+        <v>183</v>
+      </c>
+      <c r="B68" s="207" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" t="s">
-        <v>164</v>
-      </c>
-      <c r="B69" s="78" t="s">
-        <v>84</v>
+        <v>172</v>
+      </c>
+      <c r="B69" s="208" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" t="s">
-        <v>166</v>
-      </c>
-      <c r="B70" s="79" t="s">
-        <v>167</v>
+        <v>174</v>
+      </c>
+      <c r="B70" s="209" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" t="s">
-        <v>159</v>
-      </c>
-      <c r="B71" s="80" t="s">
-        <v>186</v>
+        <v>165</v>
+      </c>
+      <c r="B71" s="210" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" t="s">
-        <v>173</v>
-      </c>
-      <c r="B72" s="81" t="s">
-        <v>187</v>
+        <v>181</v>
+      </c>
+      <c r="B72" s="211" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" t="s">
-        <v>175</v>
-      </c>
-      <c r="B73" s="82" t="s">
-        <v>188</v>
+        <v>183</v>
+      </c>
+      <c r="B73" s="212" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="A74" t="s">
-        <v>164</v>
-      </c>
-      <c r="B74" s="83" t="s">
-        <v>85</v>
+        <v>172</v>
+      </c>
+      <c r="B74" s="213" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" t="s">
-        <v>166</v>
-      </c>
-      <c r="B75" s="84" t="s">
-        <v>167</v>
+        <v>174</v>
+      </c>
+      <c r="B75" s="214" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" t="s">
-        <v>159</v>
-      </c>
-      <c r="B76" s="85" t="s">
-        <v>189</v>
+        <v>165</v>
+      </c>
+      <c r="B76" s="215" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" t="s">
-        <v>173</v>
-      </c>
-      <c r="B77" s="86" t="s">
-        <v>190</v>
+        <v>181</v>
+      </c>
+      <c r="B77" s="216" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="A78" t="s">
-        <v>175</v>
-      </c>
-      <c r="B78" s="87" t="s">
-        <v>191</v>
+        <v>183</v>
+      </c>
+      <c r="B78" s="217" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="A79" t="s">
-        <v>164</v>
-      </c>
-      <c r="B79" s="88" t="s">
-        <v>86</v>
+        <v>172</v>
+      </c>
+      <c r="B79" s="218" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="A80" t="s">
-        <v>166</v>
-      </c>
-      <c r="B80" s="89" t="s">
-        <v>167</v>
+        <v>174</v>
+      </c>
+      <c r="B80" s="219" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
       <c r="A81" t="s">
-        <v>159</v>
-      </c>
-      <c r="B81" s="90" t="s">
-        <v>192</v>
+        <v>165</v>
+      </c>
+      <c r="B81" s="220" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
       <c r="A82" t="s">
-        <v>173</v>
-      </c>
-      <c r="B82" s="91" t="s">
-        <v>193</v>
+        <v>181</v>
+      </c>
+      <c r="B82" s="221" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="A83" t="s">
-        <v>175</v>
-      </c>
-      <c r="B83" s="92" t="s">
-        <v>194</v>
+        <v>183</v>
+      </c>
+      <c r="B83" s="222" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1">
       <c r="A84" t="s">
-        <v>164</v>
-      </c>
-      <c r="B84" s="93" t="s">
-        <v>87</v>
+        <v>172</v>
+      </c>
+      <c r="B84" s="223" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="A85" t="s">
-        <v>166</v>
-      </c>
-      <c r="B85" s="94" t="s">
-        <v>167</v>
+        <v>174</v>
+      </c>
+      <c r="B85" s="224" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="A86" t="s">
-        <v>159</v>
-      </c>
-      <c r="B86" s="95" t="s">
-        <v>195</v>
+        <v>165</v>
+      </c>
+      <c r="B86" s="225" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
       <c r="A87" t="s">
-        <v>173</v>
-      </c>
-      <c r="B87" s="96" t="s">
-        <v>196</v>
+        <v>181</v>
+      </c>
+      <c r="B87" s="226" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="A88" t="s">
-        <v>175</v>
-      </c>
-      <c r="B88" s="97" t="s">
-        <v>197</v>
+        <v>183</v>
+      </c>
+      <c r="B88" s="227" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" t="s">
-        <v>164</v>
-      </c>
-      <c r="B89" s="98" t="s">
-        <v>88</v>
+        <v>172</v>
+      </c>
+      <c r="B89" s="228" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" t="s">
-        <v>166</v>
-      </c>
-      <c r="B90" s="99" t="s">
-        <v>167</v>
+        <v>174</v>
+      </c>
+      <c r="B90" s="229" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="A91" t="s">
-        <v>159</v>
-      </c>
-      <c r="B91" s="100" t="s">
-        <v>198</v>
+        <v>165</v>
+      </c>
+      <c r="B91" s="230" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1">
       <c r="A92" t="s">
-        <v>173</v>
-      </c>
-      <c r="B92" s="101" t="s">
-        <v>199</v>
+        <v>181</v>
+      </c>
+      <c r="B92" s="231" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="A93" t="s">
-        <v>175</v>
-      </c>
-      <c r="B93" s="102" t="s">
-        <v>200</v>
+        <v>183</v>
+      </c>
+      <c r="B93" s="232" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="A94" t="s">
-        <v>201</v>
-      </c>
-      <c r="B94" s="110" t="s">
-        <v>121</v>
+        <v>12</v>
+      </c>
+      <c r="B94" s="240" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="A95" t="s">
-        <v>203</v>
-      </c>
-      <c r="B95" s="112" t="s">
         <v>209</v>
+      </c>
+      <c r="B95" s="243" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1">
       <c r="A96" t="s">
-        <v>166</v>
-      </c>
-      <c r="B96" s="113" t="s">
-        <v>167</v>
+        <v>174</v>
+      </c>
+      <c r="B96" s="244" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" t="s">
-        <v>159</v>
-      </c>
-      <c r="B97" s="111" t="s">
-        <v>208</v>
+        <v>165</v>
+      </c>
+      <c r="B97" s="241" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1">
       <c r="A98" t="s">
-        <v>205</v>
-      </c>
-      <c r="B98" s="114" t="s">
-        <v>210</v>
+        <v>211</v>
+      </c>
+      <c r="B98" s="245" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1">
       <c r="A99" t="s">
-        <v>207</v>
-      </c>
-      <c r="B99" s="115" t="s">
-        <v>101</v>
+        <v>213</v>
+      </c>
+      <c r="B99" s="246" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1">
       <c r="A100" t="s">
-        <v>211</v>
-      </c>
-      <c r="B100" s="116" t="s">
-        <v>212</v>
+        <v>216</v>
+      </c>
+      <c r="B100" s="247" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1">
       <c r="A101" t="s">
-        <v>213</v>
-      </c>
-      <c r="B101" s="117" t="s">
-        <v>197</v>
+        <v>218</v>
+      </c>
+      <c r="B101" s="248" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="102" ht="14.25" customHeight="1">
       <c r="A102" t="s">
-        <v>214</v>
-      </c>
-      <c r="B102" s="118" t="s">
-        <v>96</v>
+        <v>14</v>
+      </c>
+      <c r="B102" s="249" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="103" ht="14.25" customHeight="1">
       <c r="A103" t="s">
-        <v>215</v>
-      </c>
-      <c r="B103" s="119" t="s">
-        <v>216</v>
+        <v>219</v>
+      </c>
+      <c r="B103" s="250" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="104" ht="14.25" customHeight="1">
       <c r="A104" t="s">
-        <v>217</v>
-      </c>
-      <c r="B104" s="120" t="s">
-        <v>218</v>
+        <v>221</v>
+      </c>
+      <c r="B104" s="251" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="105" ht="14.25" customHeight="1">
       <c r="A105" t="s">
-        <v>219</v>
-      </c>
-      <c r="B105" s="122" t="s">
-        <v>220</v>
+        <v>223</v>
+      </c>
+      <c r="B105" s="252" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="106" ht="14.25" customHeight="1">
       <c r="A106" t="s">
-        <v>221</v>
-      </c>
-      <c r="B106" s="123" t="s">
+        <v>225</v>
+      </c>
+      <c r="B106" s="253" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="107" ht="14.25" customHeight="1">
       <c r="A107" t="s">
-        <v>222</v>
-      </c>
-      <c r="B107" s="124" t="s">
-        <v>223</v>
+        <v>226</v>
+      </c>
+      <c r="B107" s="254" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="108" ht="14.25" customHeight="1">
       <c r="A108" t="s">
-        <v>224</v>
-      </c>
-      <c r="B108" s="125" t="s">
-        <v>225</v>
+        <v>228</v>
+      </c>
+      <c r="B108" s="255" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="109" ht="14.25" customHeight="1">
       <c r="A109" t="s">
-        <v>217</v>
-      </c>
-      <c r="B109" s="126" t="s">
-        <v>218</v>
+        <v>221</v>
+      </c>
+      <c r="B109" s="257" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="110" ht="14.25" customHeight="1">
       <c r="A110" t="s">
-        <v>219</v>
-      </c>
-      <c r="B110" s="127" t="s">
-        <v>218</v>
+        <v>223</v>
+      </c>
+      <c r="B110" s="258" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="A111" t="s">
-        <v>221</v>
-      </c>
-      <c r="B111" s="128" t="s">
-        <v>218</v>
+        <v>225</v>
+      </c>
+      <c r="B111" s="260" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="112" ht="14.25" customHeight="1">
       <c r="A112" t="s">
-        <v>222</v>
-      </c>
-      <c r="B112" s="129" t="s">
         <v>226</v>
+      </c>
+      <c r="B112" s="261" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="113" ht="14.25" customHeight="1">
       <c r="A113" t="s">
-        <v>227</v>
-      </c>
-      <c r="B113" s="130" t="s">
+        <v>281</v>
+      </c>
+      <c r="B113" s="262" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="114" ht="14.25" customHeight="1">
       <c r="A114" t="s">
-        <v>228</v>
-      </c>
-      <c r="B114" s="131" t="s">
-        <v>229</v>
+        <v>282</v>
+      </c>
+      <c r="B114" s="263" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="115" ht="14.25" customHeight="1">
       <c r="A115" t="s">
-        <v>230</v>
-      </c>
-      <c r="B115" s="132" t="s">
-        <v>231</v>
+        <v>284</v>
+      </c>
+      <c r="B115" s="264" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="116" ht="14.25" customHeight="1">
       <c r="A116" t="s">
-        <v>232</v>
-      </c>
-      <c r="B116" s="133" t="s">
-        <v>233</v>
+        <v>286</v>
+      </c>
+      <c r="B116" s="265" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="117" ht="14.25" customHeight="1">
       <c r="A117" t="s">
-        <v>234</v>
-      </c>
-      <c r="B117" s="134" t="s">
-        <v>235</v>
+        <v>288</v>
+      </c>
+      <c r="B117" s="266" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1">
       <c r="A118" t="s">
-        <v>236</v>
-      </c>
-      <c r="B118" s="135" t="s">
-        <v>235</v>
+        <v>290</v>
+      </c>
+      <c r="B118" s="267" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="119" ht="14.25" customHeight="1">
       <c r="A119" t="s">
-        <v>237</v>
-      </c>
-      <c r="B119" s="136" t="s">
-        <v>235</v>
+        <v>292</v>
+      </c>
+      <c r="B119" s="268" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="120" ht="14.25" customHeight="1">
       <c r="A120" t="s">
-        <v>238</v>
-      </c>
-      <c r="B120" s="137" t="s">
-        <v>121</v>
+        <v>293</v>
+      </c>
+      <c r="B120" s="269" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="121" ht="14.25" customHeight="1">
       <c r="A121" t="s">
-        <v>239</v>
-      </c>
-      <c r="B121" s="138" t="s">
-        <v>235</v>
+        <v>294</v>
+      </c>
+      <c r="B121" s="270" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="122" ht="14.25" customHeight="1">
       <c r="A122" t="s">
-        <v>240</v>
-      </c>
-      <c r="B122" s="139" t="s">
-        <v>235</v>
+        <v>295</v>
+      </c>
+      <c r="B122" s="271" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="123" ht="14.25" customHeight="1">
       <c r="A123" t="s">
-        <v>241</v>
-      </c>
-      <c r="B123" s="140" t="s">
-        <v>235</v>
+        <v>296</v>
+      </c>
+      <c r="B123" s="272" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="124" ht="14.25" customHeight="1">
       <c r="A124" t="s">
-        <v>242</v>
-      </c>
-      <c r="B124" s="141" t="s">
-        <v>243</v>
+        <v>297</v>
+      </c>
+      <c r="B124" s="273" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="125" ht="14.25" customHeight="1">
       <c r="A125" t="s">
-        <v>244</v>
-      </c>
-      <c r="B125" s="142" t="s">
-        <v>137</v>
+        <v>299</v>
+      </c>
+      <c r="B125" s="274" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="126" ht="14.25" customHeight="1">
       <c r="A126" t="s">
-        <v>245</v>
-      </c>
-      <c r="B126" s="143" t="s">
-        <v>246</v>
+        <v>300</v>
+      </c>
+      <c r="B126" s="275" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="127" ht="14.25" customHeight="1">
       <c r="A127" t="s">
-        <v>247</v>
-      </c>
-      <c r="B127" s="144" t="s">
-        <v>248</v>
+        <v>302</v>
+      </c>
+      <c r="B127" s="276" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="128" ht="14.25" customHeight="1">
       <c r="A128" t="s">
-        <v>255</v>
-      </c>
-      <c r="B128" s="149" t="s">
-        <v>137</v>
+        <v>310</v>
+      </c>
+      <c r="B128" s="281" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="129" ht="14.25" customHeight="1">
       <c r="A129" t="s">
-        <v>256</v>
-      </c>
-      <c r="B129" s="150" t="s">
-        <v>137</v>
+        <v>311</v>
+      </c>
+      <c r="B129" s="282" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="130" ht="14.25" customHeight="1">
       <c r="A130" t="s">
-        <v>257</v>
-      </c>
-      <c r="B130" s="151" t="s">
-        <v>258</v>
+        <v>312</v>
+      </c>
+      <c r="B130" s="283" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="131" ht="14.25" customHeight="1">
       <c r="A131" t="s">
-        <v>250</v>
-      </c>
-      <c r="B131" s="146" t="s">
-        <v>137</v>
+        <v>305</v>
+      </c>
+      <c r="B131" s="278" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1">
       <c r="A132" t="s">
-        <v>253</v>
-      </c>
-      <c r="B132" s="148" t="s">
-        <v>254</v>
+        <v>308</v>
+      </c>
+      <c r="B132" s="280" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1">
       <c r="A133" t="s">
-        <v>259</v>
-      </c>
-      <c r="B133" s="152" t="s">
-        <v>137</v>
+        <v>314</v>
+      </c>
+      <c r="B133" s="284" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="134" ht="14.25" customHeight="1">
       <c r="A134" t="s">
-        <v>260</v>
-      </c>
-      <c r="B134" s="153" t="s">
-        <v>261</v>
+        <v>315</v>
+      </c>
+      <c r="B134" s="285" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="135" ht="14.25" customHeight="1">
       <c r="A135" t="s">
-        <v>262</v>
-      </c>
-      <c r="B135" s="154" t="s">
-        <v>263</v>
+        <v>317</v>
+      </c>
+      <c r="B135" s="286" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="136" ht="14.25" customHeight="1">
       <c r="A136" t="s">
-        <v>264</v>
-      </c>
-      <c r="B136" s="155" t="s">
-        <v>265</v>
+        <v>319</v>
+      </c>
+      <c r="B136" s="287" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="137" ht="14.25" customHeight="1">
       <c r="A137" t="s">
-        <v>266</v>
-      </c>
-      <c r="B137" s="156" t="s">
-        <v>267</v>
+        <v>321</v>
+      </c>
+      <c r="B137" s="288" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="138" ht="14.25" customHeight="1">
       <c r="A138" t="s">
-        <v>268</v>
-      </c>
-      <c r="B138" s="157" t="s">
-        <v>94</v>
+        <v>323</v>
+      </c>
+      <c r="B138" s="289" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="139" ht="14.25" customHeight="1">
       <c r="A139" t="s">
-        <v>269</v>
-      </c>
-      <c r="B139" s="158" t="s">
-        <v>96</v>
+        <v>324</v>
+      </c>
+      <c r="B139" s="290" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="140" ht="14.25" customHeight="1">
@@ -6183,162 +8391,162 @@
     </row>
     <row r="147" ht="14.25" customHeight="1">
       <c r="A147" t="s">
-        <v>270</v>
-      </c>
-      <c r="B147" s="159" t="s">
-        <v>137</v>
+        <v>325</v>
+      </c>
+      <c r="B147" s="291" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="148" ht="14.25" customHeight="1">
       <c r="A148" t="s">
-        <v>271</v>
-      </c>
-      <c r="B148" s="160" t="s">
-        <v>252</v>
+        <v>326</v>
+      </c>
+      <c r="B148" s="292" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="149" ht="14.25" customHeight="1">
       <c r="A149" t="s">
-        <v>272</v>
-      </c>
-      <c r="B149" s="161" t="s">
-        <v>273</v>
+        <v>327</v>
+      </c>
+      <c r="B149" s="293" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="150" ht="14.25" customHeight="1">
       <c r="A150" t="s">
-        <v>276</v>
-      </c>
-      <c r="B150" s="163" t="s">
-        <v>252</v>
+        <v>331</v>
+      </c>
+      <c r="B150" s="295" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="151" ht="14.25" customHeight="1">
       <c r="A151" t="s">
-        <v>277</v>
-      </c>
-      <c r="B151" s="164" t="s">
-        <v>278</v>
+        <v>332</v>
+      </c>
+      <c r="B151" s="296" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="152" ht="14.25" customHeight="1">
       <c r="A152" t="s">
-        <v>279</v>
-      </c>
-      <c r="B152" s="165" t="s">
-        <v>137</v>
+        <v>334</v>
+      </c>
+      <c r="B152" s="297" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="153" ht="14.25" customHeight="1">
       <c r="A153" t="s">
-        <v>280</v>
-      </c>
-      <c r="B153" s="166" t="s">
-        <v>252</v>
+        <v>335</v>
+      </c>
+      <c r="B153" s="298" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="154" ht="14.25" customHeight="1">
       <c r="A154" t="s">
-        <v>281</v>
-      </c>
-      <c r="B154" s="167" t="s">
-        <v>152</v>
+        <v>337</v>
+      </c>
+      <c r="B154" s="299" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="155" ht="14.25" customHeight="1">
       <c r="A155" t="s">
-        <v>282</v>
-      </c>
-      <c r="B155" s="168" t="s">
-        <v>218</v>
+        <v>338</v>
+      </c>
+      <c r="B155" s="300" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="156" ht="14.25" customHeight="1">
       <c r="A156" t="s">
-        <v>283</v>
-      </c>
-      <c r="B156" s="169" t="s">
-        <v>252</v>
+        <v>339</v>
+      </c>
+      <c r="B156" s="301" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="157" ht="14.25" customHeight="1">
       <c r="A157" t="s">
-        <v>284</v>
-      </c>
-      <c r="B157" s="170" t="s">
-        <v>285</v>
+        <v>340</v>
+      </c>
+      <c r="B157" s="302" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="158" ht="14.25" customHeight="1">
       <c r="A158" t="s">
-        <v>286</v>
-      </c>
-      <c r="B158" s="171" t="s">
-        <v>137</v>
+        <v>342</v>
+      </c>
+      <c r="B158" s="303" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="159" ht="14.25" customHeight="1">
       <c r="A159" t="s">
-        <v>287</v>
-      </c>
-      <c r="B159" s="172" t="s">
-        <v>252</v>
+        <v>343</v>
+      </c>
+      <c r="B159" s="304" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="160" ht="14.25" customHeight="1">
       <c r="A160" t="s">
-        <v>288</v>
-      </c>
-      <c r="B160" s="173" t="s">
-        <v>289</v>
+        <v>344</v>
+      </c>
+      <c r="B160" s="305" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="161" ht="14.25" customHeight="1">
       <c r="A161" t="s">
-        <v>293</v>
-      </c>
-      <c r="B161" s="176" t="s">
-        <v>137</v>
+        <v>349</v>
+      </c>
+      <c r="B161" s="308" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="162" ht="14.25" customHeight="1">
       <c r="A162" t="s">
-        <v>294</v>
-      </c>
-      <c r="B162" s="177" t="s">
-        <v>252</v>
+        <v>350</v>
+      </c>
+      <c r="B162" s="309" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="163" ht="14.25" customHeight="1">
       <c r="A163" t="s">
-        <v>295</v>
-      </c>
-      <c r="B163" s="178" t="s">
-        <v>296</v>
+        <v>351</v>
+      </c>
+      <c r="B163" s="310" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="164" ht="14.25" customHeight="1">
       <c r="A164" t="s">
-        <v>297</v>
-      </c>
-      <c r="B164" s="180" t="s">
-        <v>152</v>
+        <v>353</v>
+      </c>
+      <c r="B164" s="311" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="165" ht="14.25" customHeight="1">
       <c r="A165" t="s">
-        <v>291</v>
-      </c>
-      <c r="B165" s="175" t="s">
-        <v>292</v>
+        <v>347</v>
+      </c>
+      <c r="B165" s="307" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="166" ht="14.25" customHeight="1">
       <c r="A166" t="s">
-        <v>298</v>
-      </c>
-      <c r="B166" s="181" t="s">
-        <v>152</v>
+        <v>354</v>
+      </c>
+      <c r="B166" s="312" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="167" ht="14.25" customHeight="1">
@@ -6352,10 +8560,10 @@
     </row>
     <row r="170" ht="14.25" customHeight="1">
       <c r="A170" t="s">
-        <v>274</v>
-      </c>
-      <c r="B170" s="162" t="s">
-        <v>275</v>
+        <v>329</v>
+      </c>
+      <c r="B170" s="294" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="171" ht="14.25" customHeight="1">
@@ -6366,10 +8574,10 @@
     </row>
     <row r="173" ht="14.25" customHeight="1">
       <c r="A173" t="s">
-        <v>249</v>
-      </c>
-      <c r="B173" s="145" t="s">
-        <v>152</v>
+        <v>304</v>
+      </c>
+      <c r="B173" s="277" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="174" ht="14.25" customHeight="1">
@@ -8549,1036 +10757,55 @@
     <col min="1" max="1" customWidth="true" width="27.29" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="14.14" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="8.71" collapsed="true"/>
-    <col min="4" max="6" customWidth="true" width="14.43" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>14</v>
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>15</v>
+      <c r="A3" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>18</v>
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId153" ref="A3"/>
+    <hyperlink r:id="rId420" ref="A3"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -9606,16 +10833,16 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -9623,33 +10850,33 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>24</v>
+      <c r="A3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
@@ -9657,50 +10884,50 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>27</v>
+      <c r="A5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>28</v>
+      <c r="A6" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>3</v>
@@ -9732,84 +10959,84 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>18</v>
+      <c r="C2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>18</v>
+      <c r="A3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>36</v>
+      <c r="A4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
+      <c r="A5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
@@ -9841,10 +11068,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -9852,21 +11079,21 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>24</v>
+      <c r="A3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -9874,21 +11101,21 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>27</v>
+      <c r="A5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -9896,10 +11123,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -9907,10 +11134,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
@@ -9918,10 +11145,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
@@ -9929,10 +11156,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -9940,10 +11167,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -9951,10 +11178,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -9962,10 +11189,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
@@ -9973,10 +11200,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
@@ -9984,10 +11211,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
@@ -9995,10 +11222,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
@@ -10030,10 +11257,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -10041,21 +11268,21 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>24</v>
+      <c r="A3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -10063,10 +11290,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -10074,10 +11301,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -10085,10 +11312,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -10123,25 +11350,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -10149,25 +11376,25 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
@@ -10175,25 +11402,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>3</v>

--- a/src/test/resources/com/ugapp/excel/testdata.xlsx
+++ b/src/test/resources/com/ugapp/excel/testdata.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="404">
   <si>
     <t>TCID</t>
   </si>
@@ -61,313 +61,1080 @@
     <t>overAllAcademicsTest</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Testug</t>
+  </si>
+  <si>
+    <t>Testug@1test.asu.edu</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>testug@test.asu.edu</t>
+  </si>
+  <si>
+    <t>Test123123123</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>preferredfirstname</t>
+  </si>
+  <si>
+    <t>middlename</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test@</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test </t>
+  </si>
+  <si>
+    <t>TestTestTestTestTestTestTest</t>
+  </si>
+  <si>
+    <t>TestTestTestTestTestTestTestTest</t>
+  </si>
+  <si>
+    <t>Test FN</t>
+  </si>
+  <si>
+    <t>Automation PFN</t>
+  </si>
+  <si>
+    <t>Automation MN</t>
+  </si>
+  <si>
+    <t>Test LN</t>
+  </si>
+  <si>
+    <t>reemail</t>
+  </si>
+  <si>
+    <t>repassword</t>
+  </si>
+  <si>
+    <t>embtest@test.asu.edu</t>
+  </si>
+  <si>
+    <t>test123123123</t>
+  </si>
+  <si>
+    <t>Testsadasda</t>
+  </si>
+  <si>
+    <t>First_name</t>
+  </si>
+  <si>
+    <t>Last_name</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Test First Name</t>
+  </si>
+  <si>
+    <t>Test Last Name</t>
+  </si>
+  <si>
+    <t>TestTestTestTestTestTestTestTestTestTestTestTestTestTestTest</t>
+  </si>
+  <si>
+    <t>Parent FN</t>
+  </si>
+  <si>
+    <t>Parent LN I</t>
+  </si>
+  <si>
+    <t>Parent LN II</t>
+  </si>
+  <si>
+    <t>AddressLine1</t>
+  </si>
+  <si>
+    <t>AddressLine2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Phone_Number</t>
+  </si>
+  <si>
+    <t>Mobile_Number</t>
+  </si>
+  <si>
+    <t>TestTestTestTestTestTestTestTestTestTestTest</t>
+  </si>
+  <si>
+    <t>1111111111111111</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>Test Address line1</t>
+  </si>
+  <si>
+    <t>Test Address line2</t>
+  </si>
+  <si>
+    <t>Test City</t>
+  </si>
+  <si>
+    <t>12345-678910</t>
+  </si>
+  <si>
+    <t>Test State</t>
+  </si>
+  <si>
+    <t>6363052399</t>
+  </si>
+  <si>
+    <t>8150052399</t>
+  </si>
+  <si>
+    <t>SAISno</t>
+  </si>
+  <si>
+    <t>School_name</t>
+  </si>
+  <si>
+    <t>testtesttesttesttesttesttesttest</t>
+  </si>
+  <si>
+    <t>12345678910</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>Test School</t>
+  </si>
+  <si>
+    <t>1234567891</t>
+  </si>
+  <si>
+    <t>Test School A</t>
+  </si>
+  <si>
+    <t>Test School B</t>
+  </si>
+  <si>
+    <t>Test School C</t>
+  </si>
+  <si>
+    <t>Test School D</t>
+  </si>
+  <si>
+    <t>Test School E</t>
+  </si>
+  <si>
+    <t>Test School F</t>
+  </si>
+  <si>
+    <t>Test School G</t>
+  </si>
+  <si>
+    <t>Test School H</t>
+  </si>
+  <si>
+    <t>Test School I</t>
+  </si>
+  <si>
+    <t>unweightedGPA</t>
+  </si>
+  <si>
+    <t>classrank</t>
+  </si>
+  <si>
+    <t>classSize</t>
+  </si>
+  <si>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Institution_name</t>
+  </si>
+  <si>
+    <t>Degree_Concentration</t>
+  </si>
+  <si>
+    <t>testtesttesttesttesttesttesttesttesttesttesttesttesttesttest</t>
+  </si>
+  <si>
+    <t>Test Institution</t>
+  </si>
+  <si>
+    <t>Test Degree</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>8166embtest@test.asu.edu</t>
+  </si>
+  <si>
+    <t>Legal name</t>
+  </si>
+  <si>
+    <t>Test FN Automation MN Test LN</t>
+  </si>
+  <si>
+    <t>Preferred first name</t>
+  </si>
+  <si>
+    <t>Date of birth</t>
+  </si>
+  <si>
+    <t>January 01, 1996</t>
+  </si>
+  <si>
+    <t>Pronouns</t>
+  </si>
+  <si>
+    <t>No data has been entered</t>
+  </si>
+  <si>
+    <t>Gender identity</t>
+  </si>
+  <si>
+    <t>Former name(s)</t>
+  </si>
+  <si>
+    <t>Test A
+Test B
+Test C
+FN Edited LN Edited
+Test E
+Test F
+Test G
+Test H
+Test I
+First name Last name</t>
+  </si>
+  <si>
+    <t>Legal sex</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Primary language spoken at home</t>
+  </si>
+  <si>
+    <t>Latvian</t>
+  </si>
+  <si>
+    <t>Home address</t>
+  </si>
+  <si>
+    <t>Test Address line1 Test Address line2
+Test City,Bender,Moldova
+12345-678910</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Mobile phone</t>
+  </si>
+  <si>
+    <t>Ethnic/racial background</t>
+  </si>
+  <si>
+    <t>White (Reporting Preferred)
+Cuban</t>
+  </si>
+  <si>
+    <t>U.S. citizenship</t>
+  </si>
+  <si>
+    <t>I am a U.S. citizen</t>
+  </si>
+  <si>
+    <t>Country of citizenship</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Country of birth</t>
+  </si>
+  <si>
+    <t>US Misc Pacific Islands</t>
+  </si>
+  <si>
+    <t>Social Security Number</t>
+  </si>
+  <si>
+    <t>*********</t>
+  </si>
+  <si>
+    <t>Parent or legal guardian</t>
+  </si>
+  <si>
+    <t>Parent FN Parent LN I</t>
+  </si>
+  <si>
+    <t>Parent or Legal Guardian Relation</t>
+  </si>
+  <si>
+    <t>Uncle</t>
+  </si>
+  <si>
+    <t>Parent or Legal Guardian Schooling Level</t>
+  </si>
+  <si>
+    <t>College or Beyond</t>
+  </si>
+  <si>
+    <t>Parent or Legal Guardian Attended ASU</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Additional parent or legal guardian</t>
+  </si>
+  <si>
+    <t>Parent FN Parent LN II</t>
+  </si>
+  <si>
+    <t>Sibling</t>
+  </si>
+  <si>
+    <t>Middle School/Junior High</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Previous ASU affiliation</t>
+  </si>
+  <si>
+    <t>I have never been affiliated with Arizona State University</t>
+  </si>
+  <si>
+    <t>Affiliate ID</t>
+  </si>
+  <si>
+    <t>2675603505</t>
+  </si>
+  <si>
+    <t>Military status</t>
+  </si>
+  <si>
+    <t>I am the spouse/dependent of a U.S. service member or veteran</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>United States Coast Guard</t>
+  </si>
+  <si>
+    <t>I have applied or plan to apply for Department of Veterans Affairs educational benefits based on my U.S. services affiliation identified above:</t>
+  </si>
+  <si>
+    <t>Do you plan to use an education benefit or scholarship through an employer, corporation, foundation or other ASU education partner?</t>
+  </si>
+  <si>
+    <t>First choice</t>
+  </si>
+  <si>
+    <t>Applied Business and Technology Solutions, BA</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>ASU Online</t>
+  </si>
+  <si>
+    <t>Starting term</t>
+  </si>
+  <si>
+    <t>2024 Spring - (Session A)</t>
+  </si>
+  <si>
+    <t>Pre-law interest</t>
+  </si>
+  <si>
+    <t>Pre-med/health interest</t>
+  </si>
+  <si>
+    <t>Pre-veterinary interest</t>
+  </si>
+  <si>
+    <t>Teaching certificate interest</t>
+  </si>
+  <si>
+    <t>Graduating school</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>High school name</t>
+  </si>
+  <si>
+    <t>Montessori Preparatory Academy</t>
+  </si>
+  <si>
+    <t>Name on transcript</t>
+  </si>
+  <si>
+    <t>Test FN Test LN</t>
+  </si>
+  <si>
+    <t>Fort Mohave, AZ, USA</t>
+  </si>
+  <si>
+    <t>Graduation date</t>
+  </si>
+  <si>
+    <t>October, 2028</t>
+  </si>
+  <si>
+    <t>Past schools</t>
+  </si>
+  <si>
+    <t>Test City, Test State, Z62</t>
+  </si>
+  <si>
+    <t>Start date</t>
+  </si>
+  <si>
+    <t>February, 1953</t>
+  </si>
+  <si>
+    <t>End date</t>
+  </si>
+  <si>
+    <t>June, 2017</t>
+  </si>
+  <si>
+    <t>Test City, SUO, ISL</t>
+  </si>
+  <si>
+    <t>January, 1974</t>
+  </si>
+  <si>
+    <t>June, 2023</t>
+  </si>
+  <si>
+    <t>Test City, Test State, Z29</t>
+  </si>
+  <si>
+    <t>December, 1951</t>
+  </si>
+  <si>
+    <t>August, 1986</t>
+  </si>
+  <si>
+    <t>Test City, SZ, GEO</t>
+  </si>
+  <si>
+    <t>January, 1952</t>
+  </si>
+  <si>
+    <t>January, 2023</t>
+  </si>
+  <si>
+    <t>Test City, PD, TTO</t>
+  </si>
+  <si>
+    <t>December, 1944</t>
+  </si>
+  <si>
+    <t>July, 1988</t>
+  </si>
+  <si>
+    <t>Test City, Test State, MAC</t>
+  </si>
+  <si>
+    <t>June, 2013</t>
+  </si>
+  <si>
+    <t>August, 2023</t>
+  </si>
+  <si>
+    <t>Test City, JEN, TUN</t>
+  </si>
+  <si>
+    <t>July, 2018</t>
+  </si>
+  <si>
+    <t>February, 2023</t>
+  </si>
+  <si>
+    <t>Test City, Test State, Z13</t>
+  </si>
+  <si>
+    <t>November, 2014</t>
+  </si>
+  <si>
+    <t>Test City, LAM, AND</t>
+  </si>
+  <si>
+    <t>July, 1956</t>
+  </si>
+  <si>
+    <t>January, 1968</t>
+  </si>
+  <si>
+    <t>Past colleges/universities</t>
+  </si>
+  <si>
+    <t>School name</t>
+  </si>
+  <si>
+    <t>Test City, MC, TCD</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Doctor of Science</t>
+  </si>
+  <si>
+    <t>Degree concentration</t>
+  </si>
+  <si>
+    <t>Date first attended</t>
+  </si>
+  <si>
+    <t>November, 1987</t>
+  </si>
+  <si>
+    <t>Date last attended</t>
+  </si>
+  <si>
+    <t>February, 2004</t>
+  </si>
+  <si>
+    <t>Transfer credits to ASU</t>
+  </si>
+  <si>
+    <t>List the most recent college/university for which you are ineligible to return first</t>
+  </si>
+  <si>
+    <t>Test First Ineligible college</t>
+  </si>
+  <si>
+    <t>Academic related</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Student conduct</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Please explain why you are ineligible to return to the college/university listed</t>
+  </si>
+  <si>
+    <t>Test ineligible to return to the college/university listed</t>
+  </si>
+  <si>
+    <t>Additional college/university for which you are ineligible to return, if applicable:</t>
+  </si>
+  <si>
+    <t>Test Second Ineligible college</t>
+  </si>
+  <si>
+    <t>Test Additional ineligible to return to the college/university listed</t>
+  </si>
+  <si>
+    <t>Self-reported</t>
+  </si>
+  <si>
+    <t>Unweighted GPA/Scale</t>
+  </si>
+  <si>
+    <t>111 / 4</t>
+  </si>
+  <si>
+    <t>Class rank/Class size</t>
+  </si>
+  <si>
+    <t>11 / 111</t>
+  </si>
+  <si>
+    <t>Grading system</t>
+  </si>
+  <si>
+    <t>A-F</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Social Science</t>
+  </si>
+  <si>
+    <t>Philosophy</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Fine Arts/CTE</t>
+  </si>
+  <si>
+    <t>Electives</t>
+  </si>
+  <si>
+    <t>Begin by selecting the state you consider to be your permanent home.</t>
+  </si>
+  <si>
+    <t>Outside the U.S. or Not Listed</t>
+  </si>
+  <si>
+    <t>Are you currently enrolled at another college or university?</t>
+  </si>
+  <si>
+    <t>Where are you currently enrolled?</t>
+  </si>
+  <si>
+    <t>Test College</t>
+  </si>
+  <si>
+    <t>In which state is that school located?</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Do you own or operate a car, motorcycle or other motor vehicle?</t>
+  </si>
+  <si>
+    <t>Is this vehicle registered in the state of Arizona?</t>
+  </si>
+  <si>
+    <t>When was your vehicle registered?</t>
+  </si>
+  <si>
+    <t>2023-11</t>
+  </si>
+  <si>
+    <t>Do you have a current driver’s license or state issued ID?</t>
+  </si>
+  <si>
+    <t>In which state was your license issued?</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>When was your license issued?</t>
+  </si>
+  <si>
+    <t>1944-09</t>
+  </si>
+  <si>
+    <t>Did you, or will you, file state taxes for 2022?</t>
+  </si>
+  <si>
+    <t>Where did or where will you file your state taxes for 2022?</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Parent or legal guardian financial support</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Employment financial support</t>
+  </si>
+  <si>
+    <t>Financial aid financial support</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Spouse financial support</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Other financial support</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Savings/trust fund financial support</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Retirement financial support</t>
+  </si>
+  <si>
+    <t>Social Security/Disability financial support</t>
+  </si>
+  <si>
+    <t>Veteran Benefits financial support</t>
+  </si>
+  <si>
+    <t>State or Federal Benefits financial support</t>
+  </si>
+  <si>
+    <t>Unemployment financial support</t>
+  </si>
+  <si>
+    <t>Other/none of the above</t>
+  </si>
+  <si>
+    <t>Are you currently employed?</t>
+  </si>
+  <si>
+    <t>Where is your primary work location?</t>
+  </si>
+  <si>
+    <t>When did your employment at this location begin?</t>
+  </si>
+  <si>
+    <t>2008-12</t>
+  </si>
+  <si>
+    <t>In which state do your parent(s) or legal guardian(s) currently live?</t>
+  </si>
+  <si>
+    <t>Which parent or legal guardian lives in Arizona?</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Did or will your parent(s) or legal guardian(s) file a state income tax return for the 2022 tax year?</t>
+  </si>
+  <si>
+    <t>In which state did, or will, your parent(s) or legal guardian(s) file state income taxes?</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Does either parent or legal guardian have a current Arizona driver license?</t>
+  </si>
+  <si>
+    <t>Is either parent or legal guardian employed in Arizona?</t>
+  </si>
+  <si>
+    <t>In which state does your spouse currently live?</t>
+  </si>
+  <si>
+    <t>When did your spouse begin living in Arizona?</t>
+  </si>
+  <si>
+    <t>1923-11</t>
+  </si>
+  <si>
+    <t>Does your spouse have a valid drivers license or state-issued ID?</t>
+  </si>
+  <si>
+    <t>What state issued this drivers license or state ID?</t>
+  </si>
+  <si>
+    <t>When did your spouse obtain this drivers license or state ID?</t>
+  </si>
+  <si>
+    <t>1945-01</t>
+  </si>
+  <si>
+    <t>Is your spouse employed?</t>
+  </si>
+  <si>
+    <t>In which state is your spouse employed?</t>
+  </si>
+  <si>
+    <t>When did your spouses employment at this location begin?</t>
+  </si>
+  <si>
+    <t>1985-12</t>
+  </si>
+  <si>
+    <t>Is your spouse currently enrolled at ASU or any other college or university?</t>
+  </si>
+  <si>
+    <t>Did or will your spouse file a state income tax return for the 2022 tax year?</t>
+  </si>
+  <si>
+    <t>In which state did, or will, your spouse file state income taxes?</t>
+  </si>
+  <si>
+    <t>Is your spouse dependent on someone other than you for financial support, e.g. parents, guardians, family or financial aid?</t>
+  </si>
+  <si>
+    <t>Are you registered to vote?</t>
+  </si>
+  <si>
+    <t>In which state are you registered to vote?</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>You indicated that you were the spouse or dependent of a U.S. service member or veteran. Which best describes the service member or veteran?</t>
+  </si>
+  <si>
+    <t>Veteran</t>
+  </si>
+  <si>
+    <t>When was your parent/guardian/spouse discharged or released from active duty?</t>
+  </si>
+  <si>
+    <t>2012-07</t>
+  </si>
+  <si>
+    <t>Are you eligible for Chapter 30 or Chapter 33 benefits?</t>
+  </si>
+  <si>
+    <t>Were you enrolled at any Arizona college or university in 2023 or 2022 calendar year?</t>
+  </si>
+  <si>
+    <t>9520embtest@test.asu.edu</t>
+  </si>
+  <si>
+    <t>Test A
+Test B
+Test C
+Test D
+Test E
+Test F
+Test G
+FN Edited LN Edited
+Test I</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Pushto</t>
+  </si>
+  <si>
+    <t>Test Address line1 Test Address line2
+TestTestTestTestTestTestTestTest,Kirkuk,Iraq
+12345-678910</t>
+  </si>
+  <si>
+    <t>Test Address line1 Test Address line2
+Test City,Ninawa,Iraq
+12345-678910</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ethnic/racial background </t>
+  </si>
+  <si>
+    <t>Central American</t>
+  </si>
+  <si>
+    <t>Sault Ste Marie Chip</t>
+  </si>
+  <si>
+    <t>Central American(Reporting Preferred)
+American Indian/Alaska Native</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Other/Unknown</t>
+  </si>
+  <si>
+    <t>I attended ASU as a nondegree or graduate student</t>
+  </si>
+  <si>
+    <t>4380412615</t>
+  </si>
+  <si>
+    <t>United States Navy</t>
+  </si>
+  <si>
+    <t>Applied Biological Sciences (Preveterinary Medicine), BS</t>
+  </si>
+  <si>
+    <t>2024 Fall - (Session B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Graduating school </t>
+  </si>
+  <si>
+    <t>Horizon HS</t>
+  </si>
+  <si>
+    <t>Scottsdale, AZ, USA</t>
+  </si>
+  <si>
+    <t>September, 2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Past schools </t>
+  </si>
+  <si>
+    <t>Test City, PDR, CUB</t>
+  </si>
+  <si>
+    <t>March, 1968</t>
+  </si>
+  <si>
+    <t>March, 2023</t>
+  </si>
+  <si>
+    <t>Test City, Test State, Z64</t>
+  </si>
+  <si>
+    <t>January, 2004</t>
+  </si>
+  <si>
+    <t>May, 2023</t>
+  </si>
+  <si>
+    <t>Test City, ML, SLB</t>
+  </si>
+  <si>
+    <t>June, 1963</t>
+  </si>
+  <si>
+    <t>Test City, 44, ESP</t>
+  </si>
+  <si>
+    <t>February, 1973</t>
+  </si>
+  <si>
+    <t>Test City, KE, KEN</t>
+  </si>
+  <si>
+    <t>March
+Last attended date should not be before first attended date., 2023</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Past colleges/universities </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Transfer credits to ASU</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Testug</t>
-  </si>
-  <si>
-    <t>Testug@1test.asu.edu</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>testug@test.asu.edu</t>
-  </si>
-  <si>
-    <t>Test123123123</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>preferredfirstname</t>
-  </si>
-  <si>
-    <t>middlename</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Test@</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Test </t>
-  </si>
-  <si>
-    <t>TestTestTestTestTestTestTest</t>
-  </si>
-  <si>
-    <t>TestTestTestTestTestTestTestTest</t>
-  </si>
-  <si>
-    <t>Test FN</t>
-  </si>
-  <si>
-    <t>Automation PFN</t>
-  </si>
-  <si>
-    <t>Automation MN</t>
-  </si>
-  <si>
-    <t>Test LN</t>
-  </si>
-  <si>
-    <t>reemail</t>
-  </si>
-  <si>
-    <t>repassword</t>
-  </si>
-  <si>
-    <t>embtest@test.asu.edu</t>
-  </si>
-  <si>
-    <t>test123123123</t>
-  </si>
-  <si>
-    <t>Testsadasda</t>
-  </si>
-  <si>
-    <t>First_name</t>
-  </si>
-  <si>
-    <t>Last_name</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>Test First Name</t>
-  </si>
-  <si>
-    <t>Test Last Name</t>
-  </si>
-  <si>
-    <t>TestTestTestTestTestTestTestTestTestTestTestTestTestTestTest</t>
-  </si>
-  <si>
-    <t>Parent FN</t>
-  </si>
-  <si>
-    <t>Parent LN I</t>
-  </si>
-  <si>
-    <t>Parent LN II</t>
-  </si>
-  <si>
-    <t>AddressLine1</t>
-  </si>
-  <si>
-    <t>AddressLine2</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Zip</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Phone_Number</t>
-  </si>
-  <si>
-    <t>Mobile_Number</t>
-  </si>
-  <si>
-    <t>TestTestTestTestTestTestTestTestTestTestTest</t>
-  </si>
-  <si>
-    <t>1111111111111111</t>
-  </si>
-  <si>
-    <t>@</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>Test Address line1</t>
-  </si>
-  <si>
-    <t>Test Address line2</t>
-  </si>
-  <si>
-    <t>Test City</t>
-  </si>
-  <si>
-    <t>12345-678910</t>
-  </si>
-  <si>
-    <t>Test State</t>
-  </si>
-  <si>
-    <t>11111111111</t>
-  </si>
-  <si>
-    <t>0000000000</t>
-  </si>
-  <si>
-    <t>SAISno</t>
-  </si>
-  <si>
-    <t>School_name</t>
-  </si>
-  <si>
-    <t>testtesttesttesttesttesttesttest</t>
-  </si>
-  <si>
-    <t>12345678910</t>
-  </si>
-  <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t>Test School</t>
-  </si>
-  <si>
-    <t>1234567891</t>
-  </si>
-  <si>
-    <t>Test School A</t>
-  </si>
-  <si>
-    <t>Test School B</t>
-  </si>
-  <si>
-    <t>Test School C</t>
-  </si>
-  <si>
-    <t>Test School D</t>
-  </si>
-  <si>
-    <t>Test School E</t>
-  </si>
-  <si>
-    <t>Test School F</t>
-  </si>
-  <si>
-    <t>Test School G</t>
-  </si>
-  <si>
-    <t>Test School H</t>
-  </si>
-  <si>
-    <t>Test School I</t>
-  </si>
-  <si>
-    <t>unweightedGPA</t>
-  </si>
-  <si>
-    <t>classrank</t>
-  </si>
-  <si>
-    <t>classSize</t>
-  </si>
-  <si>
-    <t>1234567</t>
-  </si>
-  <si>
-    <t>12345</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Institution_name</t>
-  </si>
-  <si>
-    <t>Degree_Concentration</t>
-  </si>
-  <si>
-    <t>testtesttesttesttesttesttesttesttesttesttesttesttesttesttest</t>
-  </si>
-  <si>
-    <t>Test Institution</t>
-  </si>
-  <si>
-    <t>Test Degree</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>7561embtest@test.asu.edu</t>
-  </si>
-  <si>
-    <t>Legal name</t>
-  </si>
-  <si>
-    <t>Test FN Automation MN Test LN</t>
-  </si>
-  <si>
-    <t>Preferred first name</t>
-  </si>
-  <si>
-    <t>Date of birth</t>
-  </si>
-  <si>
-    <t>January 01, 1996</t>
-  </si>
-  <si>
-    <t>Former name(s)</t>
+    <t>testtesttesttesttesttesttesttest, MICH, MEX</t>
+  </si>
+  <si>
+    <t>Universidad Vasco de Quiroga</t>
+  </si>
+  <si>
+    <t>California State Univ Gen Ed (CSUGE)</t>
+  </si>
+  <si>
+    <t>Test City, Test State, ATA</t>
+  </si>
+  <si>
+    <t>Not listed</t>
+  </si>
+  <si>
+    <t>No Degree Awarded</t>
+  </si>
+  <si>
+    <t>May, 1956</t>
+  </si>
+  <si>
+    <t>July, 1965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test ineligible to return to the college/university listed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Additional ineligible to return to the college/university listed </t>
+  </si>
+  <si>
+    <t>She/Her</t>
+  </si>
+  <si>
+    <t>Identity not listed</t>
+  </si>
+  <si>
+    <t>2361embtest@test.asu.edu</t>
   </si>
   <si>
     <t>FN Edited LN Edited
 Test B
 Test C
-Test D
+Test E
 Test F
 Test G
 Test H
@@ -375,835 +1142,137 @@
 Test First Name Test Last Name</t>
   </si>
   <si>
-    <t>Legal sex</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Primary language spoken at home</t>
-  </si>
-  <si>
-    <t>Sunda</t>
-  </si>
-  <si>
-    <t>Home address</t>
+    <t>Mandarin</t>
   </si>
   <si>
     <t>Test Address line1 Test Address line2
-TestTestTestTestTestTestTestTest,Test State,Midway Islands
+TestTestTestTestTestTestTestTest,Test State,Macau
 12345-678910</t>
   </si>
   <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Mobile phone</t>
-  </si>
-  <si>
     <t>Test Address line1 Test Address line2
-Test City,Test State,Midway Islands
+Test City,Test State,Macau
 12345-678910</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ethnic/racial background </t>
-  </si>
-  <si>
-    <t>South American</t>
-  </si>
-  <si>
-    <t>Laotian</t>
-  </si>
-  <si>
-    <t>U.S. citizenship</t>
-  </si>
-  <si>
-    <t>I am a U.S. citizen</t>
-  </si>
-  <si>
-    <t>Country of citizenship</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Country of birth</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Social Security Number</t>
-  </si>
-  <si>
-    <t>*********</t>
-  </si>
-  <si>
-    <t>Parent or Legal Guardian Attended ASU</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Parent or legal guardian</t>
-  </si>
-  <si>
-    <t>Parent FN Parent LN I</t>
-  </si>
-  <si>
-    <t>Parent or Legal Guardian Relation</t>
-  </si>
-  <si>
-    <t>Grandparent</t>
-  </si>
-  <si>
-    <t>Parent or Legal Guardian Schooling Level</t>
-  </si>
-  <si>
-    <t>High School</t>
-  </si>
-  <si>
-    <t>Additional parent or legal guardian</t>
-  </si>
-  <si>
-    <t>Parent FN Parent LN II</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>French Terr of Afars &amp; Issas</t>
   </si>
   <si>
     <t>Aunt</t>
   </si>
   <si>
-    <t>Other/Unknown</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Previous ASU affiliation</t>
-  </si>
-  <si>
-    <t>I previously attended ASU as an undergraduate degree-seeking student</t>
-  </si>
-  <si>
-    <t>Affiliate ID</t>
-  </si>
-  <si>
-    <t>3102966385</t>
-  </si>
-  <si>
-    <t>Military status</t>
-  </si>
-  <si>
-    <t>I am the spouse/dependent of a U.S. service member or veteran</t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>United States Coast Guard</t>
-  </si>
-  <si>
-    <t>I have applied or plan to apply for Department of Veterans Affairs educational benefits based on my U.S. services affiliation identified above:</t>
-  </si>
-  <si>
-    <t>Do you plan to use an education benefit or scholarship through an employer, corporation, foundation or other ASU education partner?</t>
-  </si>
-  <si>
-    <t>Current employer</t>
-  </si>
-  <si>
-    <t>Town of marana</t>
-  </si>
-  <si>
-    <t>Pre-law interest</t>
-  </si>
-  <si>
-    <t>Pre-med/health interest</t>
-  </si>
-  <si>
-    <t>Pre-veterinary interest</t>
-  </si>
-  <si>
-    <t>Teaching certificate interest</t>
-  </si>
-  <si>
-    <t>First choice</t>
-  </si>
-  <si>
-    <t>Applied Science (Applied Leadership), BAS</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>ASU Online</t>
-  </si>
-  <si>
-    <t>Starting term</t>
-  </si>
-  <si>
-    <t>2024 Spring - (Session A)</t>
-  </si>
-  <si>
-    <t>Second choice</t>
-  </si>
-  <si>
-    <t>Astronomical and Planetary Sciences, BS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Graduating school </t>
-  </si>
-  <si>
-    <t>High school name</t>
+    <t>I attended Global Freshman Academy or any transfer pathway program</t>
+  </si>
+  <si>
+    <t>3274237683</t>
+  </si>
+  <si>
+    <t>National Oceanic and Atmospheric Administration Commissioned Officer Corps</t>
+  </si>
+  <si>
+    <t>Anthropology, BA</t>
   </si>
   <si>
     <t>HiSet</t>
   </si>
   <si>
-    <t>Name on transcript</t>
-  </si>
-  <si>
-    <t>Test FN Test LN</t>
-  </si>
-  <si>
-    <t>San Manuel, AZ, USA</t>
-  </si>
-  <si>
-    <t>Graduation date</t>
-  </si>
-  <si>
-    <t>April, 2026</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Past schools </t>
-  </si>
-  <si>
-    <t>Test City, Test State, Z29</t>
-  </si>
-  <si>
-    <t>Start date</t>
-  </si>
-  <si>
-    <t>February, 1984</t>
-  </si>
-  <si>
-    <t>End date</t>
-  </si>
-  <si>
-    <t>March, 2023</t>
-  </si>
-  <si>
-    <t>Test City, SRP, BIH</t>
-  </si>
-  <si>
-    <t>November, 1996</t>
-  </si>
-  <si>
-    <t>July, 2023</t>
-  </si>
-  <si>
-    <t>Test City, Test State, FLK</t>
-  </si>
-  <si>
-    <t>September, 1945</t>
-  </si>
-  <si>
-    <t>July, 1977</t>
-  </si>
-  <si>
-    <t>Test City, SG, WLF</t>
-  </si>
-  <si>
-    <t>December, 1967</t>
-  </si>
-  <si>
-    <t>April, 2023</t>
-  </si>
-  <si>
-    <t>Test City, ZAR, LTU</t>
-  </si>
-  <si>
-    <t>January, 1938</t>
-  </si>
-  <si>
-    <t>August, 2023</t>
-  </si>
-  <si>
-    <t>Test City, KUK, ALB</t>
-  </si>
-  <si>
-    <t>November, 1990</t>
-  </si>
-  <si>
-    <t>June, 2023</t>
-  </si>
-  <si>
-    <t>Test City, ES, GAB</t>
-  </si>
-  <si>
-    <t>January, 1955</t>
-  </si>
-  <si>
-    <t>July, 2020</t>
-  </si>
-  <si>
-    <t>Test City, Test State, Z23</t>
-  </si>
-  <si>
-    <t>October, 2006</t>
-  </si>
-  <si>
-    <t>January, 2008</t>
-  </si>
-  <si>
-    <t>Test City, AZ, JOR</t>
-  </si>
-  <si>
-    <t>May, 2001</t>
-  </si>
-  <si>
-    <t>testtesttesttesttesttesttesttest, BY, SOM</t>
-  </si>
-  <si>
-    <t>School name</t>
-  </si>
-  <si>
-    <t>Not listed</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Arizona General Education Curriculum in Progress</t>
-  </si>
-  <si>
-    <t>Degree concentration</t>
+    <t>Bullhead City, AZ, USA</t>
+  </si>
+  <si>
+    <t>April, 2027</t>
+  </si>
+  <si>
+    <t>Test City, ES, GUY</t>
+  </si>
+  <si>
+    <t>December, 2019</t>
+  </si>
+  <si>
+    <t>Test City, SJ, JAM</t>
+  </si>
+  <si>
+    <t>December, 1995</t>
+  </si>
+  <si>
+    <t>January, 2009</t>
+  </si>
+  <si>
+    <t>Test City, RO, URY</t>
+  </si>
+  <si>
+    <t>December, 2020</t>
+  </si>
+  <si>
+    <t>Test City, Test State, Z26</t>
+  </si>
+  <si>
+    <t>March, 1991</t>
+  </si>
+  <si>
+    <t>October, 2000</t>
+  </si>
+  <si>
+    <t>Test City, SE, NPL</t>
+  </si>
+  <si>
+    <t>September, 1938</t>
+  </si>
+  <si>
+    <t>June, 2009</t>
+  </si>
+  <si>
+    <t>Test City, AS, BHR</t>
+  </si>
+  <si>
+    <t>July, 1966</t>
+  </si>
+  <si>
+    <t>May, 1980</t>
+  </si>
+  <si>
+    <t>Test City, Test State, IOT</t>
+  </si>
+  <si>
+    <t>February, 1946</t>
+  </si>
+  <si>
+    <t>June, 2021</t>
   </si>
   <si>
     <t>Test City, NO, RWA</t>
   </si>
   <si>
-    <t>Master of Arts</t>
-  </si>
-  <si>
-    <t>Date first attended</t>
-  </si>
-  <si>
-    <t>August, 2007</t>
-  </si>
-  <si>
-    <t>Date last attended</t>
-  </si>
-  <si>
-    <t>List the most recent college/university for which you are ineligible to return first</t>
-  </si>
-  <si>
-    <t>Test First Ineligible college</t>
-  </si>
-  <si>
-    <t>Academic related</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Student conduct</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Please explain why you are ineligible to return to the college/university listed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test ineligible to return to the college/university listed </t>
-  </si>
-  <si>
-    <t>Additional college/university for which you are ineligible to return, if applicable:</t>
-  </si>
-  <si>
-    <t>Test Second Ineligible college</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Additional ineligible to return to the college/university listed </t>
-  </si>
-  <si>
-    <t>9557embtest@test.asu.edu</t>
-  </si>
-  <si>
-    <t>Test A
-Test B
-Test C
-Test D
-FN Edited LN Edited
-Test G
-Test H
-Test I
-Test First Name Test Last Name</t>
-  </si>
-  <si>
-    <t>Mewati</t>
-  </si>
-  <si>
-    <t>Test Address line1 Test Address line2
-TestTestTestTestTestTestTestTest,Test State,Federal Republic of Germany
-12345-678910</t>
-  </si>
-  <si>
-    <t>Test Address line1 Test Address line2
-Test City,Test State,Federal Republic of Germany
-12345-678910</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
-    <t>Tahitian</t>
-  </si>
-  <si>
-    <t>Spanish(Reporting Preferred)
-Native Hawaiian/Pac Islander</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>Mother</t>
-  </si>
-  <si>
-    <t>College or Beyond</t>
-  </si>
-  <si>
-    <t>I attended ASU’s Global launch</t>
-  </si>
-  <si>
-    <t>8146837631</t>
-  </si>
-  <si>
-    <t>United States Army</t>
-  </si>
-  <si>
-    <t>Banfield pet hospital</t>
-  </si>
-  <si>
-    <t>African and African American Studies, BA</t>
-  </si>
-  <si>
-    <t>2024 Summer - (Session B)</t>
-  </si>
-  <si>
-    <t>Many Farms HS</t>
-  </si>
-  <si>
-    <t>Many Farms, AZ, USA</t>
-  </si>
-  <si>
-    <t>April, 2028</t>
-  </si>
-  <si>
-    <t>Test City, ORA, DZA</t>
-  </si>
-  <si>
-    <t>August, 1929</t>
-  </si>
-  <si>
-    <t>February, 1968</t>
-  </si>
-  <si>
-    <t>Test City, AB, SWE</t>
-  </si>
-  <si>
-    <t>October, 1987</t>
-  </si>
-  <si>
-    <t>Test City, Test State, KOS</t>
-  </si>
-  <si>
-    <t>April, 1933</t>
-  </si>
-  <si>
-    <t>March, 1995</t>
-  </si>
-  <si>
-    <t>February, 1955</t>
-  </si>
-  <si>
-    <t>January, 2023</t>
-  </si>
-  <si>
-    <t>Test City, GH, EGY</t>
-  </si>
-  <si>
-    <t>April, 1986</t>
-  </si>
-  <si>
-    <t>May, 1996</t>
-  </si>
-  <si>
-    <t>Test City, ES, CMR</t>
-  </si>
-  <si>
-    <t>September, 1935</t>
-  </si>
-  <si>
-    <t>November, 1991</t>
-  </si>
-  <si>
-    <t>Test City, NB, CAN</t>
-  </si>
-  <si>
-    <t>September, 2001</t>
-  </si>
-  <si>
-    <t>February, 2004</t>
-  </si>
-  <si>
-    <t>Test City, Test State, Z26</t>
-  </si>
-  <si>
-    <t>November, 2002</t>
-  </si>
-  <si>
-    <t>Test City, MO, COM</t>
-  </si>
-  <si>
-    <t>January, 2009</t>
-  </si>
-  <si>
-    <t>November, 2023</t>
-  </si>
-  <si>
-    <t>testtesttesttesttesttesttesttest, SKI, DZA</t>
-  </si>
-  <si>
-    <t>Bachelor of Arts</t>
-  </si>
-  <si>
-    <t>Test City, SK, GEO</t>
-  </si>
-  <si>
-    <t>California State Univ Gen Ed (CSUGE) in Progress</t>
-  </si>
-  <si>
-    <t>August, 1999</t>
+    <t>February, 1948</t>
+  </si>
+  <si>
+    <t>October, 1966</t>
+  </si>
+  <si>
+    <t>Test City, Test State, COK</t>
+  </si>
+  <si>
+    <t>October, 1979</t>
   </si>
   <si>
     <t>September, 2023</t>
   </si>
   <si>
-    <t>Self-reported</t>
-  </si>
-  <si>
-    <t>Unweighted GPA/Scale</t>
-  </si>
-  <si>
-    <t>111 / 4</t>
-  </si>
-  <si>
-    <t>Class rank/Class size</t>
-  </si>
-  <si>
-    <t>11 / 111</t>
-  </si>
-  <si>
-    <t>Grading system</t>
-  </si>
-  <si>
-    <t>100 point based</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>No data has been entered</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>Other (specify)</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
-    <t>Social Science</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Fine Arts/CTE</t>
-  </si>
-  <si>
-    <t>Electives</t>
-  </si>
-  <si>
-    <t>Begin by selecting the state you consider to be your permanent home.</t>
-  </si>
-  <si>
-    <t>Outside the U.S. or Not Listed</t>
-  </si>
-  <si>
-    <t>Are you currently enrolled at another college or university?</t>
-  </si>
-  <si>
-    <t>Where are you currently enrolled?</t>
-  </si>
-  <si>
-    <t>Test College</t>
-  </si>
-  <si>
-    <t>In which state is that school located?</t>
-  </si>
-  <si>
-    <t>District of Columbia</t>
-  </si>
-  <si>
-    <t>Were you enrolled at any Arizona college or university in 2023 or 2022 calendar year?</t>
-  </si>
-  <si>
-    <t>Do you have a current driver’s license or state issued ID?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In which state was your license issued? </t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>When was your license issued?</t>
-  </si>
-  <si>
-    <t>1986-10</t>
-  </si>
-  <si>
-    <t>Do you own or operate a car, motorcycle or other motor vehicle?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Is this vehicle registered in the state of Arizona? </t>
-  </si>
-  <si>
-    <t>When was your vehicle registered?</t>
-  </si>
-  <si>
-    <t>1923-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Did you, or will you, file state taxes for 2022? </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Where did or where will you file your state taxes for 2022? </t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>Parent or legal guardian financial support</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>Employment financial support</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Financial aid financial support</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Spouse financial support</t>
-  </si>
-  <si>
-    <t>Other financial support</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Are you currently employed? </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Where is your primary work location? </t>
-  </si>
-  <si>
-    <t>When did your employment at this location begin?</t>
-  </si>
-  <si>
-    <t>1928-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> You indicated that you were the spouse or dependent of a U.S. service member or veteran. Which best describes the service member or veteran? </t>
-  </si>
-  <si>
-    <t>Not Applicable</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In which state do your parent(s) or legal guardian(s) currently live? </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Which parent or legal guardian lives in Arizona? </t>
-  </si>
-  <si>
-    <t>Father</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Did or will your parent(s) or legal guardian(s) file a state income tax return for the 2022 tax year? </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In which state did, or will, your parent(s) or legal guardian(s) file state income taxes? </t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Does either parent or legal guardian have a current Arizona driver license? </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Is either parent or legal guardian employed in Arizona? </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In which state does your spouse currently live? </t>
-  </si>
-  <si>
-    <t>When did your spouse begin living in Arizona?</t>
-  </si>
-  <si>
-    <t>2013-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Does your spouse have a valid drivers license or state-issued ID? </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> What state issued this drivers license or state ID?  </t>
-  </si>
-  <si>
-    <t>When did your spouse obtain this drivers license or state ID?</t>
-  </si>
-  <si>
-    <t>2003-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Did or will your spouse file a state income tax return for the 2022 tax year? </t>
-  </si>
-  <si>
-    <t>In which state did, or will, your spouse file state income taxes?</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Is your spouse employed? </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In which state is your spouse employed? </t>
-  </si>
-  <si>
-    <t>When did your spouses employment at this location begin?</t>
-  </si>
-  <si>
-    <t>2011-09</t>
-  </si>
-  <si>
-    <t>Is your spouse currently enrolled at ASU or any other college or university?</t>
-  </si>
-  <si>
-    <t>Is your spouse dependent on someone other than you for financial support, e.g. parents, guardians, family or financial aid?</t>
-  </si>
-  <si>
-    <t>Pronouns</t>
-  </si>
-  <si>
-    <t>She/Her</t>
-  </si>
-  <si>
-    <t>Gender identity</t>
-  </si>
-  <si>
-    <t>Ethnic/racial background</t>
-  </si>
-  <si>
-    <t>Spanish (Reporting Preferred)
-Tahitian</t>
-  </si>
-  <si>
-    <t>Graduating school</t>
-  </si>
-  <si>
-    <t>Past schools</t>
-  </si>
-  <si>
-    <t>Past colleges/universities</t>
-  </si>
-  <si>
-    <t>Test ineligible to return to the college/university listed</t>
-  </si>
-  <si>
-    <t>Test Additional ineligible to return to the college/university listed</t>
-  </si>
-  <si>
-    <t>OTHER TEST</t>
-  </si>
-  <si>
-    <t>Is this vehicle registered in the state of Arizona?</t>
-  </si>
-  <si>
-    <t>In which state was your license issued?</t>
-  </si>
-  <si>
-    <t>Did you, or will you, file state taxes for 2022?</t>
-  </si>
-  <si>
-    <t>Where did or where will you file your state taxes for 2022?</t>
-  </si>
-  <si>
-    <t>Are you currently employed?</t>
-  </si>
-  <si>
-    <t>Where is your primary work location?</t>
-  </si>
-  <si>
-    <t>In which state do your parent(s) or legal guardian(s) currently live?</t>
-  </si>
-  <si>
-    <t>Which parent or legal guardian lives in Arizona?</t>
-  </si>
-  <si>
-    <t>Did or will your parent(s) or legal guardian(s) file a state income tax return for the 2022 tax year?</t>
-  </si>
-  <si>
-    <t>In which state did, or will, your parent(s) or legal guardian(s) file state income taxes?</t>
-  </si>
-  <si>
-    <t>Does either parent or legal guardian have a current Arizona driver license?</t>
-  </si>
-  <si>
-    <t>Is either parent or legal guardian employed in Arizona?</t>
-  </si>
-  <si>
-    <t>In which state does your spouse currently live?</t>
-  </si>
-  <si>
-    <t>Does your spouse have a valid drivers license or state-issued ID?</t>
-  </si>
-  <si>
-    <t>What state issued this drivers license or state ID?</t>
-  </si>
-  <si>
-    <t>Is your spouse employed?</t>
-  </si>
-  <si>
-    <t>In which state is your spouse employed?</t>
-  </si>
-  <si>
-    <t>Did or will your spouse file a state income tax return for the 2022 tax year?</t>
-  </si>
-  <si>
-    <t>You indicated that you were the spouse or dependent of a U.S. service member or veteran. Which best describes the service member or veteran?</t>
+    <t>testtesttesttesttesttesttesttest, testtesttesttesttesttesttesttest, PRI</t>
+  </si>
+  <si>
+    <t>Associate Degree</t>
+  </si>
+  <si>
+    <t>Test City, RA, EST</t>
+  </si>
+  <si>
+    <t>Associate of Science</t>
+  </si>
+  <si>
+    <t>April, 1930</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1280,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1227,11 +1296,6 @@
       <sz val="11.0"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -1292,7 +1356,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="472">
+  <cellXfs count="572">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1307,14 +1371,316 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
@@ -4689,16 +5055,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -4706,16 +5072,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -4723,16 +5089,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>81</v>
+        <v>68</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
@@ -4762,16 +5128,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -4779,16 +5145,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>83</v>
+        <v>68</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -4796,16 +5162,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>83</v>
+        <v>68</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
@@ -4813,16 +5179,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>83</v>
+        <v>68</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
@@ -4830,16 +5196,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
@@ -4847,16 +5213,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>83</v>
+        <v>68</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>3</v>
@@ -4864,16 +5230,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>83</v>
+        <v>68</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>3</v>
@@ -4881,16 +5247,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>83</v>
+        <v>68</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>3</v>
@@ -4898,16 +5264,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>83</v>
+        <v>68</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>3</v>
@@ -4915,16 +5281,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>83</v>
+        <v>68</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>3</v>
@@ -4954,83 +5320,83 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>43</v>
+      <c r="A2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>97</v>
+      <c r="A3" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>99</v>
+      <c r="A4" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>15</v>
+      <c r="A5" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>99</v>
+      <c r="A6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -5059,65 +5425,65 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="313" t="s">
-        <v>231</v>
+        <v>102</v>
+      </c>
+      <c r="B1" s="184" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="314" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="B2" s="185" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="315" t="s">
-        <v>33</v>
+        <v>106</v>
+      </c>
+      <c r="B3" s="186" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="316" t="s">
-        <v>111</v>
+        <v>107</v>
+      </c>
+      <c r="B4" s="187" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>355</v>
-      </c>
-      <c r="B5" s="317" t="s">
-        <v>356</v>
+        <v>109</v>
+      </c>
+      <c r="B5" s="188" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>357</v>
-      </c>
-      <c r="B6" s="318" t="s">
-        <v>289</v>
+        <v>111</v>
+      </c>
+      <c r="B6" s="189" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="319" t="s">
-        <v>232</v>
+      <c r="B7" s="190" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="320" t="s">
+      <c r="B8" s="191" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5125,1221 +5491,1298 @@
       <c r="A9" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="321" t="s">
-        <v>233</v>
+      <c r="B9" s="192" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="322" t="s">
-        <v>235</v>
+      <c r="B10" s="193" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="323" t="s">
-        <v>75</v>
+      <c r="B11" s="194" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="324" t="s">
-        <v>76</v>
+      <c r="B12" s="195" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>358</v>
-      </c>
-      <c r="B13" s="325" t="s">
-        <v>359</v>
+        <v>122</v>
+      </c>
+      <c r="B13" s="196" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="326" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="B14" s="197" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="327" t="s">
-        <v>129</v>
+        <v>126</v>
+      </c>
+      <c r="B15" s="198" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="328" t="s">
-        <v>239</v>
+        <v>128</v>
+      </c>
+      <c r="B16" s="199" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="329" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="B17" s="200" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="330" t="s">
-        <v>137</v>
+        <v>132</v>
+      </c>
+      <c r="B18" s="201" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>138</v>
-      </c>
-      <c r="B19" s="331" t="s">
-        <v>240</v>
+        <v>134</v>
+      </c>
+      <c r="B19" s="202" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="332" t="s">
-        <v>241</v>
+        <v>136</v>
+      </c>
+      <c r="B20" s="203" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="333" t="s">
-        <v>146</v>
+        <v>138</v>
+      </c>
+      <c r="B21" s="204" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="334" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+      <c r="B22" s="205" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="335" t="s">
-        <v>139</v>
+        <v>134</v>
+      </c>
+      <c r="B23" s="206" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" s="336" t="s">
-        <v>141</v>
+        <v>136</v>
+      </c>
+      <c r="B24" s="207" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="337" t="s">
-        <v>146</v>
+        <v>138</v>
+      </c>
+      <c r="B25" s="208" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>147</v>
-      </c>
-      <c r="B26" s="338" t="s">
-        <v>242</v>
+        <v>145</v>
+      </c>
+      <c r="B26" s="209" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" t="s">
-        <v>149</v>
-      </c>
-      <c r="B27" s="339" t="s">
-        <v>243</v>
+        <v>147</v>
+      </c>
+      <c r="B27" s="210" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>151</v>
-      </c>
-      <c r="B28" s="340" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="B28" s="211" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="341" t="s">
-        <v>244</v>
+        <v>151</v>
+      </c>
+      <c r="B29" s="212" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>155</v>
-      </c>
-      <c r="B30" s="342" t="s">
-        <v>146</v>
+        <v>153</v>
+      </c>
+      <c r="B30" s="213" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>156</v>
-      </c>
-      <c r="B31" s="343" t="s">
-        <v>146</v>
+        <v>154</v>
+      </c>
+      <c r="B31" s="214" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>157</v>
-      </c>
-      <c r="B32" s="344" t="s">
-        <v>245</v>
+        <v>155</v>
+      </c>
+      <c r="B32" s="215" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B33" s="345" t="s">
-        <v>246</v>
+        <v>157</v>
+      </c>
+      <c r="B33" s="216" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>165</v>
-      </c>
-      <c r="B34" s="346" t="s">
-        <v>166</v>
+        <v>159</v>
+      </c>
+      <c r="B34" s="217" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>167</v>
-      </c>
-      <c r="B35" s="347" t="s">
-        <v>247</v>
+        <v>161</v>
+      </c>
+      <c r="B35" s="218" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>159</v>
-      </c>
-      <c r="B36" s="348" t="s">
-        <v>135</v>
+        <v>162</v>
+      </c>
+      <c r="B36" s="219" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>160</v>
-      </c>
-      <c r="B37" s="349" t="s">
-        <v>135</v>
+        <v>163</v>
+      </c>
+      <c r="B37" s="220" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>161</v>
-      </c>
-      <c r="B38" s="350" t="s">
-        <v>146</v>
+        <v>164</v>
+      </c>
+      <c r="B38" s="221" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>162</v>
-      </c>
-      <c r="B39" s="351" t="s">
-        <v>146</v>
+        <v>165</v>
+      </c>
+      <c r="B39" s="222" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>360</v>
-      </c>
-      <c r="B40" s="352" t="s">
-        <v>13</v>
+        <v>167</v>
+      </c>
+      <c r="B40" s="223" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>172</v>
-      </c>
-      <c r="B41" s="353" t="s">
-        <v>248</v>
+        <v>169</v>
+      </c>
+      <c r="B41" s="224" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>174</v>
-      </c>
-      <c r="B42" s="354" t="s">
-        <v>175</v>
+        <v>157</v>
+      </c>
+      <c r="B42" s="225" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>165</v>
-      </c>
-      <c r="B43" s="355" t="s">
-        <v>249</v>
+        <v>172</v>
+      </c>
+      <c r="B43" s="226" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>177</v>
-      </c>
-      <c r="B44" s="356" t="s">
-        <v>250</v>
+        <v>174</v>
+      </c>
+      <c r="B44" s="227" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>361</v>
-      </c>
-      <c r="B45" s="357" t="s">
-        <v>13</v>
+        <v>167</v>
+      </c>
+      <c r="B45" s="228" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B46" s="358" t="s">
-        <v>84</v>
+        <v>169</v>
+      </c>
+      <c r="B46" s="229" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>174</v>
-      </c>
-      <c r="B47" s="359" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="230" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>165</v>
-      </c>
-      <c r="B48" s="360" t="s">
-        <v>251</v>
+        <v>176</v>
+      </c>
+      <c r="B48" s="231" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" t="s">
-        <v>181</v>
-      </c>
-      <c r="B49" s="361" t="s">
-        <v>252</v>
+        <v>178</v>
+      </c>
+      <c r="B49" s="232" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" t="s">
-        <v>183</v>
-      </c>
-      <c r="B50" s="362" t="s">
-        <v>253</v>
+        <v>167</v>
+      </c>
+      <c r="B50" s="233" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" t="s">
-        <v>172</v>
-      </c>
-      <c r="B51" s="363" t="s">
-        <v>85</v>
+        <v>169</v>
+      </c>
+      <c r="B51" s="234" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>174</v>
-      </c>
-      <c r="B52" s="364" t="s">
-        <v>175</v>
+        <v>157</v>
+      </c>
+      <c r="B52" s="235" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>165</v>
-      </c>
-      <c r="B53" s="365" t="s">
-        <v>254</v>
+        <v>176</v>
+      </c>
+      <c r="B53" s="236" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" t="s">
-        <v>181</v>
-      </c>
-      <c r="B54" s="366" t="s">
-        <v>255</v>
+        <v>178</v>
+      </c>
+      <c r="B54" s="237" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" t="s">
-        <v>183</v>
-      </c>
-      <c r="B55" s="367" t="s">
-        <v>193</v>
+        <v>167</v>
+      </c>
+      <c r="B55" s="238" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" t="s">
-        <v>172</v>
-      </c>
-      <c r="B56" s="368" t="s">
-        <v>86</v>
+        <v>169</v>
+      </c>
+      <c r="B56" s="239" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" t="s">
-        <v>174</v>
-      </c>
-      <c r="B57" s="369" t="s">
-        <v>175</v>
+        <v>157</v>
+      </c>
+      <c r="B57" s="240" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" t="s">
-        <v>165</v>
-      </c>
-      <c r="B58" s="370" t="s">
-        <v>256</v>
+        <v>176</v>
+      </c>
+      <c r="B58" s="241" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" t="s">
-        <v>181</v>
-      </c>
-      <c r="B59" s="371" t="s">
-        <v>257</v>
+        <v>178</v>
+      </c>
+      <c r="B59" s="242" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" t="s">
-        <v>183</v>
-      </c>
-      <c r="B60" s="372" t="s">
-        <v>258</v>
+        <v>167</v>
+      </c>
+      <c r="B60" s="243" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" t="s">
-        <v>172</v>
-      </c>
-      <c r="B61" s="373" t="s">
-        <v>87</v>
+        <v>169</v>
+      </c>
+      <c r="B61" s="244" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" t="s">
-        <v>174</v>
-      </c>
-      <c r="B62" s="374" t="s">
-        <v>175</v>
+        <v>157</v>
+      </c>
+      <c r="B62" s="245" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" t="s">
-        <v>165</v>
-      </c>
-      <c r="B63" s="375" t="s">
-        <v>180</v>
+        <v>176</v>
+      </c>
+      <c r="B63" s="246" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" t="s">
-        <v>181</v>
-      </c>
-      <c r="B64" s="376" t="s">
-        <v>259</v>
+        <v>178</v>
+      </c>
+      <c r="B64" s="247" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" t="s">
-        <v>183</v>
-      </c>
-      <c r="B65" s="377" t="s">
-        <v>260</v>
+        <v>167</v>
+      </c>
+      <c r="B65" s="248" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" t="s">
-        <v>172</v>
-      </c>
-      <c r="B66" s="378" t="s">
-        <v>88</v>
+        <v>169</v>
+      </c>
+      <c r="B66" s="249" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" t="s">
-        <v>174</v>
-      </c>
-      <c r="B67" s="379" t="s">
-        <v>175</v>
+        <v>157</v>
+      </c>
+      <c r="B67" s="250" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" t="s">
-        <v>165</v>
-      </c>
-      <c r="B68" s="380" t="s">
-        <v>261</v>
+        <v>176</v>
+      </c>
+      <c r="B68" s="251" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" t="s">
-        <v>181</v>
-      </c>
-      <c r="B69" s="381" t="s">
-        <v>262</v>
+        <v>178</v>
+      </c>
+      <c r="B69" s="252" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" t="s">
-        <v>183</v>
-      </c>
-      <c r="B70" s="382" t="s">
-        <v>263</v>
+        <v>167</v>
+      </c>
+      <c r="B70" s="253" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" t="s">
-        <v>172</v>
-      </c>
-      <c r="B71" s="383" t="s">
-        <v>89</v>
+        <v>169</v>
+      </c>
+      <c r="B71" s="254" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" t="s">
-        <v>174</v>
-      </c>
-      <c r="B72" s="384" t="s">
-        <v>175</v>
+        <v>157</v>
+      </c>
+      <c r="B72" s="255" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" t="s">
-        <v>165</v>
-      </c>
-      <c r="B73" s="385" t="s">
-        <v>264</v>
+        <v>176</v>
+      </c>
+      <c r="B73" s="256" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="A74" t="s">
-        <v>181</v>
-      </c>
-      <c r="B74" s="386" t="s">
-        <v>265</v>
+        <v>178</v>
+      </c>
+      <c r="B74" s="257" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" t="s">
-        <v>183</v>
-      </c>
-      <c r="B75" s="387" t="s">
-        <v>266</v>
+        <v>167</v>
+      </c>
+      <c r="B75" s="258" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" t="s">
-        <v>172</v>
-      </c>
-      <c r="B76" s="388" t="s">
-        <v>90</v>
+        <v>169</v>
+      </c>
+      <c r="B76" s="259" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" t="s">
-        <v>174</v>
-      </c>
-      <c r="B77" s="389" t="s">
-        <v>175</v>
+        <v>157</v>
+      </c>
+      <c r="B77" s="260" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="A78" t="s">
-        <v>165</v>
-      </c>
-      <c r="B78" s="390" t="s">
-        <v>267</v>
+        <v>176</v>
+      </c>
+      <c r="B78" s="261" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="A79" t="s">
-        <v>181</v>
-      </c>
-      <c r="B79" s="391" t="s">
-        <v>268</v>
+        <v>178</v>
+      </c>
+      <c r="B79" s="262" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="A80" t="s">
-        <v>183</v>
-      </c>
-      <c r="B80" s="392" t="s">
-        <v>269</v>
+        <v>167</v>
+      </c>
+      <c r="B80" s="263" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
       <c r="A81" t="s">
-        <v>172</v>
-      </c>
-      <c r="B81" s="393" t="s">
-        <v>91</v>
+        <v>169</v>
+      </c>
+      <c r="B81" s="264" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
       <c r="A82" t="s">
-        <v>174</v>
-      </c>
-      <c r="B82" s="394" t="s">
-        <v>175</v>
+        <v>157</v>
+      </c>
+      <c r="B82" s="265" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="A83" t="s">
-        <v>165</v>
-      </c>
-      <c r="B83" s="395" t="s">
-        <v>270</v>
+        <v>176</v>
+      </c>
+      <c r="B83" s="266" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1">
       <c r="A84" t="s">
-        <v>181</v>
-      </c>
-      <c r="B84" s="396" t="s">
-        <v>271</v>
+        <v>178</v>
+      </c>
+      <c r="B84" s="267" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="A85" t="s">
-        <v>183</v>
-      </c>
-      <c r="B85" s="397" t="s">
-        <v>184</v>
+        <v>167</v>
+      </c>
+      <c r="B85" s="268" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="A86" t="s">
-        <v>172</v>
-      </c>
-      <c r="B86" s="398" t="s">
-        <v>92</v>
+        <v>169</v>
+      </c>
+      <c r="B86" s="269" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
       <c r="A87" t="s">
-        <v>174</v>
-      </c>
-      <c r="B87" s="399" t="s">
-        <v>175</v>
+        <v>157</v>
+      </c>
+      <c r="B87" s="270" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="A88" t="s">
-        <v>165</v>
-      </c>
-      <c r="B88" s="400" t="s">
-        <v>272</v>
+        <v>176</v>
+      </c>
+      <c r="B88" s="271" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" t="s">
-        <v>181</v>
-      </c>
-      <c r="B89" s="401" t="s">
-        <v>273</v>
+        <v>178</v>
+      </c>
+      <c r="B89" s="272" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" t="s">
-        <v>183</v>
-      </c>
-      <c r="B90" s="402" t="s">
-        <v>274</v>
+        <v>203</v>
+      </c>
+      <c r="B90" s="273" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="A91" t="s">
-        <v>362</v>
-      </c>
-      <c r="B91" s="403" t="s">
-        <v>13</v>
+        <v>204</v>
+      </c>
+      <c r="B91" s="274" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1">
       <c r="A92" t="s">
-        <v>209</v>
-      </c>
-      <c r="B92" s="404" t="s">
-        <v>103</v>
+        <v>169</v>
+      </c>
+      <c r="B92" s="275" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="A93" t="s">
-        <v>174</v>
-      </c>
-      <c r="B93" s="405" t="s">
-        <v>175</v>
+        <v>157</v>
+      </c>
+      <c r="B93" s="276" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="A94" t="s">
-        <v>165</v>
-      </c>
-      <c r="B94" s="406" t="s">
-        <v>277</v>
+        <v>206</v>
+      </c>
+      <c r="B94" s="277" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="A95" t="s">
-        <v>211</v>
-      </c>
-      <c r="B95" s="407" t="s">
-        <v>278</v>
+        <v>208</v>
+      </c>
+      <c r="B95" s="278" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1">
       <c r="A96" t="s">
-        <v>213</v>
-      </c>
-      <c r="B96" s="408" t="s">
-        <v>104</v>
+        <v>209</v>
+      </c>
+      <c r="B96" s="279" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" t="s">
-        <v>216</v>
-      </c>
-      <c r="B97" s="409" t="s">
-        <v>279</v>
+        <v>211</v>
+      </c>
+      <c r="B97" s="280" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1">
       <c r="A98" t="s">
-        <v>218</v>
-      </c>
-      <c r="B98" s="410" t="s">
-        <v>280</v>
+        <v>213</v>
+      </c>
+      <c r="B98" s="281" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1">
       <c r="A99" t="s">
-        <v>14</v>
-      </c>
-      <c r="B99" s="411" t="s">
-        <v>15</v>
+        <v>214</v>
+      </c>
+      <c r="B99" s="282" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1">
       <c r="A100" t="s">
-        <v>219</v>
-      </c>
-      <c r="B100" s="412" t="s">
-        <v>220</v>
+        <v>216</v>
+      </c>
+      <c r="B100" s="283" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1">
       <c r="A101" t="s">
-        <v>221</v>
-      </c>
-      <c r="B101" s="413" t="s">
-        <v>222</v>
+        <v>218</v>
+      </c>
+      <c r="B101" s="284" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="102" ht="14.25" customHeight="1">
       <c r="A102" t="s">
-        <v>223</v>
-      </c>
-      <c r="B102" s="414" t="s">
-        <v>224</v>
+        <v>219</v>
+      </c>
+      <c r="B102" s="285" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="103" ht="14.25" customHeight="1">
       <c r="A103" t="s">
-        <v>225</v>
-      </c>
-      <c r="B103" s="415" t="s">
-        <v>224</v>
+        <v>220</v>
+      </c>
+      <c r="B103" s="286" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="104" ht="14.25" customHeight="1">
       <c r="A104" t="s">
-        <v>226</v>
-      </c>
-      <c r="B104" s="416" t="s">
-        <v>363</v>
+        <v>222</v>
+      </c>
+      <c r="B104" s="287" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="105" ht="14.25" customHeight="1">
       <c r="A105" t="s">
-        <v>228</v>
-      </c>
-      <c r="B105" s="417" t="s">
-        <v>229</v>
+        <v>216</v>
+      </c>
+      <c r="B105" s="288" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="106" ht="14.25" customHeight="1">
       <c r="A106" t="s">
-        <v>221</v>
-      </c>
-      <c r="B106" s="418" t="s">
-        <v>3</v>
+        <v>218</v>
+      </c>
+      <c r="B106" s="289" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="107" ht="14.25" customHeight="1">
       <c r="A107" t="s">
-        <v>223</v>
-      </c>
-      <c r="B107" s="419" t="s">
-        <v>224</v>
+        <v>219</v>
+      </c>
+      <c r="B107" s="290" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="108" ht="14.25" customHeight="1">
       <c r="A108" t="s">
-        <v>225</v>
-      </c>
-      <c r="B108" s="420" t="s">
-        <v>3</v>
+        <v>220</v>
+      </c>
+      <c r="B108" s="291" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="109" ht="14.25" customHeight="1">
       <c r="A109" t="s">
-        <v>226</v>
-      </c>
-      <c r="B109" s="421" t="s">
-        <v>364</v>
+        <v>225</v>
+      </c>
+      <c r="B109" s="292" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="110" ht="14.25" customHeight="1">
       <c r="A110" t="s">
-        <v>281</v>
-      </c>
-      <c r="B110" s="422" t="s">
-        <v>3</v>
+        <v>226</v>
+      </c>
+      <c r="B110" s="293" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="A111" t="s">
-        <v>282</v>
-      </c>
-      <c r="B111" s="423" t="s">
-        <v>283</v>
+        <v>228</v>
+      </c>
+      <c r="B111" s="294" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="112" ht="14.25" customHeight="1">
       <c r="A112" t="s">
-        <v>284</v>
-      </c>
-      <c r="B112" s="424" t="s">
-        <v>285</v>
+        <v>230</v>
+      </c>
+      <c r="B112" s="295" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="113" ht="14.25" customHeight="1">
       <c r="A113" t="s">
-        <v>286</v>
-      </c>
-      <c r="B113" s="425" t="s">
-        <v>287</v>
+        <v>232</v>
+      </c>
+      <c r="B113" s="296" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="114" ht="14.25" customHeight="1">
       <c r="A114" t="s">
-        <v>288</v>
-      </c>
-      <c r="B114" s="426" t="s">
-        <v>289</v>
+        <v>233</v>
+      </c>
+      <c r="B114" s="297" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="115" ht="14.25" customHeight="1">
       <c r="A115" t="s">
-        <v>290</v>
-      </c>
-      <c r="B115" s="427" t="s">
-        <v>365</v>
+        <v>234</v>
+      </c>
+      <c r="B115" s="298" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="116" ht="14.25" customHeight="1">
       <c r="A116" t="s">
-        <v>292</v>
-      </c>
-      <c r="B116" s="428" t="s">
-        <v>289</v>
+        <v>235</v>
+      </c>
+      <c r="B116" s="299" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="117" ht="14.25" customHeight="1">
       <c r="A117" t="s">
-        <v>293</v>
-      </c>
-      <c r="B117" s="429" t="s">
-        <v>289</v>
+        <v>237</v>
+      </c>
+      <c r="B117" s="300" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1">
       <c r="A118" t="s">
-        <v>294</v>
-      </c>
-      <c r="B118" s="430" t="s">
-        <v>289</v>
+        <v>238</v>
+      </c>
+      <c r="B118" s="301" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="119" ht="14.25" customHeight="1">
       <c r="A119" t="s">
-        <v>295</v>
-      </c>
-      <c r="B119" s="431" t="s">
-        <v>289</v>
+        <v>239</v>
+      </c>
+      <c r="B119" s="302" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="120" ht="14.25" customHeight="1">
       <c r="A120" t="s">
-        <v>296</v>
-      </c>
-      <c r="B120" s="432" t="s">
-        <v>289</v>
+        <v>240</v>
+      </c>
+      <c r="B120" s="303" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="121" ht="14.25" customHeight="1">
       <c r="A121" t="s">
-        <v>297</v>
-      </c>
-      <c r="B121" s="433" t="s">
-        <v>298</v>
+        <v>242</v>
+      </c>
+      <c r="B121" s="304" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="122" ht="14.25" customHeight="1">
       <c r="A122" t="s">
-        <v>299</v>
-      </c>
-      <c r="B122" s="434" t="s">
-        <v>146</v>
+        <v>243</v>
+      </c>
+      <c r="B122" s="305" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="123" ht="14.25" customHeight="1">
       <c r="A123" t="s">
-        <v>300</v>
-      </c>
-      <c r="B123" s="435" t="s">
-        <v>301</v>
+        <v>245</v>
+      </c>
+      <c r="B123" s="306" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="124" ht="14.25" customHeight="1">
       <c r="A124" t="s">
-        <v>302</v>
-      </c>
-      <c r="B124" s="436" t="s">
-        <v>303</v>
+        <v>247</v>
+      </c>
+      <c r="B124" s="307" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="125" ht="14.25" customHeight="1">
       <c r="A125" t="s">
-        <v>310</v>
-      </c>
-      <c r="B125" s="437" t="s">
-        <v>146</v>
+        <v>248</v>
+      </c>
+      <c r="B125" s="308" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="126" ht="14.25" customHeight="1">
       <c r="A126" t="s">
-        <v>366</v>
-      </c>
-      <c r="B126" s="438" t="s">
-        <v>146</v>
+        <v>249</v>
+      </c>
+      <c r="B126" s="309" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="127" ht="14.25" customHeight="1">
       <c r="A127" t="s">
-        <v>312</v>
-      </c>
-      <c r="B127" s="439" t="s">
-        <v>313</v>
+        <v>251</v>
+      </c>
+      <c r="B127" s="310" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="128" ht="14.25" customHeight="1">
       <c r="A128" t="s">
-        <v>305</v>
-      </c>
-      <c r="B128" s="440" t="s">
-        <v>146</v>
+        <v>252</v>
+      </c>
+      <c r="B128" s="311" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="129" ht="14.25" customHeight="1">
       <c r="A129" t="s">
-        <v>367</v>
-      </c>
-      <c r="B129" s="441" t="s">
-        <v>307</v>
+        <v>254</v>
+      </c>
+      <c r="B129" s="312" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="130" ht="14.25" customHeight="1">
       <c r="A130" t="s">
-        <v>308</v>
-      </c>
-      <c r="B130" s="442" t="s">
-        <v>309</v>
+        <v>256</v>
+      </c>
+      <c r="B130" s="313" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="131" ht="14.25" customHeight="1">
       <c r="A131" t="s">
-        <v>368</v>
-      </c>
-      <c r="B131" s="443" t="s">
-        <v>146</v>
+        <v>257</v>
+      </c>
+      <c r="B131" s="314" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1">
       <c r="A132" t="s">
-        <v>369</v>
-      </c>
-      <c r="B132" s="444" t="s">
-        <v>316</v>
+        <v>259</v>
+      </c>
+      <c r="B132" s="315" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1">
       <c r="A133" t="s">
-        <v>317</v>
-      </c>
-      <c r="B133" s="445" t="s">
-        <v>318</v>
+        <v>261</v>
+      </c>
+      <c r="B133" s="316" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="134" ht="14.25" customHeight="1">
       <c r="A134" t="s">
-        <v>319</v>
-      </c>
-      <c r="B134" s="446" t="s">
-        <v>320</v>
+        <v>262</v>
+      </c>
+      <c r="B134" s="317" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="135" ht="14.25" customHeight="1">
       <c r="A135" t="s">
-        <v>321</v>
-      </c>
-      <c r="B135" s="447" t="s">
-        <v>322</v>
+        <v>264</v>
+      </c>
+      <c r="B135" s="318" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="136" ht="14.25" customHeight="1">
       <c r="A136" t="s">
-        <v>323</v>
-      </c>
-      <c r="B136" s="448" t="s">
-        <v>98</v>
+        <v>266</v>
+      </c>
+      <c r="B136" s="319" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="137" ht="14.25" customHeight="1">
       <c r="A137" t="s">
-        <v>370</v>
-      </c>
-      <c r="B137" s="449" t="s">
-        <v>146</v>
+        <v>268</v>
+      </c>
+      <c r="B137" s="320" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="138" ht="14.25" customHeight="1">
       <c r="A138" t="s">
-        <v>371</v>
-      </c>
-      <c r="B138" s="450" t="s">
-        <v>307</v>
+        <v>270</v>
+      </c>
+      <c r="B138" s="321" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="139" ht="14.25" customHeight="1">
       <c r="A139" t="s">
-        <v>327</v>
-      </c>
-      <c r="B139" s="451" t="s">
-        <v>328</v>
+        <v>271</v>
+      </c>
+      <c r="B139" s="322" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="140" ht="14.25" customHeight="1">
       <c r="A140" t="s">
-        <v>372</v>
-      </c>
-      <c r="B140" s="452" t="s">
-        <v>307</v>
+        <v>272</v>
+      </c>
+      <c r="B140" s="323" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="141" ht="14.25" customHeight="1">
       <c r="A141" t="s">
-        <v>373</v>
-      </c>
-      <c r="B141" s="453" t="s">
-        <v>333</v>
+        <v>273</v>
+      </c>
+      <c r="B141" s="324" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="142" ht="14.25" customHeight="1">
       <c r="A142" t="s">
-        <v>374</v>
-      </c>
-      <c r="B142" s="454" t="s">
-        <v>146</v>
+        <v>274</v>
+      </c>
+      <c r="B142" s="325" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="143" ht="14.25" customHeight="1">
       <c r="A143" t="s">
-        <v>375</v>
-      </c>
-      <c r="B143" s="455" t="s">
-        <v>336</v>
+        <v>275</v>
+      </c>
+      <c r="B143" s="326" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="144" ht="14.25" customHeight="1">
       <c r="A144" t="s">
-        <v>376</v>
-      </c>
-      <c r="B144" s="456" t="s">
-        <v>146</v>
+        <v>276</v>
+      </c>
+      <c r="B144" s="327" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="145" ht="14.25" customHeight="1">
       <c r="A145" t="s">
-        <v>377</v>
-      </c>
-      <c r="B145" s="457" t="s">
-        <v>146</v>
+        <v>277</v>
+      </c>
+      <c r="B145" s="328" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="146" ht="14.25" customHeight="1">
       <c r="A146" t="s">
-        <v>378</v>
-      </c>
-      <c r="B146" s="458" t="s">
-        <v>307</v>
+        <v>278</v>
+      </c>
+      <c r="B146" s="329" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="147" ht="14.25" customHeight="1">
       <c r="A147" t="s">
-        <v>340</v>
-      </c>
-      <c r="B147" s="459" t="s">
-        <v>341</v>
+        <v>280</v>
+      </c>
+      <c r="B147" s="330" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="148" ht="14.25" customHeight="1">
       <c r="A148" t="s">
-        <v>379</v>
-      </c>
-      <c r="B148" s="460" t="s">
-        <v>146</v>
+        <v>281</v>
+      </c>
+      <c r="B148" s="331" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="149" ht="14.25" customHeight="1">
       <c r="A149" t="s">
-        <v>380</v>
-      </c>
-      <c r="B149" s="461" t="s">
-        <v>307</v>
+        <v>283</v>
+      </c>
+      <c r="B149" s="332" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="150" ht="14.25" customHeight="1">
       <c r="A150" t="s">
-        <v>344</v>
-      </c>
-      <c r="B150" s="462" t="s">
-        <v>345</v>
+        <v>284</v>
+      </c>
+      <c r="B150" s="333" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="151" ht="14.25" customHeight="1">
       <c r="A151" t="s">
-        <v>381</v>
-      </c>
-      <c r="B151" s="463" t="s">
-        <v>146</v>
+        <v>286</v>
+      </c>
+      <c r="B151" s="334" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="152" ht="14.25" customHeight="1">
       <c r="A152" t="s">
-        <v>382</v>
-      </c>
-      <c r="B152" s="464" t="s">
-        <v>307</v>
+        <v>287</v>
+      </c>
+      <c r="B152" s="335" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="153" ht="14.25" customHeight="1">
       <c r="A153" t="s">
-        <v>351</v>
-      </c>
-      <c r="B153" s="465" t="s">
-        <v>352</v>
+        <v>288</v>
+      </c>
+      <c r="B153" s="336" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="154" ht="14.25" customHeight="1">
       <c r="A154" t="s">
-        <v>353</v>
-      </c>
-      <c r="B154" s="466" t="s">
-        <v>135</v>
+        <v>289</v>
+      </c>
+      <c r="B154" s="337" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="155" ht="14.25" customHeight="1">
       <c r="A155" t="s">
-        <v>383</v>
-      </c>
-      <c r="B155" s="467" t="s">
-        <v>146</v>
+        <v>291</v>
+      </c>
+      <c r="B155" s="338" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="156" ht="14.25" customHeight="1">
       <c r="A156" t="s">
-        <v>347</v>
-      </c>
-      <c r="B156" s="468" t="s">
-        <v>348</v>
+        <v>292</v>
+      </c>
+      <c r="B156" s="339" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="157" ht="14.25" customHeight="1">
       <c r="A157" t="s">
-        <v>354</v>
-      </c>
-      <c r="B157" s="469" t="s">
-        <v>135</v>
+        <v>293</v>
+      </c>
+      <c r="B157" s="340" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="158" ht="14.25" customHeight="1">
       <c r="A158" t="s">
-        <v>384</v>
-      </c>
-      <c r="B158" s="470" t="s">
-        <v>330</v>
+        <v>295</v>
+      </c>
+      <c r="B158" s="341" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="159" ht="14.25" customHeight="1">
       <c r="A159" t="s">
+        <v>296</v>
+      </c>
+      <c r="B159" s="342" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="160" ht="14.25" customHeight="1">
+      <c r="A160" t="s">
+        <v>297</v>
+      </c>
+      <c r="B160" s="343" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="161" ht="14.25" customHeight="1">
+      <c r="A161" t="s">
+        <v>299</v>
+      </c>
+      <c r="B161" s="344" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="162" ht="14.25" customHeight="1">
+      <c r="A162" t="s">
+        <v>300</v>
+      </c>
+      <c r="B162" s="345" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="163" ht="14.25" customHeight="1">
+      <c r="A163" t="s">
+        <v>301</v>
+      </c>
+      <c r="B163" s="346" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="164" ht="14.25" customHeight="1">
+      <c r="A164" t="s">
+        <v>302</v>
+      </c>
+      <c r="B164" s="347" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="165" ht="14.25" customHeight="1">
+      <c r="A165" t="s">
+        <v>303</v>
+      </c>
+      <c r="B165" s="348" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="166" ht="14.25" customHeight="1">
+      <c r="A166" t="s">
         <v>304</v>
       </c>
-      <c r="B159" s="471" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
+      <c r="B166" s="349" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="167" ht="14.25" customHeight="1">
+      <c r="A167" t="s">
+        <v>306</v>
+      </c>
+      <c r="B167" s="350" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="168" ht="14.25" customHeight="1">
+      <c r="A168" t="s">
+        <v>308</v>
+      </c>
+      <c r="B168" s="351" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="169" ht="14.25" customHeight="1">
+      <c r="A169" t="s">
+        <v>310</v>
+      </c>
+      <c r="B169" s="352" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="170" ht="14.25" customHeight="1">
+      <c r="A170" t="s">
+        <v>311</v>
+      </c>
+      <c r="B170" s="353" t="s">
+        <v>144</v>
+      </c>
+    </row>
     <row r="171" ht="14.25" customHeight="1"/>
     <row r="172" ht="14.25" customHeight="1"/>
     <row r="173" ht="14.25" customHeight="1"/>
@@ -7198,16 +7641,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -7215,16 +7658,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -7232,16 +7675,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
@@ -7265,1108 +7708,967 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="82.29" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="54.0" collapsed="true"/>
     <col min="3" max="6" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="140" t="s">
-        <v>231</v>
+        <v>102</v>
+      </c>
+      <c r="B1" s="453" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="141" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="B2" s="454" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="142" t="s">
-        <v>33</v>
+        <v>106</v>
+      </c>
+      <c r="B3" s="455" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="143" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="456" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="451" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="14.25" customHeight="1"/>
+      <c r="B6" s="452" t="s">
+        <v>358</v>
+      </c>
+    </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="144" t="s">
-        <v>232</v>
+      <c r="B7" s="457" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="145" t="s">
-        <v>115</v>
+      <c r="B8" s="458" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="146" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
+      <c r="B9" s="459" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" ht="47.25" customHeight="1">
       <c r="A10" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="150" t="s">
-        <v>235</v>
+      <c r="B10" s="463" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="151" t="s">
-        <v>75</v>
+      <c r="B11" s="464" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="152" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
+      <c r="B12" s="465" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" ht="33.0" customHeight="1">
       <c r="A13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="155" t="s">
-        <v>238</v>
+        <v>318</v>
+      </c>
+      <c r="B13" s="466" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="156" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="B14" s="467" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="157" t="s">
-        <v>129</v>
+        <v>126</v>
+      </c>
+      <c r="B15" s="468" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="158" t="s">
-        <v>239</v>
+        <v>128</v>
+      </c>
+      <c r="B16" s="469" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="159" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="B17" s="470" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="160" t="s">
-        <v>137</v>
+        <v>132</v>
+      </c>
+      <c r="B18" s="473" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>138</v>
-      </c>
-      <c r="B19" s="161" t="s">
-        <v>240</v>
+        <v>134</v>
+      </c>
+      <c r="B19" s="474" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="162" t="s">
-        <v>241</v>
+        <v>136</v>
+      </c>
+      <c r="B20" s="475" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="B21" s="472" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="163" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+      <c r="B22" s="476" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="164" t="s">
-        <v>139</v>
+        <v>134</v>
+      </c>
+      <c r="B23" s="477" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" s="165" t="s">
-        <v>141</v>
+        <v>136</v>
+      </c>
+      <c r="B24" s="478" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="166" t="s">
-        <v>146</v>
+        <v>138</v>
+      </c>
+      <c r="B25" s="479" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>147</v>
-      </c>
-      <c r="B26" s="167" t="s">
-        <v>242</v>
+        <v>145</v>
+      </c>
+      <c r="B26" s="480" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" t="s">
-        <v>149</v>
-      </c>
-      <c r="B27" s="168" t="s">
-        <v>243</v>
+        <v>147</v>
+      </c>
+      <c r="B27" s="481" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>151</v>
-      </c>
-      <c r="B28" s="169" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="B28" s="482" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="170" t="s">
-        <v>244</v>
+        <v>151</v>
+      </c>
+      <c r="B29" s="483" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>155</v>
-      </c>
-      <c r="B30" s="171" t="s">
-        <v>146</v>
+        <v>153</v>
+      </c>
+      <c r="B30" s="484" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>156</v>
-      </c>
-      <c r="B31" s="174" t="s">
-        <v>146</v>
+        <v>154</v>
+      </c>
+      <c r="B31" s="485" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" t="s">
-        <v>157</v>
-      </c>
-      <c r="B32" s="173" t="s">
-        <v>245</v>
-      </c>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B33" s="179" t="s">
-        <v>246</v>
+        <v>155</v>
+      </c>
+      <c r="B33" s="490" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>165</v>
-      </c>
-      <c r="B34" s="180" t="s">
-        <v>166</v>
+        <v>157</v>
+      </c>
+      <c r="B34" s="491" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>167</v>
-      </c>
-      <c r="B35" s="181" t="s">
-        <v>247</v>
+        <v>159</v>
+      </c>
+      <c r="B35" s="492" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" t="s">
-        <v>169</v>
-      </c>
-      <c r="B36" s="56" t="s">
-        <v>170</v>
-      </c>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" t="s">
-        <v>165</v>
-      </c>
-      <c r="B37" s="57" t="s">
-        <v>168</v>
-      </c>
+      <c r="B37" s="3"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" t="s">
-        <v>167</v>
-      </c>
-      <c r="B38" s="58" t="s">
-        <v>166</v>
-      </c>
+      <c r="B38" s="3"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>159</v>
-      </c>
-      <c r="B39" s="175" t="s">
-        <v>135</v>
+        <v>161</v>
+      </c>
+      <c r="B39" s="486" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>160</v>
-      </c>
-      <c r="B40" s="176" t="s">
-        <v>135</v>
+        <v>162</v>
+      </c>
+      <c r="B40" s="487" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>161</v>
-      </c>
-      <c r="B41" s="177" t="s">
-        <v>146</v>
+        <v>163</v>
+      </c>
+      <c r="B41" s="488" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" s="178" t="s">
-        <v>146</v>
+        <v>164</v>
+      </c>
+      <c r="B42" s="489" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>171</v>
-      </c>
-      <c r="B43" s="182" t="s">
-        <v>13</v>
+        <v>329</v>
+      </c>
+      <c r="B43" s="493" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>172</v>
-      </c>
-      <c r="B44" s="183" t="s">
-        <v>248</v>
+        <v>167</v>
+      </c>
+      <c r="B44" s="494" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45" s="184" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="B45" s="495" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B46" s="185" t="s">
-        <v>249</v>
+        <v>157</v>
+      </c>
+      <c r="B46" s="496" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>177</v>
-      </c>
-      <c r="B47" s="186" t="s">
-        <v>250</v>
+        <v>172</v>
+      </c>
+      <c r="B47" s="497" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>179</v>
-      </c>
-      <c r="B48" s="187" t="s">
-        <v>13</v>
+        <v>333</v>
+      </c>
+      <c r="B48" s="498" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" t="s">
-        <v>172</v>
-      </c>
-      <c r="B49" s="188" t="s">
-        <v>84</v>
+        <v>167</v>
+      </c>
+      <c r="B49" s="499" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" t="s">
-        <v>174</v>
-      </c>
-      <c r="B50" s="189" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="B50" s="500" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" t="s">
-        <v>165</v>
-      </c>
-      <c r="B51" s="190" t="s">
-        <v>251</v>
+        <v>157</v>
+      </c>
+      <c r="B51" s="501" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>181</v>
-      </c>
-      <c r="B52" s="191" t="s">
-        <v>252</v>
+        <v>176</v>
+      </c>
+      <c r="B52" s="502" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>183</v>
-      </c>
-      <c r="B53" s="192" t="s">
-        <v>253</v>
+        <v>178</v>
+      </c>
+      <c r="B53" s="503" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" t="s">
-        <v>172</v>
-      </c>
-      <c r="B54" s="193" t="s">
-        <v>85</v>
+        <v>167</v>
+      </c>
+      <c r="B54" s="504" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" t="s">
-        <v>174</v>
-      </c>
-      <c r="B55" s="194" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="B55" s="505" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" t="s">
-        <v>165</v>
-      </c>
-      <c r="B56" s="195" t="s">
-        <v>254</v>
+        <v>157</v>
+      </c>
+      <c r="B56" s="506" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" t="s">
-        <v>181</v>
-      </c>
-      <c r="B57" s="196" t="s">
-        <v>255</v>
+        <v>176</v>
+      </c>
+      <c r="B57" s="507" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" t="s">
-        <v>183</v>
-      </c>
-      <c r="B58" s="197" t="s">
-        <v>193</v>
+        <v>178</v>
+      </c>
+      <c r="B58" s="508" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" t="s">
-        <v>172</v>
-      </c>
-      <c r="B59" s="198" t="s">
-        <v>86</v>
+        <v>167</v>
+      </c>
+      <c r="B59" s="509" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" t="s">
-        <v>174</v>
-      </c>
-      <c r="B60" s="199" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="B60" s="510" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" t="s">
-        <v>165</v>
-      </c>
-      <c r="B61" s="200" t="s">
-        <v>256</v>
+        <v>157</v>
+      </c>
+      <c r="B61" s="511" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" t="s">
-        <v>181</v>
-      </c>
-      <c r="B62" s="201" t="s">
-        <v>257</v>
+        <v>176</v>
+      </c>
+      <c r="B62" s="512" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" t="s">
-        <v>183</v>
-      </c>
-      <c r="B63" s="202" t="s">
-        <v>258</v>
+        <v>178</v>
+      </c>
+      <c r="B63" s="513" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" t="s">
-        <v>172</v>
-      </c>
-      <c r="B64" s="203" t="s">
-        <v>87</v>
+        <v>167</v>
+      </c>
+      <c r="B64" s="514" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" t="s">
-        <v>174</v>
-      </c>
-      <c r="B65" s="204" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="B65" s="515" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" t="s">
-        <v>165</v>
-      </c>
-      <c r="B66" s="205" t="s">
-        <v>180</v>
+        <v>157</v>
+      </c>
+      <c r="B66" s="516" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" t="s">
-        <v>181</v>
-      </c>
-      <c r="B67" s="206" t="s">
-        <v>259</v>
+        <v>176</v>
+      </c>
+      <c r="B67" s="517" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" t="s">
-        <v>183</v>
-      </c>
-      <c r="B68" s="207" t="s">
-        <v>260</v>
+        <v>178</v>
+      </c>
+      <c r="B68" s="518" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" t="s">
-        <v>172</v>
-      </c>
-      <c r="B69" s="208" t="s">
-        <v>88</v>
+        <v>167</v>
+      </c>
+      <c r="B69" s="519" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" t="s">
-        <v>174</v>
-      </c>
-      <c r="B70" s="209" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="B70" s="520" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" t="s">
-        <v>165</v>
-      </c>
-      <c r="B71" s="210" t="s">
-        <v>261</v>
+        <v>157</v>
+      </c>
+      <c r="B71" s="521" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" t="s">
-        <v>181</v>
-      </c>
-      <c r="B72" s="211" t="s">
-        <v>262</v>
+        <v>176</v>
+      </c>
+      <c r="B72" s="522" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" t="s">
-        <v>183</v>
-      </c>
-      <c r="B73" s="212" t="s">
-        <v>263</v>
+        <v>178</v>
+      </c>
+      <c r="B73" s="523" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="A74" t="s">
-        <v>172</v>
-      </c>
-      <c r="B74" s="213" t="s">
-        <v>89</v>
+        <v>167</v>
+      </c>
+      <c r="B74" s="524" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" t="s">
-        <v>174</v>
-      </c>
-      <c r="B75" s="214" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="B75" s="525" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" t="s">
-        <v>165</v>
-      </c>
-      <c r="B76" s="215" t="s">
-        <v>264</v>
+        <v>157</v>
+      </c>
+      <c r="B76" s="526" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" t="s">
-        <v>181</v>
-      </c>
-      <c r="B77" s="216" t="s">
-        <v>265</v>
+        <v>176</v>
+      </c>
+      <c r="B77" s="527" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="A78" t="s">
-        <v>183</v>
-      </c>
-      <c r="B78" s="217" t="s">
-        <v>266</v>
+        <v>178</v>
+      </c>
+      <c r="B78" s="528" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="A79" t="s">
-        <v>172</v>
-      </c>
-      <c r="B79" s="218" t="s">
-        <v>90</v>
+        <v>167</v>
+      </c>
+      <c r="B79" s="529" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="A80" t="s">
-        <v>174</v>
-      </c>
-      <c r="B80" s="219" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="B80" s="530" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
       <c r="A81" t="s">
-        <v>165</v>
-      </c>
-      <c r="B81" s="220" t="s">
-        <v>267</v>
+        <v>157</v>
+      </c>
+      <c r="B81" s="531" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
       <c r="A82" t="s">
-        <v>181</v>
-      </c>
-      <c r="B82" s="221" t="s">
-        <v>268</v>
+        <v>176</v>
+      </c>
+      <c r="B82" s="532" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="A83" t="s">
-        <v>183</v>
-      </c>
-      <c r="B83" s="222" t="s">
-        <v>269</v>
+        <v>178</v>
+      </c>
+      <c r="B83" s="533" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1">
       <c r="A84" t="s">
-        <v>172</v>
-      </c>
-      <c r="B84" s="223" t="s">
-        <v>91</v>
+        <v>167</v>
+      </c>
+      <c r="B84" s="534" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="A85" t="s">
-        <v>174</v>
-      </c>
-      <c r="B85" s="224" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="B85" s="535" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="A86" t="s">
-        <v>165</v>
-      </c>
-      <c r="B86" s="225" t="s">
-        <v>270</v>
+        <v>157</v>
+      </c>
+      <c r="B86" s="536" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
       <c r="A87" t="s">
-        <v>181</v>
-      </c>
-      <c r="B87" s="226" t="s">
-        <v>271</v>
+        <v>176</v>
+      </c>
+      <c r="B87" s="537" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="A88" t="s">
-        <v>183</v>
-      </c>
-      <c r="B88" s="227" t="s">
-        <v>184</v>
+        <v>178</v>
+      </c>
+      <c r="B88" s="538" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" t="s">
-        <v>172</v>
-      </c>
-      <c r="B89" s="228" t="s">
-        <v>92</v>
+        <v>167</v>
+      </c>
+      <c r="B89" s="539" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" t="s">
-        <v>174</v>
-      </c>
-      <c r="B90" s="229" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="B90" s="540" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="A91" t="s">
-        <v>165</v>
-      </c>
-      <c r="B91" s="230" t="s">
-        <v>272</v>
+        <v>157</v>
+      </c>
+      <c r="B91" s="541" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1">
       <c r="A92" t="s">
-        <v>181</v>
-      </c>
-      <c r="B92" s="231" t="s">
-        <v>273</v>
+        <v>176</v>
+      </c>
+      <c r="B92" s="542" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="A93" t="s">
-        <v>183</v>
-      </c>
-      <c r="B93" s="232" t="s">
-        <v>274</v>
+        <v>178</v>
+      </c>
+      <c r="B93" s="543" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="A94" t="s">
-        <v>12</v>
-      </c>
-      <c r="B94" s="240" t="s">
-        <v>13</v>
+        <v>346</v>
+      </c>
+      <c r="B94" s="551" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="A95" t="s">
-        <v>209</v>
-      </c>
-      <c r="B95" s="243" t="s">
-        <v>103</v>
+        <v>204</v>
+      </c>
+      <c r="B95" s="554" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1">
       <c r="A96" t="s">
-        <v>174</v>
-      </c>
-      <c r="B96" s="244" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="B96" s="555" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" t="s">
-        <v>165</v>
-      </c>
-      <c r="B97" s="241" t="s">
-        <v>277</v>
+        <v>157</v>
+      </c>
+      <c r="B97" s="552" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1">
       <c r="A98" t="s">
-        <v>211</v>
-      </c>
-      <c r="B98" s="245" t="s">
-        <v>278</v>
+        <v>206</v>
+      </c>
+      <c r="B98" s="556" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1">
       <c r="A99" t="s">
-        <v>213</v>
-      </c>
-      <c r="B99" s="246" t="s">
-        <v>104</v>
+        <v>208</v>
+      </c>
+      <c r="B99" s="557" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1">
       <c r="A100" t="s">
-        <v>216</v>
-      </c>
-      <c r="B100" s="247" t="s">
-        <v>279</v>
+        <v>209</v>
+      </c>
+      <c r="B100" s="558" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1">
       <c r="A101" t="s">
-        <v>218</v>
-      </c>
-      <c r="B101" s="248" t="s">
-        <v>280</v>
+        <v>211</v>
+      </c>
+      <c r="B101" s="559" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="102" ht="14.25" customHeight="1">
       <c r="A102" t="s">
-        <v>14</v>
-      </c>
-      <c r="B102" s="249" t="s">
-        <v>15</v>
+        <v>213</v>
+      </c>
+      <c r="B102" s="560" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="103" ht="14.25" customHeight="1">
       <c r="A103" t="s">
-        <v>219</v>
-      </c>
-      <c r="B103" s="250" t="s">
-        <v>220</v>
+        <v>214</v>
+      </c>
+      <c r="B103" s="561" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="104" ht="14.25" customHeight="1">
       <c r="A104" t="s">
-        <v>221</v>
-      </c>
-      <c r="B104" s="251" t="s">
-        <v>222</v>
+        <v>216</v>
+      </c>
+      <c r="B104" s="562" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="105" ht="14.25" customHeight="1">
       <c r="A105" t="s">
-        <v>223</v>
-      </c>
-      <c r="B105" s="252" t="s">
-        <v>222</v>
+        <v>218</v>
+      </c>
+      <c r="B105" s="564" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="106" ht="14.25" customHeight="1">
       <c r="A106" t="s">
-        <v>225</v>
-      </c>
-      <c r="B106" s="253" t="s">
+        <v>219</v>
+      </c>
+      <c r="B106" s="565" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="107" ht="14.25" customHeight="1">
       <c r="A107" t="s">
-        <v>226</v>
-      </c>
-      <c r="B107" s="254" t="s">
-        <v>227</v>
+        <v>220</v>
+      </c>
+      <c r="B107" s="566" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="108" ht="14.25" customHeight="1">
       <c r="A108" t="s">
-        <v>228</v>
-      </c>
-      <c r="B108" s="255" t="s">
-        <v>229</v>
+        <v>222</v>
+      </c>
+      <c r="B108" s="567" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="109" ht="14.25" customHeight="1">
       <c r="A109" t="s">
-        <v>221</v>
-      </c>
-      <c r="B109" s="257" t="s">
-        <v>224</v>
+        <v>216</v>
+      </c>
+      <c r="B109" s="568" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="110" ht="14.25" customHeight="1">
       <c r="A110" t="s">
-        <v>223</v>
-      </c>
-      <c r="B110" s="258" t="s">
-        <v>222</v>
+        <v>218</v>
+      </c>
+      <c r="B110" s="569" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="A111" t="s">
-        <v>225</v>
-      </c>
-      <c r="B111" s="260" t="s">
-        <v>224</v>
+        <v>219</v>
+      </c>
+      <c r="B111" s="570" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="112" ht="14.25" customHeight="1">
       <c r="A112" t="s">
-        <v>226</v>
-      </c>
-      <c r="B112" s="261" t="s">
-        <v>230</v>
+        <v>220</v>
+      </c>
+      <c r="B112" s="571" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="113" ht="14.25" customHeight="1">
-      <c r="A113" t="s">
-        <v>281</v>
-      </c>
-      <c r="B113" s="262" t="s">
-        <v>3</v>
-      </c>
+      <c r="B113" s="3"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="A114" t="s">
-        <v>282</v>
-      </c>
-      <c r="B114" s="263" t="s">
-        <v>283</v>
-      </c>
+      <c r="B114" s="3"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
-      <c r="A115" t="s">
-        <v>284</v>
-      </c>
-      <c r="B115" s="264" t="s">
-        <v>285</v>
-      </c>
+      <c r="B115" s="3"/>
     </row>
     <row r="116" ht="14.25" customHeight="1">
-      <c r="A116" t="s">
-        <v>286</v>
-      </c>
-      <c r="B116" s="265" t="s">
-        <v>287</v>
-      </c>
+      <c r="B116" s="3"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
-      <c r="A117" t="s">
-        <v>288</v>
-      </c>
-      <c r="B117" s="266" t="s">
-        <v>289</v>
-      </c>
+      <c r="B117" s="3"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="A118" t="s">
-        <v>290</v>
-      </c>
-      <c r="B118" s="267" t="s">
-        <v>291</v>
-      </c>
+      <c r="B118" s="3"/>
     </row>
     <row r="119" ht="14.25" customHeight="1">
-      <c r="A119" t="s">
-        <v>292</v>
-      </c>
-      <c r="B119" s="268" t="s">
-        <v>289</v>
-      </c>
+      <c r="B119" s="3"/>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="A120" t="s">
-        <v>293</v>
-      </c>
-      <c r="B120" s="269" t="s">
-        <v>289</v>
-      </c>
+      <c r="B120" s="3"/>
     </row>
     <row r="121" ht="14.25" customHeight="1">
-      <c r="A121" t="s">
-        <v>294</v>
-      </c>
-      <c r="B121" s="270" t="s">
-        <v>289</v>
-      </c>
+      <c r="B121" s="3"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
-      <c r="A122" t="s">
-        <v>295</v>
-      </c>
-      <c r="B122" s="271" t="s">
-        <v>289</v>
-      </c>
+      <c r="B122" s="3"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
-      <c r="A123" t="s">
-        <v>296</v>
-      </c>
-      <c r="B123" s="272" t="s">
-        <v>289</v>
-      </c>
+      <c r="B123" s="3"/>
     </row>
     <row r="124" ht="14.25" customHeight="1">
-      <c r="A124" t="s">
-        <v>297</v>
-      </c>
-      <c r="B124" s="273" t="s">
-        <v>298</v>
-      </c>
+      <c r="B124" s="3"/>
     </row>
     <row r="125" ht="14.25" customHeight="1">
-      <c r="A125" t="s">
-        <v>299</v>
-      </c>
-      <c r="B125" s="274" t="s">
-        <v>146</v>
-      </c>
+      <c r="B125" s="3"/>
     </row>
     <row r="126" ht="14.25" customHeight="1">
-      <c r="A126" t="s">
-        <v>300</v>
-      </c>
-      <c r="B126" s="275" t="s">
-        <v>301</v>
-      </c>
+      <c r="B126" s="3"/>
     </row>
     <row r="127" ht="14.25" customHeight="1">
-      <c r="A127" t="s">
-        <v>302</v>
-      </c>
-      <c r="B127" s="276" t="s">
-        <v>303</v>
-      </c>
+      <c r="B127" s="3"/>
     </row>
     <row r="128" ht="14.25" customHeight="1">
-      <c r="A128" t="s">
-        <v>310</v>
-      </c>
-      <c r="B128" s="281" t="s">
-        <v>146</v>
-      </c>
+      <c r="B128" s="3"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
-      <c r="A129" t="s">
-        <v>311</v>
-      </c>
-      <c r="B129" s="282" t="s">
-        <v>146</v>
-      </c>
+      <c r="B129" s="3"/>
     </row>
     <row r="130" ht="14.25" customHeight="1">
-      <c r="A130" t="s">
-        <v>312</v>
-      </c>
-      <c r="B130" s="283" t="s">
-        <v>313</v>
-      </c>
+      <c r="B130" s="3"/>
     </row>
     <row r="131" ht="14.25" customHeight="1">
-      <c r="A131" t="s">
-        <v>305</v>
-      </c>
-      <c r="B131" s="278" t="s">
-        <v>146</v>
-      </c>
+      <c r="B131" s="3"/>
     </row>
     <row r="132" ht="14.25" customHeight="1">
-      <c r="A132" t="s">
-        <v>308</v>
-      </c>
-      <c r="B132" s="280" t="s">
-        <v>309</v>
-      </c>
+      <c r="B132" s="3"/>
     </row>
     <row r="133" ht="14.25" customHeight="1">
-      <c r="A133" t="s">
-        <v>314</v>
-      </c>
-      <c r="B133" s="284" t="s">
-        <v>146</v>
-      </c>
+      <c r="B133" s="3"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
-      <c r="A134" t="s">
-        <v>315</v>
-      </c>
-      <c r="B134" s="285" t="s">
-        <v>316</v>
-      </c>
+      <c r="B134" s="3"/>
     </row>
     <row r="135" ht="14.25" customHeight="1">
-      <c r="A135" t="s">
-        <v>317</v>
-      </c>
-      <c r="B135" s="286" t="s">
-        <v>318</v>
-      </c>
+      <c r="B135" s="3"/>
     </row>
     <row r="136" ht="14.25" customHeight="1">
-      <c r="A136" t="s">
-        <v>319</v>
-      </c>
-      <c r="B136" s="287" t="s">
-        <v>320</v>
-      </c>
+      <c r="B136" s="3"/>
     </row>
     <row r="137" ht="14.25" customHeight="1">
-      <c r="A137" t="s">
-        <v>321</v>
-      </c>
-      <c r="B137" s="288" t="s">
-        <v>322</v>
-      </c>
+      <c r="B137" s="3"/>
     </row>
     <row r="138" ht="14.25" customHeight="1">
-      <c r="A138" t="s">
-        <v>323</v>
-      </c>
-      <c r="B138" s="289" t="s">
-        <v>98</v>
-      </c>
+      <c r="B138" s="3"/>
     </row>
     <row r="139" ht="14.25" customHeight="1">
-      <c r="A139" t="s">
-        <v>324</v>
-      </c>
-      <c r="B139" s="290" t="s">
-        <v>15</v>
-      </c>
+      <c r="B139" s="3"/>
     </row>
     <row r="140" ht="14.25" customHeight="1">
       <c r="B140" s="3"/>
@@ -8390,164 +8692,64 @@
       <c r="B146" s="3"/>
     </row>
     <row r="147" ht="14.25" customHeight="1">
-      <c r="A147" t="s">
-        <v>325</v>
-      </c>
-      <c r="B147" s="291" t="s">
-        <v>146</v>
-      </c>
+      <c r="B147" s="3"/>
     </row>
     <row r="148" ht="14.25" customHeight="1">
-      <c r="A148" t="s">
-        <v>326</v>
-      </c>
-      <c r="B148" s="292" t="s">
-        <v>307</v>
-      </c>
+      <c r="B148" s="3"/>
     </row>
     <row r="149" ht="14.25" customHeight="1">
-      <c r="A149" t="s">
-        <v>327</v>
-      </c>
-      <c r="B149" s="293" t="s">
-        <v>328</v>
-      </c>
+      <c r="B149" s="3"/>
     </row>
     <row r="150" ht="14.25" customHeight="1">
-      <c r="A150" t="s">
-        <v>331</v>
-      </c>
-      <c r="B150" s="295" t="s">
-        <v>307</v>
-      </c>
+      <c r="B150" s="3"/>
     </row>
     <row r="151" ht="14.25" customHeight="1">
-      <c r="A151" t="s">
-        <v>332</v>
-      </c>
-      <c r="B151" s="296" t="s">
-        <v>333</v>
-      </c>
+      <c r="B151" s="3"/>
     </row>
     <row r="152" ht="14.25" customHeight="1">
-      <c r="A152" t="s">
-        <v>334</v>
-      </c>
-      <c r="B152" s="297" t="s">
-        <v>146</v>
-      </c>
+      <c r="B152" s="3"/>
     </row>
     <row r="153" ht="14.25" customHeight="1">
-      <c r="A153" t="s">
-        <v>335</v>
-      </c>
-      <c r="B153" s="298" t="s">
-        <v>336</v>
-      </c>
+      <c r="B153" s="3"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
-      <c r="A154" t="s">
-        <v>337</v>
-      </c>
-      <c r="B154" s="299" t="s">
-        <v>146</v>
-      </c>
+      <c r="B154" s="3"/>
     </row>
     <row r="155" ht="14.25" customHeight="1">
-      <c r="A155" t="s">
-        <v>338</v>
-      </c>
-      <c r="B155" s="300" t="s">
-        <v>146</v>
-      </c>
+      <c r="B155" s="3"/>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="A156" t="s">
-        <v>339</v>
-      </c>
-      <c r="B156" s="301" t="s">
-        <v>307</v>
-      </c>
+      <c r="B156" s="3"/>
     </row>
     <row r="157" ht="14.25" customHeight="1">
-      <c r="A157" t="s">
-        <v>340</v>
-      </c>
-      <c r="B157" s="302" t="s">
-        <v>341</v>
-      </c>
+      <c r="B157" s="3"/>
     </row>
     <row r="158" ht="14.25" customHeight="1">
-      <c r="A158" t="s">
-        <v>342</v>
-      </c>
-      <c r="B158" s="303" t="s">
-        <v>146</v>
-      </c>
+      <c r="B158" s="3"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
-      <c r="A159" t="s">
-        <v>343</v>
-      </c>
-      <c r="B159" s="304" t="s">
-        <v>307</v>
-      </c>
+      <c r="B159" s="3"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
-      <c r="A160" t="s">
-        <v>344</v>
-      </c>
-      <c r="B160" s="305" t="s">
-        <v>345</v>
-      </c>
+      <c r="B160" s="3"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
-      <c r="A161" t="s">
-        <v>349</v>
-      </c>
-      <c r="B161" s="308" t="s">
-        <v>146</v>
-      </c>
+      <c r="B161" s="3"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
-      <c r="A162" t="s">
-        <v>350</v>
-      </c>
-      <c r="B162" s="309" t="s">
-        <v>307</v>
-      </c>
+      <c r="B162" s="3"/>
     </row>
     <row r="163" ht="14.25" customHeight="1">
-      <c r="A163" t="s">
-        <v>351</v>
-      </c>
-      <c r="B163" s="310" t="s">
-        <v>352</v>
-      </c>
+      <c r="B163" s="3"/>
     </row>
     <row r="164" ht="14.25" customHeight="1">
-      <c r="A164" t="s">
-        <v>353</v>
-      </c>
-      <c r="B164" s="311" t="s">
-        <v>135</v>
-      </c>
+      <c r="B164" s="3"/>
     </row>
     <row r="165" ht="14.25" customHeight="1">
-      <c r="A165" t="s">
-        <v>347</v>
-      </c>
-      <c r="B165" s="307" t="s">
-        <v>348</v>
-      </c>
+      <c r="B165" s="3"/>
     </row>
     <row r="166" ht="14.25" customHeight="1">
-      <c r="A166" t="s">
-        <v>354</v>
-      </c>
-      <c r="B166" s="312" t="s">
-        <v>135</v>
-      </c>
+      <c r="B166" s="3"/>
     </row>
     <row r="167" ht="14.25" customHeight="1">
       <c r="B167" s="3"/>
@@ -8559,12 +8761,7 @@
       <c r="B169" s="3"/>
     </row>
     <row r="170" ht="14.25" customHeight="1">
-      <c r="A170" t="s">
-        <v>329</v>
-      </c>
-      <c r="B170" s="294" t="s">
-        <v>330</v>
-      </c>
+      <c r="B170" s="3"/>
     </row>
     <row r="171" ht="14.25" customHeight="1">
       <c r="B171" s="3"/>
@@ -8573,12 +8770,7 @@
       <c r="B172" s="3"/>
     </row>
     <row r="173" ht="14.25" customHeight="1">
-      <c r="A173" t="s">
-        <v>304</v>
-      </c>
-      <c r="B173" s="277" t="s">
-        <v>135</v>
-      </c>
+      <c r="B173" s="3"/>
     </row>
     <row r="174" ht="14.25" customHeight="1">
       <c r="B174" s="3"/>
@@ -8653,159 +8845,159 @@
     <row r="218" ht="14.25" customHeight="1"/>
     <row r="219" ht="14.25" customHeight="1"/>
     <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
     <row r="374" ht="15.75" customHeight="1"/>
     <row r="375" ht="15.75" customHeight="1"/>
     <row r="376" ht="15.75" customHeight="1"/>
@@ -10761,43 +10953,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>18</v>
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
+      <c r="A3" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>22</v>
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -10805,7 +10997,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId420" ref="A3"/>
+    <hyperlink r:id="rId528" ref="A3"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -10833,16 +11025,16 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -10850,33 +11042,33 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>28</v>
+      <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
@@ -10884,50 +11076,50 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>31</v>
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>32</v>
+      <c r="A6" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>3</v>
@@ -10959,84 +11151,84 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>22</v>
+      <c r="D2" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>22</v>
+      <c r="A3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>40</v>
+      <c r="A4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>22</v>
+      <c r="A5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
@@ -11068,10 +11260,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -11079,21 +11271,21 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>28</v>
+      <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -11101,21 +11293,21 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>31</v>
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -11123,10 +11315,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -11134,10 +11326,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
@@ -11145,10 +11337,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
@@ -11156,10 +11348,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -11167,10 +11359,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -11178,10 +11370,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -11189,10 +11381,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
@@ -11200,10 +11392,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
@@ -11211,10 +11403,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
@@ -11222,10 +11414,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
@@ -11257,10 +11449,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -11268,21 +11460,21 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>28</v>
+      <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -11290,10 +11482,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -11301,10 +11493,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -11312,10 +11504,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -11350,25 +11542,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -11376,25 +11568,25 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>67</v>
+        <v>27</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
@@ -11402,25 +11594,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>3</v>

--- a/src/test/resources/com/ugapp/excel/testdata.xlsx
+++ b/src/test/resources/com/ugapp/excel/testdata.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="506">
   <si>
     <t>TCID</t>
   </si>
@@ -334,7 +334,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t>8166embtest@test.asu.edu</t>
+    <t>7672embtest@test.asu.edu</t>
   </si>
   <si>
     <t>Legal name</t>
@@ -352,13 +352,7 @@
     <t>January 01, 1996</t>
   </si>
   <si>
-    <t>Pronouns</t>
-  </si>
-  <si>
-    <t>No data has been entered</t>
-  </si>
-  <si>
-    <t>Gender identity</t>
+    <t>Transfer credits to ASU</t>
   </si>
   <si>
     <t>Former name(s)</t>
@@ -367,32 +361,31 @@
     <t>Test A
 Test B
 Test C
-FN Edited LN Edited
-Test E
+Test D
 Test F
 Test G
-Test H
+FN Edited LN Edited
 Test I
-First name Last name</t>
+Test First Name Test Last Name</t>
   </si>
   <si>
     <t>Legal sex</t>
   </si>
   <si>
-    <t>Male</t>
+    <t>Female</t>
   </si>
   <si>
     <t>Primary language spoken at home</t>
   </si>
   <si>
-    <t>Latvian</t>
+    <t>Hausa</t>
   </si>
   <si>
     <t>Home address</t>
   </si>
   <si>
     <t>Test Address line1 Test Address line2
-Test City,Bender,Moldova
+TestTestTestTestTestTestTestTest,Test State,Burma
 12345-678910</t>
   </si>
   <si>
@@ -402,451 +395,648 @@
     <t>Mobile phone</t>
   </si>
   <si>
+    <t>Test Address line1 Test Address line2
+Test City,Test State,Burma
+12345-678910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethnic/racial background </t>
+  </si>
+  <si>
+    <t>Dominican</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>White (Reporting Preferred)
+Dominican</t>
+  </si>
+  <si>
+    <t>U.S. citizenship</t>
+  </si>
+  <si>
+    <t>I am a U.S. citizen</t>
+  </si>
+  <si>
+    <t>Country of citizenship</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Country of birth</t>
+  </si>
+  <si>
+    <t>Iraq-Saudia Arabia Neutral Zne</t>
+  </si>
+  <si>
+    <t>Social Security Number</t>
+  </si>
+  <si>
+    <t>*********</t>
+  </si>
+  <si>
+    <t>Parent or Legal Guardian Attended ASU</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Parent or legal guardian</t>
+  </si>
+  <si>
+    <t>Parent FN Parent LN I</t>
+  </si>
+  <si>
+    <t>Parent or Legal Guardian Relation</t>
+  </si>
+  <si>
+    <t>Grandparent</t>
+  </si>
+  <si>
+    <t>Parent or Legal Guardian Schooling Level</t>
+  </si>
+  <si>
+    <t>Other/Unknown</t>
+  </si>
+  <si>
+    <t>Additional parent or legal guardian</t>
+  </si>
+  <si>
+    <t>Parent FN Parent LN II</t>
+  </si>
+  <si>
+    <t>Aunt</t>
+  </si>
+  <si>
+    <t>Middle School/Junior High</t>
+  </si>
+  <si>
+    <t>Previous ASU affiliation</t>
+  </si>
+  <si>
+    <t>I attended ASU as a nondegree or graduate student</t>
+  </si>
+  <si>
+    <t>Affiliate ID</t>
+  </si>
+  <si>
+    <t>9793670876</t>
+  </si>
+  <si>
+    <t>Military status</t>
+  </si>
+  <si>
+    <t>I am the spouse/dependent of a U.S. service member or veteran</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>United States Marine Corps</t>
+  </si>
+  <si>
+    <t>I have applied or plan to apply for Department of Veterans Affairs educational benefits based on my U.S. services affiliation identified above:</t>
+  </si>
+  <si>
+    <t>Do you plan to use an education benefit or scholarship through an employer, corporation, foundation or other ASU education partner?</t>
+  </si>
+  <si>
+    <t>Pre-law interest</t>
+  </si>
+  <si>
+    <t>Pre-med/health interest</t>
+  </si>
+  <si>
+    <t>Pre-veterinary interest</t>
+  </si>
+  <si>
+    <t>Teaching certificate interest</t>
+  </si>
+  <si>
+    <t>First choice</t>
+  </si>
+  <si>
+    <t>Anthropology, BS</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>ASU Online</t>
+  </si>
+  <si>
+    <t>Starting term</t>
+  </si>
+  <si>
+    <t>2024 Summer - (Session B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Graduating school </t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>High school name</t>
+  </si>
+  <si>
+    <t>Salome HS</t>
+  </si>
+  <si>
+    <t>Name on transcript</t>
+  </si>
+  <si>
+    <t>Test FN Test LN</t>
+  </si>
+  <si>
+    <t>Salome, AZ, USA</t>
+  </si>
+  <si>
+    <t>Graduation date</t>
+  </si>
+  <si>
+    <t>July, 2028</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Past schools </t>
+  </si>
+  <si>
+    <t>Test City, SM, DMA</t>
+  </si>
+  <si>
+    <t>Start date</t>
+  </si>
+  <si>
+    <t>June, 2009</t>
+  </si>
+  <si>
+    <t>End date</t>
+  </si>
+  <si>
+    <t>August, 2023</t>
+  </si>
+  <si>
+    <t>Test City, MA, FJI</t>
+  </si>
+  <si>
+    <t>November, 2021</t>
+  </si>
+  <si>
+    <t>March, 2023</t>
+  </si>
+  <si>
+    <t>Test City, ME, VEN</t>
+  </si>
+  <si>
+    <t>March, 1991</t>
+  </si>
+  <si>
+    <t>July, 2023</t>
+  </si>
+  <si>
+    <t>Test City, IL, IRN</t>
+  </si>
+  <si>
+    <t>March, 1928</t>
+  </si>
+  <si>
+    <t>June, 2019</t>
+  </si>
+  <si>
+    <t>Test City, Test State, REU</t>
+  </si>
+  <si>
+    <t>July, 2006</t>
+  </si>
+  <si>
+    <t>July, 2021</t>
+  </si>
+  <si>
+    <t>Test City, Test State, Z61</t>
+  </si>
+  <si>
+    <t>January, 2021</t>
+  </si>
+  <si>
+    <t>April, 2023</t>
+  </si>
+  <si>
+    <t>Test City, HI, DOM</t>
+  </si>
+  <si>
+    <t>March, 1974</t>
+  </si>
+  <si>
+    <t>August, 1995</t>
+  </si>
+  <si>
+    <t>Test City, Test State, VIR</t>
+  </si>
+  <si>
+    <t>December, 1992</t>
+  </si>
+  <si>
+    <t>September, 2023</t>
+  </si>
+  <si>
+    <t>Test City, ZAI, AGO</t>
+  </si>
+  <si>
+    <t>January, 1938</t>
+  </si>
+  <si>
+    <t>June, 1977</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Past colleges/universities </t>
+  </si>
+  <si>
+    <t>testtesttesttesttesttesttesttest, testtesttesttesttesttesttesttest, Z55</t>
+  </si>
+  <si>
+    <t>School name</t>
+  </si>
+  <si>
+    <t>Not listed</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Doctor of Science</t>
+  </si>
+  <si>
+    <t>Degree concentration</t>
+  </si>
+  <si>
+    <t>Test City, Test State, JEY</t>
+  </si>
+  <si>
+    <t>Associate of Applied Science</t>
+  </si>
+  <si>
+    <t>Date first attended</t>
+  </si>
+  <si>
+    <t>May, 1999</t>
+  </si>
+  <si>
+    <t>Date last attended</t>
+  </si>
+  <si>
+    <t>January, 2023</t>
+  </si>
+  <si>
+    <t>List the most recent college/university for which you are ineligible to return first</t>
+  </si>
+  <si>
+    <t>Test First Ineligible college</t>
+  </si>
+  <si>
+    <t>Academic related</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Student conduct</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Please explain why you are ineligible to return to the college/university listed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test ineligible to return to the college/university listed </t>
+  </si>
+  <si>
+    <t>Additional college/university for which you are ineligible to return, if applicable:</t>
+  </si>
+  <si>
+    <t>Test Second Ineligible college</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Additional ineligible to return to the college/university listed </t>
+  </si>
+  <si>
+    <t>Self-reported</t>
+  </si>
+  <si>
+    <t>Unweighted GPA/Scale</t>
+  </si>
+  <si>
+    <t>111 / 4</t>
+  </si>
+  <si>
+    <t>Class rank/Class size</t>
+  </si>
+  <si>
+    <t>11 / 111</t>
+  </si>
+  <si>
+    <t>Grading system</t>
+  </si>
+  <si>
+    <t>A-F</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>No data has been entered</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Social Science</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Fine Arts/CTE</t>
+  </si>
+  <si>
+    <t>Electives</t>
+  </si>
+  <si>
+    <t>OTHER TEST</t>
+  </si>
+  <si>
+    <t>Begin by selecting the state you consider to be your permanent home.</t>
+  </si>
+  <si>
+    <t>Outside the U.S. or Not Listed</t>
+  </si>
+  <si>
+    <t>Are you currently enrolled at another college or university?</t>
+  </si>
+  <si>
+    <t>Where are you currently enrolled?</t>
+  </si>
+  <si>
+    <t>Test College</t>
+  </si>
+  <si>
+    <t>In which state is that school located?</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Were you enrolled at any Arizona college or university in 2023 or 2022 calendar year?</t>
+  </si>
+  <si>
+    <t>Do you have a current driver’s license or state issued ID?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In which state was your license issued? </t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>When was your license issued?</t>
+  </si>
+  <si>
+    <t>1957-12</t>
+  </si>
+  <si>
+    <t>Do you own or operate a car, motorcycle or other motor vehicle?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is this vehicle registered in the state of Arizona? </t>
+  </si>
+  <si>
+    <t>When was your vehicle registered?</t>
+  </si>
+  <si>
+    <t>1958-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Did you, or will you, file state taxes for 2022? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Where did or where will you file your state taxes for 2022? </t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Parent or legal guardian financial support</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Employment financial support</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Financial aid financial support</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Spouse financial support</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Other financial support</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Savings/trust fund</t>
+  </si>
+  <si>
+    <t>Retirement</t>
+  </si>
+  <si>
+    <t>Social Security/Disability</t>
+  </si>
+  <si>
+    <t>Veteran Benefits</t>
+  </si>
+  <si>
+    <t>State or Federal Benefits</t>
+  </si>
+  <si>
+    <t>Unemployment</t>
+  </si>
+  <si>
+    <t>Other/none of the above</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Are you currently employed? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Where is your primary work location? </t>
+  </si>
+  <si>
+    <t>When did your employment at this location begin?</t>
+  </si>
+  <si>
+    <t>1971-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You indicated that you were the spouse or dependent of a U.S. service member or veteran. Which best describes the service member or veteran? </t>
+  </si>
+  <si>
+    <t>Active Duty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Where is your spouse/parent/guardian currently stationed? </t>
+  </si>
+  <si>
+    <t>Armed Forces Europe</t>
+  </si>
+  <si>
+    <t>What is your spouse/parent/guardians state of legal residence?</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In which state do your parent(s) or legal guardian(s) currently live? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Which parent or legal guardian lives in Arizona? </t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Did or will your parent(s) or legal guardian(s) file a state income tax return for the 2022 tax year? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In which state did, or will, your parent(s) or legal guardian(s) file state income taxes? </t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Does either parent or legal guardian have a current Arizona driver license? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is either parent or legal guardian employed in Arizona? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In which state does your spouse currently live? </t>
+  </si>
+  <si>
+    <t>When did your spouse begin living in Arizona?</t>
+  </si>
+  <si>
+    <t>1969-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Does your spouse have a valid drivers license or state-issued ID? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What state issued this drivers license or state ID?  </t>
+  </si>
+  <si>
+    <t>When did your spouse obtain this drivers license or state ID?</t>
+  </si>
+  <si>
+    <t>1953-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Did or will your spouse file a state income tax return for the 2022 tax year? </t>
+  </si>
+  <si>
+    <t>In which state did, or will, your spouse file state income taxes?</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is your spouse employed? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In which state is your spouse employed? </t>
+  </si>
+  <si>
+    <t>When did your spouses employment at this location begin?</t>
+  </si>
+  <si>
+    <t>1983-11</t>
+  </si>
+  <si>
+    <t>Is your spouse currently enrolled at ASU or any other college or university?</t>
+  </si>
+  <si>
+    <t>Is your spouse dependent on someone other than you for financial support, e.g. parents, guardians, family or financial aid?</t>
+  </si>
+  <si>
+    <t>Pronouns</t>
+  </si>
+  <si>
+    <t>They/Them</t>
+  </si>
+  <si>
+    <t>Gender identity</t>
+  </si>
+  <si>
+    <t>Nonbinary</t>
+  </si>
+  <si>
     <t>Ethnic/racial background</t>
   </si>
   <si>
-    <t>White (Reporting Preferred)
-Cuban</t>
-  </si>
-  <si>
-    <t>U.S. citizenship</t>
-  </si>
-  <si>
-    <t>I am a U.S. citizen</t>
-  </si>
-  <si>
-    <t>Country of citizenship</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Country of birth</t>
-  </si>
-  <si>
-    <t>US Misc Pacific Islands</t>
-  </si>
-  <si>
-    <t>Social Security Number</t>
-  </si>
-  <si>
-    <t>*********</t>
-  </si>
-  <si>
-    <t>Parent or legal guardian</t>
-  </si>
-  <si>
-    <t>Parent FN Parent LN I</t>
-  </si>
-  <si>
-    <t>Parent or Legal Guardian Relation</t>
-  </si>
-  <si>
-    <t>Uncle</t>
-  </si>
-  <si>
-    <t>Parent or Legal Guardian Schooling Level</t>
-  </si>
-  <si>
-    <t>College or Beyond</t>
-  </si>
-  <si>
-    <t>Parent or Legal Guardian Attended ASU</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Additional parent or legal guardian</t>
-  </si>
-  <si>
-    <t>Parent FN Parent LN II</t>
-  </si>
-  <si>
-    <t>Sibling</t>
-  </si>
-  <si>
-    <t>Middle School/Junior High</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Previous ASU affiliation</t>
-  </si>
-  <si>
-    <t>I have never been affiliated with Arizona State University</t>
-  </si>
-  <si>
-    <t>Affiliate ID</t>
-  </si>
-  <si>
-    <t>2675603505</t>
-  </si>
-  <si>
-    <t>Military status</t>
-  </si>
-  <si>
-    <t>I am the spouse/dependent of a U.S. service member or veteran</t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>United States Coast Guard</t>
-  </si>
-  <si>
-    <t>I have applied or plan to apply for Department of Veterans Affairs educational benefits based on my U.S. services affiliation identified above:</t>
-  </si>
-  <si>
-    <t>Do you plan to use an education benefit or scholarship through an employer, corporation, foundation or other ASU education partner?</t>
-  </si>
-  <si>
-    <t>First choice</t>
-  </si>
-  <si>
-    <t>Applied Business and Technology Solutions, BA</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>ASU Online</t>
-  </si>
-  <si>
-    <t>Starting term</t>
-  </si>
-  <si>
-    <t>2024 Spring - (Session A)</t>
-  </si>
-  <si>
-    <t>Pre-law interest</t>
-  </si>
-  <si>
-    <t>Pre-med/health interest</t>
-  </si>
-  <si>
-    <t>Pre-veterinary interest</t>
-  </si>
-  <si>
-    <t>Teaching certificate interest</t>
-  </si>
-  <si>
     <t>Graduating school</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>High school name</t>
-  </si>
-  <si>
-    <t>Montessori Preparatory Academy</t>
-  </si>
-  <si>
-    <t>Name on transcript</t>
-  </si>
-  <si>
-    <t>Test FN Test LN</t>
-  </si>
-  <si>
-    <t>Fort Mohave, AZ, USA</t>
-  </si>
-  <si>
-    <t>Graduation date</t>
-  </si>
-  <si>
-    <t>October, 2028</t>
-  </si>
-  <si>
     <t>Past schools</t>
   </si>
   <si>
-    <t>Test City, Test State, Z62</t>
-  </si>
-  <si>
-    <t>Start date</t>
-  </si>
-  <si>
-    <t>February, 1953</t>
-  </si>
-  <si>
-    <t>End date</t>
-  </si>
-  <si>
-    <t>June, 2017</t>
-  </si>
-  <si>
-    <t>Test City, SUO, ISL</t>
-  </si>
-  <si>
-    <t>January, 1974</t>
-  </si>
-  <si>
-    <t>June, 2023</t>
-  </si>
-  <si>
-    <t>Test City, Test State, Z29</t>
-  </si>
-  <si>
-    <t>December, 1951</t>
-  </si>
-  <si>
-    <t>August, 1986</t>
-  </si>
-  <si>
-    <t>Test City, SZ, GEO</t>
-  </si>
-  <si>
-    <t>January, 1952</t>
-  </si>
-  <si>
-    <t>January, 2023</t>
-  </si>
-  <si>
-    <t>Test City, PD, TTO</t>
-  </si>
-  <si>
-    <t>December, 1944</t>
-  </si>
-  <si>
-    <t>July, 1988</t>
-  </si>
-  <si>
-    <t>Test City, Test State, MAC</t>
-  </si>
-  <si>
-    <t>June, 2013</t>
-  </si>
-  <si>
-    <t>August, 2023</t>
-  </si>
-  <si>
-    <t>Test City, JEN, TUN</t>
-  </si>
-  <si>
-    <t>July, 2018</t>
-  </si>
-  <si>
-    <t>February, 2023</t>
-  </si>
-  <si>
-    <t>Test City, Test State, Z13</t>
-  </si>
-  <si>
-    <t>November, 2014</t>
-  </si>
-  <si>
-    <t>Test City, LAM, AND</t>
-  </si>
-  <si>
-    <t>July, 1956</t>
-  </si>
-  <si>
-    <t>January, 1968</t>
-  </si>
-  <si>
     <t>Past colleges/universities</t>
   </si>
   <si>
-    <t>School name</t>
-  </si>
-  <si>
-    <t>Test City, MC, TCD</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Doctor of Science</t>
-  </si>
-  <si>
-    <t>Degree concentration</t>
-  </si>
-  <si>
-    <t>Date first attended</t>
-  </si>
-  <si>
-    <t>November, 1987</t>
-  </si>
-  <si>
-    <t>Date last attended</t>
-  </si>
-  <si>
-    <t>February, 2004</t>
-  </si>
-  <si>
-    <t>Transfer credits to ASU</t>
-  </si>
-  <si>
-    <t>List the most recent college/university for which you are ineligible to return first</t>
-  </si>
-  <si>
-    <t>Test First Ineligible college</t>
-  </si>
-  <si>
-    <t>Academic related</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Student conduct</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Please explain why you are ineligible to return to the college/university listed</t>
+    <t>Test City, Test State, Z16</t>
   </si>
   <si>
     <t>Test ineligible to return to the college/university listed</t>
   </si>
   <si>
-    <t>Additional college/university for which you are ineligible to return, if applicable:</t>
-  </si>
-  <si>
-    <t>Test Second Ineligible college</t>
-  </si>
-  <si>
     <t>Test Additional ineligible to return to the college/university listed</t>
   </si>
   <si>
-    <t>Self-reported</t>
-  </si>
-  <si>
-    <t>Unweighted GPA/Scale</t>
-  </si>
-  <si>
-    <t>111 / 4</t>
-  </si>
-  <si>
-    <t>Class rank/Class size</t>
-  </si>
-  <si>
-    <t>11 / 111</t>
-  </si>
-  <si>
-    <t>Grading system</t>
-  </si>
-  <si>
-    <t>A-F</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
-    <t>Social Science</t>
-  </si>
-  <si>
-    <t>Philosophy</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Fine Arts/CTE</t>
-  </si>
-  <si>
-    <t>Electives</t>
-  </si>
-  <si>
-    <t>Begin by selecting the state you consider to be your permanent home.</t>
-  </si>
-  <si>
-    <t>Outside the U.S. or Not Listed</t>
-  </si>
-  <si>
-    <t>Are you currently enrolled at another college or university?</t>
-  </si>
-  <si>
-    <t>Where are you currently enrolled?</t>
-  </si>
-  <si>
-    <t>Test College</t>
-  </si>
-  <si>
-    <t>In which state is that school located?</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Do you own or operate a car, motorcycle or other motor vehicle?</t>
-  </si>
-  <si>
     <t>Is this vehicle registered in the state of Arizona?</t>
   </si>
   <si>
-    <t>When was your vehicle registered?</t>
-  </si>
-  <si>
-    <t>2023-11</t>
-  </si>
-  <si>
-    <t>Do you have a current driver’s license or state issued ID?</t>
-  </si>
-  <si>
     <t>In which state was your license issued?</t>
   </si>
   <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>When was your license issued?</t>
-  </si>
-  <si>
-    <t>1944-09</t>
-  </si>
-  <si>
     <t>Did you, or will you, file state taxes for 2022?</t>
   </si>
   <si>
     <t>Where did or where will you file your state taxes for 2022?</t>
   </si>
   <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Parent or legal guardian financial support</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Employment financial support</t>
-  </si>
-  <si>
-    <t>Financial aid financial support</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Spouse financial support</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Other financial support</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>Savings/trust fund financial support</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Retirement financial support</t>
   </si>
   <si>
@@ -862,39 +1052,24 @@
     <t>Unemployment financial support</t>
   </si>
   <si>
-    <t>Other/none of the above</t>
-  </si>
-  <si>
     <t>Are you currently employed?</t>
   </si>
   <si>
     <t>Where is your primary work location?</t>
   </si>
   <si>
-    <t>When did your employment at this location begin?</t>
-  </si>
-  <si>
-    <t>2008-12</t>
-  </si>
-  <si>
     <t>In which state do your parent(s) or legal guardian(s) currently live?</t>
   </si>
   <si>
     <t>Which parent or legal guardian lives in Arizona?</t>
   </si>
   <si>
-    <t>Both</t>
-  </si>
-  <si>
     <t>Did or will your parent(s) or legal guardian(s) file a state income tax return for the 2022 tax year?</t>
   </si>
   <si>
     <t>In which state did, or will, your parent(s) or legal guardian(s) file state income taxes?</t>
   </si>
   <si>
-    <t>Illinois</t>
-  </si>
-  <si>
     <t>Does either parent or legal guardian have a current Arizona driver license?</t>
   </si>
   <si>
@@ -904,76 +1079,28 @@
     <t>In which state does your spouse currently live?</t>
   </si>
   <si>
-    <t>When did your spouse begin living in Arizona?</t>
-  </si>
-  <si>
-    <t>1923-11</t>
-  </si>
-  <si>
     <t>Does your spouse have a valid drivers license or state-issued ID?</t>
   </si>
   <si>
     <t>What state issued this drivers license or state ID?</t>
   </si>
   <si>
-    <t>When did your spouse obtain this drivers license or state ID?</t>
-  </si>
-  <si>
-    <t>1945-01</t>
-  </si>
-  <si>
     <t>Is your spouse employed?</t>
   </si>
   <si>
     <t>In which state is your spouse employed?</t>
   </si>
   <si>
-    <t>When did your spouses employment at this location begin?</t>
-  </si>
-  <si>
-    <t>1985-12</t>
-  </si>
-  <si>
-    <t>Is your spouse currently enrolled at ASU or any other college or university?</t>
-  </si>
-  <si>
     <t>Did or will your spouse file a state income tax return for the 2022 tax year?</t>
   </si>
   <si>
-    <t>In which state did, or will, your spouse file state income taxes?</t>
-  </si>
-  <si>
-    <t>Is your spouse dependent on someone other than you for financial support, e.g. parents, guardians, family or financial aid?</t>
-  </si>
-  <si>
-    <t>Are you registered to vote?</t>
-  </si>
-  <si>
-    <t>In which state are you registered to vote?</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
     <t>You indicated that you were the spouse or dependent of a U.S. service member or veteran. Which best describes the service member or veteran?</t>
   </si>
   <si>
-    <t>Veteran</t>
-  </si>
-  <si>
-    <t>When was your parent/guardian/spouse discharged or released from active duty?</t>
-  </si>
-  <si>
-    <t>2012-07</t>
-  </si>
-  <si>
-    <t>Are you eligible for Chapter 30 or Chapter 33 benefits?</t>
-  </si>
-  <si>
-    <t>Were you enrolled at any Arizona college or university in 2023 or 2022 calendar year?</t>
-  </si>
-  <si>
-    <t>9520embtest@test.asu.edu</t>
+    <t>Where is your spouse/parent/guardian currently stationed?</t>
+  </si>
+  <si>
+    <t>1370embtest@test.asu.edu</t>
   </si>
   <si>
     <t>Test A
@@ -982,297 +1109,463 @@
 Test D
 Test E
 Test F
-Test G
 FN Edited LN Edited
-Test I</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Pushto</t>
+Test H
+Test First Name Test Last Name</t>
+  </si>
+  <si>
+    <t>Danish</t>
   </si>
   <si>
     <t>Test Address line1 Test Address line2
-TestTestTestTestTestTestTestTest,Kirkuk,Iraq
+TestTestTestTestTestTestTestTest,El Oued,Algeria
 12345-678910</t>
   </si>
   <si>
     <t>Test Address line1 Test Address line2
-Test City,Ninawa,Iraq
+Test City,Tipaza,Algeria
 12345-678910</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ethnic/racial background </t>
-  </si>
-  <si>
-    <t>Central American</t>
-  </si>
-  <si>
-    <t>Sault Ste Marie Chip</t>
-  </si>
-  <si>
-    <t>Central American(Reporting Preferred)
-American Indian/Alaska Native</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Other/Unknown</t>
-  </si>
-  <si>
-    <t>I attended ASU as a nondegree or graduate student</t>
-  </si>
-  <si>
-    <t>4380412615</t>
-  </si>
-  <si>
-    <t>United States Navy</t>
-  </si>
-  <si>
-    <t>Applied Biological Sciences (Preveterinary Medicine), BS</t>
-  </si>
-  <si>
-    <t>2024 Fall - (Session B)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Graduating school </t>
-  </si>
-  <si>
-    <t>Horizon HS</t>
-  </si>
-  <si>
-    <t>Scottsdale, AZ, USA</t>
-  </si>
-  <si>
-    <t>September, 2026</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Past schools </t>
-  </si>
-  <si>
-    <t>Test City, PDR, CUB</t>
-  </si>
-  <si>
-    <t>March, 1968</t>
-  </si>
-  <si>
-    <t>March, 2023</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Mongolian</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>College or Beyond</t>
+  </si>
+  <si>
+    <t>High School</t>
+  </si>
+  <si>
+    <t>Other (i.e., applied but never enrolled, season ticket holder, etc.)</t>
+  </si>
+  <si>
+    <t>3081639552</t>
+  </si>
+  <si>
+    <t>United States Air Force</t>
+  </si>
+  <si>
+    <t>Applied Science (Food and Nutrition Entrepreneurship), BAS</t>
+  </si>
+  <si>
+    <t>2024 Fall - (Session A)</t>
+  </si>
+  <si>
+    <t>Second choice</t>
+  </si>
+  <si>
+    <t>Biological Sciences (Genetics, Cell and Developmental Biology), BS</t>
+  </si>
+  <si>
+    <t>Andrada Polytechnic HS</t>
+  </si>
+  <si>
+    <t>Tucson, AZ, USA</t>
+  </si>
+  <si>
+    <t>April, 2026</t>
+  </si>
+  <si>
+    <t>Test City, G, ECU</t>
+  </si>
+  <si>
+    <t>March, 1929</t>
+  </si>
+  <si>
+    <t>June, 1950</t>
+  </si>
+  <si>
+    <t>Test City, KO, MNE</t>
+  </si>
+  <si>
+    <t>June, 1958</t>
+  </si>
+  <si>
+    <t>Test City, EM, PAN</t>
+  </si>
+  <si>
+    <t>November, 2018</t>
+  </si>
+  <si>
+    <t>Test City, DO, NER</t>
+  </si>
+  <si>
+    <t>July, 1999</t>
+  </si>
+  <si>
+    <t>May, 2012</t>
+  </si>
+  <si>
+    <t>Test City, SM, ATG</t>
+  </si>
+  <si>
+    <t>March, 2009</t>
+  </si>
+  <si>
+    <t>February, 2023</t>
+  </si>
+  <si>
+    <t>Test City, Test State, Z15</t>
+  </si>
+  <si>
+    <t>December, 1983</t>
+  </si>
+  <si>
+    <t>September, 2002</t>
+  </si>
+  <si>
+    <t>Test City, GC, COM</t>
+  </si>
+  <si>
+    <t>August, 1993</t>
+  </si>
+  <si>
+    <t>Test City, Test State, Z51</t>
+  </si>
+  <si>
+    <t>August, 2005</t>
+  </si>
+  <si>
+    <t>June, 2023</t>
+  </si>
+  <si>
+    <t>Test City, H, HKG</t>
+  </si>
+  <si>
+    <t>August, 1952</t>
+  </si>
+  <si>
+    <t>February, 1998</t>
+  </si>
+  <si>
+    <t>testtesttesttesttesttesttesttest, testtesttesttesttesttesttesttest, HMD</t>
+  </si>
+  <si>
+    <t>Associate Degree</t>
+  </si>
+  <si>
+    <t>Test City, AL, WLF</t>
+  </si>
+  <si>
+    <t>Associate of Arts</t>
+  </si>
+  <si>
+    <t>October, 1944</t>
+  </si>
+  <si>
+    <t>October, 2012</t>
+  </si>
+  <si>
+    <t>111 / 100</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>1972-10</t>
+  </si>
+  <si>
+    <t>1931-04</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Other/none of the above financial support</t>
+  </si>
+  <si>
+    <t>2004-10</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>2009-06</t>
+  </si>
+  <si>
+    <t>1985-08</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>2023-07</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>HiSet</t>
+  </si>
+  <si>
+    <t>Sacaton, AZ, USA</t>
+  </si>
+  <si>
+    <t>October, 2027</t>
+  </si>
+  <si>
+    <t>Test City, SL, BRB</t>
+  </si>
+  <si>
+    <t>March, 1931</t>
+  </si>
+  <si>
+    <t>October, 1979</t>
   </si>
   <si>
     <t>Test City, Test State, Z64</t>
   </si>
   <si>
-    <t>January, 2004</t>
+    <t>May, 2008</t>
+  </si>
+  <si>
+    <t>August, 2009</t>
+  </si>
+  <si>
+    <t>Test City, Test State, ESH</t>
+  </si>
+  <si>
+    <t>May, 1963</t>
+  </si>
+  <si>
+    <t>Test City, NE, HTI</t>
+  </si>
+  <si>
+    <t>January, 2000</t>
+  </si>
+  <si>
+    <t>November, 2023</t>
+  </si>
+  <si>
+    <t>Test City, KH, QAT</t>
+  </si>
+  <si>
+    <t>May, 2007</t>
+  </si>
+  <si>
+    <t>Test City, Test State, Z39</t>
+  </si>
+  <si>
+    <t>December, 1978</t>
   </si>
   <si>
     <t>May, 2023</t>
   </si>
   <si>
-    <t>Test City, ML, SLB</t>
-  </si>
-  <si>
-    <t>June, 1963</t>
-  </si>
-  <si>
-    <t>Test City, 44, ESP</t>
-  </si>
-  <si>
-    <t>February, 1973</t>
-  </si>
-  <si>
-    <t>Test City, KE, KEN</t>
-  </si>
-  <si>
-    <t>March
-Last attended date should not be before first attended date., 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Past colleges/universities </t>
-  </si>
-  <si>
-    <t>testtesttesttesttesttesttesttest, MICH, MEX</t>
-  </si>
-  <si>
-    <t>Universidad Vasco de Quiroga</t>
-  </si>
-  <si>
-    <t>California State Univ Gen Ed (CSUGE)</t>
-  </si>
-  <si>
-    <t>Test City, Test State, ATA</t>
-  </si>
-  <si>
-    <t>Not listed</t>
-  </si>
-  <si>
-    <t>No Degree Awarded</t>
-  </si>
-  <si>
-    <t>May, 1956</t>
-  </si>
-  <si>
-    <t>July, 1965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test ineligible to return to the college/university listed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Additional ineligible to return to the college/university listed </t>
-  </si>
-  <si>
-    <t>She/Her</t>
-  </si>
-  <si>
-    <t>Identity not listed</t>
-  </si>
-  <si>
-    <t>2361embtest@test.asu.edu</t>
-  </si>
-  <si>
-    <t>FN Edited LN Edited
-Test B
-Test C
-Test E
-Test F
-Test G
-Test H
-Test I
-Test First Name Test Last Name</t>
-  </si>
-  <si>
-    <t>Mandarin</t>
-  </si>
-  <si>
-    <t>Test Address line1 Test Address line2
-TestTestTestTestTestTestTestTest,Test State,Macau
-12345-678910</t>
-  </si>
-  <si>
-    <t>Test Address line1 Test Address line2
-Test City,Test State,Macau
-12345-678910</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>French Terr of Afars &amp; Issas</t>
-  </si>
-  <si>
-    <t>Aunt</t>
-  </si>
-  <si>
-    <t>I attended Global Freshman Academy or any transfer pathway program</t>
-  </si>
-  <si>
-    <t>3274237683</t>
-  </si>
-  <si>
-    <t>National Oceanic and Atmospheric Administration Commissioned Officer Corps</t>
-  </si>
-  <si>
-    <t>Anthropology, BA</t>
-  </si>
-  <si>
-    <t>HiSet</t>
-  </si>
-  <si>
-    <t>Bullhead City, AZ, USA</t>
-  </si>
-  <si>
-    <t>April, 2027</t>
-  </si>
-  <si>
-    <t>Test City, ES, GUY</t>
-  </si>
-  <si>
-    <t>December, 2019</t>
-  </si>
-  <si>
-    <t>Test City, SJ, JAM</t>
-  </si>
-  <si>
-    <t>December, 1995</t>
-  </si>
-  <si>
-    <t>January, 2009</t>
-  </si>
-  <si>
-    <t>Test City, RO, URY</t>
-  </si>
-  <si>
-    <t>December, 2020</t>
-  </si>
-  <si>
-    <t>Test City, Test State, Z26</t>
-  </si>
-  <si>
-    <t>March, 1991</t>
+    <t>Test City, MS, ZWE</t>
+  </si>
+  <si>
+    <t>September, 1929</t>
+  </si>
+  <si>
+    <t>September, 1947</t>
+  </si>
+  <si>
+    <t>Test City, Test State, SXM</t>
+  </si>
+  <si>
+    <t>Test City, HA, ZWE</t>
+  </si>
+  <si>
+    <t>February, 1981</t>
   </si>
   <si>
     <t>October, 2000</t>
   </si>
   <si>
-    <t>Test City, SE, NPL</t>
-  </si>
-  <si>
-    <t>September, 1938</t>
-  </si>
-  <si>
-    <t>June, 2009</t>
-  </si>
-  <si>
-    <t>Test City, AS, BHR</t>
-  </si>
-  <si>
-    <t>July, 1966</t>
-  </si>
-  <si>
-    <t>May, 1980</t>
-  </si>
-  <si>
-    <t>Test City, Test State, IOT</t>
-  </si>
-  <si>
-    <t>February, 1946</t>
-  </si>
-  <si>
-    <t>June, 2021</t>
-  </si>
-  <si>
-    <t>Test City, NO, RWA</t>
-  </si>
-  <si>
-    <t>February, 1948</t>
-  </si>
-  <si>
-    <t>October, 1966</t>
-  </si>
-  <si>
-    <t>Test City, Test State, COK</t>
-  </si>
-  <si>
-    <t>October, 1979</t>
-  </si>
-  <si>
-    <t>September, 2023</t>
-  </si>
-  <si>
-    <t>testtesttesttesttesttesttesttest, testtesttesttesttesttesttesttest, PRI</t>
-  </si>
-  <si>
-    <t>Associate Degree</t>
-  </si>
-  <si>
-    <t>Test City, RA, EST</t>
-  </si>
-  <si>
-    <t>Associate of Science</t>
-  </si>
-  <si>
-    <t>April, 1930</t>
+    <t>testtesttesttesttesttesttesttest, testtesttesttesttesttesttesttest, Z51</t>
+  </si>
+  <si>
+    <t>Master of Arts</t>
+  </si>
+  <si>
+    <t>Test City, MOX, AGO</t>
+  </si>
+  <si>
+    <t>California State Univ Gen Ed (CSUGE) in Progress</t>
+  </si>
+  <si>
+    <t>July, 2020</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>1925-09</t>
+  </si>
+  <si>
+    <t>2012-03</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>Armed Forces Reserve</t>
+  </si>
+  <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>1973-02</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>2010-11</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2019-06</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>1993-12</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>1990-10</t>
+  </si>
+  <si>
+    <t>1999-03</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1975-09</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Guam Federal</t>
+  </si>
+  <si>
+    <t>1943-03</t>
+  </si>
+  <si>
+    <t>1927-08</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2020-12</t>
+  </si>
+  <si>
+    <t>Armed Forces Americas</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>2000-10</t>
+  </si>
+  <si>
+    <t>1998-07</t>
+  </si>
+  <si>
+    <t>1944-07</t>
+  </si>
+  <si>
+    <t>1951-09</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1929-11</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>1997-11</t>
+  </si>
+  <si>
+    <t>1995-03</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>2004-07</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1649,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="572">
+  <cellXfs count="1022">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1381,6 +1674,1356 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
@@ -5427,15 +7070,15 @@
       <c r="A1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="184" t="s">
-        <v>103</v>
+      <c r="B1" s="552" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="553" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5443,7 +7086,7 @@
       <c r="A3" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="186" t="s">
+      <c r="B3" s="554" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5451,1339 +7094,1346 @@
       <c r="A4" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="187" t="s">
+      <c r="B4" s="555" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="188" t="s">
-        <v>110</v>
+        <v>317</v>
+      </c>
+      <c r="B5" s="556" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="189" t="s">
-        <v>110</v>
+        <v>319</v>
+      </c>
+      <c r="B6" s="557" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="190" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="B7" s="558" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="191" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="B8" s="559" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="192" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="B9" s="560" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="193" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="B10" s="561" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="194" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="562" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="195" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="563" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="196" t="s">
-        <v>123</v>
+        <v>321</v>
+      </c>
+      <c r="B13" s="564" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="197" t="s">
         <v>125</v>
+      </c>
+      <c r="B14" s="565" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="198" t="s">
         <v>127</v>
+      </c>
+      <c r="B15" s="566" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="199" t="s">
         <v>129</v>
+      </c>
+      <c r="B16" s="567" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="200" t="s">
         <v>131</v>
+      </c>
+      <c r="B17" s="568" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" s="201" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B18" s="569" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" s="202" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="B19" s="570" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>136</v>
-      </c>
-      <c r="B20" s="203" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="B20" s="571" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>138</v>
-      </c>
-      <c r="B21" s="204" t="s">
-        <v>139</v>
+        <v>133</v>
+      </c>
+      <c r="B21" s="572" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" s="205" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="B22" s="573" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="206" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="B23" s="574" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" s="207" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+      <c r="B24" s="575" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" s="208" t="s">
-        <v>144</v>
+        <v>133</v>
+      </c>
+      <c r="B25" s="576" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="209" t="s">
         <v>146</v>
+      </c>
+      <c r="B26" s="577" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" t="s">
-        <v>147</v>
-      </c>
-      <c r="B27" s="210" t="s">
         <v>148</v>
+      </c>
+      <c r="B27" s="578" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28" s="211" t="s">
         <v>150</v>
+      </c>
+      <c r="B28" s="579" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" s="212" t="s">
         <v>152</v>
+      </c>
+      <c r="B29" s="580" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>153</v>
-      </c>
-      <c r="B30" s="213" t="s">
-        <v>144</v>
+        <v>154</v>
+      </c>
+      <c r="B30" s="581" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>154</v>
-      </c>
-      <c r="B31" s="214" t="s">
-        <v>139</v>
+        <v>155</v>
+      </c>
+      <c r="B31" s="582" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>155</v>
-      </c>
-      <c r="B32" s="215" t="s">
-        <v>156</v>
+        <v>160</v>
+      </c>
+      <c r="B32" s="583" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>157</v>
-      </c>
-      <c r="B33" s="216" t="s">
-        <v>158</v>
+        <v>162</v>
+      </c>
+      <c r="B33" s="584" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>159</v>
-      </c>
-      <c r="B34" s="217" t="s">
-        <v>160</v>
+        <v>164</v>
+      </c>
+      <c r="B34" s="585" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>161</v>
-      </c>
-      <c r="B35" s="218" t="s">
-        <v>144</v>
+        <v>370</v>
+      </c>
+      <c r="B35" s="586" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" t="s">
         <v>162</v>
       </c>
-      <c r="B36" s="219" t="s">
-        <v>139</v>
+      <c r="B36" s="587" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>163</v>
-      </c>
-      <c r="B37" s="220" t="s">
-        <v>139</v>
+        <v>164</v>
+      </c>
+      <c r="B37" s="588" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>164</v>
-      </c>
-      <c r="B38" s="221" t="s">
-        <v>144</v>
+        <v>156</v>
+      </c>
+      <c r="B38" s="589" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" s="222" t="s">
-        <v>166</v>
+        <v>157</v>
+      </c>
+      <c r="B39" s="590" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>167</v>
-      </c>
-      <c r="B40" s="223" t="s">
-        <v>168</v>
+        <v>158</v>
+      </c>
+      <c r="B40" s="591" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>169</v>
-      </c>
-      <c r="B41" s="224" t="s">
-        <v>170</v>
+        <v>159</v>
+      </c>
+      <c r="B41" s="592" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>157</v>
-      </c>
-      <c r="B42" s="225" t="s">
-        <v>171</v>
+        <v>322</v>
+      </c>
+      <c r="B42" s="593" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>172</v>
-      </c>
-      <c r="B43" s="226" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+      <c r="B43" s="594" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>174</v>
-      </c>
-      <c r="B44" s="227" t="s">
-        <v>166</v>
+        <v>170</v>
+      </c>
+      <c r="B44" s="595" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>167</v>
-      </c>
-      <c r="B45" s="228" t="s">
-        <v>80</v>
+        <v>162</v>
+      </c>
+      <c r="B45" s="596" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>169</v>
-      </c>
-      <c r="B46" s="229" t="s">
-        <v>170</v>
+        <v>173</v>
+      </c>
+      <c r="B46" s="597" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>157</v>
-      </c>
-      <c r="B47" s="230" t="s">
-        <v>175</v>
+        <v>323</v>
+      </c>
+      <c r="B47" s="598" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>176</v>
-      </c>
-      <c r="B48" s="231" t="s">
-        <v>177</v>
+        <v>168</v>
+      </c>
+      <c r="B48" s="599" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" t="s">
-        <v>178</v>
-      </c>
-      <c r="B49" s="232" t="s">
-        <v>179</v>
+        <v>170</v>
+      </c>
+      <c r="B49" s="600" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" t="s">
-        <v>167</v>
-      </c>
-      <c r="B50" s="233" t="s">
-        <v>81</v>
+        <v>162</v>
+      </c>
+      <c r="B50" s="601" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" t="s">
-        <v>169</v>
-      </c>
-      <c r="B51" s="234" t="s">
-        <v>170</v>
+        <v>177</v>
+      </c>
+      <c r="B51" s="602" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>157</v>
-      </c>
-      <c r="B52" s="235" t="s">
-        <v>180</v>
+        <v>179</v>
+      </c>
+      <c r="B52" s="603" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>176</v>
-      </c>
-      <c r="B53" s="236" t="s">
-        <v>181</v>
+        <v>168</v>
+      </c>
+      <c r="B53" s="604" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" t="s">
-        <v>178</v>
-      </c>
-      <c r="B54" s="237" t="s">
-        <v>182</v>
+        <v>170</v>
+      </c>
+      <c r="B54" s="605" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" t="s">
-        <v>167</v>
-      </c>
-      <c r="B55" s="238" t="s">
-        <v>82</v>
+        <v>162</v>
+      </c>
+      <c r="B55" s="606" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" t="s">
-        <v>169</v>
-      </c>
-      <c r="B56" s="239" t="s">
-        <v>170</v>
+        <v>177</v>
+      </c>
+      <c r="B56" s="607" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" t="s">
-        <v>157</v>
-      </c>
-      <c r="B57" s="240" t="s">
+        <v>179</v>
+      </c>
+      <c r="B57" s="608" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" t="s">
-        <v>176</v>
-      </c>
-      <c r="B58" s="241" t="s">
-        <v>184</v>
+        <v>168</v>
+      </c>
+      <c r="B58" s="609" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" t="s">
-        <v>178</v>
-      </c>
-      <c r="B59" s="242" t="s">
-        <v>185</v>
+        <v>170</v>
+      </c>
+      <c r="B59" s="610" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" t="s">
-        <v>167</v>
-      </c>
-      <c r="B60" s="243" t="s">
-        <v>83</v>
+        <v>162</v>
+      </c>
+      <c r="B60" s="611" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" t="s">
-        <v>169</v>
-      </c>
-      <c r="B61" s="244" t="s">
-        <v>170</v>
+        <v>177</v>
+      </c>
+      <c r="B61" s="612" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" t="s">
-        <v>157</v>
-      </c>
-      <c r="B62" s="245" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" s="613" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" t="s">
-        <v>176</v>
-      </c>
-      <c r="B63" s="246" t="s">
-        <v>187</v>
+        <v>168</v>
+      </c>
+      <c r="B63" s="614" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" t="s">
-        <v>178</v>
-      </c>
-      <c r="B64" s="247" t="s">
-        <v>188</v>
+        <v>170</v>
+      </c>
+      <c r="B64" s="615" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" t="s">
-        <v>167</v>
-      </c>
-      <c r="B65" s="248" t="s">
-        <v>84</v>
+        <v>162</v>
+      </c>
+      <c r="B65" s="616" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" t="s">
-        <v>169</v>
-      </c>
-      <c r="B66" s="249" t="s">
-        <v>170</v>
+        <v>177</v>
+      </c>
+      <c r="B66" s="617" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" t="s">
-        <v>157</v>
-      </c>
-      <c r="B67" s="250" t="s">
-        <v>189</v>
+        <v>179</v>
+      </c>
+      <c r="B67" s="618" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" t="s">
-        <v>176</v>
-      </c>
-      <c r="B68" s="251" t="s">
-        <v>190</v>
+        <v>168</v>
+      </c>
+      <c r="B68" s="619" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" t="s">
-        <v>178</v>
-      </c>
-      <c r="B69" s="252" t="s">
-        <v>191</v>
+        <v>170</v>
+      </c>
+      <c r="B69" s="620" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" t="s">
-        <v>167</v>
-      </c>
-      <c r="B70" s="253" t="s">
-        <v>85</v>
+        <v>162</v>
+      </c>
+      <c r="B70" s="621" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" t="s">
-        <v>169</v>
-      </c>
-      <c r="B71" s="254" t="s">
-        <v>170</v>
+        <v>177</v>
+      </c>
+      <c r="B71" s="622" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" t="s">
-        <v>157</v>
-      </c>
-      <c r="B72" s="255" t="s">
-        <v>192</v>
+        <v>179</v>
+      </c>
+      <c r="B72" s="623" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" t="s">
-        <v>176</v>
-      </c>
-      <c r="B73" s="256" t="s">
-        <v>193</v>
+        <v>168</v>
+      </c>
+      <c r="B73" s="624" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="A74" t="s">
-        <v>178</v>
-      </c>
-      <c r="B74" s="257" t="s">
-        <v>194</v>
+        <v>170</v>
+      </c>
+      <c r="B74" s="625" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" t="s">
-        <v>167</v>
-      </c>
-      <c r="B75" s="258" t="s">
-        <v>86</v>
+        <v>162</v>
+      </c>
+      <c r="B75" s="626" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" t="s">
-        <v>169</v>
-      </c>
-      <c r="B76" s="259" t="s">
-        <v>170</v>
+        <v>177</v>
+      </c>
+      <c r="B76" s="627" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" t="s">
-        <v>157</v>
-      </c>
-      <c r="B77" s="260" t="s">
-        <v>195</v>
+        <v>179</v>
+      </c>
+      <c r="B77" s="628" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="A78" t="s">
-        <v>176</v>
-      </c>
-      <c r="B78" s="261" t="s">
-        <v>196</v>
+        <v>168</v>
+      </c>
+      <c r="B78" s="629" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="A79" t="s">
-        <v>178</v>
-      </c>
-      <c r="B79" s="262" t="s">
-        <v>197</v>
+        <v>170</v>
+      </c>
+      <c r="B79" s="630" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="A80" t="s">
-        <v>167</v>
-      </c>
-      <c r="B80" s="263" t="s">
-        <v>87</v>
+        <v>162</v>
+      </c>
+      <c r="B80" s="631" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
       <c r="A81" t="s">
-        <v>169</v>
-      </c>
-      <c r="B81" s="264" t="s">
-        <v>170</v>
+        <v>177</v>
+      </c>
+      <c r="B81" s="632" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
       <c r="A82" t="s">
-        <v>157</v>
-      </c>
-      <c r="B82" s="265" t="s">
-        <v>198</v>
+        <v>179</v>
+      </c>
+      <c r="B82" s="633" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="A83" t="s">
-        <v>176</v>
-      </c>
-      <c r="B83" s="266" t="s">
-        <v>199</v>
+        <v>168</v>
+      </c>
+      <c r="B83" s="634" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1">
       <c r="A84" t="s">
-        <v>178</v>
-      </c>
-      <c r="B84" s="267" t="s">
-        <v>197</v>
+        <v>170</v>
+      </c>
+      <c r="B84" s="635" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="A85" t="s">
-        <v>167</v>
-      </c>
-      <c r="B85" s="268" t="s">
-        <v>88</v>
+        <v>162</v>
+      </c>
+      <c r="B85" s="636" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="A86" t="s">
-        <v>169</v>
-      </c>
-      <c r="B86" s="269" t="s">
-        <v>170</v>
+        <v>177</v>
+      </c>
+      <c r="B86" s="637" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
       <c r="A87" t="s">
-        <v>157</v>
-      </c>
-      <c r="B87" s="270" t="s">
-        <v>200</v>
+        <v>179</v>
+      </c>
+      <c r="B87" s="638" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="A88" t="s">
-        <v>176</v>
-      </c>
-      <c r="B88" s="271" t="s">
-        <v>201</v>
+        <v>168</v>
+      </c>
+      <c r="B88" s="639" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" t="s">
-        <v>178</v>
-      </c>
-      <c r="B89" s="272" t="s">
-        <v>202</v>
+        <v>170</v>
+      </c>
+      <c r="B89" s="640" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" t="s">
-        <v>203</v>
-      </c>
-      <c r="B90" s="273" t="s">
-        <v>166</v>
+        <v>162</v>
+      </c>
+      <c r="B90" s="641" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="A91" t="s">
-        <v>204</v>
-      </c>
-      <c r="B91" s="274" t="s">
-        <v>100</v>
+        <v>177</v>
+      </c>
+      <c r="B91" s="642" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1">
       <c r="A92" t="s">
-        <v>169</v>
-      </c>
-      <c r="B92" s="275" t="s">
-        <v>170</v>
+        <v>179</v>
+      </c>
+      <c r="B92" s="643" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="A93" t="s">
-        <v>157</v>
-      </c>
-      <c r="B93" s="276" t="s">
-        <v>205</v>
+        <v>324</v>
+      </c>
+      <c r="B93" s="644" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="A94" t="s">
-        <v>206</v>
-      </c>
-      <c r="B94" s="277" t="s">
         <v>207</v>
+      </c>
+      <c r="B94" s="645" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="A95" t="s">
-        <v>208</v>
-      </c>
-      <c r="B95" s="278" t="s">
-        <v>101</v>
+        <v>170</v>
+      </c>
+      <c r="B95" s="646" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1">
       <c r="A96" t="s">
-        <v>209</v>
-      </c>
-      <c r="B96" s="279" t="s">
-        <v>210</v>
+        <v>162</v>
+      </c>
+      <c r="B96" s="647" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" t="s">
-        <v>211</v>
-      </c>
-      <c r="B97" s="280" t="s">
-        <v>212</v>
+        <v>209</v>
+      </c>
+      <c r="B97" s="648" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1">
       <c r="A98" t="s">
-        <v>213</v>
-      </c>
-      <c r="B98" s="281" t="s">
-        <v>96</v>
+        <v>211</v>
+      </c>
+      <c r="B98" s="649" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1">
       <c r="A99" t="s">
         <v>214</v>
       </c>
-      <c r="B99" s="282" t="s">
-        <v>215</v>
+      <c r="B99" s="650" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1">
       <c r="A100" t="s">
         <v>216</v>
       </c>
-      <c r="B100" s="283" t="s">
-        <v>217</v>
+      <c r="B100" s="651" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1">
       <c r="A101" t="s">
-        <v>218</v>
-      </c>
-      <c r="B101" s="284" t="s">
-        <v>217</v>
+        <v>109</v>
+      </c>
+      <c r="B101" s="652" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="102" ht="14.25" customHeight="1">
       <c r="A102" t="s">
+        <v>218</v>
+      </c>
+      <c r="B102" s="653" t="s">
         <v>219</v>
-      </c>
-      <c r="B102" s="285" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="103" ht="14.25" customHeight="1">
       <c r="A103" t="s">
         <v>220</v>
       </c>
-      <c r="B103" s="286" t="s">
-        <v>221</v>
+      <c r="B103" s="654" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="104" ht="14.25" customHeight="1">
       <c r="A104" t="s">
         <v>222</v>
       </c>
-      <c r="B104" s="287" t="s">
-        <v>223</v>
+      <c r="B104" s="655" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="105" ht="14.25" customHeight="1">
       <c r="A105" t="s">
-        <v>216</v>
-      </c>
-      <c r="B105" s="288" t="s">
-        <v>217</v>
+        <v>223</v>
+      </c>
+      <c r="B105" s="656" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="106" ht="14.25" customHeight="1">
       <c r="A106" t="s">
-        <v>218</v>
-      </c>
-      <c r="B106" s="289" t="s">
-        <v>217</v>
+        <v>225</v>
+      </c>
+      <c r="B106" s="657" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="107" ht="14.25" customHeight="1">
       <c r="A107" t="s">
-        <v>219</v>
-      </c>
-      <c r="B107" s="290" t="s">
-        <v>217</v>
+        <v>227</v>
+      </c>
+      <c r="B107" s="658" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="108" ht="14.25" customHeight="1">
       <c r="A108" t="s">
         <v>220</v>
       </c>
-      <c r="B108" s="291" t="s">
-        <v>224</v>
+      <c r="B108" s="659" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="109" ht="14.25" customHeight="1">
       <c r="A109" t="s">
-        <v>225</v>
-      </c>
-      <c r="B109" s="292" t="s">
-        <v>3</v>
+        <v>222</v>
+      </c>
+      <c r="B109" s="660" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="110" ht="14.25" customHeight="1">
       <c r="A110" t="s">
-        <v>226</v>
-      </c>
-      <c r="B110" s="293" t="s">
-        <v>227</v>
+        <v>223</v>
+      </c>
+      <c r="B110" s="661" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="A111" t="s">
-        <v>228</v>
-      </c>
-      <c r="B111" s="294" t="s">
-        <v>229</v>
+        <v>225</v>
+      </c>
+      <c r="B111" s="662" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="112" ht="14.25" customHeight="1">
       <c r="A112" t="s">
         <v>230</v>
       </c>
-      <c r="B112" s="295" t="s">
-        <v>231</v>
+      <c r="B112" s="663" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="113" ht="14.25" customHeight="1">
       <c r="A113" t="s">
-        <v>232</v>
-      </c>
-      <c r="B113" s="296" t="s">
-        <v>110</v>
+        <v>231</v>
+      </c>
+      <c r="B113" s="664" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="114" ht="14.25" customHeight="1">
       <c r="A114" t="s">
         <v>233</v>
       </c>
-      <c r="B114" s="297" t="s">
-        <v>110</v>
+      <c r="B114" s="665" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="115" ht="14.25" customHeight="1">
       <c r="A115" t="s">
-        <v>234</v>
-      </c>
-      <c r="B115" s="298" t="s">
-        <v>110</v>
+        <v>235</v>
+      </c>
+      <c r="B115" s="666" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="116" ht="14.25" customHeight="1">
       <c r="A116" t="s">
-        <v>235</v>
-      </c>
-      <c r="B116" s="299" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="B116" s="667" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="117" ht="14.25" customHeight="1">
       <c r="A117" t="s">
-        <v>237</v>
-      </c>
-      <c r="B117" s="300" t="s">
-        <v>110</v>
+        <v>239</v>
+      </c>
+      <c r="B117" s="668" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1">
       <c r="A118" t="s">
+        <v>240</v>
+      </c>
+      <c r="B118" s="669" t="s">
         <v>238</v>
-      </c>
-      <c r="B118" s="301" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="119" ht="14.25" customHeight="1">
       <c r="A119" t="s">
-        <v>239</v>
-      </c>
-      <c r="B119" s="302" t="s">
-        <v>110</v>
+        <v>241</v>
+      </c>
+      <c r="B119" s="670" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="120" ht="14.25" customHeight="1">
       <c r="A120" t="s">
-        <v>240</v>
-      </c>
-      <c r="B120" s="303" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="B120" s="671" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="121" ht="14.25" customHeight="1">
       <c r="A121" t="s">
-        <v>242</v>
-      </c>
-      <c r="B121" s="304" t="s">
-        <v>144</v>
+        <v>243</v>
+      </c>
+      <c r="B121" s="672" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="122" ht="14.25" customHeight="1">
       <c r="A122" t="s">
-        <v>243</v>
-      </c>
-      <c r="B122" s="305" t="s">
         <v>244</v>
+      </c>
+      <c r="B122" s="673" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="123" ht="14.25" customHeight="1">
       <c r="A123" t="s">
-        <v>245</v>
-      </c>
-      <c r="B123" s="306" t="s">
         <v>246</v>
+      </c>
+      <c r="B123" s="674" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="124" ht="14.25" customHeight="1">
       <c r="A124" t="s">
-        <v>247</v>
-      </c>
-      <c r="B124" s="307" t="s">
-        <v>144</v>
+        <v>248</v>
+      </c>
+      <c r="B124" s="675" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="125" ht="14.25" customHeight="1">
       <c r="A125" t="s">
-        <v>248</v>
-      </c>
-      <c r="B125" s="308" t="s">
-        <v>144</v>
+        <v>249</v>
+      </c>
+      <c r="B125" s="676" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="126" ht="14.25" customHeight="1">
       <c r="A126" t="s">
-        <v>249</v>
-      </c>
-      <c r="B126" s="309" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="B126" s="677" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="127" ht="14.25" customHeight="1">
       <c r="A127" t="s">
-        <v>251</v>
-      </c>
-      <c r="B127" s="310" t="s">
-        <v>144</v>
+        <v>259</v>
+      </c>
+      <c r="B127" s="678" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="128" ht="14.25" customHeight="1">
       <c r="A128" t="s">
-        <v>252</v>
-      </c>
-      <c r="B128" s="311" t="s">
-        <v>253</v>
+        <v>328</v>
+      </c>
+      <c r="B128" s="679" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="129" ht="14.25" customHeight="1">
       <c r="A129" t="s">
-        <v>254</v>
-      </c>
-      <c r="B129" s="312" t="s">
-        <v>255</v>
+        <v>261</v>
+      </c>
+      <c r="B129" s="680" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="130" ht="14.25" customHeight="1">
       <c r="A130" t="s">
-        <v>256</v>
-      </c>
-      <c r="B130" s="313" t="s">
-        <v>144</v>
+        <v>254</v>
+      </c>
+      <c r="B130" s="681" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="131" ht="14.25" customHeight="1">
       <c r="A131" t="s">
-        <v>257</v>
-      </c>
-      <c r="B131" s="314" t="s">
-        <v>258</v>
+        <v>329</v>
+      </c>
+      <c r="B131" s="682" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1">
       <c r="A132" t="s">
-        <v>259</v>
-      </c>
-      <c r="B132" s="315" t="s">
-        <v>260</v>
+        <v>257</v>
+      </c>
+      <c r="B132" s="683" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1">
       <c r="A133" t="s">
-        <v>261</v>
-      </c>
-      <c r="B133" s="316" t="s">
-        <v>94</v>
+        <v>330</v>
+      </c>
+      <c r="B133" s="684" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="134" ht="14.25" customHeight="1">
       <c r="A134" t="s">
-        <v>262</v>
-      </c>
-      <c r="B134" s="317" t="s">
-        <v>263</v>
+        <v>331</v>
+      </c>
+      <c r="B134" s="685" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="135" ht="14.25" customHeight="1">
       <c r="A135" t="s">
-        <v>264</v>
-      </c>
-      <c r="B135" s="318" t="s">
-        <v>265</v>
+        <v>266</v>
+      </c>
+      <c r="B135" s="686" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="136" ht="14.25" customHeight="1">
       <c r="A136" t="s">
-        <v>266</v>
-      </c>
-      <c r="B136" s="319" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="B136" s="687" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="137" ht="14.25" customHeight="1">
       <c r="A137" t="s">
-        <v>268</v>
-      </c>
-      <c r="B137" s="320" t="s">
-        <v>269</v>
+        <v>270</v>
+      </c>
+      <c r="B137" s="688" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="138" ht="14.25" customHeight="1">
       <c r="A138" t="s">
-        <v>270</v>
-      </c>
-      <c r="B138" s="321" t="s">
-        <v>269</v>
+        <v>272</v>
+      </c>
+      <c r="B138" s="689" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="139" ht="14.25" customHeight="1">
       <c r="A139" t="s">
-        <v>271</v>
-      </c>
-      <c r="B139" s="322" t="s">
-        <v>269</v>
+        <v>274</v>
+      </c>
+      <c r="B139" s="690" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="140" ht="14.25" customHeight="1">
       <c r="A140" t="s">
-        <v>272</v>
-      </c>
-      <c r="B140" s="323" t="s">
-        <v>269</v>
+        <v>332</v>
+      </c>
+      <c r="B140" s="691" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="141" ht="14.25" customHeight="1">
       <c r="A141" t="s">
-        <v>273</v>
-      </c>
-      <c r="B141" s="324" t="s">
-        <v>269</v>
+        <v>333</v>
+      </c>
+      <c r="B141" s="692" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="142" ht="14.25" customHeight="1">
       <c r="A142" t="s">
-        <v>274</v>
-      </c>
-      <c r="B142" s="325" t="s">
-        <v>3</v>
+        <v>334</v>
+      </c>
+      <c r="B142" s="693" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="143" ht="14.25" customHeight="1">
       <c r="A143" t="s">
-        <v>275</v>
-      </c>
-      <c r="B143" s="326" t="s">
-        <v>269</v>
+        <v>335</v>
+      </c>
+      <c r="B143" s="694" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="144" ht="14.25" customHeight="1">
       <c r="A144" t="s">
-        <v>276</v>
-      </c>
-      <c r="B144" s="327" t="s">
-        <v>144</v>
+        <v>336</v>
+      </c>
+      <c r="B144" s="695" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="145" ht="14.25" customHeight="1">
       <c r="A145" t="s">
-        <v>277</v>
-      </c>
-      <c r="B145" s="328" t="s">
-        <v>253</v>
+        <v>337</v>
+      </c>
+      <c r="B145" s="696" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="146" ht="14.25" customHeight="1">
       <c r="A146" t="s">
-        <v>278</v>
-      </c>
-      <c r="B146" s="329" t="s">
-        <v>279</v>
+        <v>282</v>
+      </c>
+      <c r="B146" s="697" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="147" ht="14.25" customHeight="1">
       <c r="A147" t="s">
-        <v>280</v>
-      </c>
-      <c r="B147" s="330" t="s">
-        <v>253</v>
+        <v>338</v>
+      </c>
+      <c r="B147" s="698" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="148" ht="14.25" customHeight="1">
       <c r="A148" t="s">
-        <v>281</v>
-      </c>
-      <c r="B148" s="331" t="s">
-        <v>282</v>
+        <v>339</v>
+      </c>
+      <c r="B148" s="699" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="149" ht="14.25" customHeight="1">
       <c r="A149" t="s">
-        <v>283</v>
-      </c>
-      <c r="B149" s="332" t="s">
-        <v>144</v>
+        <v>285</v>
+      </c>
+      <c r="B149" s="700" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="150" ht="14.25" customHeight="1">
       <c r="A150" t="s">
-        <v>284</v>
-      </c>
-      <c r="B150" s="333" t="s">
-        <v>285</v>
+        <v>340</v>
+      </c>
+      <c r="B150" s="701" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="151" ht="14.25" customHeight="1">
       <c r="A151" t="s">
-        <v>286</v>
-      </c>
-      <c r="B151" s="334" t="s">
-        <v>139</v>
+        <v>341</v>
+      </c>
+      <c r="B151" s="702" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="152" ht="14.25" customHeight="1">
       <c r="A152" t="s">
-        <v>287</v>
-      </c>
-      <c r="B152" s="335" t="s">
-        <v>144</v>
+        <v>342</v>
+      </c>
+      <c r="B152" s="703" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="153" ht="14.25" customHeight="1">
       <c r="A153" t="s">
-        <v>288</v>
-      </c>
-      <c r="B153" s="336" t="s">
-        <v>253</v>
+        <v>343</v>
+      </c>
+      <c r="B153" s="704" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="154" ht="14.25" customHeight="1">
       <c r="A154" t="s">
-        <v>289</v>
-      </c>
-      <c r="B154" s="337" t="s">
-        <v>290</v>
+        <v>344</v>
+      </c>
+      <c r="B154" s="705" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="155" ht="14.25" customHeight="1">
       <c r="A155" t="s">
-        <v>291</v>
-      </c>
-      <c r="B155" s="338" t="s">
-        <v>144</v>
+        <v>345</v>
+      </c>
+      <c r="B155" s="706" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="156" ht="14.25" customHeight="1">
       <c r="A156" t="s">
-        <v>292</v>
-      </c>
-      <c r="B156" s="339" t="s">
-        <v>253</v>
+        <v>346</v>
+      </c>
+      <c r="B156" s="707" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="157" ht="14.25" customHeight="1">
       <c r="A157" t="s">
-        <v>293</v>
-      </c>
-      <c r="B157" s="340" t="s">
-        <v>294</v>
+        <v>302</v>
+      </c>
+      <c r="B157" s="708" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="158" ht="14.25" customHeight="1">
       <c r="A158" t="s">
-        <v>295</v>
-      </c>
-      <c r="B158" s="341" t="s">
-        <v>144</v>
+        <v>347</v>
+      </c>
+      <c r="B158" s="709" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="159" ht="14.25" customHeight="1">
       <c r="A159" t="s">
-        <v>296</v>
-      </c>
-      <c r="B159" s="342" t="s">
-        <v>253</v>
+        <v>348</v>
+      </c>
+      <c r="B159" s="710" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="160" ht="14.25" customHeight="1">
       <c r="A160" t="s">
-        <v>297</v>
-      </c>
-      <c r="B160" s="343" t="s">
-        <v>298</v>
+        <v>306</v>
+      </c>
+      <c r="B160" s="711" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="161" ht="14.25" customHeight="1">
       <c r="A161" t="s">
-        <v>299</v>
-      </c>
-      <c r="B161" s="344" t="s">
-        <v>139</v>
+        <v>349</v>
+      </c>
+      <c r="B161" s="712" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="162" ht="14.25" customHeight="1">
       <c r="A162" t="s">
-        <v>300</v>
-      </c>
-      <c r="B162" s="345" t="s">
-        <v>144</v>
+        <v>350</v>
+      </c>
+      <c r="B162" s="713" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="163" ht="14.25" customHeight="1">
       <c r="A163" t="s">
-        <v>301</v>
-      </c>
-      <c r="B163" s="346" t="s">
-        <v>253</v>
+        <v>313</v>
+      </c>
+      <c r="B163" s="714" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="164" ht="14.25" customHeight="1">
       <c r="A164" t="s">
-        <v>302</v>
-      </c>
-      <c r="B164" s="347" t="s">
-        <v>144</v>
+        <v>315</v>
+      </c>
+      <c r="B164" s="715" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="165" ht="14.25" customHeight="1">
       <c r="A165" t="s">
-        <v>303</v>
-      </c>
-      <c r="B165" s="348" t="s">
-        <v>144</v>
+        <v>351</v>
+      </c>
+      <c r="B165" s="716" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="166" ht="14.25" customHeight="1">
       <c r="A166" t="s">
-        <v>304</v>
-      </c>
-      <c r="B166" s="349" t="s">
-        <v>305</v>
+        <v>309</v>
+      </c>
+      <c r="B166" s="717" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="167" ht="14.25" customHeight="1">
       <c r="A167" t="s">
-        <v>306</v>
-      </c>
-      <c r="B167" s="350" t="s">
-        <v>307</v>
+        <v>316</v>
+      </c>
+      <c r="B167" s="718" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="168" ht="14.25" customHeight="1">
       <c r="A168" t="s">
-        <v>308</v>
-      </c>
-      <c r="B168" s="351" t="s">
-        <v>309</v>
+        <v>352</v>
+      </c>
+      <c r="B168" s="719" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="169" ht="14.25" customHeight="1">
       <c r="A169" t="s">
-        <v>310</v>
-      </c>
-      <c r="B169" s="352" t="s">
-        <v>144</v>
+        <v>353</v>
+      </c>
+      <c r="B169" s="720" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="170" ht="14.25" customHeight="1">
       <c r="A170" t="s">
-        <v>311</v>
-      </c>
-      <c r="B170" s="353" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="171" ht="14.25" customHeight="1"/>
+        <v>291</v>
+      </c>
+      <c r="B170" s="721" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="171" ht="14.25" customHeight="1">
+      <c r="A171" t="s">
+        <v>253</v>
+      </c>
+      <c r="B171" s="722" t="s">
+        <v>135</v>
+      </c>
+    </row>
     <row r="172" ht="14.25" customHeight="1"/>
     <row r="173" ht="14.25" customHeight="1"/>
     <row r="174" ht="14.25" customHeight="1"/>
@@ -7717,15 +9367,15 @@
       <c r="A1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="453" t="s">
-        <v>359</v>
+      <c r="B1" s="367" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="454" t="s">
+      <c r="B2" s="368" t="s">
         <v>105</v>
       </c>
     </row>
@@ -7733,7 +9383,7 @@
       <c r="A3" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="455" t="s">
+      <c r="B3" s="369" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7741,224 +9391,224 @@
       <c r="A4" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="456" t="s">
+      <c r="B4" s="370" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="451" t="s">
-        <v>357</v>
+        <v>317</v>
+      </c>
+      <c r="B5" s="1020" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="452" t="s">
-        <v>358</v>
+        <v>319</v>
+      </c>
+      <c r="B6" s="1021" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="457" t="s">
-        <v>360</v>
+        <v>110</v>
+      </c>
+      <c r="B7" s="371" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="458" t="s">
-        <v>314</v>
+        <v>112</v>
+      </c>
+      <c r="B8" s="372" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="459" t="s">
-        <v>361</v>
+        <v>114</v>
+      </c>
+      <c r="B9" s="373" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="10" ht="47.25" customHeight="1">
       <c r="A10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="463" t="s">
-        <v>363</v>
+        <v>116</v>
+      </c>
+      <c r="B10" s="377" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="464" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="378" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="465" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="379" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" ht="33.0" customHeight="1">
       <c r="A13" t="s">
-        <v>318</v>
-      </c>
-      <c r="B13" s="466" t="s">
-        <v>364</v>
+        <v>121</v>
+      </c>
+      <c r="B13" s="381" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="467" t="s">
         <v>125</v>
+      </c>
+      <c r="B14" s="382" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="468" t="s">
         <v>127</v>
+      </c>
+      <c r="B15" s="383" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="469" t="s">
-        <v>365</v>
+        <v>129</v>
+      </c>
+      <c r="B16" s="384" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="470" t="s">
         <v>131</v>
+      </c>
+      <c r="B17" s="385" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" s="473" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B18" s="386" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" s="474" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="B19" s="387" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>136</v>
-      </c>
-      <c r="B20" s="475" t="s">
-        <v>323</v>
+        <v>140</v>
+      </c>
+      <c r="B20" s="388" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>138</v>
-      </c>
-      <c r="B21" s="472" t="s">
-        <v>144</v>
+        <v>133</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" s="476" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="B22" s="389" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="477" t="s">
-        <v>366</v>
+        <v>138</v>
+      </c>
+      <c r="B23" s="390" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" s="478" t="s">
-        <v>323</v>
+        <v>140</v>
+      </c>
+      <c r="B24" s="391" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" s="479" t="s">
-        <v>144</v>
+        <v>133</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="480" t="s">
-        <v>367</v>
+        <v>146</v>
+      </c>
+      <c r="B26" s="392" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" t="s">
-        <v>147</v>
-      </c>
-      <c r="B27" s="481" t="s">
-        <v>368</v>
+        <v>148</v>
+      </c>
+      <c r="B27" s="393" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28" s="482" t="s">
         <v>150</v>
+      </c>
+      <c r="B28" s="394" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" s="483" t="s">
-        <v>369</v>
+        <v>152</v>
+      </c>
+      <c r="B29" s="395" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>153</v>
-      </c>
-      <c r="B30" s="484" t="s">
-        <v>139</v>
+        <v>154</v>
+      </c>
+      <c r="B30" s="396" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>154</v>
-      </c>
-      <c r="B31" s="485" t="s">
-        <v>139</v>
+        <v>155</v>
+      </c>
+      <c r="B31" s="397" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
@@ -7966,745 +9616,955 @@
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>155</v>
-      </c>
-      <c r="B33" s="490" t="s">
-        <v>370</v>
+        <v>160</v>
+      </c>
+      <c r="B33" s="402" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>157</v>
-      </c>
-      <c r="B34" s="491" t="s">
-        <v>158</v>
+        <v>162</v>
+      </c>
+      <c r="B34" s="403" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>159</v>
-      </c>
-      <c r="B35" s="492" t="s">
-        <v>160</v>
+        <v>164</v>
+      </c>
+      <c r="B35" s="404" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="B36" s="3"/>
+      <c r="A36" t="s">
+        <v>370</v>
+      </c>
+      <c r="B36" s="405" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="B37" s="3"/>
+      <c r="A37" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" s="406" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="B38" s="3"/>
+      <c r="A38" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="407" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>161</v>
-      </c>
-      <c r="B39" s="486" t="s">
-        <v>139</v>
+        <v>156</v>
+      </c>
+      <c r="B39" s="398" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>162</v>
-      </c>
-      <c r="B40" s="487" t="s">
-        <v>139</v>
+        <v>157</v>
+      </c>
+      <c r="B40" s="399" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>163</v>
-      </c>
-      <c r="B41" s="488" t="s">
-        <v>144</v>
+        <v>158</v>
+      </c>
+      <c r="B41" s="400" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>164</v>
-      </c>
-      <c r="B42" s="489" t="s">
-        <v>144</v>
+        <v>159</v>
+      </c>
+      <c r="B42" s="401" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>329</v>
-      </c>
-      <c r="B43" s="493" t="s">
         <v>166</v>
+      </c>
+      <c r="B43" s="726" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>167</v>
-      </c>
-      <c r="B44" s="494" t="s">
-        <v>371</v>
+        <v>168</v>
+      </c>
+      <c r="B44" s="727" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>169</v>
-      </c>
-      <c r="B45" s="495" t="s">
         <v>170</v>
+      </c>
+      <c r="B45" s="728" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>157</v>
-      </c>
-      <c r="B46" s="496" t="s">
-        <v>372</v>
+        <v>162</v>
+      </c>
+      <c r="B46" s="729" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>172</v>
-      </c>
-      <c r="B47" s="497" t="s">
-        <v>373</v>
+        <v>173</v>
+      </c>
+      <c r="B47" s="730" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>333</v>
-      </c>
-      <c r="B48" s="498" t="s">
-        <v>166</v>
+        <v>175</v>
+      </c>
+      <c r="B48" s="731" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" t="s">
-        <v>167</v>
-      </c>
-      <c r="B49" s="499" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" s="732" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" t="s">
-        <v>169</v>
-      </c>
-      <c r="B50" s="500" t="s">
         <v>170</v>
+      </c>
+      <c r="B50" s="733" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" t="s">
-        <v>157</v>
-      </c>
-      <c r="B51" s="501" t="s">
-        <v>374</v>
+        <v>162</v>
+      </c>
+      <c r="B51" s="734" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>176</v>
-      </c>
-      <c r="B52" s="502" t="s">
-        <v>375</v>
+        <v>177</v>
+      </c>
+      <c r="B52" s="735" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>178</v>
-      </c>
-      <c r="B53" s="503" t="s">
-        <v>336</v>
+        <v>179</v>
+      </c>
+      <c r="B53" s="736" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" t="s">
-        <v>167</v>
-      </c>
-      <c r="B54" s="504" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" s="737" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" t="s">
-        <v>169</v>
-      </c>
-      <c r="B55" s="505" t="s">
         <v>170</v>
+      </c>
+      <c r="B55" s="738" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" t="s">
-        <v>157</v>
-      </c>
-      <c r="B56" s="506" t="s">
-        <v>376</v>
+        <v>162</v>
+      </c>
+      <c r="B56" s="739" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" t="s">
-        <v>176</v>
-      </c>
-      <c r="B57" s="507" t="s">
-        <v>377</v>
+        <v>177</v>
+      </c>
+      <c r="B57" s="740" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" t="s">
-        <v>178</v>
-      </c>
-      <c r="B58" s="508" t="s">
-        <v>378</v>
+        <v>179</v>
+      </c>
+      <c r="B58" s="741" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" t="s">
-        <v>167</v>
-      </c>
-      <c r="B59" s="509" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" s="742" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" t="s">
-        <v>169</v>
-      </c>
-      <c r="B60" s="510" t="s">
         <v>170</v>
+      </c>
+      <c r="B60" s="743" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" t="s">
-        <v>157</v>
-      </c>
-      <c r="B61" s="511" t="s">
-        <v>379</v>
+        <v>162</v>
+      </c>
+      <c r="B61" s="744" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" t="s">
-        <v>176</v>
-      </c>
-      <c r="B62" s="512" t="s">
-        <v>380</v>
+        <v>177</v>
+      </c>
+      <c r="B62" s="745" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" t="s">
-        <v>178</v>
-      </c>
-      <c r="B63" s="513" t="s">
-        <v>182</v>
+        <v>179</v>
+      </c>
+      <c r="B63" s="746" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" t="s">
-        <v>167</v>
-      </c>
-      <c r="B64" s="514" t="s">
+        <v>168</v>
+      </c>
+      <c r="B64" s="747" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" t="s">
-        <v>169</v>
-      </c>
-      <c r="B65" s="515" t="s">
         <v>170</v>
+      </c>
+      <c r="B65" s="748" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" t="s">
-        <v>157</v>
-      </c>
-      <c r="B66" s="516" t="s">
-        <v>381</v>
+        <v>162</v>
+      </c>
+      <c r="B66" s="749" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" t="s">
-        <v>176</v>
-      </c>
-      <c r="B67" s="517" t="s">
-        <v>382</v>
+        <v>177</v>
+      </c>
+      <c r="B67" s="750" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" t="s">
-        <v>178</v>
-      </c>
-      <c r="B68" s="518" t="s">
-        <v>383</v>
+        <v>179</v>
+      </c>
+      <c r="B68" s="751" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" t="s">
-        <v>167</v>
-      </c>
-      <c r="B69" s="519" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" s="752" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" t="s">
-        <v>169</v>
-      </c>
-      <c r="B70" s="520" t="s">
         <v>170</v>
+      </c>
+      <c r="B70" s="753" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" t="s">
-        <v>157</v>
-      </c>
-      <c r="B71" s="521" t="s">
-        <v>384</v>
+        <v>162</v>
+      </c>
+      <c r="B71" s="754" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" t="s">
-        <v>176</v>
-      </c>
-      <c r="B72" s="522" t="s">
-        <v>385</v>
+        <v>177</v>
+      </c>
+      <c r="B72" s="755" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" t="s">
-        <v>178</v>
-      </c>
-      <c r="B73" s="523" t="s">
-        <v>386</v>
+        <v>179</v>
+      </c>
+      <c r="B73" s="756" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="A74" t="s">
-        <v>167</v>
-      </c>
-      <c r="B74" s="524" t="s">
+        <v>168</v>
+      </c>
+      <c r="B74" s="757" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" t="s">
-        <v>169</v>
-      </c>
-      <c r="B75" s="525" t="s">
         <v>170</v>
+      </c>
+      <c r="B75" s="758" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" t="s">
-        <v>157</v>
-      </c>
-      <c r="B76" s="526" t="s">
-        <v>387</v>
+        <v>162</v>
+      </c>
+      <c r="B76" s="759" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" t="s">
-        <v>176</v>
-      </c>
-      <c r="B77" s="527" t="s">
-        <v>388</v>
+        <v>177</v>
+      </c>
+      <c r="B77" s="760" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="A78" t="s">
-        <v>178</v>
-      </c>
-      <c r="B78" s="528" t="s">
-        <v>389</v>
+        <v>179</v>
+      </c>
+      <c r="B78" s="761" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="A79" t="s">
-        <v>167</v>
-      </c>
-      <c r="B79" s="529" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" s="762" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="A80" t="s">
-        <v>169</v>
-      </c>
-      <c r="B80" s="530" t="s">
         <v>170</v>
+      </c>
+      <c r="B80" s="763" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
       <c r="A81" t="s">
-        <v>157</v>
-      </c>
-      <c r="B81" s="531" t="s">
-        <v>390</v>
+        <v>162</v>
+      </c>
+      <c r="B81" s="764" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
       <c r="A82" t="s">
-        <v>176</v>
-      </c>
-      <c r="B82" s="532" t="s">
-        <v>391</v>
+        <v>177</v>
+      </c>
+      <c r="B82" s="765" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="A83" t="s">
-        <v>178</v>
-      </c>
-      <c r="B83" s="533" t="s">
-        <v>392</v>
+        <v>179</v>
+      </c>
+      <c r="B83" s="766" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1">
       <c r="A84" t="s">
-        <v>167</v>
-      </c>
-      <c r="B84" s="534" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" s="767" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="A85" t="s">
-        <v>169</v>
-      </c>
-      <c r="B85" s="535" t="s">
         <v>170</v>
+      </c>
+      <c r="B85" s="768" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="A86" t="s">
-        <v>157</v>
-      </c>
-      <c r="B86" s="536" t="s">
-        <v>393</v>
+        <v>162</v>
+      </c>
+      <c r="B86" s="769" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
       <c r="A87" t="s">
-        <v>176</v>
-      </c>
-      <c r="B87" s="537" t="s">
-        <v>394</v>
+        <v>177</v>
+      </c>
+      <c r="B87" s="770" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="A88" t="s">
-        <v>178</v>
-      </c>
-      <c r="B88" s="538" t="s">
-        <v>395</v>
+        <v>179</v>
+      </c>
+      <c r="B88" s="771" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" t="s">
-        <v>167</v>
-      </c>
-      <c r="B89" s="539" t="s">
+        <v>168</v>
+      </c>
+      <c r="B89" s="772" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" t="s">
-        <v>169</v>
-      </c>
-      <c r="B90" s="540" t="s">
         <v>170</v>
+      </c>
+      <c r="B90" s="773" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="A91" t="s">
-        <v>157</v>
-      </c>
-      <c r="B91" s="541" t="s">
-        <v>396</v>
+        <v>162</v>
+      </c>
+      <c r="B91" s="774" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1">
       <c r="A92" t="s">
-        <v>176</v>
-      </c>
-      <c r="B92" s="542" t="s">
-        <v>397</v>
+        <v>177</v>
+      </c>
+      <c r="B92" s="775" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="A93" t="s">
-        <v>178</v>
-      </c>
-      <c r="B93" s="543" t="s">
-        <v>398</v>
+        <v>179</v>
+      </c>
+      <c r="B93" s="776" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="A94" t="s">
-        <v>346</v>
-      </c>
-      <c r="B94" s="551" t="s">
-        <v>166</v>
+        <v>205</v>
+      </c>
+      <c r="B94" s="784" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="A95" t="s">
-        <v>204</v>
-      </c>
-      <c r="B95" s="554" t="s">
+        <v>207</v>
+      </c>
+      <c r="B95" s="787" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1">
       <c r="A96" t="s">
-        <v>169</v>
-      </c>
-      <c r="B96" s="555" t="s">
         <v>170</v>
+      </c>
+      <c r="B96" s="788" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" t="s">
-        <v>157</v>
-      </c>
-      <c r="B97" s="552" t="s">
-        <v>401</v>
+        <v>162</v>
+      </c>
+      <c r="B97" s="785" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1">
       <c r="A98" t="s">
-        <v>206</v>
-      </c>
-      <c r="B98" s="556" t="s">
-        <v>402</v>
+        <v>209</v>
+      </c>
+      <c r="B98" s="789" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1">
       <c r="A99" t="s">
-        <v>208</v>
-      </c>
-      <c r="B99" s="557" t="s">
+        <v>211</v>
+      </c>
+      <c r="B99" s="790" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1">
       <c r="A100" t="s">
-        <v>209</v>
-      </c>
-      <c r="B100" s="558" t="s">
-        <v>403</v>
+        <v>214</v>
+      </c>
+      <c r="B100" s="791" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1">
       <c r="A101" t="s">
-        <v>211</v>
-      </c>
-      <c r="B101" s="559" t="s">
-        <v>182</v>
+        <v>216</v>
+      </c>
+      <c r="B101" s="792" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="102" ht="14.25" customHeight="1">
       <c r="A102" t="s">
-        <v>213</v>
-      </c>
-      <c r="B102" s="560" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" s="793" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="103" ht="14.25" customHeight="1">
       <c r="A103" t="s">
-        <v>214</v>
-      </c>
-      <c r="B103" s="561" t="s">
-        <v>215</v>
+        <v>218</v>
+      </c>
+      <c r="B103" s="794" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="104" ht="14.25" customHeight="1">
       <c r="A104" t="s">
-        <v>216</v>
-      </c>
-      <c r="B104" s="562" t="s">
-        <v>269</v>
+        <v>220</v>
+      </c>
+      <c r="B104" s="796" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="105" ht="14.25" customHeight="1">
       <c r="A105" t="s">
-        <v>218</v>
-      </c>
-      <c r="B105" s="564" t="s">
-        <v>217</v>
+        <v>222</v>
+      </c>
+      <c r="B105" s="797" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="106" ht="14.25" customHeight="1">
       <c r="A106" t="s">
-        <v>219</v>
-      </c>
-      <c r="B106" s="565" t="s">
+        <v>223</v>
+      </c>
+      <c r="B106" s="798" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="107" ht="14.25" customHeight="1">
       <c r="A107" t="s">
-        <v>220</v>
-      </c>
-      <c r="B107" s="566" t="s">
-        <v>355</v>
+        <v>225</v>
+      </c>
+      <c r="B107" s="799" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="108" ht="14.25" customHeight="1">
       <c r="A108" t="s">
-        <v>222</v>
-      </c>
-      <c r="B108" s="567" t="s">
-        <v>223</v>
+        <v>227</v>
+      </c>
+      <c r="B108" s="800" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="109" ht="14.25" customHeight="1">
       <c r="A109" t="s">
-        <v>216</v>
-      </c>
-      <c r="B109" s="568" t="s">
-        <v>269</v>
+        <v>220</v>
+      </c>
+      <c r="B109" s="801" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="110" ht="14.25" customHeight="1">
       <c r="A110" t="s">
-        <v>218</v>
-      </c>
-      <c r="B110" s="569" t="s">
-        <v>269</v>
+        <v>222</v>
+      </c>
+      <c r="B110" s="802" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="A111" t="s">
-        <v>219</v>
-      </c>
-      <c r="B111" s="570" t="s">
-        <v>269</v>
+        <v>223</v>
+      </c>
+      <c r="B111" s="803" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="112" ht="14.25" customHeight="1">
       <c r="A112" t="s">
-        <v>220</v>
-      </c>
-      <c r="B112" s="571" t="s">
-        <v>356</v>
+        <v>225</v>
+      </c>
+      <c r="B112" s="804" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="113" ht="14.25" customHeight="1">
-      <c r="B113" s="3"/>
+      <c r="A113" t="s">
+        <v>230</v>
+      </c>
+      <c r="B113" s="805" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="B114" s="3"/>
+      <c r="A114" t="s">
+        <v>231</v>
+      </c>
+      <c r="B114" s="806" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="115" ht="14.25" customHeight="1">
-      <c r="B115" s="3"/>
+      <c r="A115" t="s">
+        <v>233</v>
+      </c>
+      <c r="B115" s="807" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="116" ht="14.25" customHeight="1">
-      <c r="B116" s="3"/>
+      <c r="A116" t="s">
+        <v>235</v>
+      </c>
+      <c r="B116" s="808" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="117" ht="14.25" customHeight="1">
-      <c r="B117" s="3"/>
+      <c r="A117" t="s">
+        <v>237</v>
+      </c>
+      <c r="B117" s="809" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="B118" s="3"/>
+      <c r="A118" t="s">
+        <v>239</v>
+      </c>
+      <c r="B118" s="810" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="119" ht="14.25" customHeight="1">
-      <c r="B119" s="3"/>
+      <c r="A119" t="s">
+        <v>240</v>
+      </c>
+      <c r="B119" s="811" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="B120" s="3"/>
+      <c r="A120" t="s">
+        <v>241</v>
+      </c>
+      <c r="B120" s="812" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="121" ht="14.25" customHeight="1">
-      <c r="B121" s="3"/>
+      <c r="A121" t="s">
+        <v>242</v>
+      </c>
+      <c r="B121" s="813" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="122" ht="14.25" customHeight="1">
-      <c r="B122" s="3"/>
+      <c r="A122" t="s">
+        <v>243</v>
+      </c>
+      <c r="B122" s="814" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="123" ht="14.25" customHeight="1">
-      <c r="B123" s="3"/>
+      <c r="A123" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" s="815" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="124" ht="14.25" customHeight="1">
-      <c r="B124" s="3"/>
+      <c r="A124" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" s="971" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="125" ht="14.25" customHeight="1">
-      <c r="B125" s="3"/>
+      <c r="A125" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" s="972" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="126" ht="14.25" customHeight="1">
-      <c r="B126" s="3"/>
+      <c r="A126" t="s">
+        <v>249</v>
+      </c>
+      <c r="B126" s="973" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="127" ht="14.25" customHeight="1">
-      <c r="B127" s="3"/>
+      <c r="A127" t="s">
+        <v>251</v>
+      </c>
+      <c r="B127" s="974" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="128" ht="14.25" customHeight="1">
-      <c r="B128" s="3"/>
+      <c r="A128" t="s">
+        <v>253</v>
+      </c>
+      <c r="B128" s="975" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="129" ht="14.25" customHeight="1">
-      <c r="B129" s="3"/>
+      <c r="A129" t="s">
+        <v>254</v>
+      </c>
+      <c r="B129" s="976" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="130" ht="14.25" customHeight="1">
-      <c r="B130" s="3"/>
+      <c r="A130" t="s">
+        <v>255</v>
+      </c>
+      <c r="B130" s="977" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="131" ht="14.25" customHeight="1">
-      <c r="B131" s="3"/>
+      <c r="A131" t="s">
+        <v>257</v>
+      </c>
+      <c r="B131" s="978" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="132" ht="14.25" customHeight="1">
-      <c r="B132" s="3"/>
+      <c r="A132" t="s">
+        <v>259</v>
+      </c>
+      <c r="B132" s="979" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="133" ht="14.25" customHeight="1">
-      <c r="B133" s="3"/>
+      <c r="A133" t="s">
+        <v>260</v>
+      </c>
+      <c r="B133" s="980" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="134" ht="14.25" customHeight="1">
-      <c r="B134" s="3"/>
+      <c r="A134" t="s">
+        <v>261</v>
+      </c>
+      <c r="B134" s="981" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="135" ht="14.25" customHeight="1">
-      <c r="B135" s="3"/>
+      <c r="A135" t="s">
+        <v>263</v>
+      </c>
+      <c r="B135" s="982" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="136" ht="14.25" customHeight="1">
-      <c r="B136" s="3"/>
+      <c r="A136" t="s">
+        <v>264</v>
+      </c>
+      <c r="B136" s="983" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="137" ht="14.25" customHeight="1">
-      <c r="B137" s="3"/>
+      <c r="A137" t="s">
+        <v>266</v>
+      </c>
+      <c r="B137" s="984" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="138" ht="14.25" customHeight="1">
-      <c r="B138" s="3"/>
+      <c r="A138" t="s">
+        <v>268</v>
+      </c>
+      <c r="B138" s="985" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="139" ht="14.25" customHeight="1">
-      <c r="B139" s="3"/>
+      <c r="A139" t="s">
+        <v>270</v>
+      </c>
+      <c r="B139" s="986" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="140" ht="14.25" customHeight="1">
-      <c r="B140" s="3"/>
+      <c r="A140" t="s">
+        <v>272</v>
+      </c>
+      <c r="B140" s="987" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="141" ht="14.25" customHeight="1">
-      <c r="B141" s="3"/>
+      <c r="A141" t="s">
+        <v>274</v>
+      </c>
+      <c r="B141" s="988" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="142" ht="14.25" customHeight="1">
-      <c r="B142" s="3"/>
+      <c r="A142" t="s">
+        <v>332</v>
+      </c>
+      <c r="B142" s="989" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="143" ht="14.25" customHeight="1">
-      <c r="B143" s="3"/>
+      <c r="A143" t="s">
+        <v>333</v>
+      </c>
+      <c r="B143" s="990" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="144" ht="14.25" customHeight="1">
-      <c r="B144" s="3"/>
+      <c r="A144" t="s">
+        <v>334</v>
+      </c>
+      <c r="B144" s="991" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="145" ht="14.25" customHeight="1">
-      <c r="B145" s="3"/>
+      <c r="A145" t="s">
+        <v>335</v>
+      </c>
+      <c r="B145" s="992" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="146" ht="14.25" customHeight="1">
-      <c r="B146" s="3"/>
+      <c r="A146" t="s">
+        <v>336</v>
+      </c>
+      <c r="B146" s="993" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="147" ht="14.25" customHeight="1">
-      <c r="B147" s="3"/>
+      <c r="A147" t="s">
+        <v>337</v>
+      </c>
+      <c r="B147" s="994" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="148" ht="14.25" customHeight="1">
-      <c r="B148" s="3"/>
+      <c r="A148" t="s">
+        <v>283</v>
+      </c>
+      <c r="B148" s="996" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="149" ht="14.25" customHeight="1">
-      <c r="B149" s="3"/>
+      <c r="A149" t="s">
+        <v>284</v>
+      </c>
+      <c r="B149" s="997" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="150" ht="14.25" customHeight="1">
-      <c r="B150" s="3"/>
+      <c r="A150" t="s">
+        <v>285</v>
+      </c>
+      <c r="B150" s="998" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="151" ht="14.25" customHeight="1">
-      <c r="B151" s="3"/>
+      <c r="A151" t="s">
+        <v>287</v>
+      </c>
+      <c r="B151" s="999" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="152" ht="14.25" customHeight="1">
       <c r="B152" s="3"/>
@@ -8719,67 +10579,167 @@
       <c r="B155" s="3"/>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="B156" s="3"/>
+      <c r="A156" t="s">
+        <v>289</v>
+      </c>
+      <c r="B156" s="1000" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="157" ht="14.25" customHeight="1">
-      <c r="B157" s="3"/>
+      <c r="A157" t="s">
+        <v>291</v>
+      </c>
+      <c r="B157" s="1001" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="158" ht="14.25" customHeight="1">
       <c r="B158" s="3"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
-      <c r="B159" s="3"/>
+      <c r="A159" t="s">
+        <v>293</v>
+      </c>
+      <c r="B159" s="1002" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="160" ht="14.25" customHeight="1">
-      <c r="B160" s="3"/>
+      <c r="A160" t="s">
+        <v>294</v>
+      </c>
+      <c r="B160" s="1003" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="161" ht="14.25" customHeight="1">
-      <c r="B161" s="3"/>
+      <c r="A161" t="s">
+        <v>296</v>
+      </c>
+      <c r="B161" s="1004" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="162" ht="14.25" customHeight="1">
-      <c r="B162" s="3"/>
+      <c r="A162" t="s">
+        <v>297</v>
+      </c>
+      <c r="B162" s="1005" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="163" ht="14.25" customHeight="1">
-      <c r="B163" s="3"/>
+      <c r="A163" t="s">
+        <v>299</v>
+      </c>
+      <c r="B163" s="1006" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="164" ht="14.25" customHeight="1">
-      <c r="B164" s="3"/>
+      <c r="A164" t="s">
+        <v>300</v>
+      </c>
+      <c r="B164" s="1007" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="165" ht="14.25" customHeight="1">
-      <c r="B165" s="3"/>
+      <c r="A165" t="s">
+        <v>301</v>
+      </c>
+      <c r="B165" s="1008" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="166" ht="14.25" customHeight="1">
-      <c r="B166" s="3"/>
+      <c r="A166" t="s">
+        <v>302</v>
+      </c>
+      <c r="B166" s="1009" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="167" ht="14.25" customHeight="1">
-      <c r="B167" s="3"/>
+      <c r="A167" t="s">
+        <v>304</v>
+      </c>
+      <c r="B167" s="1010" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="168" ht="14.25" customHeight="1">
-      <c r="B168" s="3"/>
+      <c r="A168" t="s">
+        <v>305</v>
+      </c>
+      <c r="B168" s="1011" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="169" ht="14.25" customHeight="1">
-      <c r="B169" s="3"/>
+      <c r="A169" t="s">
+        <v>306</v>
+      </c>
+      <c r="B169" s="1012" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="170" ht="14.25" customHeight="1">
-      <c r="B170" s="3"/>
+      <c r="A170" t="s">
+        <v>308</v>
+      </c>
+      <c r="B170" s="1013" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="171" ht="14.25" customHeight="1">
-      <c r="B171" s="3"/>
+      <c r="A171" t="s">
+        <v>309</v>
+      </c>
+      <c r="B171" s="1014" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="172" ht="14.25" customHeight="1">
-      <c r="B172" s="3"/>
+      <c r="A172" t="s">
+        <v>311</v>
+      </c>
+      <c r="B172" s="1015" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="173" ht="14.25" customHeight="1">
-      <c r="B173" s="3"/>
+      <c r="A173" t="s">
+        <v>312</v>
+      </c>
+      <c r="B173" s="1016" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="174" ht="14.25" customHeight="1">
-      <c r="B174" s="3"/>
+      <c r="A174" t="s">
+        <v>313</v>
+      </c>
+      <c r="B174" s="1017" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="175" ht="14.25" customHeight="1">
-      <c r="B175" s="3"/>
+      <c r="A175" t="s">
+        <v>315</v>
+      </c>
+      <c r="B175" s="1018" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="176" ht="14.25" customHeight="1">
-      <c r="B176" s="3"/>
+      <c r="A176" t="s">
+        <v>316</v>
+      </c>
+      <c r="B176" s="1019" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="177" ht="14.25" customHeight="1">
       <c r="B177" s="3"/>
@@ -10997,7 +12957,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId528" ref="A3"/>
+    <hyperlink r:id="rId966" ref="A3"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/src/test/resources/com/ugapp/excel/testdata.xlsx
+++ b/src/test/resources/com/ugapp/excel/testdata.xlsx
@@ -13,17 +13,18 @@
     <sheet state="visible" name="ParentNameTest" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="HomeAddressTest" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="GraduatingSchoolTest" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="AddMaxHighSchoolTest" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="overAllAcademicsTest" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="ReviewPageData" sheetId="13" r:id="rId16"/>
-    <sheet state="visible" name="CollegeUniversitiesTest" sheetId="14" r:id="rId17"/>
+    <sheet state="visible" name="Test Credit Card info" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="AddMaxHighSchoolTest" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="overAllAcademicsTest" sheetId="13" r:id="rId16"/>
+    <sheet state="visible" name="ReviewPageData" sheetId="14" r:id="rId17"/>
+    <sheet state="visible" name="CollegeUniversitiesTest" sheetId="15" r:id="rId18"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="278">
   <si>
     <t>TCID</t>
   </si>
@@ -262,6 +263,33 @@
     <t>Test School</t>
   </si>
   <si>
+    <t>Card name</t>
+  </si>
+  <si>
+    <t>Card number</t>
+  </si>
+  <si>
+    <t>CVV</t>
+  </si>
+  <si>
+    <t>Visa Card</t>
+  </si>
+  <si>
+    <t>4111111111111111</t>
+  </si>
+  <si>
+    <t>Master Card</t>
+  </si>
+  <si>
+    <t>5454545454545454</t>
+  </si>
+  <si>
+    <t>Discover</t>
+  </si>
+  <si>
+    <t>6011111111111117</t>
+  </si>
+  <si>
     <t>1234567891</t>
   </si>
   <si>
@@ -331,10 +359,268 @@
     <t>Test Degree</t>
   </si>
   <si>
+    <t>Begin by selecting the state you consider to be your permanent home.</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Have you been living in Arizona continuously for the last 12 months?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>When did you begin living in Arizona?</t>
+  </si>
+  <si>
+    <t>2010-01</t>
+  </si>
+  <si>
+    <t>Are you currently enrolled at another college or university?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Were you enrolled at any Arizona college or university in 2023 or 2022 calendar year?</t>
+  </si>
+  <si>
+    <t>Were you claimed as a dependent for income tax purposes by a parent or legal guardian for 2022 or 2021?</t>
+  </si>
+  <si>
+    <t>Do you own or operate a car, motorcycle or other motor vehicle?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Did you, or will you, file state taxes for 2022? </t>
+  </si>
+  <si>
+    <t>Employment financial support</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Financial aid financial support</t>
+  </si>
+  <si>
+    <t>Spouse financial support</t>
+  </si>
+  <si>
+    <t>Other financial support</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Savings/trust fund financial support</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Retirement financial support</t>
+  </si>
+  <si>
+    <t>Social Security/Disability financial support</t>
+  </si>
+  <si>
+    <t>Veteran Benefits financial support</t>
+  </si>
+  <si>
+    <t>State or Federal Benefits financial support</t>
+  </si>
+  <si>
+    <t>Unemployment financial support</t>
+  </si>
+  <si>
+    <t>Other/none of the above financial support</t>
+  </si>
+  <si>
+    <t>Where are you currently stationed?</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>What is your state of legal residence as noted on your leave and earnings statement (LES)?</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In which state do your parent(s) or legal guardian(s) currently live? </t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In which state does your spouse currently live? </t>
+  </si>
+  <si>
+    <t>When did your spouse begin living in Arizona?</t>
+  </si>
+  <si>
+    <t>2011-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Does your spouse have a valid drivers license or state-issued ID? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What state issued this drivers license or state ID?  </t>
+  </si>
+  <si>
+    <t>When did your spouse obtain this drivers license or state ID?</t>
+  </si>
+  <si>
+    <t>1937-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Did or will your spouse file a state income tax return for the 2022 tax year? </t>
+  </si>
+  <si>
+    <t>In which state did, or will, your spouse file state income taxes?</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is your spouse employed? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In which state is your spouse employed? </t>
+  </si>
+  <si>
+    <t>When did your spouses employment at this location begin?</t>
+  </si>
+  <si>
+    <t>1927-04</t>
+  </si>
+  <si>
+    <t>Is your spouse currently enrolled at ASU or any other college or university?</t>
+  </si>
+  <si>
+    <t>Is your spouse dependent on someone other than you for financial support, e.g. parents, guardians, family or financial aid?</t>
+  </si>
+  <si>
+    <t>1960-05</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Are you currently employed?</t>
+  </si>
+  <si>
+    <t>Were you employed in the last 12 months?</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>1946-04</t>
+  </si>
+  <si>
+    <t>2001-02</t>
+  </si>
+  <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
+    <t>1928-03</t>
+  </si>
+  <si>
+    <t>Outside the U.S. or Not Listed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You indicated that you are a veteran of the US military. Which character of service is noted on your DD-214? </t>
+  </si>
+  <si>
+    <t>Dishonorable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Are you eligible for Chapter 30 or Chapter 33 benefits? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Which parent or legal guardian lives in Arizona? </t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Did or will your parent(s) or legal guardian(s) file a state income tax return for the 2022 tax year? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In which state did, or will, your parent(s) or legal guardian(s) file state income taxes? </t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Does either parent or legal guardian have a current Arizona driver license? </t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is either parent or legal guardian employed in Arizona? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Are you registered to vote? </t>
+  </si>
+  <si>
+    <t>Under Other Than Honorable Conditions</t>
+  </si>
+  <si>
+    <t>When were you discharged or released from active duty?</t>
+  </si>
+  <si>
+    <t>December-null</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>June-null</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>August-null</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Pronouns</t>
+  </si>
+  <si>
+    <t>She/Her</t>
+  </si>
+  <si>
+    <t>Gender identity</t>
+  </si>
+  <si>
+    <t>Prefer not to disclose</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>7672embtest@test.asu.edu</t>
+    <t>5456embtest@test.asu.edu</t>
   </si>
   <si>
     <t>Legal name</t>
@@ -349,22 +635,19 @@
     <t>Date of birth</t>
   </si>
   <si>
-    <t>January 01, 1996</t>
-  </si>
-  <si>
-    <t>Transfer credits to ASU</t>
+    <t>January 01, 2003</t>
   </si>
   <si>
     <t>Former name(s)</t>
   </si>
   <si>
     <t>Test A
-Test B
 Test C
 Test D
+FN Edited LN Edited
 Test F
 Test G
-FN Edited LN Edited
+Test H
 Test I
 Test First Name Test Last Name</t>
   </si>
@@ -372,20 +655,20 @@
     <t>Legal sex</t>
   </si>
   <si>
-    <t>Female</t>
+    <t>Male</t>
   </si>
   <si>
     <t>Primary language spoken at home</t>
   </si>
   <si>
-    <t>Hausa</t>
+    <t>Thai</t>
   </si>
   <si>
     <t>Home address</t>
   </si>
   <si>
     <t>Test Address line1 Test Address line2
-TestTestTestTestTestTestTestTest,Test State,Burma
+Test City,Masvingo,Zimbabwe
 12345-678910</t>
   </si>
   <si>
@@ -395,22 +678,10 @@
     <t>Mobile phone</t>
   </si>
   <si>
-    <t>Test Address line1 Test Address line2
-Test City,Test State,Burma
-12345-678910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethnic/racial background </t>
-  </si>
-  <si>
-    <t>Dominican</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>White (Reporting Preferred)
-Dominican</t>
+    <t>Ethnic/racial background</t>
+  </si>
+  <si>
+    <t>Native Hawaiian/Pacific Islander</t>
   </si>
   <si>
     <t>U.S. citizenship</t>
@@ -428,7 +699,7 @@
     <t>Country of birth</t>
   </si>
   <si>
-    <t>Iraq-Saudia Arabia Neutral Zne</t>
+    <t>Algeria</t>
   </si>
   <si>
     <t>Social Security Number</t>
@@ -437,40 +708,34 @@
     <t>*********</t>
   </si>
   <si>
+    <t>Parent or legal guardian</t>
+  </si>
+  <si>
+    <t>Parent FN Parent LN I</t>
+  </si>
+  <si>
+    <t>Parent or Legal Guardian Relation</t>
+  </si>
+  <si>
+    <t>Aunt</t>
+  </si>
+  <si>
+    <t>Parent or Legal Guardian Schooling Level</t>
+  </si>
+  <si>
+    <t>College or Beyond</t>
+  </si>
+  <si>
     <t>Parent or Legal Guardian Attended ASU</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Parent or legal guardian</t>
-  </si>
-  <si>
-    <t>Parent FN Parent LN I</t>
-  </si>
-  <si>
-    <t>Parent or Legal Guardian Relation</t>
-  </si>
-  <si>
-    <t>Grandparent</t>
-  </si>
-  <si>
-    <t>Parent or Legal Guardian Schooling Level</t>
-  </si>
-  <si>
-    <t>Other/Unknown</t>
-  </si>
-  <si>
     <t>Additional parent or legal guardian</t>
   </si>
   <si>
     <t>Parent FN Parent LN II</t>
   </si>
   <si>
-    <t>Aunt</t>
+    <t>Uncle</t>
   </si>
   <si>
     <t>Middle School/Junior High</t>
@@ -479,33 +744,60 @@
     <t>Previous ASU affiliation</t>
   </si>
   <si>
-    <t>I attended ASU as a nondegree or graduate student</t>
+    <t>Other (i.e., applied but never enrolled, season ticket holder, etc.)</t>
   </si>
   <si>
     <t>Affiliate ID</t>
   </si>
   <si>
-    <t>9793670876</t>
+    <t>4459726691</t>
   </si>
   <si>
     <t>Military status</t>
   </si>
   <si>
-    <t>I am the spouse/dependent of a U.S. service member or veteran</t>
+    <t>Veteran</t>
   </si>
   <si>
     <t>Branch</t>
   </si>
   <si>
-    <t>United States Marine Corps</t>
+    <t>United States Public Health Service Commissioned Corps</t>
   </si>
   <si>
     <t>I have applied or plan to apply for Department of Veterans Affairs educational benefits based on my U.S. services affiliation identified above:</t>
   </si>
   <si>
+    <t>I authorize Arizona State University to request my Joint Service Transcript on my behalf.</t>
+  </si>
+  <si>
     <t>Do you plan to use an education benefit or scholarship through an employer, corporation, foundation or other ASU education partner?</t>
   </si>
   <si>
+    <t>Current employer</t>
+  </si>
+  <si>
+    <t>Phoenix children's hospital</t>
+  </si>
+  <si>
+    <t>First choice</t>
+  </si>
+  <si>
+    <t>Applied Biological Sciences (Pre-Dental), BS</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>ASU Online</t>
+  </si>
+  <si>
+    <t>Starting term</t>
+  </si>
+  <si>
+    <t>2024 Fall - (Session A)</t>
+  </si>
+  <si>
     <t>Pre-law interest</t>
   </si>
   <si>
@@ -518,34 +810,13 @@
     <t>Teaching certificate interest</t>
   </si>
   <si>
-    <t>First choice</t>
-  </si>
-  <si>
-    <t>Anthropology, BS</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>ASU Online</t>
-  </si>
-  <si>
-    <t>Starting term</t>
-  </si>
-  <si>
-    <t>2024 Summer - (Session B)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Graduating school </t>
-  </si>
-  <si>
-    <t/>
+    <t>Graduating school</t>
   </si>
   <si>
     <t>High school name</t>
   </si>
   <si>
-    <t>Salome HS</t>
+    <t>Abbeville Christian Academy</t>
   </si>
   <si>
     <t>Name on transcript</t>
@@ -554,1018 +825,49 @@
     <t>Test FN Test LN</t>
   </si>
   <si>
-    <t>Salome, AZ, USA</t>
+    <t>Abbeville, AL, USA</t>
   </si>
   <si>
     <t>Graduation date</t>
   </si>
   <si>
-    <t>July, 2028</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Past schools </t>
-  </si>
-  <si>
-    <t>Test City, SM, DMA</t>
-  </si>
-  <si>
-    <t>Start date</t>
-  </si>
-  <si>
-    <t>June, 2009</t>
-  </si>
-  <si>
-    <t>End date</t>
-  </si>
-  <si>
-    <t>August, 2023</t>
-  </si>
-  <si>
-    <t>Test City, MA, FJI</t>
-  </si>
-  <si>
-    <t>November, 2021</t>
-  </si>
-  <si>
-    <t>March, 2023</t>
-  </si>
-  <si>
-    <t>Test City, ME, VEN</t>
-  </si>
-  <si>
-    <t>March, 1991</t>
-  </si>
-  <si>
-    <t>July, 2023</t>
-  </si>
-  <si>
-    <t>Test City, IL, IRN</t>
-  </si>
-  <si>
-    <t>March, 1928</t>
-  </si>
-  <si>
-    <t>June, 2019</t>
-  </si>
-  <si>
-    <t>Test City, Test State, REU</t>
-  </si>
-  <si>
-    <t>July, 2006</t>
-  </si>
-  <si>
-    <t>July, 2021</t>
-  </si>
-  <si>
-    <t>Test City, Test State, Z61</t>
-  </si>
-  <si>
-    <t>January, 2021</t>
-  </si>
-  <si>
-    <t>April, 2023</t>
-  </si>
-  <si>
-    <t>Test City, HI, DOM</t>
-  </si>
-  <si>
-    <t>March, 1974</t>
-  </si>
-  <si>
-    <t>August, 1995</t>
-  </si>
-  <si>
-    <t>Test City, Test State, VIR</t>
-  </si>
-  <si>
-    <t>December, 1992</t>
-  </si>
-  <si>
-    <t>September, 2023</t>
-  </si>
-  <si>
-    <t>Test City, ZAI, AGO</t>
-  </si>
-  <si>
-    <t>January, 1938</t>
-  </si>
-  <si>
-    <t>June, 1977</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Past colleges/universities </t>
-  </si>
-  <si>
-    <t>testtesttesttesttesttesttesttest, testtesttesttesttesttesttesttest, Z55</t>
-  </si>
-  <si>
-    <t>School name</t>
-  </si>
-  <si>
-    <t>Not listed</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Doctor of Science</t>
-  </si>
-  <si>
-    <t>Degree concentration</t>
-  </si>
-  <si>
-    <t>Test City, Test State, JEY</t>
-  </si>
-  <si>
-    <t>Associate of Applied Science</t>
-  </si>
-  <si>
-    <t>Date first attended</t>
-  </si>
-  <si>
-    <t>May, 1999</t>
-  </si>
-  <si>
-    <t>Date last attended</t>
-  </si>
-  <si>
-    <t>January, 2023</t>
-  </si>
-  <si>
-    <t>List the most recent college/university for which you are ineligible to return first</t>
-  </si>
-  <si>
-    <t>Test First Ineligible college</t>
-  </si>
-  <si>
-    <t>Academic related</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Student conduct</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Please explain why you are ineligible to return to the college/university listed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test ineligible to return to the college/university listed </t>
-  </si>
-  <si>
-    <t>Additional college/university for which you are ineligible to return, if applicable:</t>
-  </si>
-  <si>
-    <t>Test Second Ineligible college</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Additional ineligible to return to the college/university listed </t>
+    <t>January, 2004</t>
+  </si>
+  <si>
+    <t>Transfer credits to ASU</t>
   </si>
   <si>
     <t>Self-reported</t>
   </si>
   <si>
-    <t>Unweighted GPA/Scale</t>
-  </si>
-  <si>
-    <t>111 / 4</t>
-  </si>
-  <si>
-    <t>Class rank/Class size</t>
-  </si>
-  <si>
-    <t>11 / 111</t>
-  </si>
-  <si>
-    <t>Grading system</t>
-  </si>
-  <si>
-    <t>A-F</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>No data has been entered</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
-    <t>Social Science</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Fine Arts/CTE</t>
-  </si>
-  <si>
-    <t>Electives</t>
-  </si>
-  <si>
-    <t>OTHER TEST</t>
-  </si>
-  <si>
-    <t>Begin by selecting the state you consider to be your permanent home.</t>
-  </si>
-  <si>
-    <t>Outside the U.S. or Not Listed</t>
-  </si>
-  <si>
-    <t>Are you currently enrolled at another college or university?</t>
-  </si>
-  <si>
-    <t>Where are you currently enrolled?</t>
-  </si>
-  <si>
-    <t>Test College</t>
-  </si>
-  <si>
-    <t>In which state is that school located?</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t>Were you enrolled at any Arizona college or university in 2023 or 2022 calendar year?</t>
-  </si>
-  <si>
     <t>Do you have a current driver’s license or state issued ID?</t>
   </si>
   <si>
-    <t xml:space="preserve"> In which state was your license issued? </t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>When was your license issued?</t>
-  </si>
-  <si>
-    <t>1957-12</t>
-  </si>
-  <si>
-    <t>Do you own or operate a car, motorcycle or other motor vehicle?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Is this vehicle registered in the state of Arizona? </t>
-  </si>
-  <si>
-    <t>When was your vehicle registered?</t>
-  </si>
-  <si>
-    <t>1958-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Did you, or will you, file state taxes for 2022? </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Where did or where will you file your state taxes for 2022? </t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Parent or legal guardian financial support</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Employment financial support</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>Financial aid financial support</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Spouse financial support</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Other financial support</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Savings/trust fund</t>
-  </si>
-  <si>
-    <t>Retirement</t>
-  </si>
-  <si>
-    <t>Social Security/Disability</t>
-  </si>
-  <si>
-    <t>Veteran Benefits</t>
-  </si>
-  <si>
-    <t>State or Federal Benefits</t>
-  </si>
-  <si>
-    <t>Unemployment</t>
-  </si>
-  <si>
-    <t>Other/none of the above</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Are you currently employed? </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Where is your primary work location? </t>
-  </si>
-  <si>
-    <t>When did your employment at this location begin?</t>
-  </si>
-  <si>
-    <t>1971-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> You indicated that you were the spouse or dependent of a U.S. service member or veteran. Which best describes the service member or veteran? </t>
-  </si>
-  <si>
-    <t>Active Duty</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Where is your spouse/parent/guardian currently stationed? </t>
-  </si>
-  <si>
-    <t>Armed Forces Europe</t>
-  </si>
-  <si>
-    <t>What is your spouse/parent/guardians state of legal residence?</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In which state do your parent(s) or legal guardian(s) currently live? </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Which parent or legal guardian lives in Arizona? </t>
-  </si>
-  <si>
-    <t>Mother</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Did or will your parent(s) or legal guardian(s) file a state income tax return for the 2022 tax year? </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In which state did, or will, your parent(s) or legal guardian(s) file state income taxes? </t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Does either parent or legal guardian have a current Arizona driver license? </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Is either parent or legal guardian employed in Arizona? </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In which state does your spouse currently live? </t>
-  </si>
-  <si>
-    <t>When did your spouse begin living in Arizona?</t>
-  </si>
-  <si>
-    <t>1969-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Does your spouse have a valid drivers license or state-issued ID? </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> What state issued this drivers license or state ID?  </t>
-  </si>
-  <si>
-    <t>When did your spouse obtain this drivers license or state ID?</t>
-  </si>
-  <si>
-    <t>1953-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Did or will your spouse file a state income tax return for the 2022 tax year? </t>
-  </si>
-  <si>
-    <t>In which state did, or will, your spouse file state income taxes?</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Is your spouse employed? </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In which state is your spouse employed? </t>
-  </si>
-  <si>
-    <t>When did your spouses employment at this location begin?</t>
-  </si>
-  <si>
-    <t>1983-11</t>
-  </si>
-  <si>
-    <t>Is your spouse currently enrolled at ASU or any other college or university?</t>
-  </si>
-  <si>
-    <t>Is your spouse dependent on someone other than you for financial support, e.g. parents, guardians, family or financial aid?</t>
-  </si>
-  <si>
-    <t>Pronouns</t>
-  </si>
-  <si>
-    <t>They/Them</t>
-  </si>
-  <si>
-    <t>Gender identity</t>
-  </si>
-  <si>
-    <t>Nonbinary</t>
-  </si>
-  <si>
-    <t>Ethnic/racial background</t>
-  </si>
-  <si>
-    <t>Graduating school</t>
-  </si>
-  <si>
-    <t>Past schools</t>
-  </si>
-  <si>
-    <t>Past colleges/universities</t>
-  </si>
-  <si>
-    <t>Test City, Test State, Z16</t>
-  </si>
-  <si>
-    <t>Test ineligible to return to the college/university listed</t>
-  </si>
-  <si>
-    <t>Test Additional ineligible to return to the college/university listed</t>
-  </si>
-  <si>
-    <t>Is this vehicle registered in the state of Arizona?</t>
-  </si>
-  <si>
-    <t>In which state was your license issued?</t>
-  </si>
-  <si>
-    <t>Did you, or will you, file state taxes for 2022?</t>
-  </si>
-  <si>
-    <t>Where did or where will you file your state taxes for 2022?</t>
-  </si>
-  <si>
-    <t>Savings/trust fund financial support</t>
-  </si>
-  <si>
-    <t>Retirement financial support</t>
-  </si>
-  <si>
-    <t>Social Security/Disability financial support</t>
-  </si>
-  <si>
-    <t>Veteran Benefits financial support</t>
-  </si>
-  <si>
-    <t>State or Federal Benefits financial support</t>
-  </si>
-  <si>
-    <t>Unemployment financial support</t>
-  </si>
-  <si>
-    <t>Are you currently employed?</t>
-  </si>
-  <si>
-    <t>Where is your primary work location?</t>
-  </si>
-  <si>
     <t>In which state do your parent(s) or legal guardian(s) currently live?</t>
   </si>
   <si>
-    <t>Which parent or legal guardian lives in Arizona?</t>
-  </si>
-  <si>
-    <t>Did or will your parent(s) or legal guardian(s) file a state income tax return for the 2022 tax year?</t>
-  </si>
-  <si>
-    <t>In which state did, or will, your parent(s) or legal guardian(s) file state income taxes?</t>
-  </si>
-  <si>
-    <t>Does either parent or legal guardian have a current Arizona driver license?</t>
-  </si>
-  <si>
-    <t>Is either parent or legal guardian employed in Arizona?</t>
-  </si>
-  <si>
-    <t>In which state does your spouse currently live?</t>
-  </si>
-  <si>
-    <t>Does your spouse have a valid drivers license or state-issued ID?</t>
-  </si>
-  <si>
-    <t>What state issued this drivers license or state ID?</t>
-  </si>
-  <si>
-    <t>Is your spouse employed?</t>
-  </si>
-  <si>
-    <t>In which state is your spouse employed?</t>
-  </si>
-  <si>
-    <t>Did or will your spouse file a state income tax return for the 2022 tax year?</t>
-  </si>
-  <si>
-    <t>You indicated that you were the spouse or dependent of a U.S. service member or veteran. Which best describes the service member or veteran?</t>
-  </si>
-  <si>
-    <t>Where is your spouse/parent/guardian currently stationed?</t>
-  </si>
-  <si>
-    <t>1370embtest@test.asu.edu</t>
-  </si>
-  <si>
-    <t>Test A
-Test B
-Test C
-Test D
-Test E
-Test F
-FN Edited LN Edited
-Test H
-Test First Name Test Last Name</t>
-  </si>
-  <si>
-    <t>Danish</t>
-  </si>
-  <si>
-    <t>Test Address line1 Test Address line2
-TestTestTestTestTestTestTestTest,El Oued,Algeria
-12345-678910</t>
-  </si>
-  <si>
-    <t>Test Address line1 Test Address line2
-Test City,Tipaza,Algeria
-12345-678910</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Mongolian</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Father</t>
-  </si>
-  <si>
-    <t>College or Beyond</t>
-  </si>
-  <si>
-    <t>High School</t>
-  </si>
-  <si>
-    <t>Other (i.e., applied but never enrolled, season ticket holder, etc.)</t>
-  </si>
-  <si>
-    <t>3081639552</t>
-  </si>
-  <si>
-    <t>United States Air Force</t>
-  </si>
-  <si>
-    <t>Applied Science (Food and Nutrition Entrepreneurship), BAS</t>
-  </si>
-  <si>
-    <t>2024 Fall - (Session A)</t>
-  </si>
-  <si>
-    <t>Second choice</t>
-  </si>
-  <si>
-    <t>Biological Sciences (Genetics, Cell and Developmental Biology), BS</t>
-  </si>
-  <si>
-    <t>Andrada Polytechnic HS</t>
-  </si>
-  <si>
-    <t>Tucson, AZ, USA</t>
-  </si>
-  <si>
-    <t>April, 2026</t>
-  </si>
-  <si>
-    <t>Test City, G, ECU</t>
-  </si>
-  <si>
-    <t>March, 1929</t>
-  </si>
-  <si>
-    <t>June, 1950</t>
-  </si>
-  <si>
-    <t>Test City, KO, MNE</t>
-  </si>
-  <si>
-    <t>June, 1958</t>
-  </si>
-  <si>
-    <t>Test City, EM, PAN</t>
-  </si>
-  <si>
-    <t>November, 2018</t>
-  </si>
-  <si>
-    <t>Test City, DO, NER</t>
-  </si>
-  <si>
-    <t>July, 1999</t>
-  </si>
-  <si>
-    <t>May, 2012</t>
-  </si>
-  <si>
-    <t>Test City, SM, ATG</t>
-  </si>
-  <si>
-    <t>March, 2009</t>
-  </si>
-  <si>
-    <t>February, 2023</t>
-  </si>
-  <si>
-    <t>Test City, Test State, Z15</t>
-  </si>
-  <si>
-    <t>December, 1983</t>
-  </si>
-  <si>
-    <t>September, 2002</t>
-  </si>
-  <si>
-    <t>Test City, GC, COM</t>
-  </si>
-  <si>
-    <t>August, 1993</t>
-  </si>
-  <si>
-    <t>Test City, Test State, Z51</t>
-  </si>
-  <si>
-    <t>August, 2005</t>
-  </si>
-  <si>
-    <t>June, 2023</t>
-  </si>
-  <si>
-    <t>Test City, H, HKG</t>
-  </si>
-  <si>
-    <t>August, 1952</t>
-  </si>
-  <si>
-    <t>February, 1998</t>
-  </si>
-  <si>
-    <t>testtesttesttesttesttesttesttest, testtesttesttesttesttesttesttest, HMD</t>
-  </si>
-  <si>
-    <t>Associate Degree</t>
-  </si>
-  <si>
-    <t>Test City, AL, WLF</t>
-  </si>
-  <si>
-    <t>Associate of Arts</t>
-  </si>
-  <si>
-    <t>October, 1944</t>
-  </si>
-  <si>
-    <t>October, 2012</t>
-  </si>
-  <si>
-    <t>111 / 100</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>1972-10</t>
-  </si>
-  <si>
-    <t>1931-04</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Other/none of the above financial support</t>
-  </si>
-  <si>
-    <t>2004-10</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
-    <t>2009-06</t>
-  </si>
-  <si>
-    <t>1985-08</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>2023-07</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>HiSet</t>
-  </si>
-  <si>
-    <t>Sacaton, AZ, USA</t>
-  </si>
-  <si>
-    <t>October, 2027</t>
-  </si>
-  <si>
-    <t>Test City, SL, BRB</t>
-  </si>
-  <si>
-    <t>March, 1931</t>
-  </si>
-  <si>
-    <t>October, 1979</t>
-  </si>
-  <si>
-    <t>Test City, Test State, Z64</t>
-  </si>
-  <si>
-    <t>May, 2008</t>
-  </si>
-  <si>
-    <t>August, 2009</t>
-  </si>
-  <si>
-    <t>Test City, Test State, ESH</t>
-  </si>
-  <si>
-    <t>May, 1963</t>
-  </si>
-  <si>
-    <t>Test City, NE, HTI</t>
-  </si>
-  <si>
-    <t>January, 2000</t>
-  </si>
-  <si>
-    <t>November, 2023</t>
-  </si>
-  <si>
-    <t>Test City, KH, QAT</t>
-  </si>
-  <si>
-    <t>May, 2007</t>
-  </si>
-  <si>
-    <t>Test City, Test State, Z39</t>
-  </si>
-  <si>
-    <t>December, 1978</t>
-  </si>
-  <si>
-    <t>May, 2023</t>
-  </si>
-  <si>
-    <t>Test City, MS, ZWE</t>
-  </si>
-  <si>
-    <t>September, 1929</t>
-  </si>
-  <si>
-    <t>September, 1947</t>
-  </si>
-  <si>
-    <t>Test City, Test State, SXM</t>
-  </si>
-  <si>
-    <t>Test City, HA, ZWE</t>
-  </si>
-  <si>
-    <t>February, 1981</t>
-  </si>
-  <si>
-    <t>October, 2000</t>
-  </si>
-  <si>
-    <t>testtesttesttesttesttesttesttest, testtesttesttesttesttesttesttest, Z51</t>
-  </si>
-  <si>
-    <t>Master of Arts</t>
-  </si>
-  <si>
-    <t>Test City, MOX, AGO</t>
-  </si>
-  <si>
-    <t>California State Univ Gen Ed (CSUGE) in Progress</t>
-  </si>
-  <si>
-    <t>July, 2020</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>1925-09</t>
-  </si>
-  <si>
-    <t>2012-03</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>Armed Forces Reserve</t>
-  </si>
-  <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>Both</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>1973-02</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>2010-11</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2019-06</t>
-  </si>
-  <si>
-    <t>Not Applicable</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>1993-12</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>1990-10</t>
-  </si>
-  <si>
-    <t>1999-03</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>1975-09</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Guam Federal</t>
-  </si>
-  <si>
-    <t>1943-03</t>
-  </si>
-  <si>
-    <t>1927-08</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2020-12</t>
-  </si>
-  <si>
-    <t>Armed Forces Americas</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>2000-10</t>
-  </si>
-  <si>
-    <t>1998-07</t>
-  </si>
-  <si>
-    <t>1944-07</t>
-  </si>
-  <si>
-    <t>1951-09</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>1929-11</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>1997-11</t>
-  </si>
-  <si>
-    <t>1995-03</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t>2004-07</t>
+    <t>Are you registered to vote?</t>
+  </si>
+  <si>
+    <t>You indicated that you are a veteran of the US military. Which character of service is noted on your DD-214?</t>
+  </si>
+  <si>
+    <t>1967-08</t>
+  </si>
+  <si>
+    <t>Are you eligible for Chapter 30 or Chapter 33 benefits?</t>
+  </si>
+  <si>
+    <t>1101embtest@test.asu.edu</t>
+  </si>
+  <si>
+    <t>5267embtest@test.asu.edu</t>
+  </si>
+  <si>
+    <t>7346embtest@test.asu.edu</t>
+  </si>
+  <si>
+    <t>83079embtest@test.asu.edu</t>
   </si>
 </sst>
 </file>
@@ -1573,7 +875,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1622,6 +924,19 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1649,7 +964,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="1022">
+  <cellXfs count="234">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1673,2383 +988,19 @@
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
@@ -4727,6 +1678,10 @@
 </file>
 
 <file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -6759,190 +3714,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="5" customWidth="true" width="14.43" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="21.71" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
+      <c r="A1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
+      <c r="A2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="16">
+        <v>111.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
+      <c r="A3" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="14">
+        <v>998.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="A4" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="B4" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>3</v>
+      <c r="C4" s="14">
+        <v>996.0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -6958,90 +3784,176 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="4" customWidth="true" width="14.43" collapsed="true"/>
+    <col min="1" max="5" customWidth="true" width="14.43" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="11" t="s">
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="11" t="s">
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="11" t="s">
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="1" t="s">
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7054,6 +3966,112 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="4" customWidth="true" width="14.43" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
@@ -7068,1372 +4086,553 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="552" t="s">
-        <v>354</v>
+        <v>197</v>
+      </c>
+      <c r="B1" s="116" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="553" t="s">
-        <v>105</v>
+        <v>199</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="554" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="118" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="555" t="s">
-        <v>108</v>
+        <v>202</v>
+      </c>
+      <c r="B4" s="119" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B5" s="556" t="s">
-        <v>318</v>
+        <v>193</v>
+      </c>
+      <c r="B5" s="120" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>319</v>
-      </c>
-      <c r="B6" s="557" t="s">
-        <v>419</v>
+        <v>195</v>
+      </c>
+      <c r="B6" s="121" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="558" t="s">
-        <v>355</v>
+        <v>204</v>
+      </c>
+      <c r="B7" s="122" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="559" t="s">
-        <v>113</v>
+        <v>206</v>
+      </c>
+      <c r="B8" s="123" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="560" t="s">
-        <v>356</v>
+        <v>208</v>
+      </c>
+      <c r="B9" s="124" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="561" t="s">
-        <v>358</v>
+        <v>210</v>
+      </c>
+      <c r="B10" s="125" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="562" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="126" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="563" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="127" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>321</v>
-      </c>
-      <c r="B13" s="564" t="s">
-        <v>360</v>
+        <v>214</v>
+      </c>
+      <c r="B13" s="128" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" s="565" t="s">
-        <v>126</v>
+        <v>216</v>
+      </c>
+      <c r="B14" s="129" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" s="566" t="s">
-        <v>128</v>
+        <v>218</v>
+      </c>
+      <c r="B15" s="130" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="567" t="s">
-        <v>361</v>
+        <v>220</v>
+      </c>
+      <c r="B16" s="131" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="568" t="s">
-        <v>132</v>
+        <v>222</v>
+      </c>
+      <c r="B17" s="132" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="569" t="s">
-        <v>137</v>
+        <v>224</v>
+      </c>
+      <c r="B18" s="133" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>138</v>
-      </c>
-      <c r="B19" s="570" t="s">
-        <v>362</v>
+        <v>226</v>
+      </c>
+      <c r="B19" s="134" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="571" t="s">
-        <v>363</v>
+        <v>228</v>
+      </c>
+      <c r="B20" s="135" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="572" t="s">
-        <v>134</v>
+        <v>230</v>
+      </c>
+      <c r="B21" s="136" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="573" t="s">
-        <v>143</v>
+        <v>231</v>
+      </c>
+      <c r="B22" s="137" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="574" t="s">
-        <v>144</v>
+        <v>226</v>
+      </c>
+      <c r="B23" s="138" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" s="575" t="s">
-        <v>364</v>
+        <v>228</v>
+      </c>
+      <c r="B24" s="139" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="576" t="s">
-        <v>134</v>
+        <v>230</v>
+      </c>
+      <c r="B25" s="140" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>146</v>
-      </c>
-      <c r="B26" s="577" t="s">
-        <v>365</v>
+        <v>235</v>
+      </c>
+      <c r="B26" s="141" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" t="s">
-        <v>148</v>
-      </c>
-      <c r="B27" s="578" t="s">
-        <v>366</v>
+        <v>237</v>
+      </c>
+      <c r="B27" s="142" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" s="579" t="s">
-        <v>151</v>
+        <v>239</v>
+      </c>
+      <c r="B28" s="143" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>152</v>
-      </c>
-      <c r="B29" s="580" t="s">
-        <v>367</v>
+        <v>241</v>
+      </c>
+      <c r="B29" s="144" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>154</v>
-      </c>
-      <c r="B30" s="581" t="s">
-        <v>134</v>
+        <v>243</v>
+      </c>
+      <c r="B30" s="145" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>155</v>
-      </c>
-      <c r="B31" s="582" t="s">
-        <v>135</v>
+        <v>244</v>
+      </c>
+      <c r="B31" s="146" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>160</v>
-      </c>
-      <c r="B32" s="583" t="s">
-        <v>368</v>
+        <v>245</v>
+      </c>
+      <c r="B32" s="147" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>162</v>
-      </c>
-      <c r="B33" s="584" t="s">
-        <v>163</v>
+        <v>246</v>
+      </c>
+      <c r="B33" s="148" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" s="585" t="s">
-        <v>369</v>
+        <v>248</v>
+      </c>
+      <c r="B34" s="149" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>370</v>
-      </c>
-      <c r="B35" s="586" t="s">
-        <v>371</v>
+        <v>250</v>
+      </c>
+      <c r="B35" s="150" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>162</v>
-      </c>
-      <c r="B36" s="587" t="s">
-        <v>163</v>
+        <v>252</v>
+      </c>
+      <c r="B36" s="151" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>164</v>
-      </c>
-      <c r="B37" s="588" t="s">
-        <v>369</v>
+        <v>254</v>
+      </c>
+      <c r="B37" s="152" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>156</v>
-      </c>
-      <c r="B38" s="589" t="s">
-        <v>135</v>
+        <v>255</v>
+      </c>
+      <c r="B38" s="153" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>157</v>
-      </c>
-      <c r="B39" s="590" t="s">
-        <v>135</v>
+        <v>256</v>
+      </c>
+      <c r="B39" s="154" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B40" s="591" t="s">
-        <v>134</v>
+        <v>257</v>
+      </c>
+      <c r="B40" s="155" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>159</v>
-      </c>
-      <c r="B41" s="592" t="s">
-        <v>134</v>
+        <v>258</v>
+      </c>
+      <c r="B41" s="156" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>322</v>
-      </c>
-      <c r="B42" s="593" t="s">
-        <v>167</v>
+        <v>259</v>
+      </c>
+      <c r="B42" s="157" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>168</v>
-      </c>
-      <c r="B43" s="594" t="s">
-        <v>372</v>
+        <v>261</v>
+      </c>
+      <c r="B43" s="158" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>170</v>
-      </c>
-      <c r="B44" s="595" t="s">
-        <v>171</v>
+        <v>250</v>
+      </c>
+      <c r="B44" s="159" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>162</v>
-      </c>
-      <c r="B45" s="596" t="s">
-        <v>373</v>
+        <v>264</v>
+      </c>
+      <c r="B45" s="160" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>173</v>
-      </c>
-      <c r="B46" s="597" t="s">
-        <v>374</v>
+        <v>266</v>
+      </c>
+      <c r="B46" s="161" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>323</v>
-      </c>
-      <c r="B47" s="598" t="s">
-        <v>167</v>
+        <v>267</v>
+      </c>
+      <c r="B47" s="162" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>168</v>
-      </c>
-      <c r="B48" s="599" t="s">
-        <v>80</v>
+        <v>111</v>
+      </c>
+      <c r="B48" s="163" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" t="s">
-        <v>170</v>
-      </c>
-      <c r="B49" s="600" t="s">
-        <v>171</v>
+        <v>268</v>
+      </c>
+      <c r="B49" s="164" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" t="s">
-        <v>162</v>
-      </c>
-      <c r="B50" s="601" t="s">
-        <v>375</v>
+        <v>269</v>
+      </c>
+      <c r="B50" s="165" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" t="s">
-        <v>177</v>
-      </c>
-      <c r="B51" s="602" t="s">
-        <v>376</v>
+        <v>270</v>
+      </c>
+      <c r="B51" s="166" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>179</v>
-      </c>
-      <c r="B52" s="603" t="s">
-        <v>377</v>
+        <v>271</v>
+      </c>
+      <c r="B52" s="167" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>168</v>
-      </c>
-      <c r="B53" s="604" t="s">
-        <v>81</v>
+        <v>186</v>
+      </c>
+      <c r="B53" s="168" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" t="s">
-        <v>170</v>
-      </c>
-      <c r="B54" s="605" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" s="606" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" t="s">
-        <v>177</v>
-      </c>
-      <c r="B56" s="607" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" t="s">
-        <v>179</v>
-      </c>
-      <c r="B57" s="608" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" t="s">
-        <v>168</v>
-      </c>
-      <c r="B58" s="609" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" t="s">
-        <v>170</v>
-      </c>
-      <c r="B59" s="610" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" t="s">
-        <v>162</v>
-      </c>
-      <c r="B60" s="611" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" t="s">
-        <v>177</v>
-      </c>
-      <c r="B61" s="612" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" t="s">
-        <v>179</v>
-      </c>
-      <c r="B62" s="613" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" t="s">
-        <v>168</v>
-      </c>
-      <c r="B63" s="614" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" t="s">
-        <v>170</v>
-      </c>
-      <c r="B64" s="615" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" t="s">
-        <v>162</v>
-      </c>
-      <c r="B65" s="616" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" t="s">
-        <v>177</v>
-      </c>
-      <c r="B66" s="617" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" t="s">
-        <v>179</v>
-      </c>
-      <c r="B67" s="618" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" t="s">
-        <v>168</v>
-      </c>
-      <c r="B68" s="619" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" t="s">
-        <v>170</v>
-      </c>
-      <c r="B69" s="620" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" t="s">
-        <v>162</v>
-      </c>
-      <c r="B70" s="621" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" t="s">
-        <v>177</v>
-      </c>
-      <c r="B71" s="622" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" t="s">
-        <v>179</v>
-      </c>
-      <c r="B72" s="623" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" t="s">
-        <v>168</v>
-      </c>
-      <c r="B73" s="624" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" t="s">
-        <v>170</v>
-      </c>
-      <c r="B74" s="625" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" t="s">
-        <v>162</v>
-      </c>
-      <c r="B75" s="626" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" t="s">
-        <v>177</v>
-      </c>
-      <c r="B76" s="627" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" t="s">
-        <v>179</v>
-      </c>
-      <c r="B77" s="628" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" t="s">
-        <v>168</v>
-      </c>
-      <c r="B78" s="629" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" t="s">
-        <v>170</v>
-      </c>
-      <c r="B79" s="630" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" t="s">
-        <v>162</v>
-      </c>
-      <c r="B80" s="631" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" t="s">
-        <v>177</v>
-      </c>
-      <c r="B81" s="632" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" t="s">
-        <v>179</v>
-      </c>
-      <c r="B82" s="633" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" t="s">
-        <v>168</v>
-      </c>
-      <c r="B83" s="634" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" t="s">
-        <v>170</v>
-      </c>
-      <c r="B84" s="635" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" t="s">
-        <v>162</v>
-      </c>
-      <c r="B85" s="636" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" t="s">
-        <v>177</v>
-      </c>
-      <c r="B86" s="637" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" t="s">
-        <v>179</v>
-      </c>
-      <c r="B87" s="638" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="88" ht="14.25" customHeight="1">
-      <c r="A88" t="s">
-        <v>168</v>
-      </c>
-      <c r="B88" s="639" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" t="s">
-        <v>170</v>
-      </c>
-      <c r="B89" s="640" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="90" ht="14.25" customHeight="1">
-      <c r="A90" t="s">
-        <v>162</v>
-      </c>
-      <c r="B90" s="641" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="91" ht="14.25" customHeight="1">
-      <c r="A91" t="s">
-        <v>177</v>
-      </c>
-      <c r="B91" s="642" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" t="s">
-        <v>179</v>
-      </c>
-      <c r="B92" s="643" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" t="s">
-        <v>324</v>
-      </c>
-      <c r="B93" s="644" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" t="s">
-        <v>207</v>
-      </c>
-      <c r="B94" s="645" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" ht="14.25" customHeight="1">
-      <c r="A95" t="s">
-        <v>170</v>
-      </c>
-      <c r="B95" s="646" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" t="s">
-        <v>162</v>
-      </c>
-      <c r="B96" s="647" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="97" ht="14.25" customHeight="1">
-      <c r="A97" t="s">
-        <v>209</v>
-      </c>
-      <c r="B97" s="648" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="98" ht="14.25" customHeight="1">
-      <c r="A98" t="s">
-        <v>211</v>
-      </c>
-      <c r="B98" s="649" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="99" ht="14.25" customHeight="1">
-      <c r="A99" t="s">
-        <v>214</v>
-      </c>
-      <c r="B99" s="650" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="100" ht="14.25" customHeight="1">
-      <c r="A100" t="s">
-        <v>216</v>
-      </c>
-      <c r="B100" s="651" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="101" ht="14.25" customHeight="1">
-      <c r="A101" t="s">
-        <v>109</v>
-      </c>
-      <c r="B101" s="652" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="102" ht="14.25" customHeight="1">
-      <c r="A102" t="s">
-        <v>218</v>
-      </c>
-      <c r="B102" s="653" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="103" ht="14.25" customHeight="1">
-      <c r="A103" t="s">
-        <v>220</v>
-      </c>
-      <c r="B103" s="654" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" ht="14.25" customHeight="1">
-      <c r="A104" t="s">
-        <v>222</v>
-      </c>
-      <c r="B104" s="655" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" ht="14.25" customHeight="1">
-      <c r="A105" t="s">
-        <v>223</v>
-      </c>
-      <c r="B105" s="656" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="106" ht="14.25" customHeight="1">
-      <c r="A106" t="s">
-        <v>225</v>
-      </c>
-      <c r="B106" s="657" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="107" ht="14.25" customHeight="1">
-      <c r="A107" t="s">
-        <v>227</v>
-      </c>
-      <c r="B107" s="658" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="108" ht="14.25" customHeight="1">
-      <c r="A108" t="s">
-        <v>220</v>
-      </c>
-      <c r="B108" s="659" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" ht="14.25" customHeight="1">
-      <c r="A109" t="s">
-        <v>222</v>
-      </c>
-      <c r="B109" s="660" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="110" ht="14.25" customHeight="1">
-      <c r="A110" t="s">
-        <v>223</v>
-      </c>
-      <c r="B110" s="661" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" ht="14.25" customHeight="1">
-      <c r="A111" t="s">
-        <v>225</v>
-      </c>
-      <c r="B111" s="662" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="112" ht="14.25" customHeight="1">
-      <c r="A112" t="s">
-        <v>230</v>
-      </c>
-      <c r="B112" s="663" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" ht="14.25" customHeight="1">
-      <c r="A113" t="s">
-        <v>231</v>
-      </c>
-      <c r="B113" s="664" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="114" ht="14.25" customHeight="1">
-      <c r="A114" t="s">
-        <v>233</v>
-      </c>
-      <c r="B114" s="665" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="115" ht="14.25" customHeight="1">
-      <c r="A115" t="s">
-        <v>235</v>
-      </c>
-      <c r="B115" s="666" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="116" ht="14.25" customHeight="1">
-      <c r="A116" t="s">
-        <v>237</v>
-      </c>
-      <c r="B116" s="667" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="117" ht="14.25" customHeight="1">
-      <c r="A117" t="s">
-        <v>239</v>
-      </c>
-      <c r="B117" s="668" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="118" ht="14.25" customHeight="1">
-      <c r="A118" t="s">
-        <v>240</v>
-      </c>
-      <c r="B118" s="669" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="119" ht="14.25" customHeight="1">
-      <c r="A119" t="s">
-        <v>241</v>
-      </c>
-      <c r="B119" s="670" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="120" ht="14.25" customHeight="1">
-      <c r="A120" t="s">
-        <v>242</v>
-      </c>
-      <c r="B120" s="671" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="121" ht="14.25" customHeight="1">
-      <c r="A121" t="s">
-        <v>243</v>
-      </c>
-      <c r="B121" s="672" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="122" ht="14.25" customHeight="1">
-      <c r="A122" t="s">
-        <v>244</v>
-      </c>
-      <c r="B122" s="673" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="123" ht="14.25" customHeight="1">
-      <c r="A123" t="s">
-        <v>246</v>
-      </c>
-      <c r="B123" s="674" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="124" ht="14.25" customHeight="1">
-      <c r="A124" t="s">
-        <v>248</v>
-      </c>
-      <c r="B124" s="675" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="125" ht="14.25" customHeight="1">
-      <c r="A125" t="s">
-        <v>249</v>
-      </c>
-      <c r="B125" s="676" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="126" ht="14.25" customHeight="1">
-      <c r="A126" t="s">
-        <v>251</v>
-      </c>
-      <c r="B126" s="677" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="127" ht="14.25" customHeight="1">
-      <c r="A127" t="s">
-        <v>259</v>
-      </c>
-      <c r="B127" s="678" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="128" ht="14.25" customHeight="1">
-      <c r="A128" t="s">
-        <v>328</v>
-      </c>
-      <c r="B128" s="679" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="129" ht="14.25" customHeight="1">
-      <c r="A129" t="s">
-        <v>261</v>
-      </c>
-      <c r="B129" s="680" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="130" ht="14.25" customHeight="1">
-      <c r="A130" t="s">
-        <v>254</v>
-      </c>
-      <c r="B130" s="681" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="131" ht="14.25" customHeight="1">
-      <c r="A131" t="s">
-        <v>329</v>
-      </c>
-      <c r="B131" s="682" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="132" ht="14.25" customHeight="1">
-      <c r="A132" t="s">
-        <v>257</v>
-      </c>
-      <c r="B132" s="683" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="133" ht="14.25" customHeight="1">
-      <c r="A133" t="s">
-        <v>330</v>
-      </c>
-      <c r="B133" s="684" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="134" ht="14.25" customHeight="1">
-      <c r="A134" t="s">
-        <v>331</v>
-      </c>
-      <c r="B134" s="685" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="135" ht="14.25" customHeight="1">
-      <c r="A135" t="s">
-        <v>266</v>
-      </c>
-      <c r="B135" s="686" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="136" ht="14.25" customHeight="1">
-      <c r="A136" t="s">
-        <v>268</v>
-      </c>
-      <c r="B136" s="687" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="137" ht="14.25" customHeight="1">
-      <c r="A137" t="s">
-        <v>270</v>
-      </c>
-      <c r="B137" s="688" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="138" ht="14.25" customHeight="1">
-      <c r="A138" t="s">
-        <v>272</v>
-      </c>
-      <c r="B138" s="689" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="139" ht="14.25" customHeight="1">
-      <c r="A139" t="s">
-        <v>274</v>
-      </c>
-      <c r="B139" s="690" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="140" ht="14.25" customHeight="1">
-      <c r="A140" t="s">
-        <v>332</v>
-      </c>
-      <c r="B140" s="691" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="141" ht="14.25" customHeight="1">
-      <c r="A141" t="s">
-        <v>333</v>
-      </c>
-      <c r="B141" s="692" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="142" ht="14.25" customHeight="1">
-      <c r="A142" t="s">
-        <v>334</v>
-      </c>
-      <c r="B142" s="693" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="143" ht="14.25" customHeight="1">
-      <c r="A143" t="s">
-        <v>335</v>
-      </c>
-      <c r="B143" s="694" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="144" ht="14.25" customHeight="1">
-      <c r="A144" t="s">
-        <v>336</v>
-      </c>
-      <c r="B144" s="695" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="145" ht="14.25" customHeight="1">
-      <c r="A145" t="s">
-        <v>337</v>
-      </c>
-      <c r="B145" s="696" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" ht="14.25" customHeight="1">
-      <c r="A146" t="s">
-        <v>282</v>
-      </c>
-      <c r="B146" s="697" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="147" ht="14.25" customHeight="1">
-      <c r="A147" t="s">
-        <v>338</v>
-      </c>
-      <c r="B147" s="698" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="148" ht="14.25" customHeight="1">
-      <c r="A148" t="s">
-        <v>339</v>
-      </c>
-      <c r="B148" s="699" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="149" ht="14.25" customHeight="1">
-      <c r="A149" t="s">
-        <v>285</v>
-      </c>
-      <c r="B149" s="700" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="150" ht="14.25" customHeight="1">
-      <c r="A150" t="s">
-        <v>340</v>
-      </c>
-      <c r="B150" s="701" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="151" ht="14.25" customHeight="1">
-      <c r="A151" t="s">
-        <v>341</v>
-      </c>
-      <c r="B151" s="702" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="152" ht="14.25" customHeight="1">
-      <c r="A152" t="s">
-        <v>342</v>
-      </c>
-      <c r="B152" s="703" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="153" ht="14.25" customHeight="1">
-      <c r="A153" t="s">
-        <v>343</v>
-      </c>
-      <c r="B153" s="704" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="154" ht="14.25" customHeight="1">
-      <c r="A154" t="s">
-        <v>344</v>
-      </c>
-      <c r="B154" s="705" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="155" ht="14.25" customHeight="1">
-      <c r="A155" t="s">
-        <v>345</v>
-      </c>
-      <c r="B155" s="706" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="156" ht="14.25" customHeight="1">
-      <c r="A156" t="s">
-        <v>346</v>
-      </c>
-      <c r="B156" s="707" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="157" ht="14.25" customHeight="1">
-      <c r="A157" t="s">
-        <v>302</v>
-      </c>
-      <c r="B157" s="708" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="158" ht="14.25" customHeight="1">
-      <c r="A158" t="s">
-        <v>347</v>
-      </c>
-      <c r="B158" s="709" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="159" ht="14.25" customHeight="1">
-      <c r="A159" t="s">
-        <v>348</v>
-      </c>
-      <c r="B159" s="710" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="160" ht="14.25" customHeight="1">
-      <c r="A160" t="s">
-        <v>306</v>
-      </c>
-      <c r="B160" s="711" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="161" ht="14.25" customHeight="1">
-      <c r="A161" t="s">
-        <v>349</v>
-      </c>
-      <c r="B161" s="712" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="162" ht="14.25" customHeight="1">
-      <c r="A162" t="s">
-        <v>350</v>
-      </c>
-      <c r="B162" s="713" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="163" ht="14.25" customHeight="1">
-      <c r="A163" t="s">
-        <v>313</v>
-      </c>
-      <c r="B163" s="714" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="164" ht="14.25" customHeight="1">
-      <c r="A164" t="s">
-        <v>315</v>
-      </c>
-      <c r="B164" s="715" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="165" ht="14.25" customHeight="1">
-      <c r="A165" t="s">
-        <v>351</v>
-      </c>
-      <c r="B165" s="716" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="166" ht="14.25" customHeight="1">
-      <c r="A166" t="s">
-        <v>309</v>
-      </c>
-      <c r="B166" s="717" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="167" ht="14.25" customHeight="1">
-      <c r="A167" t="s">
-        <v>316</v>
-      </c>
-      <c r="B167" s="718" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="168" ht="14.25" customHeight="1">
-      <c r="A168" t="s">
-        <v>352</v>
-      </c>
-      <c r="B168" s="719" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="169" ht="14.25" customHeight="1">
-      <c r="A169" t="s">
-        <v>353</v>
-      </c>
-      <c r="B169" s="720" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="170" ht="14.25" customHeight="1">
-      <c r="A170" t="s">
-        <v>291</v>
-      </c>
-      <c r="B170" s="721" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="171" ht="14.25" customHeight="1">
-      <c r="A171" t="s">
-        <v>253</v>
-      </c>
-      <c r="B171" s="722" t="s">
-        <v>135</v>
-      </c>
-    </row>
+      <c r="B54" s="169" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
     <row r="172" ht="14.25" customHeight="1"/>
     <row r="173" ht="14.25" customHeight="1"/>
     <row r="174" ht="14.25" customHeight="1"/>
@@ -9271,7 +5470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9297,10 +5496,10 @@
         <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -9314,7 +5513,7 @@
         <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>75</v>
@@ -9331,10 +5530,10 @@
         <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
@@ -9365,1380 +5564,750 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="367" t="s">
-        <v>354</v>
+        <v>197</v>
+      </c>
+      <c r="B1" s="231" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="368" t="s">
-        <v>105</v>
+        <v>199</v>
+      </c>
+      <c r="B2" s="232" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="369" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="233" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="370" t="s">
-        <v>108</v>
-      </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B5" s="1020" t="s">
-        <v>318</v>
+        <v>193</v>
+      </c>
+      <c r="B5" s="114" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>319</v>
-      </c>
-      <c r="B6" s="1021" t="s">
-        <v>320</v>
+        <v>195</v>
+      </c>
+      <c r="B6" s="115" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="371" t="s">
-        <v>355</v>
-      </c>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="372" t="s">
-        <v>113</v>
-      </c>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="373" t="s">
-        <v>356</v>
-      </c>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" ht="47.25" customHeight="1">
-      <c r="A10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="377" t="s">
-        <v>358</v>
-      </c>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="378" t="s">
-        <v>71</v>
-      </c>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="379" t="s">
-        <v>72</v>
-      </c>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" ht="33.0" customHeight="1">
-      <c r="A13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" s="381" t="s">
-        <v>360</v>
-      </c>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" s="382" t="s">
-        <v>126</v>
-      </c>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" s="383" t="s">
-        <v>128</v>
-      </c>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="384" t="s">
-        <v>361</v>
-      </c>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="385" t="s">
-        <v>132</v>
-      </c>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="386" t="s">
-        <v>137</v>
-      </c>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" t="s">
-        <v>138</v>
-      </c>
-      <c r="B19" s="387" t="s">
-        <v>362</v>
-      </c>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="388" t="s">
-        <v>363</v>
-      </c>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>135</v>
-      </c>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="389" t="s">
-        <v>143</v>
-      </c>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="390" t="s">
-        <v>144</v>
-      </c>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" s="391" t="s">
-        <v>364</v>
-      </c>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>134</v>
-      </c>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" t="s">
-        <v>146</v>
-      </c>
-      <c r="B26" s="392" t="s">
-        <v>365</v>
-      </c>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" t="s">
-        <v>148</v>
-      </c>
-      <c r="B27" s="393" t="s">
-        <v>366</v>
-      </c>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" s="394" t="s">
-        <v>151</v>
-      </c>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" t="s">
-        <v>152</v>
-      </c>
-      <c r="B29" s="395" t="s">
-        <v>367</v>
-      </c>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" t="s">
-        <v>154</v>
-      </c>
-      <c r="B30" s="396" t="s">
-        <v>134</v>
-      </c>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" t="s">
-        <v>155</v>
-      </c>
-      <c r="B31" s="397" t="s">
-        <v>135</v>
-      </c>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="B32" s="3"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" t="s">
-        <v>160</v>
-      </c>
-      <c r="B33" s="402" t="s">
-        <v>368</v>
-      </c>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" t="s">
-        <v>162</v>
-      </c>
-      <c r="B34" s="403" t="s">
-        <v>163</v>
-      </c>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" t="s">
-        <v>164</v>
-      </c>
-      <c r="B35" s="404" t="s">
-        <v>369</v>
-      </c>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" t="s">
-        <v>370</v>
-      </c>
-      <c r="B36" s="405" t="s">
-        <v>371</v>
-      </c>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" t="s">
-        <v>162</v>
-      </c>
-      <c r="B37" s="406" t="s">
-        <v>369</v>
-      </c>
+      <c r="B37" s="3"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" t="s">
-        <v>164</v>
-      </c>
-      <c r="B38" s="407" t="s">
-        <v>163</v>
-      </c>
+      <c r="B38" s="3"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" t="s">
-        <v>156</v>
-      </c>
-      <c r="B39" s="398" t="s">
-        <v>135</v>
-      </c>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" t="s">
-        <v>157</v>
-      </c>
-      <c r="B40" s="399" t="s">
-        <v>135</v>
-      </c>
+      <c r="B40" s="3"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" t="s">
-        <v>158</v>
-      </c>
-      <c r="B41" s="400" t="s">
-        <v>134</v>
-      </c>
+      <c r="B41" s="3"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" t="s">
-        <v>159</v>
-      </c>
-      <c r="B42" s="401" t="s">
-        <v>134</v>
-      </c>
+      <c r="B42" s="3"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" t="s">
-        <v>166</v>
-      </c>
-      <c r="B43" s="726" t="s">
-        <v>167</v>
-      </c>
+      <c r="B43" s="3"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" t="s">
-        <v>168</v>
-      </c>
-      <c r="B44" s="727" t="s">
-        <v>420</v>
-      </c>
+      <c r="B44" s="3"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" t="s">
-        <v>170</v>
-      </c>
-      <c r="B45" s="728" t="s">
-        <v>171</v>
-      </c>
+      <c r="B45" s="3"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" t="s">
-        <v>162</v>
-      </c>
-      <c r="B46" s="729" t="s">
-        <v>421</v>
-      </c>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" t="s">
-        <v>173</v>
-      </c>
-      <c r="B47" s="730" t="s">
-        <v>422</v>
-      </c>
+      <c r="B47" s="3"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" t="s">
-        <v>175</v>
-      </c>
-      <c r="B48" s="731" t="s">
-        <v>167</v>
-      </c>
+      <c r="B48" s="3"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B49" s="732" t="s">
-        <v>80</v>
-      </c>
+      <c r="B49" s="3"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" t="s">
-        <v>170</v>
-      </c>
-      <c r="B50" s="733" t="s">
-        <v>171</v>
-      </c>
+      <c r="B50" s="3"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" t="s">
-        <v>162</v>
-      </c>
-      <c r="B51" s="734" t="s">
-        <v>423</v>
-      </c>
+      <c r="B51" s="3"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" t="s">
-        <v>177</v>
-      </c>
-      <c r="B52" s="735" t="s">
-        <v>424</v>
-      </c>
+      <c r="B52" s="3"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" t="s">
-        <v>179</v>
-      </c>
-      <c r="B53" s="736" t="s">
-        <v>425</v>
-      </c>
+      <c r="B53" s="3"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" t="s">
-        <v>168</v>
-      </c>
-      <c r="B54" s="737" t="s">
-        <v>81</v>
-      </c>
+      <c r="B54" s="3"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" t="s">
-        <v>170</v>
-      </c>
-      <c r="B55" s="738" t="s">
-        <v>171</v>
-      </c>
+      <c r="B55" s="3"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" t="s">
-        <v>162</v>
-      </c>
-      <c r="B56" s="739" t="s">
-        <v>426</v>
-      </c>
+      <c r="B56" s="3"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" t="s">
-        <v>177</v>
-      </c>
-      <c r="B57" s="740" t="s">
-        <v>427</v>
-      </c>
+      <c r="B57" s="3"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" t="s">
-        <v>179</v>
-      </c>
-      <c r="B58" s="741" t="s">
-        <v>428</v>
-      </c>
+      <c r="B58" s="3"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" t="s">
-        <v>168</v>
-      </c>
-      <c r="B59" s="742" t="s">
-        <v>82</v>
-      </c>
+      <c r="B59" s="3"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" t="s">
-        <v>170</v>
-      </c>
-      <c r="B60" s="743" t="s">
-        <v>171</v>
-      </c>
+      <c r="B60" s="3"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" t="s">
-        <v>162</v>
-      </c>
-      <c r="B61" s="744" t="s">
-        <v>429</v>
-      </c>
+      <c r="B61" s="3"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" t="s">
-        <v>177</v>
-      </c>
-      <c r="B62" s="745" t="s">
-        <v>430</v>
-      </c>
+      <c r="B62" s="3"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" t="s">
-        <v>179</v>
-      </c>
-      <c r="B63" s="746" t="s">
-        <v>183</v>
-      </c>
+      <c r="B63" s="3"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" t="s">
-        <v>168</v>
-      </c>
-      <c r="B64" s="747" t="s">
-        <v>83</v>
-      </c>
+      <c r="B64" s="3"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" t="s">
-        <v>170</v>
-      </c>
-      <c r="B65" s="748" t="s">
-        <v>171</v>
-      </c>
+      <c r="B65" s="3"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" t="s">
-        <v>162</v>
-      </c>
-      <c r="B66" s="749" t="s">
-        <v>431</v>
-      </c>
+      <c r="B66" s="3"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" t="s">
-        <v>177</v>
-      </c>
-      <c r="B67" s="750" t="s">
-        <v>432</v>
-      </c>
+      <c r="B67" s="3"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" t="s">
-        <v>179</v>
-      </c>
-      <c r="B68" s="751" t="s">
-        <v>433</v>
-      </c>
+      <c r="B68" s="3"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" t="s">
-        <v>168</v>
-      </c>
-      <c r="B69" s="752" t="s">
-        <v>84</v>
-      </c>
+      <c r="B69" s="3"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" t="s">
-        <v>170</v>
-      </c>
-      <c r="B70" s="753" t="s">
-        <v>171</v>
-      </c>
+      <c r="B70" s="3"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" t="s">
-        <v>162</v>
-      </c>
-      <c r="B71" s="754" t="s">
-        <v>434</v>
-      </c>
+      <c r="B71" s="3"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" t="s">
-        <v>177</v>
-      </c>
-      <c r="B72" s="755" t="s">
-        <v>188</v>
-      </c>
+      <c r="B72" s="3"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" t="s">
-        <v>179</v>
-      </c>
-      <c r="B73" s="756" t="s">
-        <v>435</v>
-      </c>
+      <c r="B73" s="3"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" t="s">
-        <v>168</v>
-      </c>
-      <c r="B74" s="757" t="s">
-        <v>85</v>
-      </c>
+      <c r="B74" s="3"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" t="s">
-        <v>170</v>
-      </c>
-      <c r="B75" s="758" t="s">
-        <v>171</v>
-      </c>
+      <c r="B75" s="3"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" t="s">
-        <v>162</v>
-      </c>
-      <c r="B76" s="759" t="s">
-        <v>436</v>
-      </c>
+      <c r="B76" s="3"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" t="s">
-        <v>177</v>
-      </c>
-      <c r="B77" s="760" t="s">
-        <v>437</v>
-      </c>
+      <c r="B77" s="3"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" t="s">
-        <v>179</v>
-      </c>
-      <c r="B78" s="761" t="s">
-        <v>438</v>
-      </c>
+      <c r="B78" s="3"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" t="s">
-        <v>168</v>
-      </c>
-      <c r="B79" s="762" t="s">
-        <v>86</v>
-      </c>
+      <c r="B79" s="3"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" t="s">
-        <v>170</v>
-      </c>
-      <c r="B80" s="763" t="s">
-        <v>171</v>
-      </c>
+      <c r="B80" s="3"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" t="s">
-        <v>162</v>
-      </c>
-      <c r="B81" s="764" t="s">
-        <v>439</v>
-      </c>
+      <c r="B81" s="3"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" t="s">
-        <v>177</v>
-      </c>
-      <c r="B82" s="765" t="s">
-        <v>440</v>
-      </c>
+      <c r="B82" s="3"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" t="s">
-        <v>179</v>
-      </c>
-      <c r="B83" s="766" t="s">
-        <v>441</v>
-      </c>
+      <c r="B83" s="3"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" t="s">
-        <v>168</v>
-      </c>
-      <c r="B84" s="767" t="s">
-        <v>87</v>
-      </c>
+      <c r="B84" s="3"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" t="s">
-        <v>170</v>
-      </c>
-      <c r="B85" s="768" t="s">
-        <v>171</v>
-      </c>
+      <c r="B85" s="3"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" t="s">
-        <v>162</v>
-      </c>
-      <c r="B86" s="769" t="s">
-        <v>442</v>
-      </c>
+      <c r="B86" s="3"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" t="s">
-        <v>177</v>
-      </c>
-      <c r="B87" s="770" t="s">
-        <v>198</v>
-      </c>
+      <c r="B87" s="3"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
-      <c r="A88" t="s">
-        <v>179</v>
-      </c>
-      <c r="B88" s="771" t="s">
-        <v>438</v>
-      </c>
+      <c r="B88" s="3"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" t="s">
-        <v>168</v>
-      </c>
-      <c r="B89" s="772" t="s">
-        <v>88</v>
-      </c>
+      <c r="B89" s="3"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
-      <c r="A90" t="s">
-        <v>170</v>
-      </c>
-      <c r="B90" s="773" t="s">
-        <v>171</v>
-      </c>
+      <c r="B90" s="3"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
-      <c r="A91" t="s">
-        <v>162</v>
-      </c>
-      <c r="B91" s="774" t="s">
-        <v>443</v>
-      </c>
+      <c r="B91" s="3"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" t="s">
-        <v>177</v>
-      </c>
-      <c r="B92" s="775" t="s">
-        <v>444</v>
-      </c>
+      <c r="B92" s="3"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" t="s">
-        <v>179</v>
-      </c>
-      <c r="B93" s="776" t="s">
-        <v>445</v>
-      </c>
+      <c r="B93" s="3"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" t="s">
-        <v>205</v>
-      </c>
-      <c r="B94" s="784" t="s">
-        <v>167</v>
-      </c>
+      <c r="B94" s="3"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="A95" t="s">
-        <v>207</v>
-      </c>
-      <c r="B95" s="787" t="s">
-        <v>100</v>
-      </c>
+      <c r="B95" s="3"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" t="s">
-        <v>170</v>
-      </c>
-      <c r="B96" s="788" t="s">
-        <v>171</v>
-      </c>
+      <c r="B96" s="3"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
-      <c r="A97" t="s">
-        <v>162</v>
-      </c>
-      <c r="B97" s="785" t="s">
-        <v>448</v>
-      </c>
+      <c r="B97" s="3"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="A98" t="s">
-        <v>209</v>
-      </c>
-      <c r="B98" s="789" t="s">
-        <v>449</v>
-      </c>
+      <c r="B98" s="3"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="A99" t="s">
-        <v>211</v>
-      </c>
-      <c r="B99" s="790" t="s">
-        <v>101</v>
-      </c>
+      <c r="B99" s="3"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
-      <c r="A100" t="s">
-        <v>214</v>
-      </c>
-      <c r="B100" s="791" t="s">
-        <v>450</v>
-      </c>
+      <c r="B100" s="3"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
-      <c r="A101" t="s">
-        <v>216</v>
-      </c>
-      <c r="B101" s="792" t="s">
-        <v>387</v>
-      </c>
+      <c r="B101" s="3"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="A102" t="s">
-        <v>109</v>
-      </c>
-      <c r="B102" s="793" t="s">
-        <v>96</v>
-      </c>
+      <c r="B102" s="3"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
-      <c r="A103" t="s">
-        <v>218</v>
-      </c>
-      <c r="B103" s="794" t="s">
-        <v>219</v>
-      </c>
+      <c r="B103" s="3"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
-      <c r="A104" t="s">
-        <v>220</v>
-      </c>
-      <c r="B104" s="796" t="s">
-        <v>224</v>
-      </c>
+      <c r="B104" s="3"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
-      <c r="A105" t="s">
-        <v>222</v>
-      </c>
-      <c r="B105" s="797" t="s">
-        <v>221</v>
-      </c>
+      <c r="B105" s="3"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
-      <c r="A106" t="s">
-        <v>223</v>
-      </c>
-      <c r="B106" s="798" t="s">
-        <v>3</v>
-      </c>
+      <c r="B106" s="3"/>
     </row>
     <row r="107" ht="14.25" customHeight="1">
-      <c r="A107" t="s">
-        <v>225</v>
-      </c>
-      <c r="B107" s="799" t="s">
-        <v>226</v>
-      </c>
+      <c r="B107" s="3"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
-      <c r="A108" t="s">
-        <v>227</v>
-      </c>
-      <c r="B108" s="800" t="s">
-        <v>228</v>
-      </c>
+      <c r="B108" s="3"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
-      <c r="A109" t="s">
-        <v>220</v>
-      </c>
-      <c r="B109" s="801" t="s">
-        <v>221</v>
-      </c>
+      <c r="B109" s="3"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
-      <c r="A110" t="s">
-        <v>222</v>
-      </c>
-      <c r="B110" s="802" t="s">
-        <v>3</v>
-      </c>
+      <c r="B110" s="3"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
-      <c r="A111" t="s">
-        <v>223</v>
-      </c>
-      <c r="B111" s="803" t="s">
-        <v>221</v>
-      </c>
+      <c r="B111" s="3"/>
     </row>
     <row r="112" ht="14.25" customHeight="1">
-      <c r="A112" t="s">
-        <v>225</v>
-      </c>
-      <c r="B112" s="804" t="s">
-        <v>229</v>
-      </c>
+      <c r="B112" s="3"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
-      <c r="A113" t="s">
-        <v>230</v>
-      </c>
-      <c r="B113" s="805" t="s">
-        <v>3</v>
-      </c>
+      <c r="B113" s="3"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="A114" t="s">
-        <v>231</v>
-      </c>
-      <c r="B114" s="806" t="s">
-        <v>405</v>
-      </c>
+      <c r="B114" s="3"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
-      <c r="A115" t="s">
-        <v>233</v>
-      </c>
-      <c r="B115" s="807" t="s">
-        <v>234</v>
-      </c>
+      <c r="B115" s="3"/>
     </row>
     <row r="116" ht="14.25" customHeight="1">
-      <c r="A116" t="s">
-        <v>235</v>
-      </c>
-      <c r="B116" s="808" t="s">
-        <v>236</v>
-      </c>
+      <c r="B116" s="3"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
-      <c r="A117" t="s">
-        <v>237</v>
-      </c>
-      <c r="B117" s="809" t="s">
-        <v>238</v>
-      </c>
+      <c r="B117" s="3"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="A118" t="s">
-        <v>239</v>
-      </c>
-      <c r="B118" s="810" t="s">
-        <v>238</v>
-      </c>
+      <c r="B118" s="3"/>
     </row>
     <row r="119" ht="14.25" customHeight="1">
-      <c r="A119" t="s">
-        <v>240</v>
-      </c>
-      <c r="B119" s="811" t="s">
-        <v>238</v>
-      </c>
+      <c r="B119" s="3"/>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="A120" t="s">
-        <v>241</v>
-      </c>
-      <c r="B120" s="812" t="s">
-        <v>238</v>
-      </c>
+      <c r="B120" s="3"/>
     </row>
     <row r="121" ht="14.25" customHeight="1">
-      <c r="A121" t="s">
-        <v>242</v>
-      </c>
-      <c r="B121" s="813" t="s">
-        <v>238</v>
-      </c>
+      <c r="B121" s="3"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
-      <c r="A122" t="s">
-        <v>243</v>
-      </c>
-      <c r="B122" s="814" t="s">
-        <v>245</v>
-      </c>
+      <c r="B122" s="3"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
-      <c r="A123" t="s">
-        <v>244</v>
-      </c>
-      <c r="B123" s="815" t="s">
-        <v>238</v>
-      </c>
+      <c r="B123" s="3"/>
     </row>
     <row r="124" ht="14.25" customHeight="1">
       <c r="A124" t="s">
-        <v>246</v>
-      </c>
-      <c r="B124" s="971" t="s">
-        <v>247</v>
+        <v>111</v>
+      </c>
+      <c r="B124" s="108" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="125" ht="14.25" customHeight="1">
       <c r="A125" t="s">
-        <v>248</v>
-      </c>
-      <c r="B125" s="972" t="s">
-        <v>134</v>
+        <v>117</v>
+      </c>
+      <c r="B125" s="55" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="126" ht="14.25" customHeight="1">
-      <c r="A126" t="s">
-        <v>249</v>
-      </c>
-      <c r="B126" s="973" t="s">
-        <v>250</v>
-      </c>
+      <c r="B126" s="3"/>
     </row>
     <row r="127" ht="14.25" customHeight="1">
-      <c r="A127" t="s">
-        <v>251</v>
-      </c>
-      <c r="B127" s="974" t="s">
-        <v>457</v>
-      </c>
+      <c r="B127" s="3"/>
     </row>
     <row r="128" ht="14.25" customHeight="1">
       <c r="A128" t="s">
-        <v>253</v>
-      </c>
-      <c r="B128" s="975" t="s">
-        <v>134</v>
+        <v>165</v>
+      </c>
+      <c r="B128" s="72" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="129" ht="14.25" customHeight="1">
-      <c r="A129" t="s">
-        <v>254</v>
-      </c>
-      <c r="B129" s="976" t="s">
-        <v>134</v>
-      </c>
+      <c r="B129" s="3"/>
     </row>
     <row r="130" ht="14.25" customHeight="1">
-      <c r="A130" t="s">
-        <v>255</v>
-      </c>
-      <c r="B130" s="977" t="s">
-        <v>256</v>
-      </c>
+      <c r="B130" s="3"/>
     </row>
     <row r="131" ht="14.25" customHeight="1">
       <c r="A131" t="s">
-        <v>257</v>
-      </c>
-      <c r="B131" s="978" t="s">
-        <v>492</v>
+        <v>115</v>
+      </c>
+      <c r="B131" s="54" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1">
       <c r="A132" t="s">
-        <v>259</v>
-      </c>
-      <c r="B132" s="979" t="s">
-        <v>134</v>
+        <v>121</v>
+      </c>
+      <c r="B132" s="58" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1">
-      <c r="A133" t="s">
-        <v>260</v>
-      </c>
-      <c r="B133" s="980" t="s">
-        <v>134</v>
-      </c>
+      <c r="B133" s="3"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
-      <c r="A134" t="s">
-        <v>261</v>
-      </c>
-      <c r="B134" s="981" t="s">
-        <v>493</v>
-      </c>
+      <c r="B134" s="3"/>
     </row>
     <row r="135" ht="14.25" customHeight="1">
       <c r="A135" t="s">
-        <v>263</v>
-      </c>
-      <c r="B135" s="982" t="s">
-        <v>134</v>
+        <v>122</v>
+      </c>
+      <c r="B135" s="59" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="136" ht="14.25" customHeight="1">
-      <c r="A136" t="s">
-        <v>264</v>
-      </c>
-      <c r="B136" s="983" t="s">
-        <v>463</v>
-      </c>
+      <c r="B136" s="3"/>
     </row>
     <row r="137" ht="14.25" customHeight="1">
       <c r="A137" t="s">
-        <v>266</v>
-      </c>
-      <c r="B137" s="984" t="s">
-        <v>494</v>
+        <v>123</v>
+      </c>
+      <c r="B137" s="60" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="138" ht="14.25" customHeight="1">
       <c r="A138" t="s">
-        <v>268</v>
-      </c>
-      <c r="B138" s="985" t="s">
-        <v>495</v>
+        <v>125</v>
+      </c>
+      <c r="B138" s="61" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="139" ht="14.25" customHeight="1">
       <c r="A139" t="s">
-        <v>270</v>
-      </c>
-      <c r="B139" s="986" t="s">
-        <v>496</v>
+        <v>126</v>
+      </c>
+      <c r="B139" s="62" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="140" ht="14.25" customHeight="1">
       <c r="A140" t="s">
-        <v>272</v>
-      </c>
-      <c r="B140" s="987" t="s">
-        <v>497</v>
+        <v>127</v>
+      </c>
+      <c r="B140" s="63" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="141" ht="14.25" customHeight="1">
-      <c r="A141" t="s">
-        <v>274</v>
-      </c>
-      <c r="B141" s="988" t="s">
-        <v>498</v>
-      </c>
+      <c r="B141" s="3"/>
     </row>
     <row r="142" ht="14.25" customHeight="1">
       <c r="A142" t="s">
-        <v>332</v>
-      </c>
-      <c r="B142" s="989" t="s">
-        <v>221</v>
+        <v>129</v>
+      </c>
+      <c r="B142" s="64" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="143" ht="14.25" customHeight="1">
       <c r="A143" t="s">
-        <v>333</v>
-      </c>
-      <c r="B143" s="990" t="s">
-        <v>221</v>
+        <v>131</v>
+      </c>
+      <c r="B143" s="65" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="144" ht="14.25" customHeight="1">
       <c r="A144" t="s">
-        <v>334</v>
-      </c>
-      <c r="B144" s="991" t="s">
-        <v>221</v>
+        <v>132</v>
+      </c>
+      <c r="B144" s="66" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="145" ht="14.25" customHeight="1">
       <c r="A145" t="s">
-        <v>335</v>
-      </c>
-      <c r="B145" s="992" t="s">
-        <v>221</v>
+        <v>133</v>
+      </c>
+      <c r="B145" s="67" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="146" ht="14.25" customHeight="1">
       <c r="A146" t="s">
-        <v>336</v>
-      </c>
-      <c r="B146" s="993" t="s">
-        <v>3</v>
+        <v>134</v>
+      </c>
+      <c r="B146" s="68" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="147" ht="14.25" customHeight="1">
       <c r="A147" t="s">
-        <v>337</v>
-      </c>
-      <c r="B147" s="994" t="s">
-        <v>221</v>
+        <v>135</v>
+      </c>
+      <c r="B147" s="69" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="148" ht="14.25" customHeight="1">
       <c r="A148" t="s">
-        <v>283</v>
-      </c>
-      <c r="B148" s="996" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="B148" s="70" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="149" ht="14.25" customHeight="1">
-      <c r="A149" t="s">
-        <v>284</v>
-      </c>
-      <c r="B149" s="997" t="s">
-        <v>256</v>
-      </c>
+      <c r="B149" s="3"/>
     </row>
     <row r="150" ht="14.25" customHeight="1">
-      <c r="A150" t="s">
-        <v>285</v>
-      </c>
-      <c r="B150" s="998" t="s">
-        <v>499</v>
-      </c>
+      <c r="B150" s="3"/>
     </row>
     <row r="151" ht="14.25" customHeight="1">
       <c r="A151" t="s">
-        <v>287</v>
-      </c>
-      <c r="B151" s="999" t="s">
-        <v>455</v>
+        <v>173</v>
+      </c>
+      <c r="B151" s="109" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="152" ht="14.25" customHeight="1">
-      <c r="B152" s="3"/>
+      <c r="A152" t="s">
+        <v>184</v>
+      </c>
+      <c r="B152" s="112" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="153" ht="14.25" customHeight="1">
       <c r="B153" s="3"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
-      <c r="B154" s="3"/>
+      <c r="A154" t="s">
+        <v>186</v>
+      </c>
+      <c r="B154" s="111" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="155" ht="14.25" customHeight="1">
-      <c r="B155" s="3"/>
+      <c r="A155" t="s">
+        <v>175</v>
+      </c>
+      <c r="B155" s="110" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="A156" t="s">
-        <v>289</v>
-      </c>
-      <c r="B156" s="1000" t="s">
-        <v>500</v>
-      </c>
+      <c r="B156" s="3"/>
     </row>
     <row r="157" ht="14.25" customHeight="1">
-      <c r="A157" t="s">
-        <v>291</v>
-      </c>
-      <c r="B157" s="1001" t="s">
-        <v>479</v>
-      </c>
+      <c r="B157" s="3"/>
     </row>
     <row r="158" ht="14.25" customHeight="1">
       <c r="B158" s="3"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
       <c r="A159" t="s">
-        <v>293</v>
-      </c>
-      <c r="B159" s="1002" t="s">
-        <v>256</v>
+        <v>141</v>
+      </c>
+      <c r="B159" s="91" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="160" ht="14.25" customHeight="1">
       <c r="A160" t="s">
-        <v>294</v>
-      </c>
-      <c r="B160" s="1003" t="s">
-        <v>458</v>
+        <v>176</v>
+      </c>
+      <c r="B160" s="92" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="161" ht="14.25" customHeight="1">
       <c r="A161" t="s">
-        <v>296</v>
-      </c>
-      <c r="B161" s="1004" t="s">
-        <v>134</v>
+        <v>178</v>
+      </c>
+      <c r="B161" s="93" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="162" ht="14.25" customHeight="1">
       <c r="A162" t="s">
-        <v>297</v>
-      </c>
-      <c r="B162" s="1005" t="s">
-        <v>501</v>
+        <v>141</v>
+      </c>
+      <c r="B162" s="113" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="163" ht="14.25" customHeight="1">
       <c r="A163" t="s">
-        <v>299</v>
-      </c>
-      <c r="B163" s="1006" t="s">
-        <v>167</v>
+        <v>181</v>
+      </c>
+      <c r="B163" s="95" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="164" ht="14.25" customHeight="1">
       <c r="A164" t="s">
-        <v>300</v>
-      </c>
-      <c r="B164" s="1007" t="s">
-        <v>134</v>
+        <v>183</v>
+      </c>
+      <c r="B164" s="96" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="165" ht="14.25" customHeight="1">
       <c r="A165" t="s">
-        <v>301</v>
-      </c>
-      <c r="B165" s="1008" t="s">
-        <v>256</v>
+        <v>143</v>
+      </c>
+      <c r="B165" s="76" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="166" ht="14.25" customHeight="1">
       <c r="A166" t="s">
-        <v>302</v>
-      </c>
-      <c r="B166" s="1009" t="s">
-        <v>502</v>
+        <v>144</v>
+      </c>
+      <c r="B166" s="77" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="167" ht="14.25" customHeight="1">
       <c r="A167" t="s">
-        <v>304</v>
-      </c>
-      <c r="B167" s="1010" t="s">
-        <v>134</v>
+        <v>146</v>
+      </c>
+      <c r="B167" s="78" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="168" ht="14.25" customHeight="1">
       <c r="A168" t="s">
-        <v>305</v>
-      </c>
-      <c r="B168" s="1011" t="s">
-        <v>256</v>
+        <v>147</v>
+      </c>
+      <c r="B168" s="79" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="169" ht="14.25" customHeight="1">
       <c r="A169" t="s">
-        <v>306</v>
-      </c>
-      <c r="B169" s="1012" t="s">
-        <v>503</v>
+        <v>148</v>
+      </c>
+      <c r="B169" s="80" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="170" ht="14.25" customHeight="1">
       <c r="A170" t="s">
-        <v>308</v>
-      </c>
-      <c r="B170" s="1013" t="s">
-        <v>134</v>
+        <v>150</v>
+      </c>
+      <c r="B170" s="81" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="171" ht="14.25" customHeight="1">
       <c r="A171" t="s">
-        <v>309</v>
-      </c>
-      <c r="B171" s="1014" t="s">
-        <v>504</v>
+        <v>151</v>
+      </c>
+      <c r="B171" s="82" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="172" ht="14.25" customHeight="1">
       <c r="A172" t="s">
-        <v>311</v>
-      </c>
-      <c r="B172" s="1015" t="s">
-        <v>134</v>
+        <v>153</v>
+      </c>
+      <c r="B172" s="83" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="173" ht="14.25" customHeight="1">
       <c r="A173" t="s">
-        <v>312</v>
-      </c>
-      <c r="B173" s="1016" t="s">
-        <v>256</v>
+        <v>154</v>
+      </c>
+      <c r="B173" s="84" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="174" ht="14.25" customHeight="1">
       <c r="A174" t="s">
-        <v>313</v>
-      </c>
-      <c r="B174" s="1017" t="s">
-        <v>505</v>
+        <v>155</v>
+      </c>
+      <c r="B174" s="85" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="175" ht="14.25" customHeight="1">
       <c r="A175" t="s">
-        <v>315</v>
-      </c>
-      <c r="B175" s="1018" t="s">
-        <v>134</v>
+        <v>157</v>
+      </c>
+      <c r="B175" s="86" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="176" ht="14.25" customHeight="1">
       <c r="A176" t="s">
-        <v>316</v>
-      </c>
-      <c r="B176" s="1019" t="s">
-        <v>135</v>
+        <v>158</v>
+      </c>
+      <c r="B176" s="87" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="177" ht="14.25" customHeight="1">
@@ -11609,166 +7178,436 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="B1" s="3"/>
+      <c r="A1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="170" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="B2" s="3"/>
+      <c r="A2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="171" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="3"/>
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="172" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="3"/>
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="173" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="3"/>
+      <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="174" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="3"/>
+      <c r="A6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="175" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="3"/>
+      <c r="A7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="176" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="3"/>
+      <c r="A8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="177" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="3"/>
+      <c r="A9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="178" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="3"/>
+      <c r="A10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="179" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="3"/>
+      <c r="A11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="180" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="3"/>
+      <c r="A12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="181" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="3"/>
+      <c r="A13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="182" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="3"/>
+      <c r="A14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="183" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="3"/>
+      <c r="A15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" s="184" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="B16" s="3"/>
+      <c r="A16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="185" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="B17" s="3"/>
+      <c r="A17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="186" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="3"/>
+      <c r="A18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="187" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="3"/>
+      <c r="A19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B19" s="188" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="3"/>
+      <c r="A20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" s="189" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="3"/>
+      <c r="A21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" s="190" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="B22" s="3"/>
+      <c r="A22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="191" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="B23" s="3"/>
+      <c r="A23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B23" s="192" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="B24" s="3"/>
+      <c r="A24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" s="193" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="B25" s="3"/>
+      <c r="A25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" s="194" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="B26" s="3"/>
+      <c r="A26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" s="195" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="B27" s="3"/>
+      <c r="A27" t="s">
+        <v>237</v>
+      </c>
+      <c r="B27" s="196" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="B28" s="3"/>
+      <c r="A28" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" s="197" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="B29" s="3"/>
+      <c r="A29" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="198" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="B30" s="3"/>
+      <c r="A30" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" s="199" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="B31" s="3"/>
+      <c r="A31" t="s">
+        <v>244</v>
+      </c>
+      <c r="B31" s="200" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="B32" s="3"/>
+      <c r="A32" t="s">
+        <v>245</v>
+      </c>
+      <c r="B32" s="201" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="B33" s="3"/>
+      <c r="A33" t="s">
+        <v>246</v>
+      </c>
+      <c r="B33" s="202" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="B34" s="3"/>
+      <c r="A34" t="s">
+        <v>248</v>
+      </c>
+      <c r="B34" s="203" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="B35" s="3"/>
+      <c r="A35" t="s">
+        <v>250</v>
+      </c>
+      <c r="B35" s="204" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="B36" s="3"/>
+      <c r="A36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B36" s="205" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="B37" s="3"/>
+      <c r="A37" t="s">
+        <v>254</v>
+      </c>
+      <c r="B37" s="206" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="B38" s="3"/>
+      <c r="A38" t="s">
+        <v>255</v>
+      </c>
+      <c r="B38" s="207" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="B39" s="3"/>
+      <c r="A39" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" s="208" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="B40" s="3"/>
+      <c r="A40" t="s">
+        <v>257</v>
+      </c>
+      <c r="B40" s="209" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="B41" s="3"/>
+      <c r="A41" t="s">
+        <v>258</v>
+      </c>
+      <c r="B41" s="210" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="B42" s="3"/>
+      <c r="A42" t="s">
+        <v>259</v>
+      </c>
+      <c r="B42" s="211" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="B43" s="3"/>
+      <c r="A43" t="s">
+        <v>261</v>
+      </c>
+      <c r="B43" s="212" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="B44" s="3"/>
+      <c r="A44" t="s">
+        <v>250</v>
+      </c>
+      <c r="B44" s="213" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="B45" s="3"/>
+      <c r="A45" t="s">
+        <v>264</v>
+      </c>
+      <c r="B45" s="214" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="B46" s="3"/>
+      <c r="A46" t="s">
+        <v>266</v>
+      </c>
+      <c r="B46" s="215" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="B47" s="3"/>
+      <c r="A47" t="s">
+        <v>267</v>
+      </c>
+      <c r="B47" s="216" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="B48" s="3"/>
+      <c r="A48" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="217" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="B49" s="3"/>
+      <c r="A49" t="s">
+        <v>268</v>
+      </c>
+      <c r="B49" s="218" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="B50" s="3"/>
+      <c r="A50" t="s">
+        <v>269</v>
+      </c>
+      <c r="B50" s="219" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="B51" s="3"/>
+      <c r="A51" t="s">
+        <v>270</v>
+      </c>
+      <c r="B51" s="220" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="B52" s="3"/>
+      <c r="A52" t="s">
+        <v>271</v>
+      </c>
+      <c r="B52" s="221" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="B53" s="3"/>
+      <c r="A53" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" s="222" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="B54" s="3"/>
+      <c r="A54" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" s="223" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="B55" s="3"/>
@@ -12957,7 +8796,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId966" ref="A3"/>
+    <hyperlink r:id="rId217" ref="A3"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/src/test/resources/com/ugapp/excel/testdata.xlsx
+++ b/src/test/resources/com/ugapp/excel/testdata.xlsx
@@ -13,17 +13,19 @@
     <sheet state="visible" name="FormerNameTest" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="ParentNameTest" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="HomeAddressTest" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="GraduatingSchoolTest" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="AddMaxHighSchoolTest" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="overAllAcademicsTest" sheetId="13" r:id="rId16"/>
-    <sheet state="visible" name="CollegeUniversitiesTest" sheetId="14" r:id="rId17"/>
+    <sheet state="visible" name="International HomeAddressTest" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="GraduatingSchoolTest" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="AddMaxHighSchoolTest" sheetId="13" r:id="rId16"/>
+    <sheet state="visible" name="overAllAcademicsTest" sheetId="14" r:id="rId17"/>
+    <sheet state="visible" name="CollegeUniversitiesTest" sheetId="15" r:id="rId18"/>
   </sheets>
+  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="102">
   <si>
     <t>TCID</t>
   </si>
@@ -329,38 +331,13 @@
   </si>
   <si>
     <t>Test Degree</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>26123embtest@test.asu.edu</t>
-  </si>
-  <si>
-    <t>73794embtest@test.asu.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Past colleges/universities </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Transfer credits to ASU</t>
-  </si>
-  <si>
-    <t>26655embtest@test.asu.edu</t>
-  </si>
-  <si>
-    <t>54905embtest@test.asu.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -375,6 +352,10 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF222222"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -436,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -451,6 +432,7 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -458,54 +440,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -535,6 +469,10 @@
 </file>
 
 <file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -774,8 +712,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.57" collapsed="true"/>
-    <col min="2" max="6" customWidth="true" width="8.71" collapsed="true"/>
+    <col customWidth="1" min="1" max="1" width="24.57"/>
+    <col customWidth="1" min="2" max="6" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2497,12 +2435,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="38.29" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.29" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.57" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.14" collapsed="true"/>
+    <col customWidth="1" min="1" max="2" width="38.29"/>
+    <col customWidth="1" min="3" max="3" width="34.0"/>
+    <col customWidth="1" min="4" max="4" width="22.29"/>
+    <col customWidth="1" min="5" max="5" width="30.0"/>
+    <col customWidth="1" min="6" max="6" width="18.57"/>
+    <col customWidth="1" min="7" max="7" width="30.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2541,7 +2479,7 @@
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2567,16 +2505,16 @@
       <c r="C3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>72</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -2602,61 +2540,70 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.14" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.57" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="41.43" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="34.43" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.43" collapsed="true"/>
+    <col customWidth="1" min="1" max="2" width="38.29"/>
+    <col customWidth="1" min="3" max="3" width="34.0"/>
+    <col customWidth="1" min="4" max="4" width="22.29"/>
+    <col customWidth="1" min="5" max="5" width="30.0"/>
+    <col customWidth="1" min="6" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2679,7 +2626,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="5" customWidth="true" width="14.43" collapsed="true"/>
+    <col customWidth="1" min="1" max="1" width="27.14"/>
+    <col customWidth="1" min="2" max="2" width="29.57"/>
+    <col customWidth="1" min="3" max="3" width="41.43"/>
+    <col customWidth="1" min="4" max="4" width="34.43"/>
+    <col customWidth="1" min="5" max="5" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2701,154 +2652,35 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>79</v>
+      <c r="C3" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2871,90 +2703,176 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="4" customWidth="true" width="14.43" collapsed="true"/>
+    <col customWidth="1" min="1" max="5" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>39</v>
+      <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>93</v>
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>95</v>
+      <c r="A4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>96</v>
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>95</v>
+      <c r="A6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2977,11 +2895,117 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.43" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="51.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.43" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.43" collapsed="true"/>
+    <col customWidth="1" min="1" max="4" width="14.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="31.0"/>
+    <col customWidth="1" min="2" max="2" width="27.43"/>
+    <col customWidth="1" min="3" max="3" width="51.0"/>
+    <col customWidth="1" min="4" max="4" width="22.43"/>
+    <col customWidth="1" min="5" max="5" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3053,528 +3077,1164 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="122.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="54.0" collapsed="true"/>
-    <col min="3" max="6" customWidth="true" width="8.71" collapsed="true"/>
+    <col customWidth="1" min="1" max="1" width="36.86"/>
+    <col customWidth="1" min="2" max="2" width="41.14"/>
+    <col customWidth="1" min="3" max="3" width="20.43"/>
+    <col customWidth="1" min="4" max="4" width="20.14"/>
+    <col customWidth="1" min="5" max="5" width="31.43"/>
+    <col customWidth="1" min="6" max="6" width="24.43"/>
+    <col customWidth="1" min="7" max="7" width="26.71"/>
+    <col customWidth="1" min="12" max="12" width="40.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>108</v>
-      </c>
+      <c r="B1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" s="4"/>
       <c r="B2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="4"/>
       <c r="B3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="4"/>
       <c r="B4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="4"/>
       <c r="B5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="4"/>
       <c r="B6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="4"/>
       <c r="B7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="4"/>
       <c r="B8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="4"/>
       <c r="B9" s="3"/>
-    </row>
-    <row r="10" ht="47.25" customHeight="1">
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" ht="137.25" customHeight="1">
+      <c r="A10" s="4"/>
       <c r="B10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="4"/>
       <c r="B11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3"/>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="4"/>
       <c r="B12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="L12" s="3"/>
     </row>
     <row r="13" ht="33.0" customHeight="1">
+      <c r="A13" s="4"/>
       <c r="B13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="4"/>
       <c r="B14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="4"/>
       <c r="B15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" s="3"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="4"/>
       <c r="B16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="4"/>
       <c r="B17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="B18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="4"/>
       <c r="B19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="4"/>
       <c r="B20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="4"/>
       <c r="B21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="B22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="4"/>
       <c r="B23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="4"/>
       <c r="B24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="4"/>
       <c r="B25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="B26" s="3"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="4"/>
       <c r="B27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="4"/>
       <c r="B28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" s="3"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
+      <c r="A29" s="4"/>
       <c r="B29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="3"/>
+      <c r="L29" s="3"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
+      <c r="A30" s="4"/>
       <c r="B30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="L30" s="3"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
+      <c r="A31" s="4"/>
       <c r="B31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="L31" s="3"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="B32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="L32" s="3"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
+      <c r="A33" s="4"/>
       <c r="B33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="L33" s="3"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
+      <c r="A34" s="4"/>
       <c r="B34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="3"/>
+      <c r="L34" s="3"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="4"/>
       <c r="B35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="3"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="4"/>
       <c r="B36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="3"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
+      <c r="A37" s="4"/>
       <c r="B37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="3"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" s="4"/>
       <c r="B38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="3"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="4"/>
       <c r="B39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="3"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
+      <c r="A40" s="4"/>
       <c r="B40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="3"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
+      <c r="A41" s="4"/>
       <c r="B41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="3"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
+      <c r="A42" s="4"/>
       <c r="B42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="3"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
+      <c r="A43" s="4"/>
       <c r="B43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="3"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
+      <c r="A44" s="4"/>
       <c r="B44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="3"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" s="4"/>
       <c r="B45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="3"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
+      <c r="A46" s="4"/>
       <c r="B46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="3"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
+      <c r="A47" s="4"/>
       <c r="B47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="3"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
+      <c r="A48" s="4"/>
       <c r="B48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="3"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
+      <c r="A49" s="4"/>
       <c r="B49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="3"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
+      <c r="A50" s="4"/>
       <c r="B50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="H50" s="3"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
+      <c r="A51" s="4"/>
       <c r="B51" s="3"/>
+      <c r="H51" s="3"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
+      <c r="A52" s="4"/>
       <c r="B52" s="3"/>
+      <c r="H52" s="3"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
+      <c r="A53" s="4"/>
       <c r="B53" s="3"/>
+      <c r="H53" s="3"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
+      <c r="A54" s="4"/>
       <c r="B54" s="3"/>
+      <c r="H54" s="3"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
+      <c r="A55" s="4"/>
       <c r="B55" s="3"/>
+      <c r="H55" s="3"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
+      <c r="A56" s="4"/>
       <c r="B56" s="3"/>
+      <c r="H56" s="3"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
+      <c r="A57" s="4"/>
       <c r="B57" s="3"/>
+      <c r="H57" s="3"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
+      <c r="A58" s="4"/>
       <c r="B58" s="3"/>
+      <c r="H58" s="3"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
+      <c r="A59" s="4"/>
       <c r="B59" s="3"/>
+      <c r="H59" s="3"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
+      <c r="A60" s="4"/>
       <c r="B60" s="3"/>
+      <c r="H60" s="3"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
+      <c r="A61" s="4"/>
       <c r="B61" s="3"/>
+      <c r="H61" s="3"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
+      <c r="A62" s="4"/>
       <c r="B62" s="3"/>
+      <c r="H62" s="3"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
+      <c r="A63" s="4"/>
       <c r="B63" s="3"/>
+      <c r="H63" s="3"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
+      <c r="A64" s="4"/>
       <c r="B64" s="3"/>
+      <c r="H64" s="3"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
+      <c r="A65" s="4"/>
       <c r="B65" s="3"/>
+      <c r="H65" s="3"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
+      <c r="A66" s="4"/>
       <c r="B66" s="3"/>
+      <c r="H66" s="3"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
+      <c r="A67" s="4"/>
       <c r="B67" s="3"/>
+      <c r="H67" s="3"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
+      <c r="A68" s="4"/>
       <c r="B68" s="3"/>
+      <c r="H68" s="3"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
+      <c r="A69" s="4"/>
       <c r="B69" s="3"/>
+      <c r="H69" s="3"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
+      <c r="A70" s="4"/>
       <c r="B70" s="3"/>
+      <c r="H70" s="3"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
+      <c r="A71" s="4"/>
       <c r="B71" s="3"/>
+      <c r="H71" s="3"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
+      <c r="A72" s="4"/>
       <c r="B72" s="3"/>
+      <c r="H72" s="3"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
+      <c r="A73" s="4"/>
       <c r="B73" s="3"/>
+      <c r="H73" s="3"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
+      <c r="A74" s="4"/>
       <c r="B74" s="3"/>
+      <c r="H74" s="3"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
+      <c r="A75" s="4"/>
       <c r="B75" s="3"/>
+      <c r="H75" s="3"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
+      <c r="A76" s="4"/>
       <c r="B76" s="3"/>
+      <c r="H76" s="3"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
+      <c r="A77" s="4"/>
       <c r="B77" s="3"/>
+      <c r="H77" s="3"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
+      <c r="A78" s="4"/>
       <c r="B78" s="3"/>
+      <c r="H78" s="3"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
+      <c r="A79" s="4"/>
       <c r="B79" s="3"/>
+      <c r="H79" s="3"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
+      <c r="A80" s="4"/>
       <c r="B80" s="3"/>
+      <c r="H80" s="3"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
+      <c r="A81" s="4"/>
       <c r="B81" s="3"/>
+      <c r="H81" s="3"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
+      <c r="A82" s="4"/>
       <c r="B82" s="3"/>
+      <c r="H82" s="3"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
+      <c r="A83" s="4"/>
       <c r="B83" s="3"/>
+      <c r="H83" s="3"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
+      <c r="A84" s="4"/>
       <c r="B84" s="3"/>
+      <c r="H84" s="3"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
+      <c r="A85" s="4"/>
       <c r="B85" s="3"/>
+      <c r="H85" s="3"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
+      <c r="A86" s="4"/>
       <c r="B86" s="3"/>
+      <c r="H86" s="3"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
+      <c r="A87" s="4"/>
       <c r="B87" s="3"/>
+      <c r="H87" s="3"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
+      <c r="A88" s="4"/>
       <c r="B88" s="3"/>
+      <c r="H88" s="3"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
+      <c r="A89" s="4"/>
       <c r="B89" s="3"/>
+      <c r="H89" s="3"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
+      <c r="A90" s="4"/>
       <c r="B90" s="3"/>
+      <c r="H90" s="3"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
+      <c r="A91" s="4"/>
       <c r="B91" s="3"/>
+      <c r="H91" s="3"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
+      <c r="A92" s="4"/>
       <c r="B92" s="3"/>
+      <c r="H92" s="3"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
+      <c r="A93" s="4"/>
       <c r="B93" s="3"/>
+      <c r="H93" s="3"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
+      <c r="A94" s="4"/>
       <c r="B94" s="3"/>
+      <c r="H94" s="3"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
+      <c r="A95" s="4"/>
       <c r="B95" s="3"/>
+      <c r="H95" s="3"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" t="s">
-        <v>105</v>
-      </c>
-      <c r="B96" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E96" t="s">
-        <v>105</v>
-      </c>
-      <c r="F96" s="26" t="s">
-        <v>106</v>
-      </c>
+      <c r="A96" s="4"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="3"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
+      <c r="A97" s="4"/>
       <c r="B97" s="3"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="3"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
+      <c r="A98" s="4"/>
       <c r="B98" s="3"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="3"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
+      <c r="A99" s="4"/>
       <c r="B99" s="3"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="3"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
+      <c r="A100" s="4"/>
       <c r="B100" s="3"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="3"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
+      <c r="A101" s="4"/>
       <c r="B101" s="3"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="3"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
+      <c r="A102" s="4"/>
       <c r="B102" s="3"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="3"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
+      <c r="A103" s="4"/>
       <c r="B103" s="3"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="3"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
-      <c r="A104" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E104" t="s">
-        <v>107</v>
-      </c>
-      <c r="F104" s="27" t="s">
-        <v>96</v>
-      </c>
+      <c r="A104" s="4"/>
+      <c r="B104" s="3"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="3"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
+      <c r="A105" s="4"/>
       <c r="B105" s="3"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="3"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
+      <c r="A106" s="4"/>
       <c r="B106" s="3"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="3"/>
     </row>
     <row r="107" ht="14.25" customHeight="1">
+      <c r="A107" s="4"/>
       <c r="B107" s="3"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="3"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
+      <c r="A108" s="4"/>
       <c r="B108" s="3"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="3"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
+      <c r="A109" s="4"/>
       <c r="B109" s="3"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="3"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
+      <c r="A110" s="4"/>
       <c r="B110" s="3"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="3"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
+      <c r="A111" s="4"/>
       <c r="B111" s="3"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="3"/>
     </row>
     <row r="112" ht="14.25" customHeight="1">
+      <c r="A112" s="4"/>
       <c r="B112" s="3"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="3"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
+      <c r="A113" s="4"/>
       <c r="B113" s="3"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="3"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
+      <c r="A114" s="4"/>
       <c r="B114" s="3"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="3"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
+      <c r="A115" s="4"/>
       <c r="B115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="3"/>
+      <c r="H115" s="3"/>
     </row>
     <row r="116" ht="14.25" customHeight="1">
+      <c r="A116" s="4"/>
       <c r="B116" s="3"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="3"/>
+      <c r="H116" s="3"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
+      <c r="A117" s="4"/>
       <c r="B117" s="3"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="3"/>
+      <c r="H117" s="3"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
+      <c r="A118" s="4"/>
       <c r="B118" s="3"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="3"/>
+      <c r="H118" s="3"/>
     </row>
     <row r="119" ht="14.25" customHeight="1">
+      <c r="A119" s="4"/>
       <c r="B119" s="3"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="3"/>
     </row>
     <row r="120" ht="14.25" customHeight="1">
+      <c r="A120" s="4"/>
       <c r="B120" s="3"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="3"/>
     </row>
     <row r="121" ht="14.25" customHeight="1">
+      <c r="A121" s="4"/>
       <c r="B121" s="3"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="3"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
+      <c r="A122" s="4"/>
       <c r="B122" s="3"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="3"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
+      <c r="A123" s="4"/>
       <c r="B123" s="3"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="3"/>
     </row>
     <row r="124" ht="14.25" customHeight="1">
+      <c r="A124" s="4"/>
       <c r="B124" s="3"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="3"/>
     </row>
     <row r="125" ht="14.25" customHeight="1">
+      <c r="A125" s="4"/>
       <c r="B125" s="3"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="3"/>
     </row>
     <row r="126" ht="14.25" customHeight="1">
+      <c r="A126" s="4"/>
       <c r="B126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="3"/>
     </row>
     <row r="127" ht="14.25" customHeight="1">
       <c r="B127" s="3"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="3"/>
     </row>
     <row r="128" ht="14.25" customHeight="1">
       <c r="B128" s="3"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="3"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
+      <c r="A129" s="4"/>
       <c r="B129" s="3"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="3"/>
     </row>
     <row r="130" ht="14.25" customHeight="1">
+      <c r="A130" s="4"/>
       <c r="B130" s="3"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="3"/>
     </row>
     <row r="131" ht="14.25" customHeight="1">
+      <c r="A131" s="4"/>
       <c r="B131" s="3"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="3"/>
     </row>
     <row r="132" ht="14.25" customHeight="1">
+      <c r="A132" s="4"/>
       <c r="B132" s="3"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="3"/>
     </row>
     <row r="133" ht="14.25" customHeight="1">
       <c r="B133" s="3"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="3"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
       <c r="B134" s="3"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="3"/>
     </row>
     <row r="135" ht="14.25" customHeight="1">
       <c r="B135" s="3"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="3"/>
     </row>
     <row r="136" ht="14.25" customHeight="1">
       <c r="B136" s="3"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="3"/>
     </row>
     <row r="137" ht="14.25" customHeight="1">
       <c r="B137" s="3"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="3"/>
     </row>
     <row r="138" ht="14.25" customHeight="1">
+      <c r="A138" s="4"/>
       <c r="B138" s="3"/>
     </row>
     <row r="139" ht="14.25" customHeight="1">
+      <c r="A139" s="4"/>
       <c r="B139" s="3"/>
     </row>
     <row r="140" ht="14.25" customHeight="1">
+      <c r="A140" s="4"/>
       <c r="B140" s="3"/>
     </row>
     <row r="141" ht="14.25" customHeight="1">
+      <c r="A141" s="4"/>
       <c r="B141" s="3"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="3"/>
     </row>
     <row r="142" ht="14.25" customHeight="1">
+      <c r="A142" s="4"/>
       <c r="B142" s="3"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="3"/>
     </row>
     <row r="143" ht="14.25" customHeight="1">
+      <c r="A143" s="4"/>
       <c r="B143" s="3"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="3"/>
     </row>
     <row r="144" ht="14.25" customHeight="1">
+      <c r="A144" s="4"/>
       <c r="B144" s="3"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="3"/>
     </row>
     <row r="145" ht="14.25" customHeight="1">
+      <c r="A145" s="4"/>
       <c r="B145" s="3"/>
     </row>
     <row r="146" ht="14.25" customHeight="1">
+      <c r="A146" s="4"/>
       <c r="B146" s="3"/>
     </row>
     <row r="147" ht="14.25" customHeight="1">
+      <c r="A147" s="4"/>
       <c r="B147" s="3"/>
     </row>
     <row r="148" ht="14.25" customHeight="1">
+      <c r="A148" s="4"/>
       <c r="B148" s="3"/>
     </row>
     <row r="149" ht="14.25" customHeight="1">
+      <c r="A149" s="4"/>
       <c r="B149" s="3"/>
     </row>
     <row r="150" ht="14.25" customHeight="1">
       <c r="B150" s="3"/>
     </row>
     <row r="151" ht="14.25" customHeight="1">
+      <c r="A151" s="4"/>
       <c r="B151" s="3"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="3"/>
     </row>
     <row r="152" ht="14.25" customHeight="1">
+      <c r="A152" s="4"/>
       <c r="B152" s="3"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="3"/>
     </row>
     <row r="153" ht="14.25" customHeight="1">
+      <c r="A153" s="4"/>
       <c r="B153" s="3"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="3"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
+      <c r="A154" s="4"/>
       <c r="B154" s="3"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="3"/>
     </row>
     <row r="155" ht="14.25" customHeight="1">
+      <c r="A155" s="4"/>
       <c r="B155" s="3"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="3"/>
     </row>
     <row r="156" ht="14.25" customHeight="1">
+      <c r="A156" s="4"/>
       <c r="B156" s="3"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="3"/>
     </row>
     <row r="157" ht="14.25" customHeight="1">
+      <c r="A157" s="4"/>
       <c r="B157" s="3"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="3"/>
     </row>
     <row r="158" ht="14.25" customHeight="1">
+      <c r="A158" s="4"/>
       <c r="B158" s="3"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="3"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
+      <c r="A159" s="4"/>
       <c r="B159" s="3"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="3"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
+      <c r="A160" s="4"/>
       <c r="B160" s="3"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="3"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
+      <c r="A161" s="4"/>
       <c r="B161" s="3"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
+      <c r="A162" s="4"/>
       <c r="B162" s="3"/>
     </row>
     <row r="163" ht="14.25" customHeight="1">
@@ -3585,18 +4245,25 @@
     </row>
     <row r="165" ht="14.25" customHeight="1">
       <c r="B165" s="3"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="3"/>
     </row>
     <row r="166" ht="14.25" customHeight="1">
       <c r="B166" s="3"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="3"/>
     </row>
     <row r="167" ht="14.25" customHeight="1">
       <c r="B167" s="3"/>
+      <c r="D167" s="3"/>
     </row>
     <row r="168" ht="14.25" customHeight="1">
       <c r="B168" s="3"/>
+      <c r="D168" s="3"/>
     </row>
     <row r="169" ht="14.25" customHeight="1">
       <c r="B169" s="3"/>
+      <c r="D169" s="3"/>
     </row>
     <row r="170" ht="14.25" customHeight="1">
       <c r="B170" s="3"/>
@@ -3605,25 +4272,44 @@
       <c r="B171" s="3"/>
     </row>
     <row r="172" ht="14.25" customHeight="1">
+      <c r="A172" s="4"/>
       <c r="B172" s="3"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="3"/>
     </row>
     <row r="173" ht="14.25" customHeight="1">
+      <c r="A173" s="4"/>
       <c r="B173" s="3"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="3"/>
     </row>
     <row r="174" ht="14.25" customHeight="1">
+      <c r="A174" s="4"/>
       <c r="B174" s="3"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="3"/>
     </row>
     <row r="175" ht="14.25" customHeight="1">
+      <c r="A175" s="4"/>
       <c r="B175" s="3"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="3"/>
     </row>
     <row r="176" ht="14.25" customHeight="1">
+      <c r="A176" s="4"/>
       <c r="B176" s="3"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="3"/>
     </row>
     <row r="177" ht="14.25" customHeight="1">
+      <c r="A177" s="4"/>
       <c r="B177" s="3"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="3"/>
     </row>
     <row r="178" ht="14.25" customHeight="1">
       <c r="B178" s="3"/>
+      <c r="D178" s="3"/>
     </row>
     <row r="179" ht="14.25" customHeight="1">
       <c r="B179" s="3"/>
@@ -3650,20 +4336,84 @@
     <row r="187" ht="14.25" customHeight="1">
       <c r="B187" s="3"/>
     </row>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1">
+      <c r="A188" s="4"/>
+      <c r="B188" s="3"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="3"/>
+    </row>
+    <row r="189" ht="14.25" customHeight="1">
+      <c r="A189" s="4"/>
+      <c r="B189" s="3"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="3"/>
+    </row>
+    <row r="190" ht="14.25" customHeight="1">
+      <c r="A190" s="4"/>
+      <c r="B190" s="3"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="3"/>
+    </row>
+    <row r="191" ht="14.25" customHeight="1">
+      <c r="A191" s="4"/>
+      <c r="B191" s="3"/>
+      <c r="E191" s="4"/>
+      <c r="F191" s="3"/>
+    </row>
+    <row r="192" ht="14.25" customHeight="1">
+      <c r="A192" s="4"/>
+      <c r="B192" s="3"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="3"/>
+    </row>
+    <row r="193" ht="14.25" customHeight="1">
+      <c r="A193" s="4"/>
+      <c r="B193" s="3"/>
+      <c r="E193" s="4"/>
+      <c r="F193" s="3"/>
+    </row>
+    <row r="194" ht="14.25" customHeight="1">
+      <c r="A194" s="4"/>
+      <c r="B194" s="3"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="3"/>
+    </row>
+    <row r="195" ht="14.25" customHeight="1">
+      <c r="A195" s="4"/>
+      <c r="B195" s="3"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="3"/>
+    </row>
+    <row r="196" ht="14.25" customHeight="1">
+      <c r="A196" s="4"/>
+      <c r="B196" s="3"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="3"/>
+    </row>
+    <row r="197" ht="14.25" customHeight="1">
+      <c r="A197" s="4"/>
+      <c r="B197" s="3"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="3"/>
+    </row>
+    <row r="198" ht="14.25" customHeight="1">
+      <c r="A198" s="4"/>
+      <c r="B198" s="3"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="3"/>
+    </row>
+    <row r="199" ht="14.25" customHeight="1">
+      <c r="A199" s="4"/>
+      <c r="B199" s="3"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="3"/>
+    </row>
+    <row r="200" ht="14.25" customHeight="1">
+      <c r="D200" s="3"/>
+    </row>
+    <row r="201" ht="14.25" customHeight="1">
+      <c r="D201" s="3"/>
+    </row>
     <row r="202" ht="14.25" customHeight="1"/>
     <row r="203" ht="14.25" customHeight="1"/>
     <row r="204" ht="14.25" customHeight="1"/>
@@ -3697,145 +4447,145 @@
     <row r="232" ht="14.25" customHeight="1"/>
     <row r="233" ht="14.25" customHeight="1"/>
     <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
     <row r="374" ht="15.75" customHeight="1"/>
     <row r="375" ht="15.75" customHeight="1"/>
     <row r="376" ht="15.75" customHeight="1"/>
@@ -4481,518 +5231,1232 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="109.57" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="63.57" collapsed="true"/>
-    <col min="3" max="6" customWidth="true" width="8.71" collapsed="true"/>
+    <col customWidth="1" min="1" max="1" width="13.14"/>
+    <col customWidth="1" min="2" max="2" width="23.71"/>
+    <col customWidth="1" min="3" max="3" width="45.14"/>
+    <col customWidth="1" min="4" max="4" width="14.57"/>
+    <col customWidth="1" min="5" max="5" width="60.0"/>
+    <col customWidth="1" min="6" max="6" width="25.14"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" s="4"/>
       <c r="B1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" s="4"/>
       <c r="B2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="4"/>
       <c r="B3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="4"/>
       <c r="B4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="4"/>
       <c r="B5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="4"/>
       <c r="B6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="4"/>
       <c r="B7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="4"/>
       <c r="B8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="4"/>
       <c r="B9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="4"/>
       <c r="B10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="4"/>
       <c r="B11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="4"/>
       <c r="B12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="3"/>
     </row>
     <row r="13" ht="33.0" customHeight="1">
+      <c r="A13" s="4"/>
       <c r="B13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="4"/>
       <c r="B14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="4"/>
       <c r="B15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="3"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="4"/>
       <c r="B16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="4"/>
       <c r="B17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="4"/>
       <c r="B18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="4"/>
       <c r="B19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="4"/>
       <c r="B20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="4"/>
       <c r="B21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="3"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="4"/>
       <c r="B22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="3"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="4"/>
       <c r="B23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="3"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="4"/>
       <c r="B24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="3"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="4"/>
       <c r="B25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="3"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="4"/>
       <c r="B26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="3"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="4"/>
       <c r="B27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="4"/>
       <c r="B28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="3"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
+      <c r="A29" s="4"/>
       <c r="B29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="3"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
+      <c r="A30" s="4"/>
       <c r="B30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="3"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
+      <c r="A31" s="4"/>
       <c r="B31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="3"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
+      <c r="A32" s="4"/>
       <c r="B32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="3"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
+      <c r="A33" s="4"/>
       <c r="B33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="3"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
+      <c r="A34" s="4"/>
       <c r="B34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="3"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="4"/>
       <c r="B35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="3"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="4"/>
       <c r="B36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="3"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
+      <c r="A37" s="4"/>
       <c r="B37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="3"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" s="4"/>
       <c r="B38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="3"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="4"/>
       <c r="B39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="3"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
+      <c r="A40" s="4"/>
       <c r="B40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="3"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
+      <c r="A41" s="4"/>
       <c r="B41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="3"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
+      <c r="A42" s="4"/>
       <c r="B42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="3"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
+      <c r="A43" s="4"/>
       <c r="B43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="3"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
+      <c r="A44" s="4"/>
       <c r="B44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="3"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" s="4"/>
       <c r="B45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="3"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
+      <c r="A46" s="4"/>
       <c r="B46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="3"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
+      <c r="A47" s="4"/>
       <c r="B47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="3"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
+      <c r="A48" s="4"/>
       <c r="B48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="3"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
+      <c r="A49" s="4"/>
       <c r="B49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="3"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
+      <c r="A50" s="4"/>
       <c r="B50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="3"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
+      <c r="A51" s="4"/>
       <c r="B51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="3"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
+      <c r="A52" s="4"/>
       <c r="B52" s="3"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="3"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
+      <c r="A53" s="4"/>
       <c r="B53" s="3"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="3"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
+      <c r="A54" s="4"/>
       <c r="B54" s="3"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="3"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
+      <c r="A55" s="4"/>
       <c r="B55" s="3"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="3"/>
+      <c r="H55" s="3"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
+      <c r="A56" s="4"/>
       <c r="B56" s="3"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="3"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
+      <c r="A57" s="4"/>
       <c r="B57" s="3"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="3"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
+      <c r="A58" s="4"/>
       <c r="B58" s="3"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="3"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
+      <c r="A59" s="4"/>
       <c r="B59" s="3"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="3"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
+      <c r="A60" s="4"/>
       <c r="B60" s="3"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="3"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
+      <c r="A61" s="4"/>
       <c r="B61" s="3"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="3"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
+      <c r="A62" s="4"/>
       <c r="B62" s="3"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="3"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
+      <c r="A63" s="4"/>
       <c r="B63" s="3"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="3"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
+      <c r="A64" s="4"/>
       <c r="B64" s="3"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="3"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
+      <c r="A65" s="4"/>
       <c r="B65" s="3"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="3"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
+      <c r="A66" s="4"/>
       <c r="B66" s="3"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="3"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
+      <c r="A67" s="4"/>
       <c r="B67" s="3"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="3"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
+      <c r="A68" s="4"/>
       <c r="B68" s="3"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="3"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
+      <c r="A69" s="4"/>
       <c r="B69" s="3"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="3"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
+      <c r="A70" s="4"/>
       <c r="B70" s="3"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="3"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
+      <c r="A71" s="4"/>
       <c r="B71" s="3"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="3"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
+      <c r="A72" s="4"/>
       <c r="B72" s="3"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="3"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
+      <c r="A73" s="4"/>
       <c r="B73" s="3"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="3"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
+      <c r="A74" s="4"/>
       <c r="B74" s="3"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="3"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
+      <c r="A75" s="4"/>
       <c r="B75" s="3"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="3"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
+      <c r="A76" s="4"/>
       <c r="B76" s="3"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="3"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
+      <c r="A77" s="4"/>
       <c r="B77" s="3"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="3"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
+      <c r="A78" s="4"/>
       <c r="B78" s="3"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="3"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
+      <c r="A79" s="4"/>
       <c r="B79" s="3"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="3"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
+      <c r="A80" s="4"/>
       <c r="B80" s="3"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="3"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
+      <c r="A81" s="4"/>
       <c r="B81" s="3"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="3"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
+      <c r="A82" s="4"/>
       <c r="B82" s="3"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="3"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
+      <c r="A83" s="4"/>
       <c r="B83" s="3"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="3"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
+      <c r="A84" s="4"/>
       <c r="B84" s="3"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="3"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
+      <c r="A85" s="4"/>
       <c r="B85" s="3"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="3"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
+      <c r="A86" s="4"/>
       <c r="B86" s="3"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="3"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
+      <c r="A87" s="4"/>
       <c r="B87" s="3"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="3"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
+      <c r="A88" s="4"/>
       <c r="B88" s="3"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="3"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
+      <c r="A89" s="4"/>
       <c r="B89" s="3"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="3"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
+      <c r="A90" s="4"/>
       <c r="B90" s="3"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="3"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
+      <c r="A91" s="4"/>
       <c r="B91" s="3"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="3"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
+      <c r="A92" s="4"/>
       <c r="B92" s="3"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="3"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
+      <c r="A93" s="4"/>
       <c r="B93" s="3"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="3"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
+      <c r="A94" s="4"/>
       <c r="B94" s="3"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="3"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
+      <c r="A95" s="4"/>
       <c r="B95" s="3"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="3"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
+      <c r="A96" s="4"/>
       <c r="B96" s="3"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="3"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
+      <c r="A97" s="4"/>
       <c r="B97" s="3"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="3"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
+      <c r="A98" s="4"/>
       <c r="B98" s="3"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="3"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
+      <c r="A99" s="4"/>
       <c r="B99" s="3"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="3"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
+      <c r="A100" s="4"/>
       <c r="B100" s="3"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="3"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
+      <c r="A101" s="4"/>
       <c r="B101" s="3"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="3"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
+      <c r="A102" s="4"/>
       <c r="B102" s="3"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="3"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
+      <c r="A103" s="4"/>
       <c r="B103" s="3"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="3"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
+      <c r="A104" s="4"/>
       <c r="B104" s="3"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="3"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
+      <c r="A105" s="4"/>
       <c r="B105" s="3"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="3"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
+      <c r="A106" s="4"/>
       <c r="B106" s="3"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="3"/>
     </row>
     <row r="107" ht="14.25" customHeight="1">
+      <c r="A107" s="4"/>
       <c r="B107" s="3"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="3"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
+      <c r="A108" s="4"/>
       <c r="B108" s="3"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="3"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
+      <c r="A109" s="4"/>
       <c r="B109" s="3"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="3"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
+      <c r="A110" s="4"/>
       <c r="B110" s="3"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="3"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
+      <c r="A111" s="4"/>
       <c r="B111" s="3"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="3"/>
     </row>
     <row r="112" ht="14.25" customHeight="1">
+      <c r="A112" s="4"/>
       <c r="B112" s="3"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="3"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
+      <c r="A113" s="4"/>
       <c r="B113" s="3"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="3"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
+      <c r="A114" s="4"/>
       <c r="B114" s="3"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="3"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
+      <c r="A115" s="4"/>
       <c r="B115" s="3"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="3"/>
     </row>
     <row r="116" ht="14.25" customHeight="1">
+      <c r="A116" s="4"/>
       <c r="B116" s="3"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
+      <c r="A117" s="4"/>
       <c r="B117" s="3"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
+      <c r="A118" s="4"/>
       <c r="B118" s="3"/>
     </row>
     <row r="119" ht="14.25" customHeight="1">
+      <c r="A119" s="4"/>
       <c r="B119" s="3"/>
     </row>
     <row r="120" ht="14.25" customHeight="1">
+      <c r="A120" s="4"/>
       <c r="B120" s="3"/>
     </row>
     <row r="121" ht="14.25" customHeight="1">
+      <c r="A121" s="4"/>
       <c r="B121" s="3"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
+      <c r="A122" s="4"/>
       <c r="B122" s="3"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
+      <c r="A123" s="4"/>
       <c r="B123" s="3"/>
     </row>
     <row r="124" ht="14.25" customHeight="1">
+      <c r="A124" s="4"/>
       <c r="B124" s="3"/>
     </row>
     <row r="125" ht="14.25" customHeight="1">
+      <c r="A125" s="4"/>
       <c r="B125" s="3"/>
     </row>
     <row r="126" ht="14.25" customHeight="1">
+      <c r="A126" s="4"/>
       <c r="B126" s="3"/>
     </row>
     <row r="127" ht="14.25" customHeight="1">
+      <c r="A127" s="4"/>
       <c r="B127" s="3"/>
     </row>
     <row r="128" ht="14.25" customHeight="1">
+      <c r="A128" s="4"/>
       <c r="B128" s="3"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
+      <c r="A129" s="4"/>
       <c r="B129" s="3"/>
     </row>
     <row r="130" ht="14.25" customHeight="1">
+      <c r="A130" s="4"/>
       <c r="B130" s="3"/>
     </row>
     <row r="131" ht="14.25" customHeight="1">
+      <c r="A131" s="4"/>
       <c r="B131" s="3"/>
     </row>
     <row r="132" ht="14.25" customHeight="1">
+      <c r="A132" s="4"/>
       <c r="B132" s="3"/>
     </row>
     <row r="133" ht="14.25" customHeight="1">
+      <c r="A133" s="4"/>
       <c r="B133" s="3"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
+      <c r="A134" s="4"/>
       <c r="B134" s="3"/>
     </row>
     <row r="135" ht="14.25" customHeight="1">
+      <c r="A135" s="4"/>
       <c r="B135" s="3"/>
     </row>
     <row r="136" ht="14.25" customHeight="1">
+      <c r="A136" s="4"/>
       <c r="B136" s="3"/>
     </row>
     <row r="137" ht="14.25" customHeight="1">
+      <c r="A137" s="4"/>
       <c r="B137" s="3"/>
     </row>
     <row r="138" ht="14.25" customHeight="1">
+      <c r="A138" s="4"/>
       <c r="B138" s="3"/>
     </row>
     <row r="139" ht="14.25" customHeight="1">
+      <c r="A139" s="4"/>
       <c r="B139" s="3"/>
     </row>
     <row r="140" ht="14.25" customHeight="1">
+      <c r="A140" s="4"/>
       <c r="B140" s="3"/>
     </row>
     <row r="141" ht="14.25" customHeight="1">
+      <c r="A141" s="4"/>
       <c r="B141" s="3"/>
     </row>
     <row r="142" ht="14.25" customHeight="1">
+      <c r="A142" s="4"/>
       <c r="B142" s="3"/>
     </row>
     <row r="143" ht="14.25" customHeight="1">
+      <c r="A143" s="4"/>
       <c r="B143" s="3"/>
     </row>
     <row r="144" ht="14.25" customHeight="1">
+      <c r="A144" s="4"/>
       <c r="B144" s="3"/>
     </row>
     <row r="145" ht="14.25" customHeight="1">
+      <c r="A145" s="4"/>
       <c r="B145" s="3"/>
     </row>
     <row r="146" ht="14.25" customHeight="1">
+      <c r="A146" s="4"/>
       <c r="B146" s="3"/>
     </row>
     <row r="147" ht="14.25" customHeight="1">
+      <c r="A147" s="4"/>
       <c r="B147" s="3"/>
     </row>
     <row r="148" ht="14.25" customHeight="1">
+      <c r="A148" s="4"/>
       <c r="B148" s="3"/>
     </row>
     <row r="149" ht="14.25" customHeight="1">
+      <c r="A149" s="4"/>
       <c r="B149" s="3"/>
     </row>
     <row r="150" ht="14.25" customHeight="1">
+      <c r="A150" s="4"/>
       <c r="B150" s="3"/>
     </row>
     <row r="151" ht="14.25" customHeight="1">
+      <c r="A151" s="4"/>
       <c r="B151" s="3"/>
     </row>
     <row r="152" ht="14.25" customHeight="1">
+      <c r="A152" s="4"/>
       <c r="B152" s="3"/>
     </row>
     <row r="153" ht="14.25" customHeight="1">
+      <c r="A153" s="4"/>
       <c r="B153" s="3"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
+      <c r="A154" s="4"/>
       <c r="B154" s="3"/>
     </row>
     <row r="155" ht="14.25" customHeight="1">
+      <c r="A155" s="4"/>
       <c r="B155" s="3"/>
     </row>
     <row r="156" ht="14.25" customHeight="1">
+      <c r="A156" s="4"/>
       <c r="B156" s="3"/>
     </row>
     <row r="157" ht="14.25" customHeight="1">
+      <c r="A157" s="4"/>
       <c r="B157" s="3"/>
     </row>
     <row r="158" ht="14.25" customHeight="1">
+      <c r="A158" s="4"/>
       <c r="B158" s="3"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
+      <c r="A159" s="4"/>
       <c r="B159" s="3"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
+      <c r="A160" s="4"/>
       <c r="B160" s="3"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
+      <c r="A161" s="4"/>
       <c r="B161" s="3"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
+      <c r="A162" s="4"/>
       <c r="B162" s="3"/>
     </row>
     <row r="163" ht="14.25" customHeight="1">
+      <c r="A163" s="4"/>
       <c r="B163" s="3"/>
     </row>
     <row r="164" ht="14.25" customHeight="1">
+      <c r="A164" s="4"/>
       <c r="B164" s="3"/>
     </row>
     <row r="165" ht="14.25" customHeight="1">
+      <c r="A165" s="4"/>
       <c r="B165" s="3"/>
     </row>
     <row r="166" ht="14.25" customHeight="1">
+      <c r="A166" s="4"/>
       <c r="B166" s="3"/>
     </row>
     <row r="167" ht="14.25" customHeight="1">
+      <c r="A167" s="4"/>
       <c r="B167" s="3"/>
     </row>
     <row r="168" ht="14.25" customHeight="1">
+      <c r="A168" s="4"/>
       <c r="B168" s="3"/>
     </row>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1">
+      <c r="A169" s="4"/>
+      <c r="B169" s="3"/>
+    </row>
+    <row r="170" ht="14.25" customHeight="1">
+      <c r="A170" s="4"/>
+      <c r="B170" s="3"/>
+    </row>
+    <row r="171" ht="14.25" customHeight="1">
+      <c r="A171" s="4"/>
+      <c r="B171" s="3"/>
+    </row>
     <row r="172" ht="14.25" customHeight="1"/>
     <row r="173" ht="14.25" customHeight="1"/>
     <row r="174" ht="14.25" customHeight="1"/>
@@ -5840,462 +7304,1228 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="49.29" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="51.71" collapsed="true"/>
-    <col min="3" max="6" customWidth="true" width="8.71" collapsed="true"/>
+    <col customWidth="1" min="1" max="1" width="37.29"/>
+    <col customWidth="1" min="2" max="2" width="29.57"/>
+    <col customWidth="1" min="3" max="3" width="24.57"/>
+    <col customWidth="1" min="4" max="4" width="27.57"/>
+    <col customWidth="1" min="5" max="5" width="25.29"/>
+    <col customWidth="1" min="6" max="6" width="33.57"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" s="4"/>
       <c r="B1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" s="4"/>
       <c r="B2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="4"/>
       <c r="B3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="4"/>
       <c r="B4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="4"/>
       <c r="B5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="4"/>
       <c r="B6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="4"/>
       <c r="B7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="4"/>
       <c r="B8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="4"/>
       <c r="B9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="4"/>
       <c r="B10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="4"/>
       <c r="B11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="4"/>
       <c r="B12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="3"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="4"/>
       <c r="B13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="4"/>
       <c r="B14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="4"/>
       <c r="B15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="3"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="4"/>
       <c r="B16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="4"/>
       <c r="B17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="4"/>
       <c r="B18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="4"/>
       <c r="B19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="4"/>
       <c r="B20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="4"/>
       <c r="B21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="3"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="4"/>
       <c r="B22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="3"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="4"/>
       <c r="B23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="3"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="4"/>
       <c r="B24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="3"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="4"/>
       <c r="B25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="3"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="4"/>
       <c r="B26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="3"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="4"/>
       <c r="B27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="4"/>
       <c r="B28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="3"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
+      <c r="A29" s="4"/>
       <c r="B29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="3"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
+      <c r="A30" s="4"/>
       <c r="B30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="3"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
+      <c r="A31" s="4"/>
       <c r="B31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="3"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
+      <c r="A32" s="4"/>
       <c r="B32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="3"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
+      <c r="A33" s="4"/>
       <c r="B33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="3"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
+      <c r="A34" s="4"/>
       <c r="B34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="3"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="4"/>
       <c r="B35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="3"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="4"/>
       <c r="B36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="3"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
+      <c r="A37" s="4"/>
       <c r="B37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="3"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" s="4"/>
       <c r="B38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="3"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="4"/>
       <c r="B39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="3"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
+      <c r="A40" s="4"/>
       <c r="B40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="3"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
+      <c r="A41" s="4"/>
       <c r="B41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="3"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
+      <c r="A42" s="4"/>
       <c r="B42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="3"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
+      <c r="A43" s="4"/>
       <c r="B43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="3"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
+      <c r="A44" s="4"/>
       <c r="B44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="3"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" s="4"/>
       <c r="B45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="3"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
+      <c r="A46" s="4"/>
       <c r="B46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="3"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
+      <c r="A47" s="4"/>
       <c r="B47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="3"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
+      <c r="A48" s="4"/>
       <c r="B48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="3"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
+      <c r="A49" s="4"/>
       <c r="B49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="3"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
+      <c r="A50" s="4"/>
       <c r="B50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="3"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
+      <c r="A51" s="4"/>
       <c r="B51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="3"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
+      <c r="A52" s="4"/>
       <c r="B52" s="3"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="3"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
+      <c r="A53" s="4"/>
       <c r="B53" s="3"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="3"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
+      <c r="A54" s="4"/>
       <c r="B54" s="3"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="3"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
+      <c r="A55" s="4"/>
       <c r="B55" s="3"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="3"/>
+      <c r="H55" s="3"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
+      <c r="A56" s="4"/>
       <c r="B56" s="3"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="3"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
+      <c r="A57" s="4"/>
       <c r="B57" s="3"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="3"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
+      <c r="A58" s="4"/>
       <c r="B58" s="3"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="3"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
+      <c r="A59" s="4"/>
       <c r="B59" s="3"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="3"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
+      <c r="A60" s="4"/>
       <c r="B60" s="3"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="3"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
+      <c r="A61" s="4"/>
       <c r="B61" s="3"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="3"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
+      <c r="A62" s="4"/>
       <c r="B62" s="3"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="3"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
+      <c r="A63" s="4"/>
       <c r="B63" s="3"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="3"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
+      <c r="A64" s="4"/>
       <c r="B64" s="3"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="3"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
+      <c r="A65" s="4"/>
       <c r="B65" s="3"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="3"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
+      <c r="A66" s="4"/>
       <c r="B66" s="3"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="3"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
+      <c r="A67" s="4"/>
       <c r="B67" s="3"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="3"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
+      <c r="A68" s="4"/>
       <c r="B68" s="3"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="3"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
+      <c r="A69" s="4"/>
       <c r="B69" s="3"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="3"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
+      <c r="A70" s="4"/>
       <c r="B70" s="3"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="3"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
+      <c r="A71" s="4"/>
       <c r="B71" s="3"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="3"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
+      <c r="A72" s="4"/>
       <c r="B72" s="3"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="3"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
+      <c r="A73" s="4"/>
       <c r="B73" s="3"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="3"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
+      <c r="A74" s="4"/>
       <c r="B74" s="3"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="3"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
+      <c r="A75" s="4"/>
       <c r="B75" s="3"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="3"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
+      <c r="A76" s="4"/>
       <c r="B76" s="3"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="3"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
+      <c r="A77" s="4"/>
       <c r="B77" s="3"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="3"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
+      <c r="A78" s="4"/>
       <c r="B78" s="3"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="3"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
+      <c r="A79" s="4"/>
       <c r="B79" s="3"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="3"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
+      <c r="A80" s="4"/>
       <c r="B80" s="3"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="3"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
+      <c r="A81" s="4"/>
       <c r="B81" s="3"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="3"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
+      <c r="A82" s="4"/>
       <c r="B82" s="3"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="3"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
+      <c r="A83" s="4"/>
       <c r="B83" s="3"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="3"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
+      <c r="A84" s="4"/>
       <c r="B84" s="3"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="3"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
+      <c r="A85" s="4"/>
       <c r="B85" s="3"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="3"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
+      <c r="A86" s="4"/>
       <c r="B86" s="3"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="3"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
+      <c r="A87" s="4"/>
       <c r="B87" s="3"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="3"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
+      <c r="A88" s="4"/>
       <c r="B88" s="3"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="3"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
+      <c r="A89" s="4"/>
       <c r="B89" s="3"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="3"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
+      <c r="A90" s="4"/>
       <c r="B90" s="3"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="3"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
+      <c r="A91" s="4"/>
       <c r="B91" s="3"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="3"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
+      <c r="A92" s="4"/>
       <c r="B92" s="3"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="3"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
+      <c r="A93" s="4"/>
       <c r="B93" s="3"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="3"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
+      <c r="A94" s="4"/>
       <c r="B94" s="3"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="3"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
+      <c r="A95" s="4"/>
       <c r="B95" s="3"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="3"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
+      <c r="A96" s="4"/>
       <c r="B96" s="3"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="3"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
+      <c r="A97" s="4"/>
       <c r="B97" s="3"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="3"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
+      <c r="A98" s="4"/>
       <c r="B98" s="3"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="3"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
+      <c r="A99" s="4"/>
       <c r="B99" s="3"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="3"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
+      <c r="A100" s="4"/>
       <c r="B100" s="3"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="3"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
+      <c r="A101" s="4"/>
       <c r="B101" s="3"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="3"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
+      <c r="A102" s="4"/>
       <c r="B102" s="3"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="3"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
+      <c r="A103" s="4"/>
       <c r="B103" s="3"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="3"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
+      <c r="A104" s="4"/>
       <c r="B104" s="3"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="3"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
+      <c r="A105" s="4"/>
       <c r="B105" s="3"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="3"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
+      <c r="A106" s="4"/>
       <c r="B106" s="3"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="3"/>
     </row>
     <row r="107" ht="14.25" customHeight="1">
+      <c r="A107" s="4"/>
       <c r="B107" s="3"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="3"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
+      <c r="A108" s="4"/>
       <c r="B108" s="3"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="3"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
+      <c r="A109" s="4"/>
       <c r="B109" s="3"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="3"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
+      <c r="A110" s="4"/>
       <c r="B110" s="3"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="3"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
+      <c r="A111" s="4"/>
       <c r="B111" s="3"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="3"/>
     </row>
     <row r="112" ht="14.25" customHeight="1">
+      <c r="A112" s="4"/>
       <c r="B112" s="3"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="3"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
+      <c r="A113" s="4"/>
       <c r="B113" s="3"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="3"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
+      <c r="A114" s="4"/>
       <c r="B114" s="3"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
+      <c r="A115" s="4"/>
       <c r="B115" s="3"/>
     </row>
     <row r="116" ht="14.25" customHeight="1">
+      <c r="A116" s="4"/>
       <c r="B116" s="3"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
+      <c r="A117" s="4"/>
       <c r="B117" s="3"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
+      <c r="A118" s="4"/>
       <c r="B118" s="3"/>
     </row>
     <row r="119" ht="14.25" customHeight="1">
+      <c r="A119" s="4"/>
       <c r="B119" s="3"/>
     </row>
     <row r="120" ht="14.25" customHeight="1">
+      <c r="A120" s="4"/>
       <c r="B120" s="3"/>
     </row>
     <row r="121" ht="14.25" customHeight="1">
+      <c r="A121" s="4"/>
       <c r="B121" s="3"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
+      <c r="A122" s="4"/>
       <c r="B122" s="3"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
+      <c r="A123" s="4"/>
       <c r="B123" s="3"/>
     </row>
     <row r="124" ht="14.25" customHeight="1">
+      <c r="A124" s="4"/>
       <c r="B124" s="3"/>
     </row>
     <row r="125" ht="14.25" customHeight="1">
+      <c r="A125" s="4"/>
       <c r="B125" s="3"/>
     </row>
     <row r="126" ht="14.25" customHeight="1">
+      <c r="A126" s="4"/>
       <c r="B126" s="3"/>
     </row>
     <row r="127" ht="14.25" customHeight="1">
+      <c r="A127" s="4"/>
       <c r="B127" s="3"/>
     </row>
     <row r="128" ht="14.25" customHeight="1">
+      <c r="A128" s="4"/>
       <c r="B128" s="3"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
+      <c r="A129" s="4"/>
       <c r="B129" s="3"/>
     </row>
     <row r="130" ht="14.25" customHeight="1">
+      <c r="A130" s="4"/>
       <c r="B130" s="3"/>
     </row>
     <row r="131" ht="14.25" customHeight="1">
+      <c r="A131" s="4"/>
       <c r="B131" s="3"/>
     </row>
     <row r="132" ht="14.25" customHeight="1">
+      <c r="A132" s="4"/>
       <c r="B132" s="3"/>
     </row>
     <row r="133" ht="14.25" customHeight="1">
+      <c r="A133" s="4"/>
       <c r="B133" s="3"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
+      <c r="A134" s="4"/>
       <c r="B134" s="3"/>
     </row>
     <row r="135" ht="14.25" customHeight="1">
+      <c r="A135" s="4"/>
       <c r="B135" s="3"/>
     </row>
     <row r="136" ht="14.25" customHeight="1">
+      <c r="A136" s="4"/>
       <c r="B136" s="3"/>
     </row>
     <row r="137" ht="14.25" customHeight="1">
+      <c r="A137" s="4"/>
       <c r="B137" s="3"/>
     </row>
     <row r="138" ht="14.25" customHeight="1">
+      <c r="A138" s="4"/>
       <c r="B138" s="3"/>
     </row>
     <row r="139" ht="14.25" customHeight="1">
+      <c r="A139" s="4"/>
       <c r="B139" s="3"/>
     </row>
     <row r="140" ht="14.25" customHeight="1">
+      <c r="A140" s="4"/>
       <c r="B140" s="3"/>
     </row>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1">
+      <c r="A141" s="4"/>
+      <c r="B141" s="3"/>
+    </row>
+    <row r="142" ht="14.25" customHeight="1">
+      <c r="A142" s="4"/>
+      <c r="B142" s="3"/>
+    </row>
+    <row r="143" ht="14.25" customHeight="1">
+      <c r="A143" s="4"/>
+      <c r="B143" s="3"/>
+    </row>
+    <row r="144" ht="14.25" customHeight="1">
+      <c r="A144" s="4"/>
+      <c r="B144" s="3"/>
+    </row>
+    <row r="145" ht="14.25" customHeight="1">
+      <c r="A145" s="4"/>
+      <c r="B145" s="3"/>
+    </row>
+    <row r="146" ht="14.25" customHeight="1">
+      <c r="A146" s="4"/>
+      <c r="B146" s="3"/>
+    </row>
+    <row r="147" ht="14.25" customHeight="1">
+      <c r="A147" s="4"/>
+      <c r="B147" s="3"/>
+    </row>
+    <row r="148" ht="14.25" customHeight="1">
+      <c r="A148" s="4"/>
+      <c r="B148" s="3"/>
+    </row>
+    <row r="149" ht="14.25" customHeight="1">
+      <c r="A149" s="4"/>
+      <c r="B149" s="3"/>
+    </row>
+    <row r="150" ht="14.25" customHeight="1">
+      <c r="A150" s="4"/>
+      <c r="B150" s="3"/>
+    </row>
+    <row r="151" ht="14.25" customHeight="1">
+      <c r="A151" s="4"/>
+      <c r="B151" s="3"/>
+    </row>
+    <row r="152" ht="14.25" customHeight="1">
+      <c r="A152" s="4"/>
+      <c r="B152" s="3"/>
+    </row>
+    <row r="153" ht="14.25" customHeight="1">
+      <c r="A153" s="4"/>
+      <c r="B153" s="3"/>
+    </row>
+    <row r="154" ht="14.25" customHeight="1">
+      <c r="A154" s="4"/>
+      <c r="B154" s="3"/>
+    </row>
+    <row r="155" ht="14.25" customHeight="1">
+      <c r="A155" s="4"/>
+      <c r="B155" s="3"/>
+    </row>
+    <row r="156" ht="14.25" customHeight="1">
+      <c r="A156" s="4"/>
+      <c r="B156" s="3"/>
+    </row>
+    <row r="157" ht="14.25" customHeight="1">
+      <c r="A157" s="4"/>
+      <c r="B157" s="3"/>
+    </row>
+    <row r="158" ht="14.25" customHeight="1">
+      <c r="A158" s="4"/>
+      <c r="B158" s="3"/>
+    </row>
+    <row r="159" ht="14.25" customHeight="1">
+      <c r="A159" s="4"/>
+      <c r="B159" s="3"/>
+    </row>
+    <row r="160" ht="14.25" customHeight="1">
+      <c r="A160" s="4"/>
+      <c r="B160" s="3"/>
+    </row>
+    <row r="161" ht="14.25" customHeight="1">
+      <c r="A161" s="4"/>
+      <c r="B161" s="3"/>
+    </row>
+    <row r="162" ht="14.25" customHeight="1">
+      <c r="A162" s="4"/>
+      <c r="B162" s="3"/>
+    </row>
+    <row r="163" ht="14.25" customHeight="1">
+      <c r="A163" s="4"/>
+      <c r="B163" s="3"/>
+    </row>
+    <row r="164" ht="14.25" customHeight="1">
+      <c r="A164" s="4"/>
+      <c r="B164" s="3"/>
+    </row>
+    <row r="165" ht="14.25" customHeight="1">
+      <c r="A165" s="4"/>
+      <c r="B165" s="3"/>
+    </row>
+    <row r="166" ht="14.25" customHeight="1">
+      <c r="A166" s="4"/>
+      <c r="B166" s="3"/>
+    </row>
+    <row r="167" ht="14.25" customHeight="1">
+      <c r="A167" s="4"/>
+      <c r="B167" s="3"/>
+    </row>
+    <row r="168" ht="14.25" customHeight="1">
+      <c r="A168" s="4"/>
+      <c r="B168" s="3"/>
+    </row>
+    <row r="169" ht="14.25" customHeight="1">
+      <c r="A169" s="4"/>
+      <c r="B169" s="3"/>
+    </row>
+    <row r="170" ht="14.25" customHeight="1">
+      <c r="A170" s="4"/>
+      <c r="B170" s="3"/>
+    </row>
+    <row r="171" ht="14.25" customHeight="1">
+      <c r="A171" s="4"/>
+      <c r="B171" s="3"/>
+    </row>
     <row r="172" ht="14.25" customHeight="1"/>
     <row r="173" ht="14.25" customHeight="1"/>
     <row r="174" ht="14.25" customHeight="1"/>
@@ -7143,9 +9373,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.29" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.14" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.71" collapsed="true"/>
+    <col customWidth="1" min="1" max="1" width="27.29"/>
+    <col customWidth="1" min="2" max="2" width="14.14"/>
+    <col customWidth="1" min="3" max="3" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7160,10 +9390,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -7171,7 +9401,7 @@
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -7182,10 +9412,10 @@
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -7194,7 +9424,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId18" ref="A3"/>
+    <hyperlink r:id="rId1" ref="A3"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -7213,11 +9443,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="29.43" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.43" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.71" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="30.57" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="8.71" collapsed="true"/>
+    <col customWidth="1" min="1" max="1" width="29.43"/>
+    <col customWidth="1" min="2" max="2" width="31.43"/>
+    <col customWidth="1" min="3" max="3" width="28.71"/>
+    <col customWidth="1" min="4" max="4" width="30.57"/>
+    <col customWidth="1" min="5" max="5" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -7241,13 +9471,13 @@
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -7255,16 +9485,16 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -7275,13 +9505,13 @@
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -7289,16 +9519,16 @@
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -7306,7 +9536,7 @@
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -7340,10 +9570,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.29" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.14" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="13.57" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="8.71" collapsed="true"/>
+    <col customWidth="1" min="1" max="1" width="27.29"/>
+    <col customWidth="1" min="2" max="2" width="20.14"/>
+    <col customWidth="1" min="3" max="4" width="13.57"/>
+    <col customWidth="1" min="5" max="5" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7364,16 +9594,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -7381,16 +9611,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -7398,16 +9628,16 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -7415,16 +9645,16 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -7450,9 +9680,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.57" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="39.86" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.43" collapsed="true"/>
+    <col customWidth="1" min="1" max="1" width="27.57"/>
+    <col customWidth="1" min="2" max="2" width="39.86"/>
+    <col customWidth="1" min="3" max="3" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7470,7 +9700,7 @@
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -7478,10 +9708,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -7492,7 +9722,7 @@
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -7500,10 +9730,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -7639,9 +9869,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="56.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="57.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.43" collapsed="true"/>
+    <col customWidth="1" min="1" max="1" width="56.0"/>
+    <col customWidth="1" min="2" max="2" width="57.0"/>
+    <col customWidth="1" min="3" max="3" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7659,7 +9889,7 @@
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -7667,10 +9897,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="1" t="s">

--- a/src/test/resources/com/ugapp/excel/testdata.xlsx
+++ b/src/test/resources/com/ugapp/excel/testdata.xlsx
@@ -2,6 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="test_suite" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="validData" sheetId="2" r:id="rId5"/>
@@ -19,13 +22,12 @@
     <sheet state="visible" name="overAllAcademicsTest" sheetId="14" r:id="rId17"/>
     <sheet state="visible" name="CollegeUniversitiesTest" sheetId="15" r:id="rId18"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="104">
   <si>
     <t>TCID</t>
   </si>
@@ -331,12 +333,19 @@
   </si>
   <si>
     <t>Test Degree</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>26031embtest@test.asu.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="0"/>
   <fonts count="10">
     <font>
       <sz val="11.0"/>
@@ -417,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -440,6 +449,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -707,13 +719,14 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.57"/>
-    <col customWidth="1" min="2" max="6" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="24.57"/>
+    <col min="2" max="6" customWidth="true" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2430,17 +2443,18 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="38.29"/>
-    <col customWidth="1" min="3" max="3" width="34.0"/>
-    <col customWidth="1" min="4" max="4" width="22.29"/>
-    <col customWidth="1" min="5" max="5" width="30.0"/>
-    <col customWidth="1" min="6" max="6" width="18.57"/>
-    <col customWidth="1" min="7" max="7" width="30.14"/>
+    <col min="1" max="2" customWidth="true" width="38.29"/>
+    <col min="3" max="3" customWidth="true" width="34.0"/>
+    <col min="4" max="4" customWidth="true" width="22.29"/>
+    <col min="5" max="5" customWidth="true" width="30.0"/>
+    <col min="6" max="6" customWidth="true" width="18.57"/>
+    <col min="7" max="7" customWidth="true" width="30.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2535,16 +2549,17 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="38.29"/>
-    <col customWidth="1" min="3" max="3" width="34.0"/>
-    <col customWidth="1" min="4" max="4" width="22.29"/>
-    <col customWidth="1" min="5" max="5" width="30.0"/>
-    <col customWidth="1" min="6" max="6" width="14.43"/>
+    <col min="1" max="2" customWidth="true" width="38.29"/>
+    <col min="3" max="3" customWidth="true" width="34.0"/>
+    <col min="4" max="4" customWidth="true" width="22.29"/>
+    <col min="5" max="5" customWidth="true" width="30.0"/>
+    <col min="6" max="6" customWidth="true" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2621,16 +2636,17 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.14"/>
-    <col customWidth="1" min="2" max="2" width="29.57"/>
-    <col customWidth="1" min="3" max="3" width="41.43"/>
-    <col customWidth="1" min="4" max="4" width="34.43"/>
-    <col customWidth="1" min="5" max="5" width="14.43"/>
+    <col min="1" max="1" customWidth="true" width="27.14"/>
+    <col min="2" max="2" customWidth="true" width="29.57"/>
+    <col min="3" max="3" customWidth="true" width="41.43"/>
+    <col min="4" max="4" customWidth="true" width="34.43"/>
+    <col min="5" max="5" customWidth="true" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2698,12 +2714,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="14.43"/>
+    <col min="1" max="5" customWidth="true" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2890,12 +2907,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="4" width="14.43"/>
+    <col min="1" max="4" customWidth="true" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2996,16 +3014,17 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.0"/>
-    <col customWidth="1" min="2" max="2" width="27.43"/>
-    <col customWidth="1" min="3" max="3" width="51.0"/>
-    <col customWidth="1" min="4" max="4" width="22.43"/>
-    <col customWidth="1" min="5" max="5" width="14.43"/>
+    <col min="1" max="1" customWidth="true" width="31.0"/>
+    <col min="2" max="2" customWidth="true" width="27.43"/>
+    <col min="3" max="3" customWidth="true" width="51.0"/>
+    <col min="4" max="4" customWidth="true" width="22.43"/>
+    <col min="5" max="5" customWidth="true" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3072,23 +3091,29 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="36.86"/>
-    <col customWidth="1" min="2" max="2" width="41.14"/>
-    <col customWidth="1" min="3" max="3" width="20.43"/>
-    <col customWidth="1" min="4" max="4" width="20.14"/>
-    <col customWidth="1" min="5" max="5" width="31.43"/>
-    <col customWidth="1" min="6" max="6" width="24.43"/>
-    <col customWidth="1" min="7" max="7" width="26.71"/>
-    <col customWidth="1" min="12" max="12" width="40.71"/>
+    <col min="1" max="1" customWidth="true" width="36.86"/>
+    <col min="2" max="2" customWidth="true" width="41.14"/>
+    <col min="3" max="3" customWidth="true" width="20.43"/>
+    <col min="4" max="4" customWidth="true" width="20.14"/>
+    <col min="5" max="5" customWidth="true" width="31.43"/>
+    <col min="6" max="6" customWidth="true" width="24.43"/>
+    <col min="7" max="7" customWidth="true" width="26.71"/>
+    <col min="12" max="12" customWidth="true" width="40.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="B1" s="3"/>
+      <c r="A1" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>103</v>
+      </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
       <c r="F1" s="3"/>
@@ -5226,17 +5251,18 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.14"/>
-    <col customWidth="1" min="2" max="2" width="23.71"/>
-    <col customWidth="1" min="3" max="3" width="45.14"/>
-    <col customWidth="1" min="4" max="4" width="14.57"/>
-    <col customWidth="1" min="5" max="5" width="60.0"/>
-    <col customWidth="1" min="6" max="6" width="25.14"/>
+    <col min="1" max="1" customWidth="true" width="13.14"/>
+    <col min="2" max="2" customWidth="true" width="23.71"/>
+    <col min="3" max="3" customWidth="true" width="45.14"/>
+    <col min="4" max="4" customWidth="true" width="14.57"/>
+    <col min="5" max="5" customWidth="true" width="60.0"/>
+    <col min="6" max="6" customWidth="true" width="25.14"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -7299,17 +7325,18 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="37.29"/>
-    <col customWidth="1" min="2" max="2" width="29.57"/>
-    <col customWidth="1" min="3" max="3" width="24.57"/>
-    <col customWidth="1" min="4" max="4" width="27.57"/>
-    <col customWidth="1" min="5" max="5" width="25.29"/>
-    <col customWidth="1" min="6" max="6" width="33.57"/>
+    <col min="1" max="1" customWidth="true" width="37.29"/>
+    <col min="2" max="2" customWidth="true" width="29.57"/>
+    <col min="3" max="3" customWidth="true" width="24.57"/>
+    <col min="4" max="4" customWidth="true" width="27.57"/>
+    <col min="5" max="5" customWidth="true" width="25.29"/>
+    <col min="6" max="6" customWidth="true" width="33.57"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -9368,14 +9395,15 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.29"/>
-    <col customWidth="1" min="2" max="2" width="14.14"/>
-    <col customWidth="1" min="3" max="3" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="27.29"/>
+    <col min="2" max="2" customWidth="true" width="14.14"/>
+    <col min="3" max="3" customWidth="true" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9438,16 +9466,17 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.43"/>
-    <col customWidth="1" min="2" max="2" width="31.43"/>
-    <col customWidth="1" min="3" max="3" width="28.71"/>
-    <col customWidth="1" min="4" max="4" width="30.57"/>
-    <col customWidth="1" min="5" max="5" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="29.43"/>
+    <col min="2" max="2" customWidth="true" width="31.43"/>
+    <col min="3" max="3" customWidth="true" width="28.71"/>
+    <col min="4" max="4" customWidth="true" width="30.57"/>
+    <col min="5" max="5" customWidth="true" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -9565,15 +9594,16 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.29"/>
-    <col customWidth="1" min="2" max="2" width="20.14"/>
-    <col customWidth="1" min="3" max="4" width="13.57"/>
-    <col customWidth="1" min="5" max="5" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="27.29"/>
+    <col min="2" max="2" customWidth="true" width="20.14"/>
+    <col min="3" max="4" customWidth="true" width="13.57"/>
+    <col min="5" max="5" customWidth="true" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9675,14 +9705,15 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.57"/>
-    <col customWidth="1" min="2" max="2" width="39.86"/>
-    <col customWidth="1" min="3" max="3" width="14.43"/>
+    <col min="1" max="1" customWidth="true" width="27.57"/>
+    <col min="2" max="2" customWidth="true" width="39.86"/>
+    <col min="3" max="3" customWidth="true" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9864,14 +9895,15 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="56.0"/>
-    <col customWidth="1" min="2" max="2" width="57.0"/>
-    <col customWidth="1" min="3" max="3" width="14.43"/>
+    <col min="1" max="1" customWidth="true" width="56.0"/>
+    <col min="2" max="2" customWidth="true" width="57.0"/>
+    <col min="3" max="3" customWidth="true" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/src/test/resources/com/ugapp/excel/testdata.xlsx
+++ b/src/test/resources/com/ugapp/excel/testdata.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="107">
   <si>
     <t>TCID</t>
   </si>
@@ -335,10 +335,19 @@
     <t>Test Degree</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>26031embtest@test.asu.edu</t>
+    <t>Legal name</t>
+  </si>
+  <si>
+    <t>Test FN Automation MN Test LN</t>
+  </si>
+  <si>
+    <t>Preferred first name</t>
+  </si>
+  <si>
+    <t>Date of birth</t>
+  </si>
+  <si>
+    <t>July 19, 1926</t>
   </si>
 </sst>
 </file>
@@ -426,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -449,6 +458,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
@@ -2973,9 +2988,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="s">
-        <v>94</v>
-      </c>
+      <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>96</v>
       </c>
@@ -2987,9 +3000,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
-        <v>94</v>
-      </c>
+      <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
         <v>95</v>
       </c>
@@ -3108,12 +3119,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>103</v>
-      </c>
+      <c r="B1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
       <c r="F1" s="3"/>
@@ -3123,8 +3129,12 @@
       <c r="L1" s="3"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3"/>
+      <c r="A2" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>103</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="F2" s="3"/>
@@ -3133,8 +3143,12 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3"/>
+      <c r="A3" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
       <c r="F3" s="3"/>
@@ -3143,8 +3157,12 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
+      <c r="A4" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="3"/>
@@ -4458,20 +4476,20 @@
     <row r="218" ht="14.25" customHeight="1"/>
     <row r="219" ht="14.25" customHeight="1"/>
     <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
     <row r="235" ht="15.75" customHeight="1"/>
     <row r="236" ht="15.75" customHeight="1"/>
     <row r="237" ht="15.75" customHeight="1"/>
